--- a/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{308C9844-17C3-4315-84BD-F4A65733C034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F27A1E5-C58D-44C7-81BA-A41CF1134CC1}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{308C9844-17C3-4315-84BD-F4A65733C034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A06B254-CFA2-42A8-99A5-7274D4997830}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C53B175D-BF06-4D0B-A7EA-F2E885AD5F26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C53B175D-BF06-4D0B-A7EA-F2E885AD5F26}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>システム名</t>
   </si>
@@ -340,18 +340,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>abc234</t>
+    <t>戻りのボタンを押すと試験選択画面に戻ります。</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>シケンセンタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>試験結果</t>
-    <rPh sb="0" eb="2">
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id   answer_date      score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>??? さんの試験結果</t>
+    <rPh sb="7" eb="9">
       <t>シケン</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="9" eb="11">
       <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc123</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1000,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1048,97 +1074,361 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,114 +1440,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,176 +1452,14 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1464,16 +1484,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>50050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>645795</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>191194</xdr:rowOff>
+      <xdr:rowOff>225831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>356235</xdr:colOff>
+      <xdr:colOff>280035</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>57844</xdr:rowOff>
+      <xdr:rowOff>92481</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1488,7 +1508,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3409777" y="1271849"/>
+          <a:off x="3333577" y="1306486"/>
           <a:ext cx="2322022" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1896,29 +1916,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2FE56D-FECC-44A4-B63F-D1FB1AE4F0A9}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1941,22 +1961,22 @@
       <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1982,24 +2002,24 @@
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="46" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="46" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="55"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="32"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -2012,25 +2032,25 @@
     </row>
     <row r="4" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="13"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="52" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="52" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="53"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
@@ -2118,10 +2138,10 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="53"/>
+      <c r="F10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="26"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2149,125 +2169,125 @@
     <row r="12" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="26" t="s">
+      <c r="H12" s="60"/>
+      <c r="I12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="27"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="154">
+      <c r="F13" s="32"/>
+      <c r="G13" s="55">
         <v>44671.56527777778</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="151">
+      <c r="H13" s="56"/>
+      <c r="I13" s="58">
         <v>60</v>
       </c>
-      <c r="J13" s="152"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="29" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="154">
+      <c r="F14" s="39"/>
+      <c r="G14" s="55">
         <v>44672.663888888892</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="151">
+      <c r="H14" s="56"/>
+      <c r="I14" s="58">
         <v>70</v>
       </c>
-      <c r="J14" s="152"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="154">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="55">
         <v>44673.558333333334</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="151">
+      <c r="H15" s="56"/>
+      <c r="I15" s="58">
         <v>70</v>
       </c>
-      <c r="J15" s="152"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="31" t="s">
-        <v>57</v>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="F16" s="32"/>
-      <c r="G16" s="155">
+      <c r="G16" s="57">
         <v>44676.523611111108</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="151">
+      <c r="H16" s="29"/>
+      <c r="I16" s="58">
         <v>80</v>
       </c>
-      <c r="J16" s="152"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="8"/>
@@ -2546,32 +2566,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
@@ -2588,6 +2582,32 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2598,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180AE42A-38F4-4CA9-A4F5-AF5669B61859}">
-  <dimension ref="A1:AMK27"/>
+  <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10:AG10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14:AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2614,104 +2634,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14"/>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="62" t="s">
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="63" t="s">
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63"/>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="63"/>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63"/>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63"/>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63"/>
-      <c r="BL1" s="64" t="s">
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="123"/>
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="123"/>
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="123"/>
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="123"/>
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="123"/>
+      <c r="AV1" s="123"/>
+      <c r="AW1" s="123"/>
+      <c r="AX1" s="123"/>
+      <c r="AY1" s="123"/>
+      <c r="AZ1" s="123"/>
+      <c r="BA1" s="123"/>
+      <c r="BB1" s="123"/>
+      <c r="BC1" s="123"/>
+      <c r="BD1" s="123"/>
+      <c r="BE1" s="123"/>
+      <c r="BF1" s="123"/>
+      <c r="BG1" s="123"/>
+      <c r="BH1" s="123"/>
+      <c r="BI1" s="123"/>
+      <c r="BJ1" s="123"/>
+      <c r="BK1" s="123"/>
+      <c r="BL1" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="65" t="s">
+      <c r="BM1" s="124"/>
+      <c r="BN1" s="124"/>
+      <c r="BO1" s="124"/>
+      <c r="BP1" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="65"/>
-      <c r="BR1" s="65"/>
-      <c r="BS1" s="65"/>
-      <c r="BT1" s="65"/>
-      <c r="BU1" s="65"/>
-      <c r="BV1" s="65"/>
-      <c r="BW1" s="65"/>
-      <c r="BX1" s="71" t="s">
+      <c r="BQ1" s="125"/>
+      <c r="BR1" s="125"/>
+      <c r="BS1" s="125"/>
+      <c r="BT1" s="125"/>
+      <c r="BU1" s="125"/>
+      <c r="BV1" s="125"/>
+      <c r="BW1" s="125"/>
+      <c r="BX1" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="BY1" s="71"/>
-      <c r="BZ1" s="71"/>
-      <c r="CA1" s="71"/>
-      <c r="CB1" s="72"/>
-      <c r="CC1" s="72"/>
-      <c r="CD1" s="72"/>
-      <c r="CE1" s="72"/>
-      <c r="CF1" s="72"/>
-      <c r="CG1" s="72"/>
-      <c r="CH1" s="72"/>
-      <c r="CI1" s="72"/>
+      <c r="BY1" s="131"/>
+      <c r="BZ1" s="131"/>
+      <c r="CA1" s="131"/>
+      <c r="CB1" s="132"/>
+      <c r="CC1" s="132"/>
+      <c r="CD1" s="132"/>
+      <c r="CE1" s="132"/>
+      <c r="CF1" s="132"/>
+      <c r="CG1" s="132"/>
+      <c r="CH1" s="132"/>
+      <c r="CI1" s="132"/>
       <c r="CJ1" s="14"/>
       <c r="CK1" s="14"/>
       <c r="CL1" s="14"/>
@@ -3652,104 +3672,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74" t="s">
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="75" t="s">
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="75"/>
-      <c r="AY2" s="75"/>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
-      <c r="BG2" s="75"/>
-      <c r="BH2" s="75"/>
-      <c r="BI2" s="75"/>
-      <c r="BJ2" s="75"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="76" t="s">
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="135"/>
+      <c r="AZ2" s="135"/>
+      <c r="BA2" s="135"/>
+      <c r="BB2" s="135"/>
+      <c r="BC2" s="135"/>
+      <c r="BD2" s="135"/>
+      <c r="BE2" s="135"/>
+      <c r="BF2" s="135"/>
+      <c r="BG2" s="135"/>
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="135"/>
+      <c r="BK2" s="135"/>
+      <c r="BL2" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="BM2" s="76"/>
-      <c r="BN2" s="76"/>
-      <c r="BO2" s="76"/>
-      <c r="BP2" s="77">
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="137">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="77"/>
-      <c r="BR2" s="77"/>
-      <c r="BS2" s="77"/>
-      <c r="BT2" s="77"/>
-      <c r="BU2" s="77"/>
-      <c r="BV2" s="77"/>
-      <c r="BW2" s="77"/>
-      <c r="BX2" s="78" t="s">
+      <c r="BQ2" s="137"/>
+      <c r="BR2" s="137"/>
+      <c r="BS2" s="137"/>
+      <c r="BT2" s="137"/>
+      <c r="BU2" s="137"/>
+      <c r="BV2" s="137"/>
+      <c r="BW2" s="137"/>
+      <c r="BX2" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="78"/>
-      <c r="BZ2" s="78"/>
-      <c r="CA2" s="78"/>
-      <c r="CB2" s="79"/>
-      <c r="CC2" s="79"/>
-      <c r="CD2" s="79"/>
-      <c r="CE2" s="79"/>
-      <c r="CF2" s="79"/>
-      <c r="CG2" s="79"/>
-      <c r="CH2" s="79"/>
-      <c r="CI2" s="79"/>
+      <c r="BY2" s="138"/>
+      <c r="BZ2" s="138"/>
+      <c r="CA2" s="138"/>
+      <c r="CB2" s="139"/>
+      <c r="CC2" s="139"/>
+      <c r="CD2" s="139"/>
+      <c r="CE2" s="139"/>
+      <c r="CF2" s="139"/>
+      <c r="CG2" s="139"/>
+      <c r="CH2" s="139"/>
+      <c r="CI2" s="139"/>
       <c r="CJ2" s="14"/>
       <c r="CK2" s="14"/>
       <c r="CL2" s="14"/>
@@ -4777,2422 +4797,2184 @@
       <c r="CI3" s="16"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82" t="s">
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82" t="s">
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="142"/>
+      <c r="U4" s="142"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="142"/>
+      <c r="Y4" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="82"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="82"/>
-      <c r="AG4" s="82"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="82"/>
-      <c r="AL4" s="82"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="82"/>
-      <c r="AQ4" s="82"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="83" t="s">
+      <c r="Z4" s="142"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
+      <c r="AD4" s="142"/>
+      <c r="AE4" s="142"/>
+      <c r="AF4" s="142"/>
+      <c r="AG4" s="142"/>
+      <c r="AH4" s="142"/>
+      <c r="AI4" s="142"/>
+      <c r="AJ4" s="142"/>
+      <c r="AK4" s="142"/>
+      <c r="AL4" s="142"/>
+      <c r="AM4" s="142"/>
+      <c r="AN4" s="142"/>
+      <c r="AO4" s="142"/>
+      <c r="AP4" s="142"/>
+      <c r="AQ4" s="142"/>
+      <c r="AR4" s="142"/>
+      <c r="AS4" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AT4" s="83"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="83"/>
-      <c r="AW4" s="83"/>
-      <c r="AX4" s="83"/>
-      <c r="AY4" s="83"/>
-      <c r="AZ4" s="83"/>
-      <c r="BA4" s="83"/>
-      <c r="BB4" s="83"/>
-      <c r="BC4" s="83"/>
-      <c r="BD4" s="83"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="83"/>
-      <c r="BG4" s="83"/>
-      <c r="BH4" s="83"/>
-      <c r="BI4" s="83"/>
-      <c r="BJ4" s="83"/>
-      <c r="BK4" s="83"/>
-      <c r="BL4" s="83"/>
-      <c r="BM4" s="83"/>
-      <c r="BN4" s="83"/>
-      <c r="BO4" s="83"/>
-      <c r="BP4" s="83"/>
-      <c r="BQ4" s="83"/>
-      <c r="BR4" s="83"/>
-      <c r="BS4" s="83"/>
-      <c r="BT4" s="83"/>
-      <c r="BU4" s="83"/>
-      <c r="BV4" s="83"/>
-      <c r="BW4" s="83"/>
-      <c r="BX4" s="83"/>
-      <c r="BY4" s="83"/>
-      <c r="BZ4" s="83"/>
-      <c r="CA4" s="83"/>
-      <c r="CB4" s="83"/>
-      <c r="CC4" s="83"/>
-      <c r="CD4" s="83"/>
-      <c r="CE4" s="83"/>
-      <c r="CF4" s="83"/>
-      <c r="CG4" s="83"/>
-      <c r="CH4" s="83"/>
-      <c r="CI4" s="83"/>
+      <c r="AT4" s="143"/>
+      <c r="AU4" s="143"/>
+      <c r="AV4" s="143"/>
+      <c r="AW4" s="143"/>
+      <c r="AX4" s="143"/>
+      <c r="AY4" s="143"/>
+      <c r="AZ4" s="143"/>
+      <c r="BA4" s="143"/>
+      <c r="BB4" s="143"/>
+      <c r="BC4" s="143"/>
+      <c r="BD4" s="143"/>
+      <c r="BE4" s="143"/>
+      <c r="BF4" s="143"/>
+      <c r="BG4" s="143"/>
+      <c r="BH4" s="143"/>
+      <c r="BI4" s="143"/>
+      <c r="BJ4" s="143"/>
+      <c r="BK4" s="143"/>
+      <c r="BL4" s="143"/>
+      <c r="BM4" s="143"/>
+      <c r="BN4" s="143"/>
+      <c r="BO4" s="143"/>
+      <c r="BP4" s="143"/>
+      <c r="BQ4" s="143"/>
+      <c r="BR4" s="143"/>
+      <c r="BS4" s="143"/>
+      <c r="BT4" s="143"/>
+      <c r="BU4" s="143"/>
+      <c r="BV4" s="143"/>
+      <c r="BW4" s="143"/>
+      <c r="BX4" s="143"/>
+      <c r="BY4" s="143"/>
+      <c r="BZ4" s="143"/>
+      <c r="CA4" s="143"/>
+      <c r="CB4" s="143"/>
+      <c r="CC4" s="143"/>
+      <c r="CD4" s="143"/>
+      <c r="CE4" s="143"/>
+      <c r="CF4" s="143"/>
+      <c r="CG4" s="143"/>
+      <c r="CH4" s="143"/>
+      <c r="CI4" s="143"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="56">
+      <c r="B5" s="144">
         <v>1</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57" t="s">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57" t="s">
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="58" t="s">
+      <c r="Z5" s="145"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="145"/>
+      <c r="AC5" s="145"/>
+      <c r="AD5" s="145"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="145"/>
+      <c r="AG5" s="145"/>
+      <c r="AH5" s="145"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="145"/>
+      <c r="AK5" s="145"/>
+      <c r="AL5" s="145"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="145"/>
+      <c r="AO5" s="145"/>
+      <c r="AP5" s="145"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
+      <c r="AS5" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="58"/>
-      <c r="AU5" s="58"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="58"/>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58"/>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="58"/>
-      <c r="BB5" s="58"/>
-      <c r="BC5" s="58"/>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58"/>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="58"/>
-      <c r="BH5" s="58"/>
-      <c r="BI5" s="58"/>
-      <c r="BJ5" s="58"/>
-      <c r="BK5" s="58"/>
-      <c r="BL5" s="58"/>
-      <c r="BM5" s="58"/>
-      <c r="BN5" s="58"/>
-      <c r="BO5" s="58"/>
-      <c r="BP5" s="58"/>
-      <c r="BQ5" s="58"/>
-      <c r="BR5" s="58"/>
-      <c r="BS5" s="58"/>
-      <c r="BT5" s="58"/>
-      <c r="BU5" s="58"/>
-      <c r="BV5" s="58"/>
-      <c r="BW5" s="58"/>
-      <c r="BX5" s="58"/>
-      <c r="BY5" s="58"/>
-      <c r="BZ5" s="58"/>
-      <c r="CA5" s="58"/>
-      <c r="CB5" s="58"/>
-      <c r="CC5" s="58"/>
-      <c r="CD5" s="58"/>
-      <c r="CE5" s="58"/>
-      <c r="CF5" s="58"/>
-      <c r="CG5" s="58"/>
-      <c r="CH5" s="58"/>
-      <c r="CI5" s="58"/>
+      <c r="AT5" s="146"/>
+      <c r="AU5" s="146"/>
+      <c r="AV5" s="146"/>
+      <c r="AW5" s="146"/>
+      <c r="AX5" s="146"/>
+      <c r="AY5" s="146"/>
+      <c r="AZ5" s="146"/>
+      <c r="BA5" s="146"/>
+      <c r="BB5" s="146"/>
+      <c r="BC5" s="146"/>
+      <c r="BD5" s="146"/>
+      <c r="BE5" s="146"/>
+      <c r="BF5" s="146"/>
+      <c r="BG5" s="146"/>
+      <c r="BH5" s="146"/>
+      <c r="BI5" s="146"/>
+      <c r="BJ5" s="146"/>
+      <c r="BK5" s="146"/>
+      <c r="BL5" s="146"/>
+      <c r="BM5" s="146"/>
+      <c r="BN5" s="146"/>
+      <c r="BO5" s="146"/>
+      <c r="BP5" s="146"/>
+      <c r="BQ5" s="146"/>
+      <c r="BR5" s="146"/>
+      <c r="BS5" s="146"/>
+      <c r="BT5" s="146"/>
+      <c r="BU5" s="146"/>
+      <c r="BV5" s="146"/>
+      <c r="BW5" s="146"/>
+      <c r="BX5" s="146"/>
+      <c r="BY5" s="146"/>
+      <c r="BZ5" s="146"/>
+      <c r="CA5" s="146"/>
+      <c r="CB5" s="146"/>
+      <c r="CC5" s="146"/>
+      <c r="CD5" s="146"/>
+      <c r="CE5" s="146"/>
+      <c r="CF5" s="146"/>
+      <c r="CG5" s="146"/>
+      <c r="CH5" s="146"/>
+      <c r="CI5" s="146"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
-      <c r="BA6" s="66"/>
-      <c r="BB6" s="66"/>
-      <c r="BC6" s="66"/>
-      <c r="BD6" s="66"/>
-      <c r="BE6" s="66"/>
-      <c r="BF6" s="66"/>
-      <c r="BG6" s="66"/>
-      <c r="BH6" s="66"/>
-      <c r="BI6" s="66"/>
-      <c r="BJ6" s="66"/>
-      <c r="BK6" s="66"/>
-      <c r="BL6" s="66"/>
-      <c r="BM6" s="66"/>
-      <c r="BN6" s="66"/>
-      <c r="BO6" s="66"/>
-      <c r="BP6" s="66"/>
-      <c r="BQ6" s="66"/>
-      <c r="BR6" s="66"/>
-      <c r="BS6" s="66"/>
-      <c r="BT6" s="66"/>
-      <c r="BU6" s="66"/>
-      <c r="BV6" s="66"/>
-      <c r="BW6" s="66"/>
-      <c r="BX6" s="66"/>
-      <c r="BY6" s="66"/>
-      <c r="BZ6" s="66"/>
-      <c r="CA6" s="66"/>
-      <c r="CB6" s="66"/>
-      <c r="CC6" s="66"/>
-      <c r="CD6" s="66"/>
-      <c r="CE6" s="66"/>
-      <c r="CF6" s="66"/>
-      <c r="CG6" s="66"/>
-      <c r="CH6" s="66"/>
-      <c r="CI6" s="66"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126"/>
+      <c r="AJ6" s="126"/>
+      <c r="AK6" s="126"/>
+      <c r="AL6" s="126"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="126"/>
+      <c r="AO6" s="126"/>
+      <c r="AP6" s="126"/>
+      <c r="AQ6" s="126"/>
+      <c r="AR6" s="126"/>
+      <c r="AS6" s="126"/>
+      <c r="AT6" s="126"/>
+      <c r="AU6" s="126"/>
+      <c r="AV6" s="126"/>
+      <c r="AW6" s="126"/>
+      <c r="AX6" s="126"/>
+      <c r="AY6" s="126"/>
+      <c r="AZ6" s="126"/>
+      <c r="BA6" s="126"/>
+      <c r="BB6" s="126"/>
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="126"/>
+      <c r="BE6" s="126"/>
+      <c r="BF6" s="126"/>
+      <c r="BG6" s="126"/>
+      <c r="BH6" s="126"/>
+      <c r="BI6" s="126"/>
+      <c r="BJ6" s="126"/>
+      <c r="BK6" s="126"/>
+      <c r="BL6" s="126"/>
+      <c r="BM6" s="126"/>
+      <c r="BN6" s="126"/>
+      <c r="BO6" s="126"/>
+      <c r="BP6" s="126"/>
+      <c r="BQ6" s="126"/>
+      <c r="BR6" s="126"/>
+      <c r="BS6" s="126"/>
+      <c r="BT6" s="126"/>
+      <c r="BU6" s="126"/>
+      <c r="BV6" s="126"/>
+      <c r="BW6" s="126"/>
+      <c r="BX6" s="126"/>
+      <c r="BY6" s="126"/>
+      <c r="BZ6" s="126"/>
+      <c r="CA6" s="126"/>
+      <c r="CB6" s="126"/>
+      <c r="CC6" s="126"/>
+      <c r="CD6" s="126"/>
+      <c r="CE6" s="126"/>
+      <c r="CF6" s="126"/>
+      <c r="CG6" s="126"/>
+      <c r="CH6" s="126"/>
+      <c r="CI6" s="126"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="68" t="s">
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="129"/>
+      <c r="V7" s="129"/>
+      <c r="W7" s="129"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="68" t="s">
+      <c r="Z7" s="129"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="68" t="s">
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="129"/>
+      <c r="AE7" s="129"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="68" t="s">
+      <c r="AI7" s="129"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="97"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="95" t="s">
+      <c r="AL7" s="129"/>
+      <c r="AM7" s="129"/>
+      <c r="AN7" s="129"/>
+      <c r="AO7" s="129"/>
+      <c r="AP7" s="129"/>
+      <c r="AQ7" s="129"/>
+      <c r="AR7" s="149"/>
+      <c r="AS7" s="149"/>
+      <c r="AT7" s="150"/>
+      <c r="AU7" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="AV7" s="95"/>
-      <c r="AW7" s="95"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="95"/>
-      <c r="AZ7" s="95"/>
-      <c r="BA7" s="95"/>
-      <c r="BB7" s="95"/>
-      <c r="BC7" s="95"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="95"/>
-      <c r="BF7" s="95"/>
-      <c r="BG7" s="95"/>
-      <c r="BH7" s="95"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="95"/>
-      <c r="BK7" s="95"/>
-      <c r="BL7" s="95"/>
-      <c r="BM7" s="95"/>
-      <c r="BN7" s="95"/>
-      <c r="BO7" s="95"/>
-      <c r="BP7" s="95"/>
-      <c r="BQ7" s="96" t="s">
+      <c r="AV7" s="147"/>
+      <c r="AW7" s="147"/>
+      <c r="AX7" s="147"/>
+      <c r="AY7" s="147"/>
+      <c r="AZ7" s="147"/>
+      <c r="BA7" s="147"/>
+      <c r="BB7" s="147"/>
+      <c r="BC7" s="147"/>
+      <c r="BD7" s="147"/>
+      <c r="BE7" s="147"/>
+      <c r="BF7" s="147"/>
+      <c r="BG7" s="147"/>
+      <c r="BH7" s="147"/>
+      <c r="BI7" s="147"/>
+      <c r="BJ7" s="147"/>
+      <c r="BK7" s="147"/>
+      <c r="BL7" s="147"/>
+      <c r="BM7" s="147"/>
+      <c r="BN7" s="147"/>
+      <c r="BO7" s="147"/>
+      <c r="BP7" s="147"/>
+      <c r="BQ7" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="BR7" s="96"/>
-      <c r="BS7" s="96"/>
-      <c r="BT7" s="96"/>
-      <c r="BU7" s="96"/>
-      <c r="BV7" s="96"/>
-      <c r="BW7" s="96"/>
-      <c r="BX7" s="96"/>
-      <c r="BY7" s="96"/>
-      <c r="BZ7" s="96"/>
-      <c r="CA7" s="96"/>
-      <c r="CB7" s="96"/>
-      <c r="CC7" s="96"/>
-      <c r="CD7" s="96"/>
-      <c r="CE7" s="96"/>
-      <c r="CF7" s="96"/>
-      <c r="CG7" s="96"/>
-      <c r="CH7" s="96"/>
-      <c r="CI7" s="96"/>
+      <c r="BR7" s="148"/>
+      <c r="BS7" s="148"/>
+      <c r="BT7" s="148"/>
+      <c r="BU7" s="148"/>
+      <c r="BV7" s="148"/>
+      <c r="BW7" s="148"/>
+      <c r="BX7" s="148"/>
+      <c r="BY7" s="148"/>
+      <c r="BZ7" s="148"/>
+      <c r="CA7" s="148"/>
+      <c r="CB7" s="148"/>
+      <c r="CC7" s="148"/>
+      <c r="CD7" s="148"/>
+      <c r="CE7" s="148"/>
+      <c r="CF7" s="148"/>
+      <c r="CG7" s="148"/>
+      <c r="CH7" s="148"/>
+      <c r="CI7" s="148"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="84">
+      <c r="B8" s="101">
         <f t="shared" ref="B8:B15" si="0">ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="90"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="90"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="88"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="93"/>
-      <c r="AT8" s="94"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="99"/>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="99"/>
-      <c r="AY8" s="99"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="99"/>
-      <c r="BC8" s="99"/>
-      <c r="BD8" s="99"/>
-      <c r="BE8" s="99"/>
-      <c r="BF8" s="99"/>
-      <c r="BG8" s="99"/>
-      <c r="BH8" s="99"/>
-      <c r="BI8" s="99"/>
-      <c r="BJ8" s="99"/>
-      <c r="BK8" s="99"/>
-      <c r="BL8" s="99"/>
-      <c r="BM8" s="99"/>
-      <c r="BN8" s="99"/>
-      <c r="BO8" s="99"/>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="100"/>
-      <c r="BR8" s="100"/>
-      <c r="BS8" s="100"/>
-      <c r="BT8" s="100"/>
-      <c r="BU8" s="100"/>
-      <c r="BV8" s="100"/>
-      <c r="BW8" s="100"/>
-      <c r="BX8" s="100"/>
-      <c r="BY8" s="100"/>
-      <c r="BZ8" s="100"/>
-      <c r="CA8" s="100"/>
-      <c r="CB8" s="100"/>
-      <c r="CC8" s="100"/>
-      <c r="CD8" s="100"/>
-      <c r="CE8" s="100"/>
-      <c r="CF8" s="100"/>
-      <c r="CG8" s="100"/>
-      <c r="CH8" s="100"/>
-      <c r="CI8" s="100"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="115"/>
+      <c r="AF8" s="115"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="117"/>
+      <c r="AI8" s="118"/>
+      <c r="AJ8" s="119"/>
+      <c r="AK8" s="114"/>
+      <c r="AL8" s="115"/>
+      <c r="AM8" s="115"/>
+      <c r="AN8" s="115"/>
+      <c r="AO8" s="115"/>
+      <c r="AP8" s="115"/>
+      <c r="AQ8" s="115"/>
+      <c r="AR8" s="120"/>
+      <c r="AS8" s="120"/>
+      <c r="AT8" s="121"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="112"/>
+      <c r="AY8" s="112"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="112"/>
+      <c r="BC8" s="112"/>
+      <c r="BD8" s="112"/>
+      <c r="BE8" s="112"/>
+      <c r="BF8" s="112"/>
+      <c r="BG8" s="112"/>
+      <c r="BH8" s="112"/>
+      <c r="BI8" s="112"/>
+      <c r="BJ8" s="112"/>
+      <c r="BK8" s="112"/>
+      <c r="BL8" s="112"/>
+      <c r="BM8" s="112"/>
+      <c r="BN8" s="112"/>
+      <c r="BO8" s="112"/>
+      <c r="BP8" s="112"/>
+      <c r="BQ8" s="151"/>
+      <c r="BR8" s="151"/>
+      <c r="BS8" s="151"/>
+      <c r="BT8" s="151"/>
+      <c r="BU8" s="151"/>
+      <c r="BV8" s="151"/>
+      <c r="BW8" s="151"/>
+      <c r="BX8" s="151"/>
+      <c r="BY8" s="151"/>
+      <c r="BZ8" s="151"/>
+      <c r="CA8" s="151"/>
+      <c r="CB8" s="151"/>
+      <c r="CC8" s="151"/>
+      <c r="CD8" s="151"/>
+      <c r="CE8" s="151"/>
+      <c r="CF8" s="151"/>
+      <c r="CG8" s="151"/>
+      <c r="CH8" s="151"/>
+      <c r="CI8" s="151"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="84">
+      <c r="B9" s="101">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="103" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="105"/>
-      <c r="Y9" s="106" t="s">
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="96"/>
+      <c r="W9" s="96"/>
+      <c r="X9" s="97"/>
+      <c r="Y9" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="103"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="106" t="s">
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="96"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="96"/>
+      <c r="AG9" s="97"/>
+      <c r="AH9" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="108"/>
-      <c r="AK9" s="103"/>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="104"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="104"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="104"/>
-      <c r="AR9" s="109"/>
-      <c r="AS9" s="109"/>
-      <c r="AT9" s="110"/>
-      <c r="AU9" s="101" t="s">
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="96"/>
+      <c r="AO9" s="96"/>
+      <c r="AP9" s="96"/>
+      <c r="AQ9" s="96"/>
+      <c r="AR9" s="90"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="AV9" s="101"/>
-      <c r="AW9" s="101"/>
-      <c r="AX9" s="101"/>
-      <c r="AY9" s="101"/>
-      <c r="AZ9" s="101"/>
-      <c r="BA9" s="101"/>
-      <c r="BB9" s="101"/>
-      <c r="BC9" s="101"/>
-      <c r="BD9" s="101"/>
-      <c r="BE9" s="101" t="s">
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="110"/>
+      <c r="BA9" s="110"/>
+      <c r="BB9" s="110"/>
+      <c r="BC9" s="110"/>
+      <c r="BD9" s="110"/>
+      <c r="BE9" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="BF9" s="101"/>
-      <c r="BG9" s="101"/>
-      <c r="BH9" s="101"/>
-      <c r="BI9" s="101"/>
-      <c r="BJ9" s="101"/>
-      <c r="BK9" s="101"/>
-      <c r="BL9" s="101"/>
-      <c r="BM9" s="101"/>
-      <c r="BN9" s="101"/>
-      <c r="BO9" s="101"/>
-      <c r="BP9" s="101"/>
-      <c r="BQ9" s="102"/>
-      <c r="BR9" s="102"/>
-      <c r="BS9" s="102"/>
-      <c r="BT9" s="102"/>
-      <c r="BU9" s="102"/>
-      <c r="BV9" s="102"/>
-      <c r="BW9" s="102"/>
-      <c r="BX9" s="102"/>
-      <c r="BY9" s="102"/>
-      <c r="BZ9" s="102"/>
-      <c r="CA9" s="102"/>
-      <c r="CB9" s="102"/>
-      <c r="CC9" s="102"/>
-      <c r="CD9" s="102"/>
-      <c r="CE9" s="102"/>
-      <c r="CF9" s="102"/>
-      <c r="CG9" s="102"/>
-      <c r="CH9" s="102"/>
-      <c r="CI9" s="102"/>
+      <c r="BF9" s="110"/>
+      <c r="BG9" s="110"/>
+      <c r="BH9" s="110"/>
+      <c r="BI9" s="110"/>
+      <c r="BJ9" s="110"/>
+      <c r="BK9" s="110"/>
+      <c r="BL9" s="110"/>
+      <c r="BM9" s="110"/>
+      <c r="BN9" s="110"/>
+      <c r="BO9" s="110"/>
+      <c r="BP9" s="110"/>
+      <c r="BQ9" s="111"/>
+      <c r="BR9" s="111"/>
+      <c r="BS9" s="111"/>
+      <c r="BT9" s="111"/>
+      <c r="BU9" s="111"/>
+      <c r="BV9" s="111"/>
+      <c r="BW9" s="111"/>
+      <c r="BX9" s="111"/>
+      <c r="BY9" s="111"/>
+      <c r="BZ9" s="111"/>
+      <c r="CA9" s="111"/>
+      <c r="CB9" s="111"/>
+      <c r="CC9" s="111"/>
+      <c r="CD9" s="111"/>
+      <c r="CE9" s="111"/>
+      <c r="CF9" s="111"/>
+      <c r="CG9" s="111"/>
+      <c r="CH9" s="111"/>
+      <c r="CI9" s="111"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="84">
+      <c r="B10" s="101">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61"/>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="61"/>
-      <c r="AK10" s="61"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
-      <c r="AS10" s="61"/>
-      <c r="AT10" s="61"/>
-      <c r="AU10" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV10" s="101"/>
-      <c r="AW10" s="101"/>
-      <c r="AX10" s="101"/>
-      <c r="AY10" s="101"/>
-      <c r="AZ10" s="101"/>
-      <c r="BA10" s="101"/>
-      <c r="BB10" s="101"/>
-      <c r="BC10" s="101"/>
-      <c r="BD10" s="101"/>
-      <c r="BE10" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF10" s="101"/>
-      <c r="BG10" s="101"/>
-      <c r="BH10" s="101"/>
-      <c r="BI10" s="101"/>
-      <c r="BJ10" s="101"/>
-      <c r="BK10" s="101"/>
-      <c r="BL10" s="101"/>
-      <c r="BM10" s="101"/>
-      <c r="BN10" s="101"/>
-      <c r="BO10" s="101"/>
-      <c r="BP10" s="101"/>
-      <c r="BQ10" s="111"/>
-      <c r="BR10" s="111"/>
-      <c r="BS10" s="111"/>
-      <c r="BT10" s="111"/>
-      <c r="BU10" s="111"/>
-      <c r="BV10" s="111"/>
-      <c r="BW10" s="111"/>
-      <c r="BX10" s="111"/>
-      <c r="BY10" s="111"/>
-      <c r="BZ10" s="111"/>
-      <c r="CA10" s="111"/>
-      <c r="CB10" s="111"/>
-      <c r="CC10" s="111"/>
-      <c r="CD10" s="111"/>
-      <c r="CE10" s="111"/>
-      <c r="CF10" s="111"/>
-      <c r="CG10" s="111"/>
-      <c r="CH10" s="111"/>
-      <c r="CI10" s="111"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="117"/>
+      <c r="AI10" s="118"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="115"/>
+      <c r="AM10" s="115"/>
+      <c r="AN10" s="115"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="115"/>
+      <c r="AQ10" s="115"/>
+      <c r="AR10" s="120"/>
+      <c r="AS10" s="120"/>
+      <c r="AT10" s="121"/>
+      <c r="AU10" s="112"/>
+      <c r="AV10" s="112"/>
+      <c r="AW10" s="112"/>
+      <c r="AX10" s="112"/>
+      <c r="AY10" s="112"/>
+      <c r="AZ10" s="112"/>
+      <c r="BA10" s="112"/>
+      <c r="BB10" s="112"/>
+      <c r="BC10" s="112"/>
+      <c r="BD10" s="112"/>
+      <c r="BE10" s="112"/>
+      <c r="BF10" s="112"/>
+      <c r="BG10" s="112"/>
+      <c r="BH10" s="112"/>
+      <c r="BI10" s="112"/>
+      <c r="BJ10" s="112"/>
+      <c r="BK10" s="112"/>
+      <c r="BL10" s="112"/>
+      <c r="BM10" s="112"/>
+      <c r="BN10" s="112"/>
+      <c r="BO10" s="112"/>
+      <c r="BP10" s="112"/>
+      <c r="BQ10" s="113"/>
+      <c r="BR10" s="113"/>
+      <c r="BS10" s="113"/>
+      <c r="BT10" s="113"/>
+      <c r="BU10" s="113"/>
+      <c r="BV10" s="113"/>
+      <c r="BW10" s="113"/>
+      <c r="BX10" s="113"/>
+      <c r="BY10" s="113"/>
+      <c r="BZ10" s="113"/>
+      <c r="CA10" s="113"/>
+      <c r="CB10" s="113"/>
+      <c r="CC10" s="113"/>
+      <c r="CD10" s="113"/>
+      <c r="CE10" s="113"/>
+      <c r="CF10" s="113"/>
+      <c r="CG10" s="113"/>
+      <c r="CH10" s="113"/>
+      <c r="CI10" s="113"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="84">
+      <c r="B11" s="101">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="91"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="91"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="88"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="88"/>
-      <c r="AR11" s="93"/>
-      <c r="AS11" s="93"/>
-      <c r="AT11" s="94"/>
-      <c r="AU11" s="99"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="99"/>
-      <c r="AY11" s="99"/>
-      <c r="AZ11" s="99"/>
-      <c r="BA11" s="99"/>
-      <c r="BB11" s="99"/>
-      <c r="BC11" s="99"/>
-      <c r="BD11" s="99"/>
-      <c r="BE11" s="99"/>
-      <c r="BF11" s="99"/>
-      <c r="BG11" s="99"/>
-      <c r="BH11" s="99"/>
-      <c r="BI11" s="99"/>
-      <c r="BJ11" s="99"/>
-      <c r="BK11" s="99"/>
-      <c r="BL11" s="99"/>
-      <c r="BM11" s="99"/>
-      <c r="BN11" s="99"/>
-      <c r="BO11" s="99"/>
-      <c r="BP11" s="99"/>
-      <c r="BQ11" s="112"/>
-      <c r="BR11" s="112"/>
-      <c r="BS11" s="112"/>
-      <c r="BT11" s="112"/>
-      <c r="BU11" s="112"/>
-      <c r="BV11" s="112"/>
-      <c r="BW11" s="112"/>
-      <c r="BX11" s="112"/>
-      <c r="BY11" s="112"/>
-      <c r="BZ11" s="112"/>
-      <c r="CA11" s="112"/>
-      <c r="CB11" s="112"/>
-      <c r="CC11" s="112"/>
-      <c r="CD11" s="112"/>
-      <c r="CE11" s="112"/>
-      <c r="CF11" s="112"/>
-      <c r="CG11" s="112"/>
-      <c r="CH11" s="112"/>
-      <c r="CI11" s="112"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="97"/>
+      <c r="Y11" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="97"/>
+      <c r="AH11" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="96"/>
+      <c r="AR11" s="90"/>
+      <c r="AS11" s="90"/>
+      <c r="AT11" s="91"/>
+      <c r="AU11" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="110"/>
+      <c r="BB11" s="110"/>
+      <c r="BC11" s="110"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF11" s="110"/>
+      <c r="BG11" s="110"/>
+      <c r="BH11" s="110"/>
+      <c r="BI11" s="110"/>
+      <c r="BJ11" s="110"/>
+      <c r="BK11" s="110"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="110"/>
+      <c r="BP11" s="110"/>
+      <c r="BQ11" s="111"/>
+      <c r="BR11" s="111"/>
+      <c r="BS11" s="111"/>
+      <c r="BT11" s="111"/>
+      <c r="BU11" s="111"/>
+      <c r="BV11" s="111"/>
+      <c r="BW11" s="111"/>
+      <c r="BX11" s="111"/>
+      <c r="BY11" s="111"/>
+      <c r="BZ11" s="111"/>
+      <c r="CA11" s="111"/>
+      <c r="CB11" s="111"/>
+      <c r="CC11" s="111"/>
+      <c r="CD11" s="111"/>
+      <c r="CE11" s="111"/>
+      <c r="CF11" s="111"/>
+      <c r="CG11" s="111"/>
+      <c r="CH11" s="111"/>
+      <c r="CI11" s="111"/>
     </row>
-    <row r="12" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="84">
+    <row r="12" spans="1:1024" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="101">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="105"/>
-      <c r="Y12" s="106" t="s">
+      <c r="C12" s="102"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="96"/>
+      <c r="W12" s="96"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="105"/>
-      <c r="AH12" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI12" s="107"/>
-      <c r="AJ12" s="108"/>
-      <c r="AK12" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL12" s="104"/>
-      <c r="AM12" s="104"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="104"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="104"/>
-      <c r="AR12" s="109"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="110"/>
-      <c r="AU12" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV12" s="101"/>
-      <c r="AW12" s="101"/>
-      <c r="AX12" s="101"/>
-      <c r="AY12" s="101"/>
-      <c r="AZ12" s="101"/>
-      <c r="BA12" s="101"/>
-      <c r="BB12" s="101"/>
-      <c r="BC12" s="101"/>
-      <c r="BD12" s="101"/>
-      <c r="BE12" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF12" s="101"/>
-      <c r="BG12" s="101"/>
-      <c r="BH12" s="101"/>
-      <c r="BI12" s="101"/>
-      <c r="BJ12" s="101"/>
-      <c r="BK12" s="101"/>
-      <c r="BL12" s="101"/>
-      <c r="BM12" s="101"/>
-      <c r="BN12" s="101"/>
-      <c r="BO12" s="101"/>
-      <c r="BP12" s="101"/>
-      <c r="BQ12" s="102"/>
-      <c r="BR12" s="102"/>
-      <c r="BS12" s="102"/>
-      <c r="BT12" s="102"/>
-      <c r="BU12" s="102"/>
-      <c r="BV12" s="102"/>
-      <c r="BW12" s="102"/>
-      <c r="BX12" s="102"/>
-      <c r="BY12" s="102"/>
-      <c r="BZ12" s="102"/>
-      <c r="CA12" s="102"/>
-      <c r="CB12" s="102"/>
-      <c r="CC12" s="102"/>
-      <c r="CD12" s="102"/>
-      <c r="CE12" s="102"/>
-      <c r="CF12" s="102"/>
-      <c r="CG12" s="102"/>
-      <c r="CH12" s="102"/>
-      <c r="CI12" s="102"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="106"/>
+      <c r="AB12" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="96"/>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="106"/>
+      <c r="AK12" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="96"/>
+      <c r="AO12" s="96"/>
+      <c r="AP12" s="96"/>
+      <c r="AQ12" s="96"/>
+      <c r="AR12" s="90"/>
+      <c r="AS12" s="90"/>
+      <c r="AT12" s="91"/>
+      <c r="AU12" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV12" s="96"/>
+      <c r="AW12" s="96"/>
+      <c r="AX12" s="96"/>
+      <c r="AY12" s="96"/>
+      <c r="AZ12" s="96"/>
+      <c r="BA12" s="96"/>
+      <c r="BB12" s="96"/>
+      <c r="BC12" s="96"/>
+      <c r="BD12" s="97"/>
+      <c r="BE12" s="152" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF12" s="153"/>
+      <c r="BG12" s="153"/>
+      <c r="BH12" s="153"/>
+      <c r="BI12" s="153"/>
+      <c r="BJ12" s="153"/>
+      <c r="BK12" s="153"/>
+      <c r="BL12" s="153"/>
+      <c r="BM12" s="153"/>
+      <c r="BN12" s="153"/>
+      <c r="BO12" s="153"/>
+      <c r="BP12" s="153"/>
+      <c r="BQ12" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="BR12" s="111"/>
+      <c r="BS12" s="111"/>
+      <c r="BT12" s="111"/>
+      <c r="BU12" s="111"/>
+      <c r="BV12" s="111"/>
+      <c r="BW12" s="111"/>
+      <c r="BX12" s="111"/>
+      <c r="BY12" s="111"/>
+      <c r="BZ12" s="111"/>
+      <c r="CA12" s="111"/>
+      <c r="CB12" s="111"/>
+      <c r="CC12" s="111"/>
+      <c r="CD12" s="111"/>
+      <c r="CE12" s="111"/>
+      <c r="CF12" s="111"/>
+      <c r="CG12" s="111"/>
+      <c r="CH12" s="111"/>
+      <c r="CI12" s="111"/>
     </row>
     <row r="13" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="84">
+      <c r="B13" s="101">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="105"/>
-      <c r="Y13" s="106" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="103" t="s">
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="97"/>
+      <c r="Y13" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="106"/>
+      <c r="AB13" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="105"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="104"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="104"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="104"/>
-      <c r="AR13" s="109"/>
-      <c r="AS13" s="109"/>
-      <c r="AT13" s="110"/>
-      <c r="AU13" s="103" t="s">
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="97"/>
+      <c r="AH13" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="106"/>
+      <c r="AK13" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="96"/>
+      <c r="AO13" s="96"/>
+      <c r="AP13" s="96"/>
+      <c r="AQ13" s="96"/>
+      <c r="AR13" s="90"/>
+      <c r="AS13" s="90"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AV13" s="104"/>
-      <c r="AW13" s="104"/>
-      <c r="AX13" s="104"/>
-      <c r="AY13" s="104"/>
-      <c r="AZ13" s="104"/>
-      <c r="BA13" s="104"/>
-      <c r="BB13" s="104"/>
-      <c r="BC13" s="104"/>
-      <c r="BD13" s="105"/>
-      <c r="BE13" s="101" t="s">
+      <c r="AV13" s="96"/>
+      <c r="AW13" s="96"/>
+      <c r="AX13" s="96"/>
+      <c r="AY13" s="96"/>
+      <c r="AZ13" s="96"/>
+      <c r="BA13" s="96"/>
+      <c r="BB13" s="96"/>
+      <c r="BC13" s="96"/>
+      <c r="BD13" s="97"/>
+      <c r="BE13" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="BF13" s="101"/>
-      <c r="BG13" s="101"/>
-      <c r="BH13" s="101"/>
-      <c r="BI13" s="101"/>
-      <c r="BJ13" s="101"/>
-      <c r="BK13" s="101"/>
-      <c r="BL13" s="101"/>
-      <c r="BM13" s="101"/>
-      <c r="BN13" s="101"/>
-      <c r="BO13" s="101"/>
-      <c r="BP13" s="101"/>
-      <c r="BQ13" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="BR13" s="102"/>
-      <c r="BS13" s="102"/>
-      <c r="BT13" s="102"/>
-      <c r="BU13" s="102"/>
-      <c r="BV13" s="102"/>
-      <c r="BW13" s="102"/>
-      <c r="BX13" s="102"/>
-      <c r="BY13" s="102"/>
-      <c r="BZ13" s="102"/>
-      <c r="CA13" s="102"/>
-      <c r="CB13" s="102"/>
-      <c r="CC13" s="102"/>
-      <c r="CD13" s="102"/>
-      <c r="CE13" s="102"/>
-      <c r="CF13" s="102"/>
-      <c r="CG13" s="102"/>
-      <c r="CH13" s="102"/>
-      <c r="CI13" s="102"/>
+      <c r="BF13" s="110"/>
+      <c r="BG13" s="110"/>
+      <c r="BH13" s="110"/>
+      <c r="BI13" s="110"/>
+      <c r="BJ13" s="110"/>
+      <c r="BK13" s="110"/>
+      <c r="BL13" s="110"/>
+      <c r="BM13" s="110"/>
+      <c r="BN13" s="110"/>
+      <c r="BO13" s="110"/>
+      <c r="BP13" s="110"/>
+      <c r="BQ13" s="111" t="s">
+        <v>57</v>
+      </c>
+      <c r="BR13" s="111"/>
+      <c r="BS13" s="111"/>
+      <c r="BT13" s="111"/>
+      <c r="BU13" s="111"/>
+      <c r="BV13" s="111"/>
+      <c r="BW13" s="111"/>
+      <c r="BX13" s="111"/>
+      <c r="BY13" s="111"/>
+      <c r="BZ13" s="111"/>
+      <c r="CA13" s="111"/>
+      <c r="CB13" s="111"/>
+      <c r="CC13" s="111"/>
+      <c r="CD13" s="111"/>
+      <c r="CE13" s="111"/>
+      <c r="CF13" s="111"/>
+      <c r="CG13" s="111"/>
+      <c r="CH13" s="111"/>
+      <c r="CI13" s="111"/>
     </row>
     <row r="14" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="84">
+      <c r="B14" s="101">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="103" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="105"/>
-      <c r="Y14" s="106" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
+      <c r="S14" s="96"/>
+      <c r="T14" s="96"/>
+      <c r="U14" s="96"/>
+      <c r="V14" s="96"/>
+      <c r="W14" s="96"/>
+      <c r="X14" s="97"/>
+      <c r="Y14" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="105"/>
-      <c r="AH14" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI14" s="107"/>
-      <c r="AJ14" s="108"/>
-      <c r="AK14" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="104"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="104"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="104"/>
-      <c r="AR14" s="109"/>
-      <c r="AS14" s="109"/>
-      <c r="AT14" s="110"/>
-      <c r="AU14" s="103" t="s">
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="106"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="96"/>
+      <c r="AG14" s="97"/>
+      <c r="AH14" s="104" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI14" s="105"/>
+      <c r="AJ14" s="106"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="96"/>
+      <c r="AN14" s="96"/>
+      <c r="AO14" s="96"/>
+      <c r="AP14" s="96"/>
+      <c r="AQ14" s="96"/>
+      <c r="AR14" s="90"/>
+      <c r="AS14" s="90"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AV14" s="104"/>
-      <c r="AW14" s="104"/>
-      <c r="AX14" s="104"/>
-      <c r="AY14" s="104"/>
-      <c r="AZ14" s="104"/>
-      <c r="BA14" s="104"/>
-      <c r="BB14" s="104"/>
-      <c r="BC14" s="104"/>
-      <c r="BD14" s="105"/>
-      <c r="BE14" s="101" t="s">
+      <c r="AV14" s="96"/>
+      <c r="AW14" s="96"/>
+      <c r="AX14" s="96"/>
+      <c r="AY14" s="96"/>
+      <c r="AZ14" s="96"/>
+      <c r="BA14" s="96"/>
+      <c r="BB14" s="96"/>
+      <c r="BC14" s="96"/>
+      <c r="BD14" s="97"/>
+      <c r="BE14" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="BF14" s="101"/>
-      <c r="BG14" s="101"/>
-      <c r="BH14" s="101"/>
-      <c r="BI14" s="101"/>
-      <c r="BJ14" s="101"/>
-      <c r="BK14" s="101"/>
-      <c r="BL14" s="101"/>
-      <c r="BM14" s="101"/>
-      <c r="BN14" s="101"/>
-      <c r="BO14" s="101"/>
-      <c r="BP14" s="101"/>
-      <c r="BQ14" s="102"/>
-      <c r="BR14" s="102"/>
-      <c r="BS14" s="102"/>
-      <c r="BT14" s="102"/>
-      <c r="BU14" s="102"/>
-      <c r="BV14" s="102"/>
-      <c r="BW14" s="102"/>
-      <c r="BX14" s="102"/>
-      <c r="BY14" s="102"/>
-      <c r="BZ14" s="102"/>
-      <c r="CA14" s="102"/>
-      <c r="CB14" s="102"/>
-      <c r="CC14" s="102"/>
-      <c r="CD14" s="102"/>
-      <c r="CE14" s="102"/>
-      <c r="CF14" s="102"/>
-      <c r="CG14" s="102"/>
-      <c r="CH14" s="102"/>
-      <c r="CI14" s="102"/>
+      <c r="BF14" s="110"/>
+      <c r="BG14" s="110"/>
+      <c r="BH14" s="110"/>
+      <c r="BI14" s="110"/>
+      <c r="BJ14" s="110"/>
+      <c r="BK14" s="110"/>
+      <c r="BL14" s="110"/>
+      <c r="BM14" s="110"/>
+      <c r="BN14" s="110"/>
+      <c r="BO14" s="110"/>
+      <c r="BP14" s="110"/>
+      <c r="BQ14" s="111"/>
+      <c r="BR14" s="111"/>
+      <c r="BS14" s="111"/>
+      <c r="BT14" s="111"/>
+      <c r="BU14" s="111"/>
+      <c r="BV14" s="111"/>
+      <c r="BW14" s="111"/>
+      <c r="BX14" s="111"/>
+      <c r="BY14" s="111"/>
+      <c r="BZ14" s="111"/>
+      <c r="CA14" s="111"/>
+      <c r="CB14" s="111"/>
+      <c r="CC14" s="111"/>
+      <c r="CD14" s="111"/>
+      <c r="CE14" s="111"/>
+      <c r="CF14" s="111"/>
+      <c r="CG14" s="111"/>
+      <c r="CH14" s="111"/>
+      <c r="CI14" s="111"/>
     </row>
-    <row r="15" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="84">
+    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="101">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="106" t="s">
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="103" t="s">
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="106"/>
+      <c r="AB15" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="104"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="104"/>
-      <c r="AG15" s="105"/>
-      <c r="AH15" s="106" t="s">
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="96"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="AI15" s="107"/>
-      <c r="AJ15" s="108"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="104"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="104"/>
-      <c r="AP15" s="104"/>
-      <c r="AQ15" s="104"/>
-      <c r="AR15" s="109"/>
-      <c r="AS15" s="109"/>
-      <c r="AT15" s="110"/>
-      <c r="AU15" s="103" t="s">
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="106"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="96"/>
+      <c r="AN15" s="96"/>
+      <c r="AO15" s="96"/>
+      <c r="AP15" s="96"/>
+      <c r="AQ15" s="96"/>
+      <c r="AR15" s="90"/>
+      <c r="AS15" s="90"/>
+      <c r="AT15" s="91"/>
+      <c r="AU15" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="AV15" s="104"/>
-      <c r="AW15" s="104"/>
-      <c r="AX15" s="104"/>
-      <c r="AY15" s="104"/>
-      <c r="AZ15" s="104"/>
-      <c r="BA15" s="104"/>
-      <c r="BB15" s="104"/>
-      <c r="BC15" s="104"/>
-      <c r="BD15" s="105"/>
-      <c r="BE15" s="101" t="s">
+      <c r="AV15" s="96"/>
+      <c r="AW15" s="96"/>
+      <c r="AX15" s="96"/>
+      <c r="AY15" s="96"/>
+      <c r="AZ15" s="96"/>
+      <c r="BA15" s="96"/>
+      <c r="BB15" s="96"/>
+      <c r="BC15" s="96"/>
+      <c r="BD15" s="97"/>
+      <c r="BE15" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="BF15" s="101"/>
-      <c r="BG15" s="101"/>
-      <c r="BH15" s="101"/>
-      <c r="BI15" s="101"/>
-      <c r="BJ15" s="101"/>
-      <c r="BK15" s="101"/>
-      <c r="BL15" s="101"/>
-      <c r="BM15" s="101"/>
-      <c r="BN15" s="101"/>
-      <c r="BO15" s="101"/>
-      <c r="BP15" s="101"/>
-      <c r="BQ15" s="102"/>
-      <c r="BR15" s="102"/>
-      <c r="BS15" s="102"/>
-      <c r="BT15" s="102"/>
-      <c r="BU15" s="102"/>
-      <c r="BV15" s="102"/>
-      <c r="BW15" s="102"/>
-      <c r="BX15" s="102"/>
-      <c r="BY15" s="102"/>
-      <c r="BZ15" s="102"/>
-      <c r="CA15" s="102"/>
-      <c r="CB15" s="102"/>
-      <c r="CC15" s="102"/>
-      <c r="CD15" s="102"/>
-      <c r="CE15" s="102"/>
-      <c r="CF15" s="102"/>
-      <c r="CG15" s="102"/>
-      <c r="CH15" s="102"/>
-      <c r="CI15" s="102"/>
+      <c r="BF15" s="110"/>
+      <c r="BG15" s="110"/>
+      <c r="BH15" s="110"/>
+      <c r="BI15" s="110"/>
+      <c r="BJ15" s="110"/>
+      <c r="BK15" s="110"/>
+      <c r="BL15" s="110"/>
+      <c r="BM15" s="110"/>
+      <c r="BN15" s="110"/>
+      <c r="BO15" s="110"/>
+      <c r="BP15" s="110"/>
+      <c r="BQ15" s="111"/>
+      <c r="BR15" s="111"/>
+      <c r="BS15" s="111"/>
+      <c r="BT15" s="111"/>
+      <c r="BU15" s="111"/>
+      <c r="BV15" s="111"/>
+      <c r="BW15" s="111"/>
+      <c r="BX15" s="111"/>
+      <c r="BY15" s="111"/>
+      <c r="BZ15" s="111"/>
+      <c r="CA15" s="111"/>
+      <c r="CB15" s="111"/>
+      <c r="CC15" s="111"/>
+      <c r="CD15" s="111"/>
+      <c r="CE15" s="111"/>
+      <c r="CF15" s="111"/>
+      <c r="CG15" s="111"/>
+      <c r="CH15" s="111"/>
+      <c r="CI15" s="111"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="84">
-        <v>9</v>
-      </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="103" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="104"/>
-      <c r="AG16" s="105"/>
-      <c r="AH16" s="106" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI16" s="107"/>
-      <c r="AJ16" s="108"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="104"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="104"/>
-      <c r="AP16" s="104"/>
-      <c r="AQ16" s="104"/>
-      <c r="AR16" s="109"/>
-      <c r="AS16" s="109"/>
-      <c r="AT16" s="110"/>
-      <c r="AU16" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV16" s="104"/>
-      <c r="AW16" s="104"/>
-      <c r="AX16" s="104"/>
-      <c r="AY16" s="104"/>
-      <c r="AZ16" s="104"/>
-      <c r="BA16" s="104"/>
-      <c r="BB16" s="104"/>
-      <c r="BC16" s="104"/>
-      <c r="BD16" s="105"/>
-      <c r="BE16" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF16" s="101"/>
-      <c r="BG16" s="101"/>
-      <c r="BH16" s="101"/>
-      <c r="BI16" s="101"/>
-      <c r="BJ16" s="101"/>
-      <c r="BK16" s="101"/>
-      <c r="BL16" s="101"/>
-      <c r="BM16" s="101"/>
-      <c r="BN16" s="101"/>
-      <c r="BO16" s="101"/>
-      <c r="BP16" s="101"/>
-      <c r="BQ16" s="102"/>
-      <c r="BR16" s="102"/>
-      <c r="BS16" s="102"/>
-      <c r="BT16" s="102"/>
-      <c r="BU16" s="102"/>
-      <c r="BV16" s="102"/>
-      <c r="BW16" s="102"/>
-      <c r="BX16" s="102"/>
-      <c r="BY16" s="102"/>
-      <c r="BZ16" s="102"/>
-      <c r="CA16" s="102"/>
-      <c r="CB16" s="102"/>
-      <c r="CC16" s="102"/>
-      <c r="CD16" s="102"/>
-      <c r="CE16" s="102"/>
-      <c r="CF16" s="102"/>
-      <c r="CG16" s="102"/>
-      <c r="CH16" s="102"/>
-      <c r="CI16" s="102"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="96"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="96"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="96"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="105"/>
+      <c r="AJ16" s="106"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="96"/>
+      <c r="AN16" s="96"/>
+      <c r="AO16" s="96"/>
+      <c r="AP16" s="96"/>
+      <c r="AQ16" s="96"/>
+      <c r="AR16" s="90"/>
+      <c r="AS16" s="90"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="95"/>
+      <c r="AV16" s="96"/>
+      <c r="AW16" s="96"/>
+      <c r="AX16" s="96"/>
+      <c r="AY16" s="96"/>
+      <c r="AZ16" s="96"/>
+      <c r="BA16" s="96"/>
+      <c r="BB16" s="96"/>
+      <c r="BC16" s="96"/>
+      <c r="BD16" s="97"/>
+      <c r="BE16" s="95"/>
+      <c r="BF16" s="96"/>
+      <c r="BG16" s="96"/>
+      <c r="BH16" s="96"/>
+      <c r="BI16" s="96"/>
+      <c r="BJ16" s="96"/>
+      <c r="BK16" s="96"/>
+      <c r="BL16" s="96"/>
+      <c r="BM16" s="96"/>
+      <c r="BN16" s="96"/>
+      <c r="BO16" s="96"/>
+      <c r="BP16" s="97"/>
+      <c r="BQ16" s="107"/>
+      <c r="BR16" s="108"/>
+      <c r="BS16" s="108"/>
+      <c r="BT16" s="108"/>
+      <c r="BU16" s="108"/>
+      <c r="BV16" s="108"/>
+      <c r="BW16" s="108"/>
+      <c r="BX16" s="108"/>
+      <c r="BY16" s="108"/>
+      <c r="BZ16" s="108"/>
+      <c r="CA16" s="108"/>
+      <c r="CB16" s="108"/>
+      <c r="CC16" s="108"/>
+      <c r="CD16" s="108"/>
+      <c r="CE16" s="108"/>
+      <c r="CF16" s="108"/>
+      <c r="CG16" s="108"/>
+      <c r="CH16" s="108"/>
+      <c r="CI16" s="109"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="105"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="104"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="104"/>
-      <c r="AG17" s="105"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="108"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="104"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="104"/>
-      <c r="AP17" s="104"/>
-      <c r="AQ17" s="104"/>
-      <c r="AR17" s="109"/>
-      <c r="AS17" s="109"/>
-      <c r="AT17" s="110"/>
-      <c r="AU17" s="103"/>
-      <c r="AV17" s="104"/>
-      <c r="AW17" s="104"/>
-      <c r="AX17" s="104"/>
-      <c r="AY17" s="104"/>
-      <c r="AZ17" s="104"/>
-      <c r="BA17" s="104"/>
-      <c r="BB17" s="104"/>
-      <c r="BC17" s="104"/>
-      <c r="BD17" s="105"/>
-      <c r="BE17" s="103"/>
-      <c r="BF17" s="104"/>
-      <c r="BG17" s="104"/>
-      <c r="BH17" s="104"/>
-      <c r="BI17" s="104"/>
-      <c r="BJ17" s="104"/>
-      <c r="BK17" s="104"/>
-      <c r="BL17" s="104"/>
-      <c r="BM17" s="104"/>
-      <c r="BN17" s="104"/>
-      <c r="BO17" s="104"/>
-      <c r="BP17" s="105"/>
-      <c r="BQ17" s="113"/>
-      <c r="BR17" s="114"/>
-      <c r="BS17" s="114"/>
-      <c r="BT17" s="114"/>
-      <c r="BU17" s="114"/>
-      <c r="BV17" s="114"/>
-      <c r="BW17" s="114"/>
-      <c r="BX17" s="114"/>
-      <c r="BY17" s="114"/>
-      <c r="BZ17" s="114"/>
-      <c r="CA17" s="114"/>
-      <c r="CB17" s="114"/>
-      <c r="CC17" s="114"/>
-      <c r="CD17" s="114"/>
-      <c r="CE17" s="114"/>
-      <c r="CF17" s="114"/>
-      <c r="CG17" s="114"/>
-      <c r="CH17" s="114"/>
-      <c r="CI17" s="115"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="105"/>
+      <c r="AJ17" s="106"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="96"/>
+      <c r="AN17" s="96"/>
+      <c r="AO17" s="96"/>
+      <c r="AP17" s="96"/>
+      <c r="AQ17" s="96"/>
+      <c r="AR17" s="90"/>
+      <c r="AS17" s="90"/>
+      <c r="AT17" s="91"/>
+      <c r="AU17" s="95"/>
+      <c r="AV17" s="96"/>
+      <c r="AW17" s="96"/>
+      <c r="AX17" s="96"/>
+      <c r="AY17" s="96"/>
+      <c r="AZ17" s="96"/>
+      <c r="BA17" s="96"/>
+      <c r="BB17" s="96"/>
+      <c r="BC17" s="96"/>
+      <c r="BD17" s="97"/>
+      <c r="BE17" s="95"/>
+      <c r="BF17" s="96"/>
+      <c r="BG17" s="96"/>
+      <c r="BH17" s="96"/>
+      <c r="BI17" s="96"/>
+      <c r="BJ17" s="96"/>
+      <c r="BK17" s="96"/>
+      <c r="BL17" s="96"/>
+      <c r="BM17" s="96"/>
+      <c r="BN17" s="96"/>
+      <c r="BO17" s="96"/>
+      <c r="BP17" s="97"/>
+      <c r="BQ17" s="107"/>
+      <c r="BR17" s="108"/>
+      <c r="BS17" s="108"/>
+      <c r="BT17" s="108"/>
+      <c r="BU17" s="108"/>
+      <c r="BV17" s="108"/>
+      <c r="BW17" s="108"/>
+      <c r="BX17" s="108"/>
+      <c r="BY17" s="108"/>
+      <c r="BZ17" s="108"/>
+      <c r="CA17" s="108"/>
+      <c r="CB17" s="108"/>
+      <c r="CC17" s="108"/>
+      <c r="CD17" s="108"/>
+      <c r="CE17" s="108"/>
+      <c r="CF17" s="108"/>
+      <c r="CG17" s="108"/>
+      <c r="CH17" s="108"/>
+      <c r="CI17" s="109"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="103"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="104"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="104"/>
-      <c r="AG18" s="105"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="108"/>
-      <c r="AK18" s="103"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="104"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="104"/>
-      <c r="AP18" s="104"/>
-      <c r="AQ18" s="104"/>
-      <c r="AR18" s="109"/>
-      <c r="AS18" s="109"/>
-      <c r="AT18" s="110"/>
-      <c r="AU18" s="103"/>
-      <c r="AV18" s="104"/>
-      <c r="AW18" s="104"/>
-      <c r="AX18" s="104"/>
-      <c r="AY18" s="104"/>
-      <c r="AZ18" s="104"/>
-      <c r="BA18" s="104"/>
-      <c r="BB18" s="104"/>
-      <c r="BC18" s="104"/>
-      <c r="BD18" s="105"/>
-      <c r="BE18" s="103"/>
-      <c r="BF18" s="104"/>
-      <c r="BG18" s="104"/>
-      <c r="BH18" s="104"/>
-      <c r="BI18" s="104"/>
-      <c r="BJ18" s="104"/>
-      <c r="BK18" s="104"/>
-      <c r="BL18" s="104"/>
-      <c r="BM18" s="104"/>
-      <c r="BN18" s="104"/>
-      <c r="BO18" s="104"/>
-      <c r="BP18" s="105"/>
-      <c r="BQ18" s="113"/>
-      <c r="BR18" s="114"/>
-      <c r="BS18" s="114"/>
-      <c r="BT18" s="114"/>
-      <c r="BU18" s="114"/>
-      <c r="BV18" s="114"/>
-      <c r="BW18" s="114"/>
-      <c r="BX18" s="114"/>
-      <c r="BY18" s="114"/>
-      <c r="BZ18" s="114"/>
-      <c r="CA18" s="114"/>
-      <c r="CB18" s="114"/>
-      <c r="CC18" s="114"/>
-      <c r="CD18" s="114"/>
-      <c r="CE18" s="114"/>
-      <c r="CF18" s="114"/>
-      <c r="CG18" s="114"/>
-      <c r="CH18" s="114"/>
-      <c r="CI18" s="115"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="T18" s="96"/>
+      <c r="U18" s="96"/>
+      <c r="V18" s="96"/>
+      <c r="W18" s="96"/>
+      <c r="X18" s="97"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="106"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="96"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="105"/>
+      <c r="AJ18" s="106"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="96"/>
+      <c r="AN18" s="96"/>
+      <c r="AO18" s="96"/>
+      <c r="AP18" s="96"/>
+      <c r="AQ18" s="96"/>
+      <c r="AR18" s="90"/>
+      <c r="AS18" s="90"/>
+      <c r="AT18" s="91"/>
+      <c r="AU18" s="95"/>
+      <c r="AV18" s="96"/>
+      <c r="AW18" s="96"/>
+      <c r="AX18" s="96"/>
+      <c r="AY18" s="96"/>
+      <c r="AZ18" s="96"/>
+      <c r="BA18" s="96"/>
+      <c r="BB18" s="96"/>
+      <c r="BC18" s="96"/>
+      <c r="BD18" s="97"/>
+      <c r="BE18" s="95"/>
+      <c r="BF18" s="96"/>
+      <c r="BG18" s="96"/>
+      <c r="BH18" s="96"/>
+      <c r="BI18" s="96"/>
+      <c r="BJ18" s="96"/>
+      <c r="BK18" s="96"/>
+      <c r="BL18" s="96"/>
+      <c r="BM18" s="96"/>
+      <c r="BN18" s="96"/>
+      <c r="BO18" s="96"/>
+      <c r="BP18" s="97"/>
+      <c r="BQ18" s="107"/>
+      <c r="BR18" s="108"/>
+      <c r="BS18" s="108"/>
+      <c r="BT18" s="108"/>
+      <c r="BU18" s="108"/>
+      <c r="BV18" s="108"/>
+      <c r="BW18" s="108"/>
+      <c r="BX18" s="108"/>
+      <c r="BY18" s="108"/>
+      <c r="BZ18" s="108"/>
+      <c r="CA18" s="108"/>
+      <c r="CB18" s="108"/>
+      <c r="CC18" s="108"/>
+      <c r="CD18" s="108"/>
+      <c r="CE18" s="108"/>
+      <c r="CF18" s="108"/>
+      <c r="CG18" s="108"/>
+      <c r="CH18" s="108"/>
+      <c r="CI18" s="109"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="108"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="105"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="107"/>
-      <c r="AJ19" s="108"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="104"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="104"/>
-      <c r="AP19" s="104"/>
-      <c r="AQ19" s="104"/>
-      <c r="AR19" s="109"/>
-      <c r="AS19" s="109"/>
-      <c r="AT19" s="110"/>
-      <c r="AU19" s="103"/>
-      <c r="AV19" s="104"/>
-      <c r="AW19" s="104"/>
-      <c r="AX19" s="104"/>
-      <c r="AY19" s="104"/>
-      <c r="AZ19" s="104"/>
-      <c r="BA19" s="104"/>
-      <c r="BB19" s="104"/>
-      <c r="BC19" s="104"/>
-      <c r="BD19" s="105"/>
-      <c r="BE19" s="103"/>
-      <c r="BF19" s="104"/>
-      <c r="BG19" s="104"/>
-      <c r="BH19" s="104"/>
-      <c r="BI19" s="104"/>
-      <c r="BJ19" s="104"/>
-      <c r="BK19" s="104"/>
-      <c r="BL19" s="104"/>
-      <c r="BM19" s="104"/>
-      <c r="BN19" s="104"/>
-      <c r="BO19" s="104"/>
-      <c r="BP19" s="105"/>
-      <c r="BQ19" s="113"/>
-      <c r="BR19" s="114"/>
-      <c r="BS19" s="114"/>
-      <c r="BT19" s="114"/>
-      <c r="BU19" s="114"/>
-      <c r="BV19" s="114"/>
-      <c r="BW19" s="114"/>
-      <c r="BX19" s="114"/>
-      <c r="BY19" s="114"/>
-      <c r="BZ19" s="114"/>
-      <c r="CA19" s="114"/>
-      <c r="CB19" s="114"/>
-      <c r="CC19" s="114"/>
-      <c r="CD19" s="114"/>
-      <c r="CE19" s="114"/>
-      <c r="CF19" s="114"/>
-      <c r="CG19" s="114"/>
-      <c r="CH19" s="114"/>
-      <c r="CI19" s="115"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="96"/>
+      <c r="AG19" s="97"/>
+      <c r="AH19" s="104"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="106"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="96"/>
+      <c r="AO19" s="96"/>
+      <c r="AP19" s="96"/>
+      <c r="AQ19" s="96"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="91"/>
+      <c r="AU19" s="95"/>
+      <c r="AV19" s="96"/>
+      <c r="AW19" s="96"/>
+      <c r="AX19" s="96"/>
+      <c r="AY19" s="96"/>
+      <c r="AZ19" s="96"/>
+      <c r="BA19" s="96"/>
+      <c r="BB19" s="96"/>
+      <c r="BC19" s="96"/>
+      <c r="BD19" s="97"/>
+      <c r="BE19" s="95"/>
+      <c r="BF19" s="96"/>
+      <c r="BG19" s="96"/>
+      <c r="BH19" s="96"/>
+      <c r="BI19" s="96"/>
+      <c r="BJ19" s="96"/>
+      <c r="BK19" s="96"/>
+      <c r="BL19" s="96"/>
+      <c r="BM19" s="96"/>
+      <c r="BN19" s="96"/>
+      <c r="BO19" s="96"/>
+      <c r="BP19" s="97"/>
+      <c r="BQ19" s="107"/>
+      <c r="BR19" s="108"/>
+      <c r="BS19" s="108"/>
+      <c r="BT19" s="108"/>
+      <c r="BU19" s="108"/>
+      <c r="BV19" s="108"/>
+      <c r="BW19" s="108"/>
+      <c r="BX19" s="108"/>
+      <c r="BY19" s="108"/>
+      <c r="BZ19" s="108"/>
+      <c r="CA19" s="108"/>
+      <c r="CB19" s="108"/>
+      <c r="CC19" s="108"/>
+      <c r="CD19" s="108"/>
+      <c r="CE19" s="108"/>
+      <c r="CF19" s="108"/>
+      <c r="CG19" s="108"/>
+      <c r="CH19" s="108"/>
+      <c r="CI19" s="109"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="104"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="104"/>
-      <c r="AG20" s="105"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="107"/>
-      <c r="AJ20" s="108"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="104"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="104"/>
-      <c r="AP20" s="104"/>
-      <c r="AQ20" s="104"/>
-      <c r="AR20" s="109"/>
-      <c r="AS20" s="109"/>
-      <c r="AT20" s="110"/>
-      <c r="AU20" s="103"/>
-      <c r="AV20" s="104"/>
-      <c r="AW20" s="104"/>
-      <c r="AX20" s="104"/>
-      <c r="AY20" s="104"/>
-      <c r="AZ20" s="104"/>
-      <c r="BA20" s="104"/>
-      <c r="BB20" s="104"/>
-      <c r="BC20" s="104"/>
-      <c r="BD20" s="105"/>
-      <c r="BE20" s="103"/>
-      <c r="BF20" s="104"/>
-      <c r="BG20" s="104"/>
-      <c r="BH20" s="104"/>
-      <c r="BI20" s="104"/>
-      <c r="BJ20" s="104"/>
-      <c r="BK20" s="104"/>
-      <c r="BL20" s="104"/>
-      <c r="BM20" s="104"/>
-      <c r="BN20" s="104"/>
-      <c r="BO20" s="104"/>
-      <c r="BP20" s="105"/>
-      <c r="BQ20" s="113"/>
-      <c r="BR20" s="114"/>
-      <c r="BS20" s="114"/>
-      <c r="BT20" s="114"/>
-      <c r="BU20" s="114"/>
-      <c r="BV20" s="114"/>
-      <c r="BW20" s="114"/>
-      <c r="BX20" s="114"/>
-      <c r="BY20" s="114"/>
-      <c r="BZ20" s="114"/>
-      <c r="CA20" s="114"/>
-      <c r="CB20" s="114"/>
-      <c r="CC20" s="114"/>
-      <c r="CD20" s="114"/>
-      <c r="CE20" s="114"/>
-      <c r="CF20" s="114"/>
-      <c r="CG20" s="114"/>
-      <c r="CH20" s="114"/>
-      <c r="CI20" s="115"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="96"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="96"/>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="104"/>
+      <c r="AI20" s="105"/>
+      <c r="AJ20" s="106"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="96"/>
+      <c r="AM20" s="96"/>
+      <c r="AN20" s="96"/>
+      <c r="AO20" s="96"/>
+      <c r="AP20" s="96"/>
+      <c r="AQ20" s="96"/>
+      <c r="AR20" s="90"/>
+      <c r="AS20" s="90"/>
+      <c r="AT20" s="91"/>
+      <c r="AU20" s="95"/>
+      <c r="AV20" s="96"/>
+      <c r="AW20" s="96"/>
+      <c r="AX20" s="96"/>
+      <c r="AY20" s="96"/>
+      <c r="AZ20" s="96"/>
+      <c r="BA20" s="96"/>
+      <c r="BB20" s="96"/>
+      <c r="BC20" s="96"/>
+      <c r="BD20" s="97"/>
+      <c r="BE20" s="95"/>
+      <c r="BF20" s="96"/>
+      <c r="BG20" s="96"/>
+      <c r="BH20" s="96"/>
+      <c r="BI20" s="96"/>
+      <c r="BJ20" s="96"/>
+      <c r="BK20" s="96"/>
+      <c r="BL20" s="96"/>
+      <c r="BM20" s="96"/>
+      <c r="BN20" s="96"/>
+      <c r="BO20" s="96"/>
+      <c r="BP20" s="97"/>
+      <c r="BQ20" s="107"/>
+      <c r="BR20" s="108"/>
+      <c r="BS20" s="108"/>
+      <c r="BT20" s="108"/>
+      <c r="BU20" s="108"/>
+      <c r="BV20" s="108"/>
+      <c r="BW20" s="108"/>
+      <c r="BX20" s="108"/>
+      <c r="BY20" s="108"/>
+      <c r="BZ20" s="108"/>
+      <c r="CA20" s="108"/>
+      <c r="CB20" s="108"/>
+      <c r="CC20" s="108"/>
+      <c r="CD20" s="108"/>
+      <c r="CE20" s="108"/>
+      <c r="CF20" s="108"/>
+      <c r="CG20" s="108"/>
+      <c r="CH20" s="108"/>
+      <c r="CI20" s="109"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="84"/>
       <c r="C21" s="85"/>
       <c r="D21" s="86"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="103"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="104"/>
-      <c r="AG21" s="105"/>
-      <c r="AH21" s="106"/>
-      <c r="AI21" s="107"/>
-      <c r="AJ21" s="108"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="104"/>
-      <c r="AP21" s="104"/>
-      <c r="AQ21" s="104"/>
-      <c r="AR21" s="109"/>
-      <c r="AS21" s="109"/>
-      <c r="AT21" s="110"/>
-      <c r="AU21" s="103"/>
-      <c r="AV21" s="104"/>
-      <c r="AW21" s="104"/>
-      <c r="AX21" s="104"/>
-      <c r="AY21" s="104"/>
-      <c r="AZ21" s="104"/>
-      <c r="BA21" s="104"/>
-      <c r="BB21" s="104"/>
-      <c r="BC21" s="104"/>
-      <c r="BD21" s="105"/>
-      <c r="BE21" s="103"/>
-      <c r="BF21" s="104"/>
-      <c r="BG21" s="104"/>
-      <c r="BH21" s="104"/>
-      <c r="BI21" s="104"/>
-      <c r="BJ21" s="104"/>
-      <c r="BK21" s="104"/>
-      <c r="BL21" s="104"/>
-      <c r="BM21" s="104"/>
-      <c r="BN21" s="104"/>
-      <c r="BO21" s="104"/>
-      <c r="BP21" s="105"/>
-      <c r="BQ21" s="113"/>
-      <c r="BR21" s="114"/>
-      <c r="BS21" s="114"/>
-      <c r="BT21" s="114"/>
-      <c r="BU21" s="114"/>
-      <c r="BV21" s="114"/>
-      <c r="BW21" s="114"/>
-      <c r="BX21" s="114"/>
-      <c r="BY21" s="114"/>
-      <c r="BZ21" s="114"/>
-      <c r="CA21" s="114"/>
-      <c r="CB21" s="114"/>
-      <c r="CC21" s="114"/>
-      <c r="CD21" s="114"/>
-      <c r="CE21" s="114"/>
-      <c r="CF21" s="114"/>
-      <c r="CG21" s="114"/>
-      <c r="CH21" s="114"/>
-      <c r="CI21" s="115"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="80"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="96"/>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="96"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="88"/>
+      <c r="AJ21" s="89"/>
+      <c r="AK21" s="78"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="91"/>
+      <c r="AU21" s="78"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="79"/>
+      <c r="BA21" s="79"/>
+      <c r="BB21" s="79"/>
+      <c r="BC21" s="79"/>
+      <c r="BD21" s="80"/>
+      <c r="BE21" s="78"/>
+      <c r="BF21" s="79"/>
+      <c r="BG21" s="79"/>
+      <c r="BH21" s="79"/>
+      <c r="BI21" s="79"/>
+      <c r="BJ21" s="79"/>
+      <c r="BK21" s="79"/>
+      <c r="BL21" s="79"/>
+      <c r="BM21" s="79"/>
+      <c r="BN21" s="79"/>
+      <c r="BO21" s="79"/>
+      <c r="BP21" s="80"/>
+      <c r="BQ21" s="81"/>
+      <c r="BR21" s="82"/>
+      <c r="BS21" s="82"/>
+      <c r="BT21" s="82"/>
+      <c r="BU21" s="82"/>
+      <c r="BV21" s="82"/>
+      <c r="BW21" s="82"/>
+      <c r="BX21" s="82"/>
+      <c r="BY21" s="82"/>
+      <c r="BZ21" s="82"/>
+      <c r="CA21" s="82"/>
+      <c r="CB21" s="82"/>
+      <c r="CC21" s="82"/>
+      <c r="CD21" s="82"/>
+      <c r="CE21" s="82"/>
+      <c r="CF21" s="82"/>
+      <c r="CG21" s="82"/>
+      <c r="CH21" s="82"/>
+      <c r="CI21" s="83"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="117"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="103"/>
-      <c r="AC22" s="104"/>
-      <c r="AD22" s="104"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="104"/>
-      <c r="AG22" s="105"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="126"/>
-      <c r="AJ22" s="127"/>
-      <c r="AK22" s="116"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="117"/>
-      <c r="AN22" s="117"/>
-      <c r="AO22" s="117"/>
-      <c r="AP22" s="117"/>
-      <c r="AQ22" s="117"/>
-      <c r="AR22" s="109"/>
-      <c r="AS22" s="109"/>
-      <c r="AT22" s="110"/>
-      <c r="AU22" s="116"/>
-      <c r="AV22" s="117"/>
-      <c r="AW22" s="117"/>
-      <c r="AX22" s="117"/>
-      <c r="AY22" s="117"/>
-      <c r="AZ22" s="117"/>
-      <c r="BA22" s="117"/>
-      <c r="BB22" s="117"/>
-      <c r="BC22" s="117"/>
-      <c r="BD22" s="118"/>
-      <c r="BE22" s="116"/>
-      <c r="BF22" s="117"/>
-      <c r="BG22" s="117"/>
-      <c r="BH22" s="117"/>
-      <c r="BI22" s="117"/>
-      <c r="BJ22" s="117"/>
-      <c r="BK22" s="117"/>
-      <c r="BL22" s="117"/>
-      <c r="BM22" s="117"/>
-      <c r="BN22" s="117"/>
-      <c r="BO22" s="117"/>
-      <c r="BP22" s="118"/>
-      <c r="BQ22" s="119"/>
-      <c r="BR22" s="120"/>
-      <c r="BS22" s="120"/>
-      <c r="BT22" s="120"/>
-      <c r="BU22" s="120"/>
-      <c r="BV22" s="120"/>
-      <c r="BW22" s="120"/>
-      <c r="BX22" s="120"/>
-      <c r="BY22" s="120"/>
-      <c r="BZ22" s="120"/>
-      <c r="CA22" s="120"/>
-      <c r="CB22" s="120"/>
-      <c r="CC22" s="120"/>
-      <c r="CD22" s="120"/>
-      <c r="CE22" s="120"/>
-      <c r="CF22" s="120"/>
-      <c r="CG22" s="120"/>
-      <c r="CH22" s="120"/>
-      <c r="CI22" s="121"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="78"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="79"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="78"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="79"/>
+      <c r="AN22" s="79"/>
+      <c r="AO22" s="79"/>
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="79"/>
+      <c r="AR22" s="90"/>
+      <c r="AS22" s="90"/>
+      <c r="AT22" s="91"/>
+      <c r="AU22" s="78"/>
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79"/>
+      <c r="AY22" s="79"/>
+      <c r="AZ22" s="79"/>
+      <c r="BA22" s="79"/>
+      <c r="BB22" s="79"/>
+      <c r="BC22" s="79"/>
+      <c r="BD22" s="80"/>
+      <c r="BE22" s="78"/>
+      <c r="BF22" s="79"/>
+      <c r="BG22" s="79"/>
+      <c r="BH22" s="79"/>
+      <c r="BI22" s="79"/>
+      <c r="BJ22" s="79"/>
+      <c r="BK22" s="79"/>
+      <c r="BL22" s="79"/>
+      <c r="BM22" s="79"/>
+      <c r="BN22" s="79"/>
+      <c r="BO22" s="79"/>
+      <c r="BP22" s="80"/>
+      <c r="BQ22" s="98"/>
+      <c r="BR22" s="99"/>
+      <c r="BS22" s="99"/>
+      <c r="BT22" s="99"/>
+      <c r="BU22" s="99"/>
+      <c r="BV22" s="99"/>
+      <c r="BW22" s="99"/>
+      <c r="BX22" s="99"/>
+      <c r="BY22" s="99"/>
+      <c r="BZ22" s="99"/>
+      <c r="CA22" s="99"/>
+      <c r="CB22" s="99"/>
+      <c r="CC22" s="99"/>
+      <c r="CD22" s="99"/>
+      <c r="CE22" s="99"/>
+      <c r="CF22" s="99"/>
+      <c r="CG22" s="99"/>
+      <c r="CH22" s="99"/>
+      <c r="CI22" s="100"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="117"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="117"/>
-      <c r="AE23" s="117"/>
-      <c r="AF23" s="117"/>
-      <c r="AG23" s="118"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="117"/>
-      <c r="AJ23" s="118"/>
-      <c r="AK23" s="116"/>
-      <c r="AL23" s="117"/>
-      <c r="AM23" s="117"/>
-      <c r="AN23" s="117"/>
-      <c r="AO23" s="117"/>
-      <c r="AP23" s="117"/>
-      <c r="AQ23" s="117"/>
-      <c r="AR23" s="109"/>
-      <c r="AS23" s="109"/>
-      <c r="AT23" s="110"/>
-      <c r="AU23" s="116"/>
-      <c r="AV23" s="117"/>
-      <c r="AW23" s="117"/>
-      <c r="AX23" s="117"/>
-      <c r="AY23" s="117"/>
-      <c r="AZ23" s="117"/>
-      <c r="BA23" s="117"/>
-      <c r="BB23" s="117"/>
-      <c r="BC23" s="117"/>
-      <c r="BD23" s="118"/>
-      <c r="BE23" s="116"/>
-      <c r="BF23" s="117"/>
-      <c r="BG23" s="117"/>
-      <c r="BH23" s="117"/>
-      <c r="BI23" s="117"/>
-      <c r="BJ23" s="117"/>
-      <c r="BK23" s="117"/>
-      <c r="BL23" s="117"/>
-      <c r="BM23" s="117"/>
-      <c r="BN23" s="117"/>
-      <c r="BO23" s="117"/>
-      <c r="BP23" s="118"/>
-      <c r="BQ23" s="128"/>
-      <c r="BR23" s="129"/>
-      <c r="BS23" s="129"/>
-      <c r="BT23" s="129"/>
-      <c r="BU23" s="129"/>
-      <c r="BV23" s="129"/>
-      <c r="BW23" s="129"/>
-      <c r="BX23" s="129"/>
-      <c r="BY23" s="129"/>
-      <c r="BZ23" s="129"/>
-      <c r="CA23" s="129"/>
-      <c r="CB23" s="129"/>
-      <c r="CC23" s="129"/>
-      <c r="CD23" s="129"/>
-      <c r="CE23" s="129"/>
-      <c r="CF23" s="129"/>
-      <c r="CG23" s="129"/>
-      <c r="CH23" s="129"/>
-      <c r="CI23" s="130"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="78"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="79"/>
+      <c r="AE23" s="79"/>
+      <c r="AF23" s="79"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="88"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="78"/>
+      <c r="AL23" s="79"/>
+      <c r="AM23" s="79"/>
+      <c r="AN23" s="79"/>
+      <c r="AO23" s="79"/>
+      <c r="AP23" s="79"/>
+      <c r="AQ23" s="79"/>
+      <c r="AR23" s="90"/>
+      <c r="AS23" s="90"/>
+      <c r="AT23" s="91"/>
+      <c r="AU23" s="78"/>
+      <c r="AV23" s="79"/>
+      <c r="AW23" s="79"/>
+      <c r="AX23" s="79"/>
+      <c r="AY23" s="79"/>
+      <c r="AZ23" s="79"/>
+      <c r="BA23" s="79"/>
+      <c r="BB23" s="79"/>
+      <c r="BC23" s="79"/>
+      <c r="BD23" s="80"/>
+      <c r="BE23" s="78"/>
+      <c r="BF23" s="79"/>
+      <c r="BG23" s="79"/>
+      <c r="BH23" s="79"/>
+      <c r="BI23" s="79"/>
+      <c r="BJ23" s="79"/>
+      <c r="BK23" s="79"/>
+      <c r="BL23" s="79"/>
+      <c r="BM23" s="79"/>
+      <c r="BN23" s="79"/>
+      <c r="BO23" s="79"/>
+      <c r="BP23" s="80"/>
+      <c r="BQ23" s="81"/>
+      <c r="BR23" s="82"/>
+      <c r="BS23" s="82"/>
+      <c r="BT23" s="82"/>
+      <c r="BU23" s="82"/>
+      <c r="BV23" s="82"/>
+      <c r="BW23" s="82"/>
+      <c r="BX23" s="82"/>
+      <c r="BY23" s="82"/>
+      <c r="BZ23" s="82"/>
+      <c r="CA23" s="82"/>
+      <c r="CB23" s="82"/>
+      <c r="CC23" s="82"/>
+      <c r="CD23" s="82"/>
+      <c r="CE23" s="82"/>
+      <c r="CF23" s="82"/>
+      <c r="CG23" s="82"/>
+      <c r="CH23" s="82"/>
+      <c r="CI23" s="83"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="117"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="117"/>
-      <c r="AG24" s="118"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
-      <c r="AJ24" s="127"/>
-      <c r="AK24" s="116"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="117"/>
-      <c r="AN24" s="117"/>
-      <c r="AO24" s="117"/>
-      <c r="AP24" s="117"/>
-      <c r="AQ24" s="117"/>
-      <c r="AR24" s="109"/>
-      <c r="AS24" s="109"/>
-      <c r="AT24" s="110"/>
-      <c r="AU24" s="116"/>
-      <c r="AV24" s="117"/>
-      <c r="AW24" s="117"/>
-      <c r="AX24" s="117"/>
-      <c r="AY24" s="117"/>
-      <c r="AZ24" s="117"/>
-      <c r="BA24" s="117"/>
-      <c r="BB24" s="117"/>
-      <c r="BC24" s="117"/>
-      <c r="BD24" s="118"/>
-      <c r="BE24" s="116"/>
-      <c r="BF24" s="117"/>
-      <c r="BG24" s="117"/>
-      <c r="BH24" s="117"/>
-      <c r="BI24" s="117"/>
-      <c r="BJ24" s="117"/>
-      <c r="BK24" s="117"/>
-      <c r="BL24" s="117"/>
-      <c r="BM24" s="117"/>
-      <c r="BN24" s="117"/>
-      <c r="BO24" s="117"/>
-      <c r="BP24" s="118"/>
-      <c r="BQ24" s="119"/>
-      <c r="BR24" s="120"/>
-      <c r="BS24" s="120"/>
-      <c r="BT24" s="120"/>
-      <c r="BU24" s="120"/>
-      <c r="BV24" s="120"/>
-      <c r="BW24" s="120"/>
-      <c r="BX24" s="120"/>
-      <c r="BY24" s="120"/>
-      <c r="BZ24" s="120"/>
-      <c r="CA24" s="120"/>
-      <c r="CB24" s="120"/>
-      <c r="CC24" s="120"/>
-      <c r="CD24" s="120"/>
-      <c r="CE24" s="120"/>
-      <c r="CF24" s="120"/>
-      <c r="CG24" s="120"/>
-      <c r="CH24" s="120"/>
-      <c r="CI24" s="121"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="78"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+      <c r="AE24" s="79"/>
+      <c r="AF24" s="79"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="88"/>
+      <c r="AJ24" s="89"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="79"/>
+      <c r="AM24" s="79"/>
+      <c r="AN24" s="79"/>
+      <c r="AO24" s="79"/>
+      <c r="AP24" s="79"/>
+      <c r="AQ24" s="79"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="91"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="79"/>
+      <c r="AW24" s="79"/>
+      <c r="AX24" s="79"/>
+      <c r="AY24" s="79"/>
+      <c r="AZ24" s="79"/>
+      <c r="BA24" s="79"/>
+      <c r="BB24" s="79"/>
+      <c r="BC24" s="79"/>
+      <c r="BD24" s="80"/>
+      <c r="BE24" s="78"/>
+      <c r="BF24" s="79"/>
+      <c r="BG24" s="79"/>
+      <c r="BH24" s="79"/>
+      <c r="BI24" s="79"/>
+      <c r="BJ24" s="79"/>
+      <c r="BK24" s="79"/>
+      <c r="BL24" s="79"/>
+      <c r="BM24" s="79"/>
+      <c r="BN24" s="79"/>
+      <c r="BO24" s="79"/>
+      <c r="BP24" s="80"/>
+      <c r="BQ24" s="92"/>
+      <c r="BR24" s="93"/>
+      <c r="BS24" s="93"/>
+      <c r="BT24" s="93"/>
+      <c r="BU24" s="93"/>
+      <c r="BV24" s="93"/>
+      <c r="BW24" s="93"/>
+      <c r="BX24" s="93"/>
+      <c r="BY24" s="93"/>
+      <c r="BZ24" s="93"/>
+      <c r="CA24" s="93"/>
+      <c r="CB24" s="93"/>
+      <c r="CC24" s="93"/>
+      <c r="CD24" s="93"/>
+      <c r="CE24" s="93"/>
+      <c r="CF24" s="93"/>
+      <c r="CG24" s="93"/>
+      <c r="CH24" s="93"/>
+      <c r="CI24" s="94"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="117"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="118"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="126"/>
-      <c r="AJ25" s="127"/>
-      <c r="AK25" s="116"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="117"/>
-      <c r="AN25" s="117"/>
-      <c r="AO25" s="117"/>
-      <c r="AP25" s="117"/>
-      <c r="AQ25" s="117"/>
-      <c r="AR25" s="109"/>
-      <c r="AS25" s="109"/>
-      <c r="AT25" s="110"/>
-      <c r="AU25" s="116"/>
-      <c r="AV25" s="117"/>
-      <c r="AW25" s="117"/>
-      <c r="AX25" s="117"/>
-      <c r="AY25" s="117"/>
-      <c r="AZ25" s="117"/>
-      <c r="BA25" s="117"/>
-      <c r="BB25" s="117"/>
-      <c r="BC25" s="117"/>
-      <c r="BD25" s="118"/>
-      <c r="BE25" s="116"/>
-      <c r="BF25" s="117"/>
-      <c r="BG25" s="117"/>
-      <c r="BH25" s="117"/>
-      <c r="BI25" s="117"/>
-      <c r="BJ25" s="117"/>
-      <c r="BK25" s="117"/>
-      <c r="BL25" s="117"/>
-      <c r="BM25" s="117"/>
-      <c r="BN25" s="117"/>
-      <c r="BO25" s="117"/>
-      <c r="BP25" s="118"/>
-      <c r="BQ25" s="131"/>
-      <c r="BR25" s="132"/>
-      <c r="BS25" s="132"/>
-      <c r="BT25" s="132"/>
-      <c r="BU25" s="132"/>
-      <c r="BV25" s="132"/>
-      <c r="BW25" s="132"/>
-      <c r="BX25" s="132"/>
-      <c r="BY25" s="132"/>
-      <c r="BZ25" s="132"/>
-      <c r="CA25" s="132"/>
-      <c r="CB25" s="132"/>
-      <c r="CC25" s="132"/>
-      <c r="CD25" s="132"/>
-      <c r="CE25" s="132"/>
-      <c r="CF25" s="132"/>
-      <c r="CG25" s="132"/>
-      <c r="CH25" s="132"/>
-      <c r="CI25" s="133"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="78"/>
+      <c r="AC25" s="79"/>
+      <c r="AD25" s="79"/>
+      <c r="AE25" s="79"/>
+      <c r="AF25" s="79"/>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="78"/>
+      <c r="AI25" s="79"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="78"/>
+      <c r="AL25" s="79"/>
+      <c r="AM25" s="79"/>
+      <c r="AN25" s="79"/>
+      <c r="AO25" s="79"/>
+      <c r="AP25" s="79"/>
+      <c r="AQ25" s="79"/>
+      <c r="AR25" s="90"/>
+      <c r="AS25" s="90"/>
+      <c r="AT25" s="91"/>
+      <c r="AU25" s="78"/>
+      <c r="AV25" s="79"/>
+      <c r="AW25" s="79"/>
+      <c r="AX25" s="79"/>
+      <c r="AY25" s="79"/>
+      <c r="AZ25" s="79"/>
+      <c r="BA25" s="79"/>
+      <c r="BB25" s="79"/>
+      <c r="BC25" s="79"/>
+      <c r="BD25" s="80"/>
+      <c r="BE25" s="78"/>
+      <c r="BF25" s="79"/>
+      <c r="BG25" s="79"/>
+      <c r="BH25" s="79"/>
+      <c r="BI25" s="79"/>
+      <c r="BJ25" s="79"/>
+      <c r="BK25" s="79"/>
+      <c r="BL25" s="79"/>
+      <c r="BM25" s="79"/>
+      <c r="BN25" s="79"/>
+      <c r="BO25" s="79"/>
+      <c r="BP25" s="80"/>
+      <c r="BQ25" s="81"/>
+      <c r="BR25" s="82"/>
+      <c r="BS25" s="82"/>
+      <c r="BT25" s="82"/>
+      <c r="BU25" s="82"/>
+      <c r="BV25" s="82"/>
+      <c r="BW25" s="82"/>
+      <c r="BX25" s="82"/>
+      <c r="BY25" s="82"/>
+      <c r="BZ25" s="82"/>
+      <c r="CA25" s="82"/>
+      <c r="CB25" s="82"/>
+      <c r="CC25" s="82"/>
+      <c r="CD25" s="82"/>
+      <c r="CE25" s="82"/>
+      <c r="CF25" s="82"/>
+      <c r="CG25" s="82"/>
+      <c r="CH25" s="82"/>
+      <c r="CI25" s="83"/>
     </row>
-    <row r="26" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="116"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="118"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="118"/>
-      <c r="AK26" s="116"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="117"/>
-      <c r="AO26" s="117"/>
-      <c r="AP26" s="117"/>
-      <c r="AQ26" s="117"/>
-      <c r="AR26" s="109"/>
-      <c r="AS26" s="109"/>
-      <c r="AT26" s="110"/>
-      <c r="AU26" s="116"/>
-      <c r="AV26" s="117"/>
-      <c r="AW26" s="117"/>
-      <c r="AX26" s="117"/>
-      <c r="AY26" s="117"/>
-      <c r="AZ26" s="117"/>
-      <c r="BA26" s="117"/>
-      <c r="BB26" s="117"/>
-      <c r="BC26" s="117"/>
-      <c r="BD26" s="118"/>
-      <c r="BE26" s="116"/>
-      <c r="BF26" s="117"/>
-      <c r="BG26" s="117"/>
-      <c r="BH26" s="117"/>
-      <c r="BI26" s="117"/>
-      <c r="BJ26" s="117"/>
-      <c r="BK26" s="117"/>
-      <c r="BL26" s="117"/>
-      <c r="BM26" s="117"/>
-      <c r="BN26" s="117"/>
-      <c r="BO26" s="117"/>
-      <c r="BP26" s="118"/>
-      <c r="BQ26" s="119"/>
-      <c r="BR26" s="120"/>
-      <c r="BS26" s="120"/>
-      <c r="BT26" s="120"/>
-      <c r="BU26" s="120"/>
-      <c r="BV26" s="120"/>
-      <c r="BW26" s="120"/>
-      <c r="BX26" s="120"/>
-      <c r="BY26" s="120"/>
-      <c r="BZ26" s="120"/>
-      <c r="CA26" s="120"/>
-      <c r="CB26" s="120"/>
-      <c r="CC26" s="120"/>
-      <c r="CD26" s="120"/>
-      <c r="CE26" s="120"/>
-      <c r="CF26" s="120"/>
-      <c r="CG26" s="120"/>
-      <c r="CH26" s="120"/>
-      <c r="CI26" s="121"/>
-    </row>
-    <row r="27" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="144"/>
-      <c r="O27" s="144"/>
-      <c r="P27" s="144"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="144"/>
-      <c r="S27" s="144"/>
-      <c r="T27" s="144"/>
-      <c r="U27" s="144"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="146"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="135"/>
-      <c r="AF27" s="135"/>
-      <c r="AG27" s="136"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="147"/>
-      <c r="AJ27" s="148"/>
-      <c r="AK27" s="134"/>
-      <c r="AL27" s="135"/>
-      <c r="AM27" s="135"/>
-      <c r="AN27" s="135"/>
-      <c r="AO27" s="135"/>
-      <c r="AP27" s="135"/>
-      <c r="AQ27" s="135"/>
-      <c r="AR27" s="149"/>
-      <c r="AS27" s="149"/>
-      <c r="AT27" s="150"/>
-      <c r="AU27" s="134"/>
-      <c r="AV27" s="135"/>
-      <c r="AW27" s="135"/>
-      <c r="AX27" s="135"/>
-      <c r="AY27" s="135"/>
-      <c r="AZ27" s="135"/>
-      <c r="BA27" s="135"/>
-      <c r="BB27" s="135"/>
-      <c r="BC27" s="135"/>
-      <c r="BD27" s="136"/>
-      <c r="BE27" s="134"/>
-      <c r="BF27" s="135"/>
-      <c r="BG27" s="135"/>
-      <c r="BH27" s="135"/>
-      <c r="BI27" s="135"/>
-      <c r="BJ27" s="135"/>
-      <c r="BK27" s="135"/>
-      <c r="BL27" s="135"/>
-      <c r="BM27" s="135"/>
-      <c r="BN27" s="135"/>
-      <c r="BO27" s="135"/>
-      <c r="BP27" s="136"/>
-      <c r="BQ27" s="137"/>
-      <c r="BR27" s="138"/>
-      <c r="BS27" s="138"/>
-      <c r="BT27" s="138"/>
-      <c r="BU27" s="138"/>
-      <c r="BV27" s="138"/>
-      <c r="BW27" s="138"/>
-      <c r="BX27" s="138"/>
-      <c r="BY27" s="138"/>
-      <c r="BZ27" s="138"/>
-      <c r="CA27" s="138"/>
-      <c r="CB27" s="138"/>
-      <c r="CC27" s="138"/>
-      <c r="CD27" s="138"/>
-      <c r="CE27" s="138"/>
-      <c r="CF27" s="138"/>
-      <c r="CG27" s="138"/>
-      <c r="CH27" s="138"/>
-      <c r="CI27" s="139"/>
+    <row r="26" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="74"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="73"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="61"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="77"/>
+      <c r="AU26" s="61"/>
+      <c r="AV26" s="62"/>
+      <c r="AW26" s="62"/>
+      <c r="AX26" s="62"/>
+      <c r="AY26" s="62"/>
+      <c r="AZ26" s="62"/>
+      <c r="BA26" s="62"/>
+      <c r="BB26" s="62"/>
+      <c r="BC26" s="62"/>
+      <c r="BD26" s="63"/>
+      <c r="BE26" s="61"/>
+      <c r="BF26" s="62"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="62"/>
+      <c r="BI26" s="62"/>
+      <c r="BJ26" s="62"/>
+      <c r="BK26" s="62"/>
+      <c r="BL26" s="62"/>
+      <c r="BM26" s="62"/>
+      <c r="BN26" s="62"/>
+      <c r="BO26" s="62"/>
+      <c r="BP26" s="63"/>
+      <c r="BQ26" s="64"/>
+      <c r="BR26" s="65"/>
+      <c r="BS26" s="65"/>
+      <c r="BT26" s="65"/>
+      <c r="BU26" s="65"/>
+      <c r="BV26" s="65"/>
+      <c r="BW26" s="65"/>
+      <c r="BX26" s="65"/>
+      <c r="BY26" s="65"/>
+      <c r="BZ26" s="65"/>
+      <c r="CA26" s="65"/>
+      <c r="CB26" s="65"/>
+      <c r="CC26" s="65"/>
+      <c r="CD26" s="65"/>
+      <c r="CE26" s="65"/>
+      <c r="CF26" s="65"/>
+      <c r="CG26" s="65"/>
+      <c r="CH26" s="65"/>
+      <c r="CI26" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="211">
-    <mergeCell ref="AU27:BD27"/>
-    <mergeCell ref="BE27:BP27"/>
-    <mergeCell ref="BQ27:CI27"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AK27:AT27"/>
-    <mergeCell ref="AU26:BD26"/>
-    <mergeCell ref="BE26:BP26"/>
-    <mergeCell ref="BQ26:CI26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AU25:BD25"/>
-    <mergeCell ref="BE25:BP25"/>
-    <mergeCell ref="BQ25:CI25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
+  <mergeCells count="202">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
     <mergeCell ref="H1:V1"/>
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
@@ -7217,30 +6999,165 @@
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
     <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:X10"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="AB10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AU24:BD24"/>
+    <mergeCell ref="BE24:BP24"/>
+    <mergeCell ref="BQ24:CI24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AU25:BD25"/>
+    <mergeCell ref="BE25:BP25"/>
+    <mergeCell ref="BQ25:CI25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AU26:BD26"/>
+    <mergeCell ref="BE26:BP26"/>
+    <mergeCell ref="BQ26:CI26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AT26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{308C9844-17C3-4315-84BD-F4A65733C034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A06B254-CFA2-42A8-99A5-7274D4997830}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{308C9844-17C3-4315-84BD-F4A65733C034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E7C29D6-81DC-42BB-AFAC-177F1B32D122}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C53B175D-BF06-4D0B-A7EA-F2E885AD5F26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C53B175D-BF06-4D0B-A7EA-F2E885AD5F26}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>システム名</t>
   </si>
@@ -324,19 +324,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abc123</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -367,17 +359,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>??? さんの試験結果</t>
-    <rPh sb="7" eb="9">
+    <t>受験ID　？？ 様の試験結果</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>シケン</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="12" eb="14">
       <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>abc123</t>
+    <t>受験ID</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｍ_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id   </t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -496,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -522,17 +540,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1000,44 +1007,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1062,17 +1069,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1080,116 +1165,248 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1197,269 +1414,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1485,15 +1480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>645795</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>225831</xdr:rowOff>
+      <xdr:colOff>56977</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>18013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>280035</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>363162</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>92481</xdr:rowOff>
+      <xdr:rowOff>113263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1508,8 +1503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3333577" y="1306486"/>
-          <a:ext cx="2322022" cy="552450"/>
+          <a:off x="2744759" y="1327268"/>
+          <a:ext cx="2848494" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,7 +1532,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
-            <a:t>試験画面一覧</a:t>
+            <a:t>試験結果一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1916,29 +1911,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2FE56D-FECC-44A4-B63F-D1FB1AE4F0A9}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1961,22 +1959,22 @@
       <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2002,25 +2000,25 @@
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="27" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="47"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
@@ -2032,25 +2030,25 @@
     </row>
     <row r="4" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="13"/>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="25" t="s">
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="26"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
@@ -2137,11 +2135,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="26"/>
+      <c r="E10" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="51"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2169,125 +2166,115 @@
     <row r="12" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="36" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="60" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="55">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="149">
         <v>44671.56527777778</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="58">
+      <c r="F13" s="148"/>
+      <c r="G13" s="30">
         <v>60</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="55">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="149">
         <v>44672.663888888892</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="58">
+      <c r="F14" s="148"/>
+      <c r="G14" s="30">
         <v>70</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="55">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="149">
         <v>44673.558333333334</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="58">
+      <c r="F15" s="148"/>
+      <c r="G15" s="30">
         <v>70</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="57">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="149">
         <v>44676.523611111108</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="58">
+      <c r="F16" s="148"/>
+      <c r="G16" s="30">
         <v>80</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="8"/>
@@ -2565,29 +2552,20 @@
       <c r="N34" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
+  <mergeCells count="37">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="D17:E17"/>
@@ -2595,19 +2573,23 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2620,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180AE42A-38F4-4CA9-A4F5-AF5669B61859}">
   <dimension ref="A1:AMK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14:AT14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ14" sqref="BQ14:CI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2634,104 +2616,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="122" t="s">
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="123" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="123"/>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="123"/>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="123"/>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="123"/>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="123"/>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="123"/>
-      <c r="AU1" s="123"/>
-      <c r="AV1" s="123"/>
-      <c r="AW1" s="123"/>
-      <c r="AX1" s="123"/>
-      <c r="AY1" s="123"/>
-      <c r="AZ1" s="123"/>
-      <c r="BA1" s="123"/>
-      <c r="BB1" s="123"/>
-      <c r="BC1" s="123"/>
-      <c r="BD1" s="123"/>
-      <c r="BE1" s="123"/>
-      <c r="BF1" s="123"/>
-      <c r="BG1" s="123"/>
-      <c r="BH1" s="123"/>
-      <c r="BI1" s="123"/>
-      <c r="BJ1" s="123"/>
-      <c r="BK1" s="123"/>
-      <c r="BL1" s="124" t="s">
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="79"/>
+      <c r="AP1" s="79"/>
+      <c r="AQ1" s="79"/>
+      <c r="AR1" s="79"/>
+      <c r="AS1" s="79"/>
+      <c r="AT1" s="79"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="BM1" s="124"/>
-      <c r="BN1" s="124"/>
-      <c r="BO1" s="124"/>
-      <c r="BP1" s="125" t="s">
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="80"/>
+      <c r="BP1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="125"/>
-      <c r="BR1" s="125"/>
-      <c r="BS1" s="125"/>
-      <c r="BT1" s="125"/>
-      <c r="BU1" s="125"/>
-      <c r="BV1" s="125"/>
-      <c r="BW1" s="125"/>
-      <c r="BX1" s="131" t="s">
+      <c r="BQ1" s="81"/>
+      <c r="BR1" s="81"/>
+      <c r="BS1" s="81"/>
+      <c r="BT1" s="81"/>
+      <c r="BU1" s="81"/>
+      <c r="BV1" s="81"/>
+      <c r="BW1" s="81"/>
+      <c r="BX1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="BY1" s="131"/>
-      <c r="BZ1" s="131"/>
-      <c r="CA1" s="131"/>
-      <c r="CB1" s="132"/>
-      <c r="CC1" s="132"/>
-      <c r="CD1" s="132"/>
-      <c r="CE1" s="132"/>
-      <c r="CF1" s="132"/>
-      <c r="CG1" s="132"/>
-      <c r="CH1" s="132"/>
-      <c r="CI1" s="132"/>
+      <c r="BY1" s="85"/>
+      <c r="BZ1" s="85"/>
+      <c r="CA1" s="85"/>
+      <c r="CB1" s="86"/>
+      <c r="CC1" s="86"/>
+      <c r="CD1" s="86"/>
+      <c r="CE1" s="86"/>
+      <c r="CF1" s="86"/>
+      <c r="CG1" s="86"/>
+      <c r="CH1" s="86"/>
+      <c r="CI1" s="86"/>
       <c r="CJ1" s="14"/>
       <c r="CK1" s="14"/>
       <c r="CL1" s="14"/>
@@ -3672,104 +3654,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14"/>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="134" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="135" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="136" t="s">
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="89"/>
+      <c r="AS2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89"/>
+      <c r="AV2" s="89"/>
+      <c r="AW2" s="89"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="89"/>
+      <c r="AZ2" s="89"/>
+      <c r="BA2" s="89"/>
+      <c r="BB2" s="89"/>
+      <c r="BC2" s="89"/>
+      <c r="BD2" s="89"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="89"/>
+      <c r="BG2" s="89"/>
+      <c r="BH2" s="89"/>
+      <c r="BI2" s="89"/>
+      <c r="BJ2" s="89"/>
+      <c r="BK2" s="89"/>
+      <c r="BL2" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="137">
+      <c r="BM2" s="90"/>
+      <c r="BN2" s="90"/>
+      <c r="BO2" s="90"/>
+      <c r="BP2" s="91">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="137"/>
-      <c r="BR2" s="137"/>
-      <c r="BS2" s="137"/>
-      <c r="BT2" s="137"/>
-      <c r="BU2" s="137"/>
-      <c r="BV2" s="137"/>
-      <c r="BW2" s="137"/>
-      <c r="BX2" s="138" t="s">
+      <c r="BQ2" s="91"/>
+      <c r="BR2" s="91"/>
+      <c r="BS2" s="91"/>
+      <c r="BT2" s="91"/>
+      <c r="BU2" s="91"/>
+      <c r="BV2" s="91"/>
+      <c r="BW2" s="91"/>
+      <c r="BX2" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="138"/>
-      <c r="BZ2" s="138"/>
-      <c r="CA2" s="138"/>
-      <c r="CB2" s="139"/>
-      <c r="CC2" s="139"/>
-      <c r="CD2" s="139"/>
-      <c r="CE2" s="139"/>
-      <c r="CF2" s="139"/>
-      <c r="CG2" s="139"/>
-      <c r="CH2" s="139"/>
-      <c r="CI2" s="139"/>
+      <c r="BY2" s="92"/>
+      <c r="BZ2" s="92"/>
+      <c r="CA2" s="92"/>
+      <c r="CB2" s="93"/>
+      <c r="CC2" s="93"/>
+      <c r="CD2" s="93"/>
+      <c r="CE2" s="93"/>
+      <c r="CF2" s="93"/>
+      <c r="CG2" s="93"/>
+      <c r="CH2" s="93"/>
+      <c r="CI2" s="93"/>
       <c r="CJ2" s="14"/>
       <c r="CK2" s="14"/>
       <c r="CL2" s="14"/>
@@ -4797,2181 +4779,2333 @@
       <c r="CI3" s="16"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142" t="s">
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="142"/>
-      <c r="AM4" s="142"/>
-      <c r="AN4" s="142"/>
-      <c r="AO4" s="142"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="142"/>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="143" t="s">
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="96"/>
+      <c r="AK4" s="96"/>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="96"/>
+      <c r="AR4" s="96"/>
+      <c r="AS4" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="143"/>
-      <c r="AV4" s="143"/>
-      <c r="AW4" s="143"/>
-      <c r="AX4" s="143"/>
-      <c r="AY4" s="143"/>
-      <c r="AZ4" s="143"/>
-      <c r="BA4" s="143"/>
-      <c r="BB4" s="143"/>
-      <c r="BC4" s="143"/>
-      <c r="BD4" s="143"/>
-      <c r="BE4" s="143"/>
-      <c r="BF4" s="143"/>
-      <c r="BG4" s="143"/>
-      <c r="BH4" s="143"/>
-      <c r="BI4" s="143"/>
-      <c r="BJ4" s="143"/>
-      <c r="BK4" s="143"/>
-      <c r="BL4" s="143"/>
-      <c r="BM4" s="143"/>
-      <c r="BN4" s="143"/>
-      <c r="BO4" s="143"/>
-      <c r="BP4" s="143"/>
-      <c r="BQ4" s="143"/>
-      <c r="BR4" s="143"/>
-      <c r="BS4" s="143"/>
-      <c r="BT4" s="143"/>
-      <c r="BU4" s="143"/>
-      <c r="BV4" s="143"/>
-      <c r="BW4" s="143"/>
-      <c r="BX4" s="143"/>
-      <c r="BY4" s="143"/>
-      <c r="BZ4" s="143"/>
-      <c r="CA4" s="143"/>
-      <c r="CB4" s="143"/>
-      <c r="CC4" s="143"/>
-      <c r="CD4" s="143"/>
-      <c r="CE4" s="143"/>
-      <c r="CF4" s="143"/>
-      <c r="CG4" s="143"/>
-      <c r="CH4" s="143"/>
-      <c r="CI4" s="143"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="97"/>
+      <c r="BM4" s="97"/>
+      <c r="BN4" s="97"/>
+      <c r="BO4" s="97"/>
+      <c r="BP4" s="97"/>
+      <c r="BQ4" s="97"/>
+      <c r="BR4" s="97"/>
+      <c r="BS4" s="97"/>
+      <c r="BT4" s="97"/>
+      <c r="BU4" s="97"/>
+      <c r="BV4" s="97"/>
+      <c r="BW4" s="97"/>
+      <c r="BX4" s="97"/>
+      <c r="BY4" s="97"/>
+      <c r="BZ4" s="97"/>
+      <c r="CA4" s="97"/>
+      <c r="CB4" s="97"/>
+      <c r="CC4" s="97"/>
+      <c r="CD4" s="97"/>
+      <c r="CE4" s="97"/>
+      <c r="CF4" s="97"/>
+      <c r="CG4" s="97"/>
+      <c r="CH4" s="97"/>
+      <c r="CI4" s="97"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="144">
+      <c r="B5" s="54">
         <v>1</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="145"/>
-      <c r="R5" s="145"/>
-      <c r="S5" s="145"/>
-      <c r="T5" s="145"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="145"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="145"/>
-      <c r="Y5" s="145" t="s">
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="145"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="145"/>
-      <c r="AG5" s="145"/>
-      <c r="AH5" s="145"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="145"/>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="145"/>
-      <c r="AM5" s="145"/>
-      <c r="AN5" s="145"/>
-      <c r="AO5" s="145"/>
-      <c r="AP5" s="145"/>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="145"/>
-      <c r="AS5" s="146" t="s">
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="146"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="146"/>
-      <c r="AZ5" s="146"/>
-      <c r="BA5" s="146"/>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="146"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="146"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
-      <c r="BJ5" s="146"/>
-      <c r="BK5" s="146"/>
-      <c r="BL5" s="146"/>
-      <c r="BM5" s="146"/>
-      <c r="BN5" s="146"/>
-      <c r="BO5" s="146"/>
-      <c r="BP5" s="146"/>
-      <c r="BQ5" s="146"/>
-      <c r="BR5" s="146"/>
-      <c r="BS5" s="146"/>
-      <c r="BT5" s="146"/>
-      <c r="BU5" s="146"/>
-      <c r="BV5" s="146"/>
-      <c r="BW5" s="146"/>
-      <c r="BX5" s="146"/>
-      <c r="BY5" s="146"/>
-      <c r="BZ5" s="146"/>
-      <c r="CA5" s="146"/>
-      <c r="CB5" s="146"/>
-      <c r="CC5" s="146"/>
-      <c r="CD5" s="146"/>
-      <c r="CE5" s="146"/>
-      <c r="CF5" s="146"/>
-      <c r="CG5" s="146"/>
-      <c r="CH5" s="146"/>
-      <c r="CI5" s="146"/>
+      <c r="AT5" s="56"/>
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="56"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="56"/>
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56"/>
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="56"/>
+      <c r="BH5" s="56"/>
+      <c r="BI5" s="56"/>
+      <c r="BJ5" s="56"/>
+      <c r="BK5" s="56"/>
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="56"/>
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="56"/>
+      <c r="BP5" s="56"/>
+      <c r="BQ5" s="56"/>
+      <c r="BR5" s="56"/>
+      <c r="BS5" s="56"/>
+      <c r="BT5" s="56"/>
+      <c r="BU5" s="56"/>
+      <c r="BV5" s="56"/>
+      <c r="BW5" s="56"/>
+      <c r="BX5" s="56"/>
+      <c r="BY5" s="56"/>
+      <c r="BZ5" s="56"/>
+      <c r="CA5" s="56"/>
+      <c r="CB5" s="56"/>
+      <c r="CC5" s="56"/>
+      <c r="CD5" s="56"/>
+      <c r="CE5" s="56"/>
+      <c r="CF5" s="56"/>
+      <c r="CG5" s="56"/>
+      <c r="CH5" s="56"/>
+      <c r="CI5" s="56"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="126"/>
-      <c r="Q6" s="126"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="126"/>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
-      <c r="V6" s="126"/>
-      <c r="W6" s="126"/>
-      <c r="X6" s="126"/>
-      <c r="Y6" s="126"/>
-      <c r="Z6" s="126"/>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="126"/>
-      <c r="AC6" s="126"/>
-      <c r="AD6" s="126"/>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="126"/>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="126"/>
-      <c r="AK6" s="126"/>
-      <c r="AL6" s="126"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="126"/>
-      <c r="AO6" s="126"/>
-      <c r="AP6" s="126"/>
-      <c r="AQ6" s="126"/>
-      <c r="AR6" s="126"/>
-      <c r="AS6" s="126"/>
-      <c r="AT6" s="126"/>
-      <c r="AU6" s="126"/>
-      <c r="AV6" s="126"/>
-      <c r="AW6" s="126"/>
-      <c r="AX6" s="126"/>
-      <c r="AY6" s="126"/>
-      <c r="AZ6" s="126"/>
-      <c r="BA6" s="126"/>
-      <c r="BB6" s="126"/>
-      <c r="BC6" s="126"/>
-      <c r="BD6" s="126"/>
-      <c r="BE6" s="126"/>
-      <c r="BF6" s="126"/>
-      <c r="BG6" s="126"/>
-      <c r="BH6" s="126"/>
-      <c r="BI6" s="126"/>
-      <c r="BJ6" s="126"/>
-      <c r="BK6" s="126"/>
-      <c r="BL6" s="126"/>
-      <c r="BM6" s="126"/>
-      <c r="BN6" s="126"/>
-      <c r="BO6" s="126"/>
-      <c r="BP6" s="126"/>
-      <c r="BQ6" s="126"/>
-      <c r="BR6" s="126"/>
-      <c r="BS6" s="126"/>
-      <c r="BT6" s="126"/>
-      <c r="BU6" s="126"/>
-      <c r="BV6" s="126"/>
-      <c r="BW6" s="126"/>
-      <c r="BX6" s="126"/>
-      <c r="BY6" s="126"/>
-      <c r="BZ6" s="126"/>
-      <c r="CA6" s="126"/>
-      <c r="CB6" s="126"/>
-      <c r="CC6" s="126"/>
-      <c r="CD6" s="126"/>
-      <c r="CE6" s="126"/>
-      <c r="CF6" s="126"/>
-      <c r="CG6" s="126"/>
-      <c r="CH6" s="126"/>
-      <c r="CI6" s="126"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="82"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="82"/>
+      <c r="AC6" s="82"/>
+      <c r="AD6" s="82"/>
+      <c r="AE6" s="82"/>
+      <c r="AF6" s="82"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="82"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="82"/>
+      <c r="AM6" s="82"/>
+      <c r="AN6" s="82"/>
+      <c r="AO6" s="82"/>
+      <c r="AP6" s="82"/>
+      <c r="AQ6" s="82"/>
+      <c r="AR6" s="82"/>
+      <c r="AS6" s="82"/>
+      <c r="AT6" s="82"/>
+      <c r="AU6" s="82"/>
+      <c r="AV6" s="82"/>
+      <c r="AW6" s="82"/>
+      <c r="AX6" s="82"/>
+      <c r="AY6" s="82"/>
+      <c r="AZ6" s="82"/>
+      <c r="BA6" s="82"/>
+      <c r="BB6" s="82"/>
+      <c r="BC6" s="82"/>
+      <c r="BD6" s="82"/>
+      <c r="BE6" s="82"/>
+      <c r="BF6" s="82"/>
+      <c r="BG6" s="82"/>
+      <c r="BH6" s="82"/>
+      <c r="BI6" s="82"/>
+      <c r="BJ6" s="82"/>
+      <c r="BK6" s="82"/>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="82"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
+      <c r="BR6" s="82"/>
+      <c r="BS6" s="82"/>
+      <c r="BT6" s="82"/>
+      <c r="BU6" s="82"/>
+      <c r="BV6" s="82"/>
+      <c r="BW6" s="82"/>
+      <c r="BX6" s="82"/>
+      <c r="BY6" s="82"/>
+      <c r="BZ6" s="82"/>
+      <c r="CA6" s="82"/>
+      <c r="CB6" s="82"/>
+      <c r="CC6" s="82"/>
+      <c r="CD6" s="82"/>
+      <c r="CE6" s="82"/>
+      <c r="CF6" s="82"/>
+      <c r="CG6" s="82"/>
+      <c r="CH6" s="82"/>
+      <c r="CI6" s="82"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="129"/>
-      <c r="V7" s="129"/>
-      <c r="W7" s="129"/>
-      <c r="X7" s="130"/>
-      <c r="Y7" s="128" t="s">
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="Z7" s="129"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="128" t="s">
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="130"/>
-      <c r="AH7" s="128" t="s">
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="AI7" s="129"/>
-      <c r="AJ7" s="130"/>
-      <c r="AK7" s="128" t="s">
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="AL7" s="129"/>
-      <c r="AM7" s="129"/>
-      <c r="AN7" s="129"/>
-      <c r="AO7" s="129"/>
-      <c r="AP7" s="129"/>
-      <c r="AQ7" s="129"/>
-      <c r="AR7" s="149"/>
-      <c r="AS7" s="149"/>
-      <c r="AT7" s="150"/>
-      <c r="AU7" s="147" t="s">
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="73"/>
+      <c r="AU7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="AV7" s="147"/>
-      <c r="AW7" s="147"/>
-      <c r="AX7" s="147"/>
-      <c r="AY7" s="147"/>
-      <c r="AZ7" s="147"/>
-      <c r="BA7" s="147"/>
-      <c r="BB7" s="147"/>
-      <c r="BC7" s="147"/>
-      <c r="BD7" s="147"/>
-      <c r="BE7" s="147"/>
-      <c r="BF7" s="147"/>
-      <c r="BG7" s="147"/>
-      <c r="BH7" s="147"/>
-      <c r="BI7" s="147"/>
-      <c r="BJ7" s="147"/>
-      <c r="BK7" s="147"/>
-      <c r="BL7" s="147"/>
-      <c r="BM7" s="147"/>
-      <c r="BN7" s="147"/>
-      <c r="BO7" s="147"/>
-      <c r="BP7" s="147"/>
-      <c r="BQ7" s="148" t="s">
+      <c r="AV7" s="68"/>
+      <c r="AW7" s="68"/>
+      <c r="AX7" s="68"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="68"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="68"/>
+      <c r="BC7" s="68"/>
+      <c r="BD7" s="68"/>
+      <c r="BE7" s="68"/>
+      <c r="BF7" s="68"/>
+      <c r="BG7" s="68"/>
+      <c r="BH7" s="68"/>
+      <c r="BI7" s="68"/>
+      <c r="BJ7" s="68"/>
+      <c r="BK7" s="68"/>
+      <c r="BL7" s="68"/>
+      <c r="BM7" s="68"/>
+      <c r="BN7" s="68"/>
+      <c r="BO7" s="68"/>
+      <c r="BP7" s="68"/>
+      <c r="BQ7" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="BR7" s="148"/>
-      <c r="BS7" s="148"/>
-      <c r="BT7" s="148"/>
-      <c r="BU7" s="148"/>
-      <c r="BV7" s="148"/>
-      <c r="BW7" s="148"/>
-      <c r="BX7" s="148"/>
-      <c r="BY7" s="148"/>
-      <c r="BZ7" s="148"/>
-      <c r="CA7" s="148"/>
-      <c r="CB7" s="148"/>
-      <c r="CC7" s="148"/>
-      <c r="CD7" s="148"/>
-      <c r="CE7" s="148"/>
-      <c r="CF7" s="148"/>
-      <c r="CG7" s="148"/>
-      <c r="CH7" s="148"/>
-      <c r="CI7" s="148"/>
+      <c r="BR7" s="69"/>
+      <c r="BS7" s="69"/>
+      <c r="BT7" s="69"/>
+      <c r="BU7" s="69"/>
+      <c r="BV7" s="69"/>
+      <c r="BW7" s="69"/>
+      <c r="BX7" s="69"/>
+      <c r="BY7" s="69"/>
+      <c r="BZ7" s="69"/>
+      <c r="CA7" s="69"/>
+      <c r="CB7" s="69"/>
+      <c r="CC7" s="69"/>
+      <c r="CD7" s="69"/>
+      <c r="CE7" s="69"/>
+      <c r="CF7" s="69"/>
+      <c r="CG7" s="69"/>
+      <c r="CH7" s="69"/>
+      <c r="CI7" s="69"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="101">
+      <c r="B8" s="57">
         <f t="shared" ref="B8:B15" si="0">ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="114" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="116"/>
-      <c r="Y8" s="117"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="115"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="117"/>
-      <c r="AI8" s="118"/>
-      <c r="AJ8" s="119"/>
-      <c r="AK8" s="114"/>
-      <c r="AL8" s="115"/>
-      <c r="AM8" s="115"/>
-      <c r="AN8" s="115"/>
-      <c r="AO8" s="115"/>
-      <c r="AP8" s="115"/>
-      <c r="AQ8" s="115"/>
-      <c r="AR8" s="120"/>
-      <c r="AS8" s="120"/>
-      <c r="AT8" s="121"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="112"/>
-      <c r="AW8" s="112"/>
-      <c r="AX8" s="112"/>
-      <c r="AY8" s="112"/>
-      <c r="AZ8" s="112"/>
-      <c r="BA8" s="112"/>
-      <c r="BB8" s="112"/>
-      <c r="BC8" s="112"/>
-      <c r="BD8" s="112"/>
-      <c r="BE8" s="112"/>
-      <c r="BF8" s="112"/>
-      <c r="BG8" s="112"/>
-      <c r="BH8" s="112"/>
-      <c r="BI8" s="112"/>
-      <c r="BJ8" s="112"/>
-      <c r="BK8" s="112"/>
-      <c r="BL8" s="112"/>
-      <c r="BM8" s="112"/>
-      <c r="BN8" s="112"/>
-      <c r="BO8" s="112"/>
-      <c r="BP8" s="112"/>
-      <c r="BQ8" s="151"/>
-      <c r="BR8" s="151"/>
-      <c r="BS8" s="151"/>
-      <c r="BT8" s="151"/>
-      <c r="BU8" s="151"/>
-      <c r="BV8" s="151"/>
-      <c r="BW8" s="151"/>
-      <c r="BX8" s="151"/>
-      <c r="BY8" s="151"/>
-      <c r="BZ8" s="151"/>
-      <c r="CA8" s="151"/>
-      <c r="CB8" s="151"/>
-      <c r="CC8" s="151"/>
-      <c r="CD8" s="151"/>
-      <c r="CE8" s="151"/>
-      <c r="CF8" s="151"/>
-      <c r="CG8" s="151"/>
-      <c r="CH8" s="151"/>
-      <c r="CI8" s="151"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="61"/>
+      <c r="AF8" s="61"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="65"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="61"/>
+      <c r="AM8" s="61"/>
+      <c r="AN8" s="61"/>
+      <c r="AO8" s="61"/>
+      <c r="AP8" s="61"/>
+      <c r="AQ8" s="61"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="67"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="74"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="75"/>
+      <c r="BR8" s="75"/>
+      <c r="BS8" s="75"/>
+      <c r="BT8" s="75"/>
+      <c r="BU8" s="75"/>
+      <c r="BV8" s="75"/>
+      <c r="BW8" s="75"/>
+      <c r="BX8" s="75"/>
+      <c r="BY8" s="75"/>
+      <c r="BZ8" s="75"/>
+      <c r="CA8" s="75"/>
+      <c r="CB8" s="75"/>
+      <c r="CC8" s="75"/>
+      <c r="CD8" s="75"/>
+      <c r="CE8" s="75"/>
+      <c r="CF8" s="75"/>
+      <c r="CG8" s="75"/>
+      <c r="CH8" s="75"/>
+      <c r="CI8" s="75"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="101">
+      <c r="B9" s="57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="95" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="104" t="s">
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="100"/>
+      <c r="Y9" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="96"/>
-      <c r="AG9" s="97"/>
-      <c r="AH9" s="104" t="s">
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="99"/>
+      <c r="AD9" s="99"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="100"/>
+      <c r="AH9" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="AI9" s="105"/>
-      <c r="AJ9" s="106"/>
-      <c r="AK9" s="95"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="96"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="91"/>
-      <c r="AU9" s="110" t="s">
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="99"/>
+      <c r="AN9" s="99"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="AV9" s="110"/>
-      <c r="AW9" s="110"/>
-      <c r="AX9" s="110"/>
-      <c r="AY9" s="110"/>
-      <c r="AZ9" s="110"/>
-      <c r="BA9" s="110"/>
-      <c r="BB9" s="110"/>
-      <c r="BC9" s="110"/>
-      <c r="BD9" s="110"/>
-      <c r="BE9" s="110" t="s">
+      <c r="AV9" s="76"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76"/>
+      <c r="AY9" s="76"/>
+      <c r="AZ9" s="76"/>
+      <c r="BA9" s="76"/>
+      <c r="BB9" s="76"/>
+      <c r="BC9" s="76"/>
+      <c r="BD9" s="76"/>
+      <c r="BE9" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="BF9" s="110"/>
-      <c r="BG9" s="110"/>
-      <c r="BH9" s="110"/>
-      <c r="BI9" s="110"/>
-      <c r="BJ9" s="110"/>
-      <c r="BK9" s="110"/>
-      <c r="BL9" s="110"/>
-      <c r="BM9" s="110"/>
-      <c r="BN9" s="110"/>
-      <c r="BO9" s="110"/>
-      <c r="BP9" s="110"/>
-      <c r="BQ9" s="111"/>
-      <c r="BR9" s="111"/>
-      <c r="BS9" s="111"/>
-      <c r="BT9" s="111"/>
-      <c r="BU9" s="111"/>
-      <c r="BV9" s="111"/>
-      <c r="BW9" s="111"/>
-      <c r="BX9" s="111"/>
-      <c r="BY9" s="111"/>
-      <c r="BZ9" s="111"/>
-      <c r="CA9" s="111"/>
-      <c r="CB9" s="111"/>
-      <c r="CC9" s="111"/>
-      <c r="CD9" s="111"/>
-      <c r="CE9" s="111"/>
-      <c r="CF9" s="111"/>
-      <c r="CG9" s="111"/>
-      <c r="CH9" s="111"/>
-      <c r="CI9" s="111"/>
+      <c r="BF9" s="76"/>
+      <c r="BG9" s="76"/>
+      <c r="BH9" s="76"/>
+      <c r="BI9" s="76"/>
+      <c r="BJ9" s="76"/>
+      <c r="BK9" s="76"/>
+      <c r="BL9" s="76"/>
+      <c r="BM9" s="76"/>
+      <c r="BN9" s="76"/>
+      <c r="BO9" s="76"/>
+      <c r="BP9" s="76"/>
+      <c r="BQ9" s="77"/>
+      <c r="BR9" s="77"/>
+      <c r="BS9" s="77"/>
+      <c r="BT9" s="77"/>
+      <c r="BU9" s="77"/>
+      <c r="BV9" s="77"/>
+      <c r="BW9" s="77"/>
+      <c r="BX9" s="77"/>
+      <c r="BY9" s="77"/>
+      <c r="BZ9" s="77"/>
+      <c r="CA9" s="77"/>
+      <c r="CB9" s="77"/>
+      <c r="CC9" s="77"/>
+      <c r="CD9" s="77"/>
+      <c r="CE9" s="77"/>
+      <c r="CF9" s="77"/>
+      <c r="CG9" s="77"/>
+      <c r="CH9" s="77"/>
+      <c r="CI9" s="77"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="101">
+      <c r="B10" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="114" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="116"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="115"/>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="115"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="117"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="119"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="115"/>
-      <c r="AM10" s="115"/>
-      <c r="AN10" s="115"/>
-      <c r="AO10" s="115"/>
-      <c r="AP10" s="115"/>
-      <c r="AQ10" s="115"/>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="121"/>
-      <c r="AU10" s="112"/>
-      <c r="AV10" s="112"/>
-      <c r="AW10" s="112"/>
-      <c r="AX10" s="112"/>
-      <c r="AY10" s="112"/>
-      <c r="AZ10" s="112"/>
-      <c r="BA10" s="112"/>
-      <c r="BB10" s="112"/>
-      <c r="BC10" s="112"/>
-      <c r="BD10" s="112"/>
-      <c r="BE10" s="112"/>
-      <c r="BF10" s="112"/>
-      <c r="BG10" s="112"/>
-      <c r="BH10" s="112"/>
-      <c r="BI10" s="112"/>
-      <c r="BJ10" s="112"/>
-      <c r="BK10" s="112"/>
-      <c r="BL10" s="112"/>
-      <c r="BM10" s="112"/>
-      <c r="BN10" s="112"/>
-      <c r="BO10" s="112"/>
-      <c r="BP10" s="112"/>
-      <c r="BQ10" s="113"/>
-      <c r="BR10" s="113"/>
-      <c r="BS10" s="113"/>
-      <c r="BT10" s="113"/>
-      <c r="BU10" s="113"/>
-      <c r="BV10" s="113"/>
-      <c r="BW10" s="113"/>
-      <c r="BX10" s="113"/>
-      <c r="BY10" s="113"/>
-      <c r="BZ10" s="113"/>
-      <c r="CA10" s="113"/>
-      <c r="CB10" s="113"/>
-      <c r="CC10" s="113"/>
-      <c r="CD10" s="113"/>
-      <c r="CE10" s="113"/>
-      <c r="CF10" s="113"/>
-      <c r="CG10" s="113"/>
-      <c r="CH10" s="113"/>
-      <c r="CI10" s="113"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="67"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="74"/>
+      <c r="BK10" s="74"/>
+      <c r="BL10" s="74"/>
+      <c r="BM10" s="74"/>
+      <c r="BN10" s="74"/>
+      <c r="BO10" s="74"/>
+      <c r="BP10" s="74"/>
+      <c r="BQ10" s="106"/>
+      <c r="BR10" s="106"/>
+      <c r="BS10" s="106"/>
+      <c r="BT10" s="106"/>
+      <c r="BU10" s="106"/>
+      <c r="BV10" s="106"/>
+      <c r="BW10" s="106"/>
+      <c r="BX10" s="106"/>
+      <c r="BY10" s="106"/>
+      <c r="BZ10" s="106"/>
+      <c r="CA10" s="106"/>
+      <c r="CB10" s="106"/>
+      <c r="CC10" s="106"/>
+      <c r="CD10" s="106"/>
+      <c r="CE10" s="106"/>
+      <c r="CF10" s="106"/>
+      <c r="CG10" s="106"/>
+      <c r="CH10" s="106"/>
+      <c r="CI10" s="106"/>
     </row>
     <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="101">
+      <c r="B11" s="57">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="95" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="104" t="s">
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="100"/>
+      <c r="Y11" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="95" t="s">
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="97"/>
-      <c r="AH11" s="104" t="s">
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="AI11" s="105"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="95" t="s">
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="96"/>
-      <c r="AQ11" s="96"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="91"/>
-      <c r="AU11" s="110" t="s">
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="99"/>
+      <c r="AN11" s="99"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="99"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="104"/>
+      <c r="AS11" s="104"/>
+      <c r="AT11" s="105"/>
+      <c r="AU11" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="110"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="110"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110" t="s">
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="76"/>
+      <c r="AZ11" s="76"/>
+      <c r="BA11" s="76"/>
+      <c r="BB11" s="76"/>
+      <c r="BC11" s="76"/>
+      <c r="BD11" s="76"/>
+      <c r="BE11" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="110"/>
-      <c r="BI11" s="110"/>
-      <c r="BJ11" s="110"/>
-      <c r="BK11" s="110"/>
-      <c r="BL11" s="110"/>
-      <c r="BM11" s="110"/>
-      <c r="BN11" s="110"/>
-      <c r="BO11" s="110"/>
-      <c r="BP11" s="110"/>
-      <c r="BQ11" s="111"/>
-      <c r="BR11" s="111"/>
-      <c r="BS11" s="111"/>
-      <c r="BT11" s="111"/>
-      <c r="BU11" s="111"/>
-      <c r="BV11" s="111"/>
-      <c r="BW11" s="111"/>
-      <c r="BX11" s="111"/>
-      <c r="BY11" s="111"/>
-      <c r="BZ11" s="111"/>
-      <c r="CA11" s="111"/>
-      <c r="CB11" s="111"/>
-      <c r="CC11" s="111"/>
-      <c r="CD11" s="111"/>
-      <c r="CE11" s="111"/>
-      <c r="CF11" s="111"/>
-      <c r="CG11" s="111"/>
-      <c r="CH11" s="111"/>
-      <c r="CI11" s="111"/>
+      <c r="BF11" s="76"/>
+      <c r="BG11" s="76"/>
+      <c r="BH11" s="76"/>
+      <c r="BI11" s="76"/>
+      <c r="BJ11" s="76"/>
+      <c r="BK11" s="76"/>
+      <c r="BL11" s="76"/>
+      <c r="BM11" s="76"/>
+      <c r="BN11" s="76"/>
+      <c r="BO11" s="76"/>
+      <c r="BP11" s="76"/>
+      <c r="BQ11" s="77"/>
+      <c r="BR11" s="77"/>
+      <c r="BS11" s="77"/>
+      <c r="BT11" s="77"/>
+      <c r="BU11" s="77"/>
+      <c r="BV11" s="77"/>
+      <c r="BW11" s="77"/>
+      <c r="BX11" s="77"/>
+      <c r="BY11" s="77"/>
+      <c r="BZ11" s="77"/>
+      <c r="CA11" s="77"/>
+      <c r="CB11" s="77"/>
+      <c r="CC11" s="77"/>
+      <c r="CD11" s="77"/>
+      <c r="CE11" s="77"/>
+      <c r="CF11" s="77"/>
+      <c r="CG11" s="77"/>
+      <c r="CH11" s="77"/>
+      <c r="CI11" s="77"/>
     </row>
     <row r="12" spans="1:1024" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="101">
+      <c r="B12" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="95" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="104" t="s">
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="100"/>
+      <c r="Y12" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="105"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="95" t="s">
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="104"/>
-      <c r="AI12" s="105"/>
-      <c r="AJ12" s="106"/>
-      <c r="AK12" s="95" t="s">
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="100"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="102"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AT12" s="91"/>
-      <c r="AU12" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV12" s="96"/>
-      <c r="AW12" s="96"/>
-      <c r="AX12" s="96"/>
-      <c r="AY12" s="96"/>
-      <c r="AZ12" s="96"/>
-      <c r="BA12" s="96"/>
-      <c r="BB12" s="96"/>
-      <c r="BC12" s="96"/>
-      <c r="BD12" s="97"/>
-      <c r="BE12" s="152" t="s">
-        <v>59</v>
-      </c>
-      <c r="BF12" s="153"/>
-      <c r="BG12" s="153"/>
-      <c r="BH12" s="153"/>
-      <c r="BI12" s="153"/>
-      <c r="BJ12" s="153"/>
-      <c r="BK12" s="153"/>
-      <c r="BL12" s="153"/>
-      <c r="BM12" s="153"/>
-      <c r="BN12" s="153"/>
-      <c r="BO12" s="153"/>
-      <c r="BP12" s="153"/>
-      <c r="BQ12" s="111" t="s">
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="104"/>
+      <c r="AS12" s="104"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="99"/>
+      <c r="BA12" s="99"/>
+      <c r="BB12" s="99"/>
+      <c r="BC12" s="99"/>
+      <c r="BD12" s="100"/>
+      <c r="BE12" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF12" s="108"/>
+      <c r="BG12" s="108"/>
+      <c r="BH12" s="108"/>
+      <c r="BI12" s="108"/>
+      <c r="BJ12" s="108"/>
+      <c r="BK12" s="108"/>
+      <c r="BL12" s="108"/>
+      <c r="BM12" s="108"/>
+      <c r="BN12" s="108"/>
+      <c r="BO12" s="108"/>
+      <c r="BP12" s="108"/>
+      <c r="BQ12" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="BR12" s="111"/>
-      <c r="BS12" s="111"/>
-      <c r="BT12" s="111"/>
-      <c r="BU12" s="111"/>
-      <c r="BV12" s="111"/>
-      <c r="BW12" s="111"/>
-      <c r="BX12" s="111"/>
-      <c r="BY12" s="111"/>
-      <c r="BZ12" s="111"/>
-      <c r="CA12" s="111"/>
-      <c r="CB12" s="111"/>
-      <c r="CC12" s="111"/>
-      <c r="CD12" s="111"/>
-      <c r="CE12" s="111"/>
-      <c r="CF12" s="111"/>
-      <c r="CG12" s="111"/>
-      <c r="CH12" s="111"/>
-      <c r="CI12" s="111"/>
+      <c r="BR12" s="77"/>
+      <c r="BS12" s="77"/>
+      <c r="BT12" s="77"/>
+      <c r="BU12" s="77"/>
+      <c r="BV12" s="77"/>
+      <c r="BW12" s="77"/>
+      <c r="BX12" s="77"/>
+      <c r="BY12" s="77"/>
+      <c r="BZ12" s="77"/>
+      <c r="CA12" s="77"/>
+      <c r="CB12" s="77"/>
+      <c r="CC12" s="77"/>
+      <c r="CD12" s="77"/>
+      <c r="CE12" s="77"/>
+      <c r="CF12" s="77"/>
+      <c r="CG12" s="77"/>
+      <c r="CH12" s="77"/>
+      <c r="CI12" s="77"/>
     </row>
     <row r="13" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="101">
+      <c r="B13" s="57">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="95" t="s">
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="104" t="s">
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+      <c r="X13" s="100"/>
+      <c r="Y13" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="95" t="s">
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="104" t="s">
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="99"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="99"/>
+      <c r="AG13" s="100"/>
+      <c r="AH13" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="AI13" s="105"/>
-      <c r="AJ13" s="106"/>
-      <c r="AK13" s="95" t="s">
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="90"/>
-      <c r="AS13" s="90"/>
-      <c r="AT13" s="91"/>
-      <c r="AU13" s="95" t="s">
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="99"/>
+      <c r="AN13" s="99"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="99"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="104"/>
+      <c r="AS13" s="104"/>
+      <c r="AT13" s="105"/>
+      <c r="AU13" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="AV13" s="96"/>
-      <c r="AW13" s="96"/>
-      <c r="AX13" s="96"/>
-      <c r="AY13" s="96"/>
-      <c r="AZ13" s="96"/>
-      <c r="BA13" s="96"/>
-      <c r="BB13" s="96"/>
-      <c r="BC13" s="96"/>
-      <c r="BD13" s="97"/>
-      <c r="BE13" s="110" t="s">
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="99"/>
+      <c r="AY13" s="99"/>
+      <c r="AZ13" s="99"/>
+      <c r="BA13" s="99"/>
+      <c r="BB13" s="99"/>
+      <c r="BC13" s="99"/>
+      <c r="BD13" s="100"/>
+      <c r="BE13" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="BF13" s="110"/>
-      <c r="BG13" s="110"/>
-      <c r="BH13" s="110"/>
-      <c r="BI13" s="110"/>
-      <c r="BJ13" s="110"/>
-      <c r="BK13" s="110"/>
-      <c r="BL13" s="110"/>
-      <c r="BM13" s="110"/>
-      <c r="BN13" s="110"/>
-      <c r="BO13" s="110"/>
-      <c r="BP13" s="110"/>
-      <c r="BQ13" s="111" t="s">
-        <v>57</v>
-      </c>
-      <c r="BR13" s="111"/>
-      <c r="BS13" s="111"/>
-      <c r="BT13" s="111"/>
-      <c r="BU13" s="111"/>
-      <c r="BV13" s="111"/>
-      <c r="BW13" s="111"/>
-      <c r="BX13" s="111"/>
-      <c r="BY13" s="111"/>
-      <c r="BZ13" s="111"/>
-      <c r="CA13" s="111"/>
-      <c r="CB13" s="111"/>
-      <c r="CC13" s="111"/>
-      <c r="CD13" s="111"/>
-      <c r="CE13" s="111"/>
-      <c r="CF13" s="111"/>
-      <c r="CG13" s="111"/>
-      <c r="CH13" s="111"/>
-      <c r="CI13" s="111"/>
+      <c r="BF13" s="76"/>
+      <c r="BG13" s="76"/>
+      <c r="BH13" s="76"/>
+      <c r="BI13" s="76"/>
+      <c r="BJ13" s="76"/>
+      <c r="BK13" s="76"/>
+      <c r="BL13" s="76"/>
+      <c r="BM13" s="76"/>
+      <c r="BN13" s="76"/>
+      <c r="BO13" s="76"/>
+      <c r="BP13" s="76"/>
+      <c r="BQ13" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR13" s="77"/>
+      <c r="BS13" s="77"/>
+      <c r="BT13" s="77"/>
+      <c r="BU13" s="77"/>
+      <c r="BV13" s="77"/>
+      <c r="BW13" s="77"/>
+      <c r="BX13" s="77"/>
+      <c r="BY13" s="77"/>
+      <c r="BZ13" s="77"/>
+      <c r="CA13" s="77"/>
+      <c r="CB13" s="77"/>
+      <c r="CC13" s="77"/>
+      <c r="CD13" s="77"/>
+      <c r="CE13" s="77"/>
+      <c r="CF13" s="77"/>
+      <c r="CG13" s="77"/>
+      <c r="CH13" s="77"/>
+      <c r="CI13" s="77"/>
     </row>
     <row r="14" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="101">
+      <c r="B14" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="96"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="104" t="s">
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="99"/>
+      <c r="R14" s="99"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="99"/>
+      <c r="U14" s="99"/>
+      <c r="V14" s="99"/>
+      <c r="W14" s="99"/>
+      <c r="X14" s="100"/>
+      <c r="Y14" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="96"/>
-      <c r="AG14" s="97"/>
-      <c r="AH14" s="104" t="s">
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC14" s="99"/>
+      <c r="AD14" s="99"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="100"/>
+      <c r="AH14" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="AI14" s="105"/>
-      <c r="AJ14" s="106"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96"/>
-      <c r="AN14" s="96"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="96"/>
-      <c r="AR14" s="90"/>
-      <c r="AS14" s="90"/>
-      <c r="AT14" s="91"/>
-      <c r="AU14" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV14" s="96"/>
-      <c r="AW14" s="96"/>
-      <c r="AX14" s="96"/>
-      <c r="AY14" s="96"/>
-      <c r="AZ14" s="96"/>
-      <c r="BA14" s="96"/>
-      <c r="BB14" s="96"/>
-      <c r="BC14" s="96"/>
-      <c r="BD14" s="97"/>
-      <c r="BE14" s="110" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF14" s="110"/>
-      <c r="BG14" s="110"/>
-      <c r="BH14" s="110"/>
-      <c r="BI14" s="110"/>
-      <c r="BJ14" s="110"/>
-      <c r="BK14" s="110"/>
-      <c r="BL14" s="110"/>
-      <c r="BM14" s="110"/>
-      <c r="BN14" s="110"/>
-      <c r="BO14" s="110"/>
-      <c r="BP14" s="110"/>
-      <c r="BQ14" s="111"/>
-      <c r="BR14" s="111"/>
-      <c r="BS14" s="111"/>
-      <c r="BT14" s="111"/>
-      <c r="BU14" s="111"/>
-      <c r="BV14" s="111"/>
-      <c r="BW14" s="111"/>
-      <c r="BX14" s="111"/>
-      <c r="BY14" s="111"/>
-      <c r="BZ14" s="111"/>
-      <c r="CA14" s="111"/>
-      <c r="CB14" s="111"/>
-      <c r="CC14" s="111"/>
-      <c r="CD14" s="111"/>
-      <c r="CE14" s="111"/>
-      <c r="CF14" s="111"/>
-      <c r="CG14" s="111"/>
-      <c r="CH14" s="111"/>
-      <c r="CI14" s="111"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="99"/>
+      <c r="AN14" s="99"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="99"/>
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="104"/>
+      <c r="AT14" s="105"/>
+      <c r="AU14" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="99"/>
+      <c r="AX14" s="99"/>
+      <c r="AY14" s="99"/>
+      <c r="AZ14" s="99"/>
+      <c r="BA14" s="99"/>
+      <c r="BB14" s="99"/>
+      <c r="BC14" s="99"/>
+      <c r="BD14" s="100"/>
+      <c r="BE14" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF14" s="76"/>
+      <c r="BG14" s="76"/>
+      <c r="BH14" s="76"/>
+      <c r="BI14" s="76"/>
+      <c r="BJ14" s="76"/>
+      <c r="BK14" s="76"/>
+      <c r="BL14" s="76"/>
+      <c r="BM14" s="76"/>
+      <c r="BN14" s="76"/>
+      <c r="BO14" s="76"/>
+      <c r="BP14" s="76"/>
+      <c r="BQ14" s="77"/>
+      <c r="BR14" s="77"/>
+      <c r="BS14" s="77"/>
+      <c r="BT14" s="77"/>
+      <c r="BU14" s="77"/>
+      <c r="BV14" s="77"/>
+      <c r="BW14" s="77"/>
+      <c r="BX14" s="77"/>
+      <c r="BY14" s="77"/>
+      <c r="BZ14" s="77"/>
+      <c r="CA14" s="77"/>
+      <c r="CB14" s="77"/>
+      <c r="CC14" s="77"/>
+      <c r="CD14" s="77"/>
+      <c r="CE14" s="77"/>
+      <c r="CF14" s="77"/>
+      <c r="CG14" s="77"/>
+      <c r="CH14" s="77"/>
+      <c r="CI14" s="77"/>
     </row>
     <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="101">
+      <c r="B15" s="57">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="104" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="99"/>
+      <c r="X15" s="100"/>
+      <c r="Y15" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="95" t="s">
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="96"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="104" t="s">
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="99"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="100"/>
+      <c r="AH15" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="AI15" s="105"/>
-      <c r="AJ15" s="106"/>
-      <c r="AK15" s="95"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="96"/>
-      <c r="AO15" s="96"/>
-      <c r="AP15" s="96"/>
-      <c r="AQ15" s="96"/>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AT15" s="91"/>
-      <c r="AU15" s="95" t="s">
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="98"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="99"/>
+      <c r="AN15" s="99"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="99"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="104"/>
+      <c r="AS15" s="104"/>
+      <c r="AT15" s="105"/>
+      <c r="AU15" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="AV15" s="96"/>
-      <c r="AW15" s="96"/>
-      <c r="AX15" s="96"/>
-      <c r="AY15" s="96"/>
-      <c r="AZ15" s="96"/>
-      <c r="BA15" s="96"/>
-      <c r="BB15" s="96"/>
-      <c r="BC15" s="96"/>
-      <c r="BD15" s="97"/>
-      <c r="BE15" s="110" t="s">
+      <c r="AV15" s="99"/>
+      <c r="AW15" s="99"/>
+      <c r="AX15" s="99"/>
+      <c r="AY15" s="99"/>
+      <c r="AZ15" s="99"/>
+      <c r="BA15" s="99"/>
+      <c r="BB15" s="99"/>
+      <c r="BC15" s="99"/>
+      <c r="BD15" s="100"/>
+      <c r="BE15" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="BF15" s="110"/>
-      <c r="BG15" s="110"/>
-      <c r="BH15" s="110"/>
-      <c r="BI15" s="110"/>
-      <c r="BJ15" s="110"/>
-      <c r="BK15" s="110"/>
-      <c r="BL15" s="110"/>
-      <c r="BM15" s="110"/>
-      <c r="BN15" s="110"/>
-      <c r="BO15" s="110"/>
-      <c r="BP15" s="110"/>
-      <c r="BQ15" s="111"/>
-      <c r="BR15" s="111"/>
-      <c r="BS15" s="111"/>
-      <c r="BT15" s="111"/>
-      <c r="BU15" s="111"/>
-      <c r="BV15" s="111"/>
-      <c r="BW15" s="111"/>
-      <c r="BX15" s="111"/>
-      <c r="BY15" s="111"/>
-      <c r="BZ15" s="111"/>
-      <c r="CA15" s="111"/>
-      <c r="CB15" s="111"/>
-      <c r="CC15" s="111"/>
-      <c r="CD15" s="111"/>
-      <c r="CE15" s="111"/>
-      <c r="CF15" s="111"/>
-      <c r="CG15" s="111"/>
-      <c r="CH15" s="111"/>
-      <c r="CI15" s="111"/>
+      <c r="BF15" s="76"/>
+      <c r="BG15" s="76"/>
+      <c r="BH15" s="76"/>
+      <c r="BI15" s="76"/>
+      <c r="BJ15" s="76"/>
+      <c r="BK15" s="76"/>
+      <c r="BL15" s="76"/>
+      <c r="BM15" s="76"/>
+      <c r="BN15" s="76"/>
+      <c r="BO15" s="76"/>
+      <c r="BP15" s="76"/>
+      <c r="BQ15" s="77"/>
+      <c r="BR15" s="77"/>
+      <c r="BS15" s="77"/>
+      <c r="BT15" s="77"/>
+      <c r="BU15" s="77"/>
+      <c r="BV15" s="77"/>
+      <c r="BW15" s="77"/>
+      <c r="BX15" s="77"/>
+      <c r="BY15" s="77"/>
+      <c r="BZ15" s="77"/>
+      <c r="CA15" s="77"/>
+      <c r="CB15" s="77"/>
+      <c r="CC15" s="77"/>
+      <c r="CD15" s="77"/>
+      <c r="CE15" s="77"/>
+      <c r="CF15" s="77"/>
+      <c r="CG15" s="77"/>
+      <c r="CH15" s="77"/>
+      <c r="CI15" s="77"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="101"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="97"/>
-      <c r="AH16" s="104"/>
-      <c r="AI16" s="105"/>
-      <c r="AJ16" s="106"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="96"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="96"/>
-      <c r="AR16" s="90"/>
-      <c r="AS16" s="90"/>
-      <c r="AT16" s="91"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="96"/>
-      <c r="AW16" s="96"/>
-      <c r="AX16" s="96"/>
-      <c r="AY16" s="96"/>
-      <c r="AZ16" s="96"/>
-      <c r="BA16" s="96"/>
-      <c r="BB16" s="96"/>
-      <c r="BC16" s="96"/>
-      <c r="BD16" s="97"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="96"/>
-      <c r="BG16" s="96"/>
-      <c r="BH16" s="96"/>
-      <c r="BI16" s="96"/>
-      <c r="BJ16" s="96"/>
-      <c r="BK16" s="96"/>
-      <c r="BL16" s="96"/>
-      <c r="BM16" s="96"/>
-      <c r="BN16" s="96"/>
-      <c r="BO16" s="96"/>
-      <c r="BP16" s="97"/>
-      <c r="BQ16" s="107"/>
-      <c r="BR16" s="108"/>
-      <c r="BS16" s="108"/>
-      <c r="BT16" s="108"/>
-      <c r="BU16" s="108"/>
-      <c r="BV16" s="108"/>
-      <c r="BW16" s="108"/>
-      <c r="BX16" s="108"/>
-      <c r="BY16" s="108"/>
-      <c r="BZ16" s="108"/>
-      <c r="CA16" s="108"/>
-      <c r="CB16" s="108"/>
-      <c r="CC16" s="108"/>
-      <c r="CD16" s="108"/>
-      <c r="CE16" s="108"/>
-      <c r="CF16" s="108"/>
-      <c r="CG16" s="108"/>
-      <c r="CH16" s="108"/>
-      <c r="CI16" s="109"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="99"/>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="100"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="100"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="99"/>
+      <c r="AN16" s="99"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="99"/>
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="104"/>
+      <c r="AS16" s="104"/>
+      <c r="AT16" s="105"/>
+      <c r="AU16" s="98"/>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="99"/>
+      <c r="AX16" s="99"/>
+      <c r="AY16" s="99"/>
+      <c r="AZ16" s="99"/>
+      <c r="BA16" s="99"/>
+      <c r="BB16" s="99"/>
+      <c r="BC16" s="99"/>
+      <c r="BD16" s="100"/>
+      <c r="BE16" s="98"/>
+      <c r="BF16" s="99"/>
+      <c r="BG16" s="99"/>
+      <c r="BH16" s="99"/>
+      <c r="BI16" s="99"/>
+      <c r="BJ16" s="99"/>
+      <c r="BK16" s="99"/>
+      <c r="BL16" s="99"/>
+      <c r="BM16" s="99"/>
+      <c r="BN16" s="99"/>
+      <c r="BO16" s="99"/>
+      <c r="BP16" s="100"/>
+      <c r="BQ16" s="109"/>
+      <c r="BR16" s="110"/>
+      <c r="BS16" s="110"/>
+      <c r="BT16" s="110"/>
+      <c r="BU16" s="110"/>
+      <c r="BV16" s="110"/>
+      <c r="BW16" s="110"/>
+      <c r="BX16" s="110"/>
+      <c r="BY16" s="110"/>
+      <c r="BZ16" s="110"/>
+      <c r="CA16" s="110"/>
+      <c r="CB16" s="110"/>
+      <c r="CC16" s="110"/>
+      <c r="CD16" s="110"/>
+      <c r="CE16" s="110"/>
+      <c r="CF16" s="110"/>
+      <c r="CG16" s="110"/>
+      <c r="CH16" s="110"/>
+      <c r="CI16" s="111"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="105"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="97"/>
-      <c r="AH17" s="104"/>
-      <c r="AI17" s="105"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="95"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="96"/>
-      <c r="AN17" s="96"/>
-      <c r="AO17" s="96"/>
-      <c r="AP17" s="96"/>
-      <c r="AQ17" s="96"/>
-      <c r="AR17" s="90"/>
-      <c r="AS17" s="90"/>
-      <c r="AT17" s="91"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="96"/>
-      <c r="AW17" s="96"/>
-      <c r="AX17" s="96"/>
-      <c r="AY17" s="96"/>
-      <c r="AZ17" s="96"/>
-      <c r="BA17" s="96"/>
-      <c r="BB17" s="96"/>
-      <c r="BC17" s="96"/>
-      <c r="BD17" s="97"/>
-      <c r="BE17" s="95"/>
-      <c r="BF17" s="96"/>
-      <c r="BG17" s="96"/>
-      <c r="BH17" s="96"/>
-      <c r="BI17" s="96"/>
-      <c r="BJ17" s="96"/>
-      <c r="BK17" s="96"/>
-      <c r="BL17" s="96"/>
-      <c r="BM17" s="96"/>
-      <c r="BN17" s="96"/>
-      <c r="BO17" s="96"/>
-      <c r="BP17" s="97"/>
-      <c r="BQ17" s="107"/>
-      <c r="BR17" s="108"/>
-      <c r="BS17" s="108"/>
-      <c r="BT17" s="108"/>
-      <c r="BU17" s="108"/>
-      <c r="BV17" s="108"/>
-      <c r="BW17" s="108"/>
-      <c r="BX17" s="108"/>
-      <c r="BY17" s="108"/>
-      <c r="BZ17" s="108"/>
-      <c r="CA17" s="108"/>
-      <c r="CB17" s="108"/>
-      <c r="CC17" s="108"/>
-      <c r="CD17" s="108"/>
-      <c r="CE17" s="108"/>
-      <c r="CF17" s="108"/>
-      <c r="CG17" s="108"/>
-      <c r="CH17" s="108"/>
-      <c r="CI17" s="109"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="99"/>
+      <c r="W17" s="99"/>
+      <c r="X17" s="100"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="105"/>
+      <c r="AU17" s="98"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="99"/>
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="99"/>
+      <c r="BA17" s="99"/>
+      <c r="BB17" s="99"/>
+      <c r="BC17" s="99"/>
+      <c r="BD17" s="100"/>
+      <c r="BE17" s="98"/>
+      <c r="BF17" s="99"/>
+      <c r="BG17" s="99"/>
+      <c r="BH17" s="99"/>
+      <c r="BI17" s="99"/>
+      <c r="BJ17" s="99"/>
+      <c r="BK17" s="99"/>
+      <c r="BL17" s="99"/>
+      <c r="BM17" s="99"/>
+      <c r="BN17" s="99"/>
+      <c r="BO17" s="99"/>
+      <c r="BP17" s="100"/>
+      <c r="BQ17" s="109"/>
+      <c r="BR17" s="110"/>
+      <c r="BS17" s="110"/>
+      <c r="BT17" s="110"/>
+      <c r="BU17" s="110"/>
+      <c r="BV17" s="110"/>
+      <c r="BW17" s="110"/>
+      <c r="BX17" s="110"/>
+      <c r="BY17" s="110"/>
+      <c r="BZ17" s="110"/>
+      <c r="CA17" s="110"/>
+      <c r="CB17" s="110"/>
+      <c r="CC17" s="110"/>
+      <c r="CD17" s="110"/>
+      <c r="CE17" s="110"/>
+      <c r="CF17" s="110"/>
+      <c r="CG17" s="110"/>
+      <c r="CH17" s="110"/>
+      <c r="CI17" s="111"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="96"/>
-      <c r="O18" s="96"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="104"/>
-      <c r="AI18" s="105"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="96"/>
-      <c r="AN18" s="96"/>
-      <c r="AO18" s="96"/>
-      <c r="AP18" s="96"/>
-      <c r="AQ18" s="96"/>
-      <c r="AR18" s="90"/>
-      <c r="AS18" s="90"/>
-      <c r="AT18" s="91"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="96"/>
-      <c r="AW18" s="96"/>
-      <c r="AX18" s="96"/>
-      <c r="AY18" s="96"/>
-      <c r="AZ18" s="96"/>
-      <c r="BA18" s="96"/>
-      <c r="BB18" s="96"/>
-      <c r="BC18" s="96"/>
-      <c r="BD18" s="97"/>
-      <c r="BE18" s="95"/>
-      <c r="BF18" s="96"/>
-      <c r="BG18" s="96"/>
-      <c r="BH18" s="96"/>
-      <c r="BI18" s="96"/>
-      <c r="BJ18" s="96"/>
-      <c r="BK18" s="96"/>
-      <c r="BL18" s="96"/>
-      <c r="BM18" s="96"/>
-      <c r="BN18" s="96"/>
-      <c r="BO18" s="96"/>
-      <c r="BP18" s="97"/>
-      <c r="BQ18" s="107"/>
-      <c r="BR18" s="108"/>
-      <c r="BS18" s="108"/>
-      <c r="BT18" s="108"/>
-      <c r="BU18" s="108"/>
-      <c r="BV18" s="108"/>
-      <c r="BW18" s="108"/>
-      <c r="BX18" s="108"/>
-      <c r="BY18" s="108"/>
-      <c r="BZ18" s="108"/>
-      <c r="CA18" s="108"/>
-      <c r="CB18" s="108"/>
-      <c r="CC18" s="108"/>
-      <c r="CD18" s="108"/>
-      <c r="CE18" s="108"/>
-      <c r="CF18" s="108"/>
-      <c r="CG18" s="108"/>
-      <c r="CH18" s="108"/>
-      <c r="CI18" s="109"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="99"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="99"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="102"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="105"/>
+      <c r="AU18" s="98"/>
+      <c r="AV18" s="99"/>
+      <c r="AW18" s="99"/>
+      <c r="AX18" s="99"/>
+      <c r="AY18" s="99"/>
+      <c r="AZ18" s="99"/>
+      <c r="BA18" s="99"/>
+      <c r="BB18" s="99"/>
+      <c r="BC18" s="99"/>
+      <c r="BD18" s="100"/>
+      <c r="BE18" s="98"/>
+      <c r="BF18" s="99"/>
+      <c r="BG18" s="99"/>
+      <c r="BH18" s="99"/>
+      <c r="BI18" s="99"/>
+      <c r="BJ18" s="99"/>
+      <c r="BK18" s="99"/>
+      <c r="BL18" s="99"/>
+      <c r="BM18" s="99"/>
+      <c r="BN18" s="99"/>
+      <c r="BO18" s="99"/>
+      <c r="BP18" s="100"/>
+      <c r="BQ18" s="109"/>
+      <c r="BR18" s="110"/>
+      <c r="BS18" s="110"/>
+      <c r="BT18" s="110"/>
+      <c r="BU18" s="110"/>
+      <c r="BV18" s="110"/>
+      <c r="BW18" s="110"/>
+      <c r="BX18" s="110"/>
+      <c r="BY18" s="110"/>
+      <c r="BZ18" s="110"/>
+      <c r="CA18" s="110"/>
+      <c r="CB18" s="110"/>
+      <c r="CC18" s="110"/>
+      <c r="CD18" s="110"/>
+      <c r="CE18" s="110"/>
+      <c r="CF18" s="110"/>
+      <c r="CG18" s="110"/>
+      <c r="CH18" s="110"/>
+      <c r="CI18" s="111"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="101"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="96"/>
-      <c r="AG19" s="97"/>
-      <c r="AH19" s="104"/>
-      <c r="AI19" s="105"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="96"/>
-      <c r="AM19" s="96"/>
-      <c r="AN19" s="96"/>
-      <c r="AO19" s="96"/>
-      <c r="AP19" s="96"/>
-      <c r="AQ19" s="96"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="90"/>
-      <c r="AT19" s="91"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="96"/>
-      <c r="AW19" s="96"/>
-      <c r="AX19" s="96"/>
-      <c r="AY19" s="96"/>
-      <c r="AZ19" s="96"/>
-      <c r="BA19" s="96"/>
-      <c r="BB19" s="96"/>
-      <c r="BC19" s="96"/>
-      <c r="BD19" s="97"/>
-      <c r="BE19" s="95"/>
-      <c r="BF19" s="96"/>
-      <c r="BG19" s="96"/>
-      <c r="BH19" s="96"/>
-      <c r="BI19" s="96"/>
-      <c r="BJ19" s="96"/>
-      <c r="BK19" s="96"/>
-      <c r="BL19" s="96"/>
-      <c r="BM19" s="96"/>
-      <c r="BN19" s="96"/>
-      <c r="BO19" s="96"/>
-      <c r="BP19" s="97"/>
-      <c r="BQ19" s="107"/>
-      <c r="BR19" s="108"/>
-      <c r="BS19" s="108"/>
-      <c r="BT19" s="108"/>
-      <c r="BU19" s="108"/>
-      <c r="BV19" s="108"/>
-      <c r="BW19" s="108"/>
-      <c r="BX19" s="108"/>
-      <c r="BY19" s="108"/>
-      <c r="BZ19" s="108"/>
-      <c r="CA19" s="108"/>
-      <c r="CB19" s="108"/>
-      <c r="CC19" s="108"/>
-      <c r="CD19" s="108"/>
-      <c r="CE19" s="108"/>
-      <c r="CF19" s="108"/>
-      <c r="CG19" s="108"/>
-      <c r="CH19" s="108"/>
-      <c r="CI19" s="109"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="99"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="102"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="104"/>
+      <c r="AS19" s="104"/>
+      <c r="AT19" s="105"/>
+      <c r="AU19" s="98"/>
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="99"/>
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="99"/>
+      <c r="BA19" s="99"/>
+      <c r="BB19" s="99"/>
+      <c r="BC19" s="99"/>
+      <c r="BD19" s="100"/>
+      <c r="BE19" s="98"/>
+      <c r="BF19" s="99"/>
+      <c r="BG19" s="99"/>
+      <c r="BH19" s="99"/>
+      <c r="BI19" s="99"/>
+      <c r="BJ19" s="99"/>
+      <c r="BK19" s="99"/>
+      <c r="BL19" s="99"/>
+      <c r="BM19" s="99"/>
+      <c r="BN19" s="99"/>
+      <c r="BO19" s="99"/>
+      <c r="BP19" s="100"/>
+      <c r="BQ19" s="109"/>
+      <c r="BR19" s="110"/>
+      <c r="BS19" s="110"/>
+      <c r="BT19" s="110"/>
+      <c r="BU19" s="110"/>
+      <c r="BV19" s="110"/>
+      <c r="BW19" s="110"/>
+      <c r="BX19" s="110"/>
+      <c r="BY19" s="110"/>
+      <c r="BZ19" s="110"/>
+      <c r="CA19" s="110"/>
+      <c r="CB19" s="110"/>
+      <c r="CC19" s="110"/>
+      <c r="CD19" s="110"/>
+      <c r="CE19" s="110"/>
+      <c r="CF19" s="110"/>
+      <c r="CG19" s="110"/>
+      <c r="CH19" s="110"/>
+      <c r="CI19" s="111"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="97"/>
-      <c r="AH20" s="104"/>
-      <c r="AI20" s="105"/>
-      <c r="AJ20" s="106"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="96"/>
-      <c r="AN20" s="96"/>
-      <c r="AO20" s="96"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="96"/>
-      <c r="AR20" s="90"/>
-      <c r="AS20" s="90"/>
-      <c r="AT20" s="91"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="96"/>
-      <c r="AW20" s="96"/>
-      <c r="AX20" s="96"/>
-      <c r="AY20" s="96"/>
-      <c r="AZ20" s="96"/>
-      <c r="BA20" s="96"/>
-      <c r="BB20" s="96"/>
-      <c r="BC20" s="96"/>
-      <c r="BD20" s="97"/>
-      <c r="BE20" s="95"/>
-      <c r="BF20" s="96"/>
-      <c r="BG20" s="96"/>
-      <c r="BH20" s="96"/>
-      <c r="BI20" s="96"/>
-      <c r="BJ20" s="96"/>
-      <c r="BK20" s="96"/>
-      <c r="BL20" s="96"/>
-      <c r="BM20" s="96"/>
-      <c r="BN20" s="96"/>
-      <c r="BO20" s="96"/>
-      <c r="BP20" s="97"/>
-      <c r="BQ20" s="107"/>
-      <c r="BR20" s="108"/>
-      <c r="BS20" s="108"/>
-      <c r="BT20" s="108"/>
-      <c r="BU20" s="108"/>
-      <c r="BV20" s="108"/>
-      <c r="BW20" s="108"/>
-      <c r="BX20" s="108"/>
-      <c r="BY20" s="108"/>
-      <c r="BZ20" s="108"/>
-      <c r="CA20" s="108"/>
-      <c r="CB20" s="108"/>
-      <c r="CC20" s="108"/>
-      <c r="CD20" s="108"/>
-      <c r="CE20" s="108"/>
-      <c r="CF20" s="108"/>
-      <c r="CG20" s="108"/>
-      <c r="CH20" s="108"/>
-      <c r="CI20" s="109"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="99"/>
+      <c r="U20" s="99"/>
+      <c r="V20" s="99"/>
+      <c r="W20" s="99"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="99"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="99"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="102"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="104"/>
+      <c r="AS20" s="104"/>
+      <c r="AT20" s="105"/>
+      <c r="AU20" s="98"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="99"/>
+      <c r="AZ20" s="99"/>
+      <c r="BA20" s="99"/>
+      <c r="BB20" s="99"/>
+      <c r="BC20" s="99"/>
+      <c r="BD20" s="100"/>
+      <c r="BE20" s="98"/>
+      <c r="BF20" s="99"/>
+      <c r="BG20" s="99"/>
+      <c r="BH20" s="99"/>
+      <c r="BI20" s="99"/>
+      <c r="BJ20" s="99"/>
+      <c r="BK20" s="99"/>
+      <c r="BL20" s="99"/>
+      <c r="BM20" s="99"/>
+      <c r="BN20" s="99"/>
+      <c r="BO20" s="99"/>
+      <c r="BP20" s="100"/>
+      <c r="BQ20" s="109"/>
+      <c r="BR20" s="110"/>
+      <c r="BS20" s="110"/>
+      <c r="BT20" s="110"/>
+      <c r="BU20" s="110"/>
+      <c r="BV20" s="110"/>
+      <c r="BW20" s="110"/>
+      <c r="BX20" s="110"/>
+      <c r="BY20" s="110"/>
+      <c r="BZ20" s="110"/>
+      <c r="CA20" s="110"/>
+      <c r="CB20" s="110"/>
+      <c r="CC20" s="110"/>
+      <c r="CD20" s="110"/>
+      <c r="CE20" s="110"/>
+      <c r="CF20" s="110"/>
+      <c r="CG20" s="110"/>
+      <c r="CH20" s="110"/>
+      <c r="CI20" s="111"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="97"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="89"/>
-      <c r="AK21" s="78"/>
-      <c r="AL21" s="79"/>
-      <c r="AM21" s="79"/>
-      <c r="AN21" s="79"/>
-      <c r="AO21" s="79"/>
-      <c r="AP21" s="79"/>
-      <c r="AQ21" s="79"/>
-      <c r="AR21" s="90"/>
-      <c r="AS21" s="90"/>
-      <c r="AT21" s="91"/>
-      <c r="AU21" s="78"/>
-      <c r="AV21" s="79"/>
-      <c r="AW21" s="79"/>
-      <c r="AX21" s="79"/>
-      <c r="AY21" s="79"/>
-      <c r="AZ21" s="79"/>
-      <c r="BA21" s="79"/>
-      <c r="BB21" s="79"/>
-      <c r="BC21" s="79"/>
-      <c r="BD21" s="80"/>
-      <c r="BE21" s="78"/>
-      <c r="BF21" s="79"/>
-      <c r="BG21" s="79"/>
-      <c r="BH21" s="79"/>
-      <c r="BI21" s="79"/>
-      <c r="BJ21" s="79"/>
-      <c r="BK21" s="79"/>
-      <c r="BL21" s="79"/>
-      <c r="BM21" s="79"/>
-      <c r="BN21" s="79"/>
-      <c r="BO21" s="79"/>
-      <c r="BP21" s="80"/>
-      <c r="BQ21" s="81"/>
-      <c r="BR21" s="82"/>
-      <c r="BS21" s="82"/>
-      <c r="BT21" s="82"/>
-      <c r="BU21" s="82"/>
-      <c r="BV21" s="82"/>
-      <c r="BW21" s="82"/>
-      <c r="BX21" s="82"/>
-      <c r="BY21" s="82"/>
-      <c r="BZ21" s="82"/>
-      <c r="CA21" s="82"/>
-      <c r="CB21" s="82"/>
-      <c r="CC21" s="82"/>
-      <c r="CD21" s="82"/>
-      <c r="CE21" s="82"/>
-      <c r="CF21" s="82"/>
-      <c r="CG21" s="82"/>
-      <c r="CH21" s="82"/>
-      <c r="CI21" s="83"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="113"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="122"/>
+      <c r="AA21" s="123"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="99"/>
+      <c r="AG21" s="100"/>
+      <c r="AH21" s="121"/>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="123"/>
+      <c r="AK21" s="112"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="113"/>
+      <c r="AP21" s="113"/>
+      <c r="AQ21" s="113"/>
+      <c r="AR21" s="104"/>
+      <c r="AS21" s="104"/>
+      <c r="AT21" s="105"/>
+      <c r="AU21" s="112"/>
+      <c r="AV21" s="113"/>
+      <c r="AW21" s="113"/>
+      <c r="AX21" s="113"/>
+      <c r="AY21" s="113"/>
+      <c r="AZ21" s="113"/>
+      <c r="BA21" s="113"/>
+      <c r="BB21" s="113"/>
+      <c r="BC21" s="113"/>
+      <c r="BD21" s="114"/>
+      <c r="BE21" s="112"/>
+      <c r="BF21" s="113"/>
+      <c r="BG21" s="113"/>
+      <c r="BH21" s="113"/>
+      <c r="BI21" s="113"/>
+      <c r="BJ21" s="113"/>
+      <c r="BK21" s="113"/>
+      <c r="BL21" s="113"/>
+      <c r="BM21" s="113"/>
+      <c r="BN21" s="113"/>
+      <c r="BO21" s="113"/>
+      <c r="BP21" s="114"/>
+      <c r="BQ21" s="115"/>
+      <c r="BR21" s="116"/>
+      <c r="BS21" s="116"/>
+      <c r="BT21" s="116"/>
+      <c r="BU21" s="116"/>
+      <c r="BV21" s="116"/>
+      <c r="BW21" s="116"/>
+      <c r="BX21" s="116"/>
+      <c r="BY21" s="116"/>
+      <c r="BZ21" s="116"/>
+      <c r="CA21" s="116"/>
+      <c r="CB21" s="116"/>
+      <c r="CC21" s="116"/>
+      <c r="CD21" s="116"/>
+      <c r="CE21" s="116"/>
+      <c r="CF21" s="116"/>
+      <c r="CG21" s="116"/>
+      <c r="CH21" s="116"/>
+      <c r="CI21" s="117"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="78"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="79"/>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="80"/>
-      <c r="AH22" s="78"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="78"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="79"/>
-      <c r="AN22" s="79"/>
-      <c r="AO22" s="79"/>
-      <c r="AP22" s="79"/>
-      <c r="AQ22" s="79"/>
-      <c r="AR22" s="90"/>
-      <c r="AS22" s="90"/>
-      <c r="AT22" s="91"/>
-      <c r="AU22" s="78"/>
-      <c r="AV22" s="79"/>
-      <c r="AW22" s="79"/>
-      <c r="AX22" s="79"/>
-      <c r="AY22" s="79"/>
-      <c r="AZ22" s="79"/>
-      <c r="BA22" s="79"/>
-      <c r="BB22" s="79"/>
-      <c r="BC22" s="79"/>
-      <c r="BD22" s="80"/>
-      <c r="BE22" s="78"/>
-      <c r="BF22" s="79"/>
-      <c r="BG22" s="79"/>
-      <c r="BH22" s="79"/>
-      <c r="BI22" s="79"/>
-      <c r="BJ22" s="79"/>
-      <c r="BK22" s="79"/>
-      <c r="BL22" s="79"/>
-      <c r="BM22" s="79"/>
-      <c r="BN22" s="79"/>
-      <c r="BO22" s="79"/>
-      <c r="BP22" s="80"/>
-      <c r="BQ22" s="98"/>
-      <c r="BR22" s="99"/>
-      <c r="BS22" s="99"/>
-      <c r="BT22" s="99"/>
-      <c r="BU22" s="99"/>
-      <c r="BV22" s="99"/>
-      <c r="BW22" s="99"/>
-      <c r="BX22" s="99"/>
-      <c r="BY22" s="99"/>
-      <c r="BZ22" s="99"/>
-      <c r="CA22" s="99"/>
-      <c r="CB22" s="99"/>
-      <c r="CC22" s="99"/>
-      <c r="CD22" s="99"/>
-      <c r="CE22" s="99"/>
-      <c r="CF22" s="99"/>
-      <c r="CG22" s="99"/>
-      <c r="CH22" s="99"/>
-      <c r="CI22" s="100"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="114"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="122"/>
+      <c r="AA22" s="123"/>
+      <c r="AB22" s="112"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="113"/>
+      <c r="AG22" s="114"/>
+      <c r="AH22" s="112"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="114"/>
+      <c r="AK22" s="112"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="113"/>
+      <c r="AQ22" s="113"/>
+      <c r="AR22" s="104"/>
+      <c r="AS22" s="104"/>
+      <c r="AT22" s="105"/>
+      <c r="AU22" s="112"/>
+      <c r="AV22" s="113"/>
+      <c r="AW22" s="113"/>
+      <c r="AX22" s="113"/>
+      <c r="AY22" s="113"/>
+      <c r="AZ22" s="113"/>
+      <c r="BA22" s="113"/>
+      <c r="BB22" s="113"/>
+      <c r="BC22" s="113"/>
+      <c r="BD22" s="114"/>
+      <c r="BE22" s="112"/>
+      <c r="BF22" s="113"/>
+      <c r="BG22" s="113"/>
+      <c r="BH22" s="113"/>
+      <c r="BI22" s="113"/>
+      <c r="BJ22" s="113"/>
+      <c r="BK22" s="113"/>
+      <c r="BL22" s="113"/>
+      <c r="BM22" s="113"/>
+      <c r="BN22" s="113"/>
+      <c r="BO22" s="113"/>
+      <c r="BP22" s="114"/>
+      <c r="BQ22" s="124"/>
+      <c r="BR22" s="125"/>
+      <c r="BS22" s="125"/>
+      <c r="BT22" s="125"/>
+      <c r="BU22" s="125"/>
+      <c r="BV22" s="125"/>
+      <c r="BW22" s="125"/>
+      <c r="BX22" s="125"/>
+      <c r="BY22" s="125"/>
+      <c r="BZ22" s="125"/>
+      <c r="CA22" s="125"/>
+      <c r="CB22" s="125"/>
+      <c r="CC22" s="125"/>
+      <c r="CD22" s="125"/>
+      <c r="CE22" s="125"/>
+      <c r="CF22" s="125"/>
+      <c r="CG22" s="125"/>
+      <c r="CH22" s="125"/>
+      <c r="CI22" s="126"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="78"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="80"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="78"/>
-      <c r="AL23" s="79"/>
-      <c r="AM23" s="79"/>
-      <c r="AN23" s="79"/>
-      <c r="AO23" s="79"/>
-      <c r="AP23" s="79"/>
-      <c r="AQ23" s="79"/>
-      <c r="AR23" s="90"/>
-      <c r="AS23" s="90"/>
-      <c r="AT23" s="91"/>
-      <c r="AU23" s="78"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="79"/>
-      <c r="AZ23" s="79"/>
-      <c r="BA23" s="79"/>
-      <c r="BB23" s="79"/>
-      <c r="BC23" s="79"/>
-      <c r="BD23" s="80"/>
-      <c r="BE23" s="78"/>
-      <c r="BF23" s="79"/>
-      <c r="BG23" s="79"/>
-      <c r="BH23" s="79"/>
-      <c r="BI23" s="79"/>
-      <c r="BJ23" s="79"/>
-      <c r="BK23" s="79"/>
-      <c r="BL23" s="79"/>
-      <c r="BM23" s="79"/>
-      <c r="BN23" s="79"/>
-      <c r="BO23" s="79"/>
-      <c r="BP23" s="80"/>
-      <c r="BQ23" s="81"/>
-      <c r="BR23" s="82"/>
-      <c r="BS23" s="82"/>
-      <c r="BT23" s="82"/>
-      <c r="BU23" s="82"/>
-      <c r="BV23" s="82"/>
-      <c r="BW23" s="82"/>
-      <c r="BX23" s="82"/>
-      <c r="BY23" s="82"/>
-      <c r="BZ23" s="82"/>
-      <c r="CA23" s="82"/>
-      <c r="CB23" s="82"/>
-      <c r="CC23" s="82"/>
-      <c r="CD23" s="82"/>
-      <c r="CE23" s="82"/>
-      <c r="CF23" s="82"/>
-      <c r="CG23" s="82"/>
-      <c r="CH23" s="82"/>
-      <c r="CI23" s="83"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="113"/>
+      <c r="N23" s="113"/>
+      <c r="O23" s="113"/>
+      <c r="P23" s="113"/>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="114"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="123"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="113"/>
+      <c r="AG23" s="114"/>
+      <c r="AH23" s="121"/>
+      <c r="AI23" s="122"/>
+      <c r="AJ23" s="123"/>
+      <c r="AK23" s="112"/>
+      <c r="AL23" s="113"/>
+      <c r="AM23" s="113"/>
+      <c r="AN23" s="113"/>
+      <c r="AO23" s="113"/>
+      <c r="AP23" s="113"/>
+      <c r="AQ23" s="113"/>
+      <c r="AR23" s="104"/>
+      <c r="AS23" s="104"/>
+      <c r="AT23" s="105"/>
+      <c r="AU23" s="112"/>
+      <c r="AV23" s="113"/>
+      <c r="AW23" s="113"/>
+      <c r="AX23" s="113"/>
+      <c r="AY23" s="113"/>
+      <c r="AZ23" s="113"/>
+      <c r="BA23" s="113"/>
+      <c r="BB23" s="113"/>
+      <c r="BC23" s="113"/>
+      <c r="BD23" s="114"/>
+      <c r="BE23" s="112"/>
+      <c r="BF23" s="113"/>
+      <c r="BG23" s="113"/>
+      <c r="BH23" s="113"/>
+      <c r="BI23" s="113"/>
+      <c r="BJ23" s="113"/>
+      <c r="BK23" s="113"/>
+      <c r="BL23" s="113"/>
+      <c r="BM23" s="113"/>
+      <c r="BN23" s="113"/>
+      <c r="BO23" s="113"/>
+      <c r="BP23" s="114"/>
+      <c r="BQ23" s="115"/>
+      <c r="BR23" s="116"/>
+      <c r="BS23" s="116"/>
+      <c r="BT23" s="116"/>
+      <c r="BU23" s="116"/>
+      <c r="BV23" s="116"/>
+      <c r="BW23" s="116"/>
+      <c r="BX23" s="116"/>
+      <c r="BY23" s="116"/>
+      <c r="BZ23" s="116"/>
+      <c r="CA23" s="116"/>
+      <c r="CB23" s="116"/>
+      <c r="CC23" s="116"/>
+      <c r="CD23" s="116"/>
+      <c r="CE23" s="116"/>
+      <c r="CF23" s="116"/>
+      <c r="CG23" s="116"/>
+      <c r="CH23" s="116"/>
+      <c r="CI23" s="117"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="79"/>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="78"/>
-      <c r="AC24" s="79"/>
-      <c r="AD24" s="79"/>
-      <c r="AE24" s="79"/>
-      <c r="AF24" s="79"/>
-      <c r="AG24" s="80"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="89"/>
-      <c r="AK24" s="78"/>
-      <c r="AL24" s="79"/>
-      <c r="AM24" s="79"/>
-      <c r="AN24" s="79"/>
-      <c r="AO24" s="79"/>
-      <c r="AP24" s="79"/>
-      <c r="AQ24" s="79"/>
-      <c r="AR24" s="90"/>
-      <c r="AS24" s="90"/>
-      <c r="AT24" s="91"/>
-      <c r="AU24" s="78"/>
-      <c r="AV24" s="79"/>
-      <c r="AW24" s="79"/>
-      <c r="AX24" s="79"/>
-      <c r="AY24" s="79"/>
-      <c r="AZ24" s="79"/>
-      <c r="BA24" s="79"/>
-      <c r="BB24" s="79"/>
-      <c r="BC24" s="79"/>
-      <c r="BD24" s="80"/>
-      <c r="BE24" s="78"/>
-      <c r="BF24" s="79"/>
-      <c r="BG24" s="79"/>
-      <c r="BH24" s="79"/>
-      <c r="BI24" s="79"/>
-      <c r="BJ24" s="79"/>
-      <c r="BK24" s="79"/>
-      <c r="BL24" s="79"/>
-      <c r="BM24" s="79"/>
-      <c r="BN24" s="79"/>
-      <c r="BO24" s="79"/>
-      <c r="BP24" s="80"/>
-      <c r="BQ24" s="92"/>
-      <c r="BR24" s="93"/>
-      <c r="BS24" s="93"/>
-      <c r="BT24" s="93"/>
-      <c r="BU24" s="93"/>
-      <c r="BV24" s="93"/>
-      <c r="BW24" s="93"/>
-      <c r="BX24" s="93"/>
-      <c r="BY24" s="93"/>
-      <c r="BZ24" s="93"/>
-      <c r="CA24" s="93"/>
-      <c r="CB24" s="93"/>
-      <c r="CC24" s="93"/>
-      <c r="CD24" s="93"/>
-      <c r="CE24" s="93"/>
-      <c r="CF24" s="93"/>
-      <c r="CG24" s="93"/>
-      <c r="CH24" s="93"/>
-      <c r="CI24" s="94"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="113"/>
+      <c r="N24" s="113"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="113"/>
+      <c r="Q24" s="113"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="114"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="113"/>
+      <c r="AF24" s="113"/>
+      <c r="AG24" s="114"/>
+      <c r="AH24" s="121"/>
+      <c r="AI24" s="122"/>
+      <c r="AJ24" s="123"/>
+      <c r="AK24" s="112"/>
+      <c r="AL24" s="113"/>
+      <c r="AM24" s="113"/>
+      <c r="AN24" s="113"/>
+      <c r="AO24" s="113"/>
+      <c r="AP24" s="113"/>
+      <c r="AQ24" s="113"/>
+      <c r="AR24" s="104"/>
+      <c r="AS24" s="104"/>
+      <c r="AT24" s="105"/>
+      <c r="AU24" s="112"/>
+      <c r="AV24" s="113"/>
+      <c r="AW24" s="113"/>
+      <c r="AX24" s="113"/>
+      <c r="AY24" s="113"/>
+      <c r="AZ24" s="113"/>
+      <c r="BA24" s="113"/>
+      <c r="BB24" s="113"/>
+      <c r="BC24" s="113"/>
+      <c r="BD24" s="114"/>
+      <c r="BE24" s="112"/>
+      <c r="BF24" s="113"/>
+      <c r="BG24" s="113"/>
+      <c r="BH24" s="113"/>
+      <c r="BI24" s="113"/>
+      <c r="BJ24" s="113"/>
+      <c r="BK24" s="113"/>
+      <c r="BL24" s="113"/>
+      <c r="BM24" s="113"/>
+      <c r="BN24" s="113"/>
+      <c r="BO24" s="113"/>
+      <c r="BP24" s="114"/>
+      <c r="BQ24" s="127"/>
+      <c r="BR24" s="128"/>
+      <c r="BS24" s="128"/>
+      <c r="BT24" s="128"/>
+      <c r="BU24" s="128"/>
+      <c r="BV24" s="128"/>
+      <c r="BW24" s="128"/>
+      <c r="BX24" s="128"/>
+      <c r="BY24" s="128"/>
+      <c r="BZ24" s="128"/>
+      <c r="CA24" s="128"/>
+      <c r="CB24" s="128"/>
+      <c r="CC24" s="128"/>
+      <c r="CD24" s="128"/>
+      <c r="CE24" s="128"/>
+      <c r="CF24" s="128"/>
+      <c r="CG24" s="128"/>
+      <c r="CH24" s="128"/>
+      <c r="CI24" s="129"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="79"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="78"/>
-      <c r="AC25" s="79"/>
-      <c r="AD25" s="79"/>
-      <c r="AE25" s="79"/>
-      <c r="AF25" s="79"/>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="79"/>
-      <c r="AJ25" s="80"/>
-      <c r="AK25" s="78"/>
-      <c r="AL25" s="79"/>
-      <c r="AM25" s="79"/>
-      <c r="AN25" s="79"/>
-      <c r="AO25" s="79"/>
-      <c r="AP25" s="79"/>
-      <c r="AQ25" s="79"/>
-      <c r="AR25" s="90"/>
-      <c r="AS25" s="90"/>
-      <c r="AT25" s="91"/>
-      <c r="AU25" s="78"/>
-      <c r="AV25" s="79"/>
-      <c r="AW25" s="79"/>
-      <c r="AX25" s="79"/>
-      <c r="AY25" s="79"/>
-      <c r="AZ25" s="79"/>
-      <c r="BA25" s="79"/>
-      <c r="BB25" s="79"/>
-      <c r="BC25" s="79"/>
-      <c r="BD25" s="80"/>
-      <c r="BE25" s="78"/>
-      <c r="BF25" s="79"/>
-      <c r="BG25" s="79"/>
-      <c r="BH25" s="79"/>
-      <c r="BI25" s="79"/>
-      <c r="BJ25" s="79"/>
-      <c r="BK25" s="79"/>
-      <c r="BL25" s="79"/>
-      <c r="BM25" s="79"/>
-      <c r="BN25" s="79"/>
-      <c r="BO25" s="79"/>
-      <c r="BP25" s="80"/>
-      <c r="BQ25" s="81"/>
-      <c r="BR25" s="82"/>
-      <c r="BS25" s="82"/>
-      <c r="BT25" s="82"/>
-      <c r="BU25" s="82"/>
-      <c r="BV25" s="82"/>
-      <c r="BW25" s="82"/>
-      <c r="BX25" s="82"/>
-      <c r="BY25" s="82"/>
-      <c r="BZ25" s="82"/>
-      <c r="CA25" s="82"/>
-      <c r="CB25" s="82"/>
-      <c r="CC25" s="82"/>
-      <c r="CD25" s="82"/>
-      <c r="CE25" s="82"/>
-      <c r="CF25" s="82"/>
-      <c r="CG25" s="82"/>
-      <c r="CH25" s="82"/>
-      <c r="CI25" s="83"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="113"/>
+      <c r="N25" s="113"/>
+      <c r="O25" s="113"/>
+      <c r="P25" s="113"/>
+      <c r="Q25" s="113"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="114"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="122"/>
+      <c r="AA25" s="123"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="113"/>
+      <c r="AF25" s="113"/>
+      <c r="AG25" s="114"/>
+      <c r="AH25" s="112"/>
+      <c r="AI25" s="113"/>
+      <c r="AJ25" s="114"/>
+      <c r="AK25" s="112"/>
+      <c r="AL25" s="113"/>
+      <c r="AM25" s="113"/>
+      <c r="AN25" s="113"/>
+      <c r="AO25" s="113"/>
+      <c r="AP25" s="113"/>
+      <c r="AQ25" s="113"/>
+      <c r="AR25" s="104"/>
+      <c r="AS25" s="104"/>
+      <c r="AT25" s="105"/>
+      <c r="AU25" s="112"/>
+      <c r="AV25" s="113"/>
+      <c r="AW25" s="113"/>
+      <c r="AX25" s="113"/>
+      <c r="AY25" s="113"/>
+      <c r="AZ25" s="113"/>
+      <c r="BA25" s="113"/>
+      <c r="BB25" s="113"/>
+      <c r="BC25" s="113"/>
+      <c r="BD25" s="114"/>
+      <c r="BE25" s="112"/>
+      <c r="BF25" s="113"/>
+      <c r="BG25" s="113"/>
+      <c r="BH25" s="113"/>
+      <c r="BI25" s="113"/>
+      <c r="BJ25" s="113"/>
+      <c r="BK25" s="113"/>
+      <c r="BL25" s="113"/>
+      <c r="BM25" s="113"/>
+      <c r="BN25" s="113"/>
+      <c r="BO25" s="113"/>
+      <c r="BP25" s="114"/>
+      <c r="BQ25" s="115"/>
+      <c r="BR25" s="116"/>
+      <c r="BS25" s="116"/>
+      <c r="BT25" s="116"/>
+      <c r="BU25" s="116"/>
+      <c r="BV25" s="116"/>
+      <c r="BW25" s="116"/>
+      <c r="BX25" s="116"/>
+      <c r="BY25" s="116"/>
+      <c r="BZ25" s="116"/>
+      <c r="CA25" s="116"/>
+      <c r="CB25" s="116"/>
+      <c r="CC25" s="116"/>
+      <c r="CD25" s="116"/>
+      <c r="CE25" s="116"/>
+      <c r="CF25" s="116"/>
+      <c r="CG25" s="116"/>
+      <c r="CH25" s="116"/>
+      <c r="CI25" s="117"/>
     </row>
     <row r="26" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="72"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="75"/>
-      <c r="AB26" s="61"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="62"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="63"/>
-      <c r="AH26" s="73"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="76"/>
-      <c r="AS26" s="76"/>
-      <c r="AT26" s="77"/>
-      <c r="AU26" s="61"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="62"/>
-      <c r="AX26" s="62"/>
-      <c r="AY26" s="62"/>
-      <c r="AZ26" s="62"/>
-      <c r="BA26" s="62"/>
-      <c r="BB26" s="62"/>
-      <c r="BC26" s="62"/>
-      <c r="BD26" s="63"/>
-      <c r="BE26" s="61"/>
-      <c r="BF26" s="62"/>
-      <c r="BG26" s="62"/>
-      <c r="BH26" s="62"/>
-      <c r="BI26" s="62"/>
-      <c r="BJ26" s="62"/>
-      <c r="BK26" s="62"/>
-      <c r="BL26" s="62"/>
-      <c r="BM26" s="62"/>
-      <c r="BN26" s="62"/>
-      <c r="BO26" s="62"/>
-      <c r="BP26" s="63"/>
-      <c r="BQ26" s="64"/>
-      <c r="BR26" s="65"/>
-      <c r="BS26" s="65"/>
-      <c r="BT26" s="65"/>
-      <c r="BU26" s="65"/>
-      <c r="BV26" s="65"/>
-      <c r="BW26" s="65"/>
-      <c r="BX26" s="65"/>
-      <c r="BY26" s="65"/>
-      <c r="BZ26" s="65"/>
-      <c r="CA26" s="65"/>
-      <c r="CB26" s="65"/>
-      <c r="CC26" s="65"/>
-      <c r="CD26" s="65"/>
-      <c r="CE26" s="65"/>
-      <c r="CF26" s="65"/>
-      <c r="CG26" s="65"/>
-      <c r="CH26" s="65"/>
-      <c r="CI26" s="66"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
+      <c r="O26" s="140"/>
+      <c r="P26" s="140"/>
+      <c r="Q26" s="140"/>
+      <c r="R26" s="140"/>
+      <c r="S26" s="140"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="140"/>
+      <c r="V26" s="140"/>
+      <c r="W26" s="140"/>
+      <c r="X26" s="141"/>
+      <c r="Y26" s="142"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="144"/>
+      <c r="AB26" s="130"/>
+      <c r="AC26" s="131"/>
+      <c r="AD26" s="131"/>
+      <c r="AE26" s="131"/>
+      <c r="AF26" s="131"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="142"/>
+      <c r="AI26" s="143"/>
+      <c r="AJ26" s="144"/>
+      <c r="AK26" s="130"/>
+      <c r="AL26" s="131"/>
+      <c r="AM26" s="131"/>
+      <c r="AN26" s="131"/>
+      <c r="AO26" s="131"/>
+      <c r="AP26" s="131"/>
+      <c r="AQ26" s="131"/>
+      <c r="AR26" s="145"/>
+      <c r="AS26" s="145"/>
+      <c r="AT26" s="146"/>
+      <c r="AU26" s="130"/>
+      <c r="AV26" s="131"/>
+      <c r="AW26" s="131"/>
+      <c r="AX26" s="131"/>
+      <c r="AY26" s="131"/>
+      <c r="AZ26" s="131"/>
+      <c r="BA26" s="131"/>
+      <c r="BB26" s="131"/>
+      <c r="BC26" s="131"/>
+      <c r="BD26" s="132"/>
+      <c r="BE26" s="130"/>
+      <c r="BF26" s="131"/>
+      <c r="BG26" s="131"/>
+      <c r="BH26" s="131"/>
+      <c r="BI26" s="131"/>
+      <c r="BJ26" s="131"/>
+      <c r="BK26" s="131"/>
+      <c r="BL26" s="131"/>
+      <c r="BM26" s="131"/>
+      <c r="BN26" s="131"/>
+      <c r="BO26" s="131"/>
+      <c r="BP26" s="132"/>
+      <c r="BQ26" s="133"/>
+      <c r="BR26" s="134"/>
+      <c r="BS26" s="134"/>
+      <c r="BT26" s="134"/>
+      <c r="BU26" s="134"/>
+      <c r="BV26" s="134"/>
+      <c r="BW26" s="134"/>
+      <c r="BX26" s="134"/>
+      <c r="BY26" s="134"/>
+      <c r="BZ26" s="134"/>
+      <c r="CA26" s="134"/>
+      <c r="CB26" s="134"/>
+      <c r="CC26" s="134"/>
+      <c r="CD26" s="134"/>
+      <c r="CE26" s="134"/>
+      <c r="CF26" s="134"/>
+      <c r="CG26" s="134"/>
+      <c r="CH26" s="134"/>
+      <c r="CI26" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="AU26:BD26"/>
+    <mergeCell ref="BE26:BP26"/>
+    <mergeCell ref="BQ26:CI26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AT26"/>
+    <mergeCell ref="AU25:BD25"/>
+    <mergeCell ref="BE25:BP25"/>
+    <mergeCell ref="BQ25:CI25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AU24:BD24"/>
+    <mergeCell ref="BE24:BP24"/>
+    <mergeCell ref="BQ24:CI24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE19:BP19"/>
+    <mergeCell ref="BQ19:CI19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AU20:BD20"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AB17:AG17"/>
+    <mergeCell ref="AB18:AG18"/>
+    <mergeCell ref="AU17:BD17"/>
+    <mergeCell ref="BE17:BP17"/>
+    <mergeCell ref="BQ17:CI17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AU18:BD18"/>
+    <mergeCell ref="BE20:BP20"/>
+    <mergeCell ref="BQ20:CI20"/>
+    <mergeCell ref="BE18:BP18"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AK18:AT18"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
     <mergeCell ref="AU9:BD9"/>
     <mergeCell ref="BE9:BP9"/>
     <mergeCell ref="BQ9:CI9"/>
@@ -6996,168 +7130,22 @@
     <mergeCell ref="CB2:CI2"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="BE19:BP19"/>
-    <mergeCell ref="BQ19:CI19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AU20:BD20"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AB17:AG17"/>
-    <mergeCell ref="AB18:AG18"/>
-    <mergeCell ref="AU17:BD17"/>
-    <mergeCell ref="BE17:BP17"/>
-    <mergeCell ref="BQ17:CI17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AU18:BD18"/>
-    <mergeCell ref="BE20:BP20"/>
-    <mergeCell ref="BQ20:CI20"/>
-    <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="AU19:BD19"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AU25:BD25"/>
-    <mergeCell ref="BE25:BP25"/>
-    <mergeCell ref="BQ25:CI25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AU26:BD26"/>
-    <mergeCell ref="BE26:BP26"/>
-    <mergeCell ref="BQ26:CI26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AT26"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="BQ8:CI8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/桌面/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{308C9844-17C3-4315-84BD-F4A65733C034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E7C29D6-81DC-42BB-AFAC-177F1B32D122}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C53B175D-BF06-4D0B-A7EA-F2E885AD5F26}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="1" r:id="rId1"/>
@@ -36,8 +30,8 @@
     <definedName name="Print_Titles_0" localSheetId="1">'(2)入出力項目'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -401,11 +395,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,7 +1001,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,88 +1078,355 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1177,290 +1438,29 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="2" xr:uid="{0AFBE876-AC92-4D06-A9C5-0E415CB37502}"/>
+    <cellStyle name="TableStyleLight1" xfId="2"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{AD85A874-A934-437B-B0EC-799790058C64}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1481,13 +1481,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>56977</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>18013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>363162</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>113263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1495,7 +1495,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200BFE58-E22D-05B0-FBC1-1D182031CFC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{200BFE58-E22D-05B0-FBC1-1D182031CFC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,13 +1543,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>370089</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>196041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>322465</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>72216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1557,7 +1557,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2843E478-3DF2-61B8-4E51-CE09B7123CC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2843E478-3DF2-61B8-4E51-CE09B7123CC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1609,6 +1609,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675409</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1143000"/>
+          <a:ext cx="10087841" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1"/>
+            <a:t> Sylph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1" baseline="0"/>
+            <a:t> Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" baseline="0"/>
+            <a:t>試験アプリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1655,7 +1727,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1707,7 +1779,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1901,42 +1973,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2FE56D-FECC-44A4-B63F-D1FB1AE4F0A9}">
-  <dimension ref="A1:X34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:24" ht="30.75" thickBot="1">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="42" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1958,23 +2030,23 @@
       <c r="W1" s="19"/>
       <c r="X1" s="19"/>
     </row>
-    <row r="2" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:24" ht="19.5" thickBot="1">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="45" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1996,29 +2068,29 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
     </row>
-    <row r="3" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:24" ht="19.5" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="45" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="45" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="47"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
@@ -2028,61 +2100,61 @@
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
     </row>
-    <row r="4" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:24" ht="19.5" thickBot="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="50" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="51"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24">
       <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="8"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="151"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24">
       <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="151"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24">
       <c r="A7" s="7"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2098,7 +2170,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24">
       <c r="A8" s="7"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2114,7 +2186,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:24">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2130,15 +2202,14 @@
       <c r="M9" s="9"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24">
       <c r="A10" s="7"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="51"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2147,7 +2218,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" ht="19.5" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2163,155 +2234,156 @@
       <c r="M11" s="9"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="19.5" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:24" ht="19.5" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="149">
-        <v>44671.56527777778</v>
-      </c>
-      <c r="F13" s="148"/>
-      <c r="G13" s="30">
-        <v>60</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" ht="19.5" thickBot="1">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="149">
-        <v>44672.663888888892</v>
-      </c>
-      <c r="F14" s="148"/>
-      <c r="G14" s="30">
-        <v>70</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="19.5" thickBot="1">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="149">
-        <v>44673.558333333334</v>
-      </c>
-      <c r="F15" s="148"/>
-      <c r="G15" s="30">
-        <v>70</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="40">
+        <v>44671.56527777778</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="56">
+        <v>60</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:24" ht="19.5" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="149">
-        <v>44676.523611111108</v>
-      </c>
-      <c r="F16" s="148"/>
-      <c r="G16" s="30">
-        <v>80</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="40">
+        <v>44672.663888888892</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="56">
+        <v>70</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="19.5" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="40">
+        <v>44673.558333333334</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="56">
+        <v>70</v>
+      </c>
+      <c r="H17" s="57"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="19.5" thickBot="1">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="40">
+        <v>44676.523611111108</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="56">
+        <v>80</v>
+      </c>
+      <c r="H18" s="57"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2327,7 +2399,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2343,7 +2415,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2359,7 +2431,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2375,7 +2447,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2391,7 +2463,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2407,7 +2479,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2423,7 +2495,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2439,56 +2511,56 @@
       <c r="M27" s="9"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="3"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2"/>
+    <row r="28" spans="1:14">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+    <row r="30" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="6"/>
+    <row r="31" spans="1:14">
+      <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2503,8 +2575,8 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="6"/>
+    <row r="32" spans="1:14">
+      <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2519,7 +2591,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2535,7 +2607,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2551,45 +2623,77 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:N4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,121 +2703,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180AE42A-38F4-4CA9-A4F5-AF5669B61859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BQ14" sqref="BQ14:CI14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" style="15"/>
+    <col min="1" max="1" width="8.125" style="15"/>
     <col min="2" max="87" width="1.5" style="15" customWidth="1"/>
-    <col min="88" max="1025" width="8.09765625" style="15"/>
-    <col min="1026" max="16384" width="8.09765625" style="14"/>
+    <col min="88" max="1025" width="8.125" style="15"/>
+    <col min="1026" max="16384" width="8.125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="78" t="s">
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="79" t="s">
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="80" t="s">
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="124"/>
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+      <c r="BL1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="80"/>
-      <c r="BO1" s="80"/>
-      <c r="BP1" s="81" t="s">
+      <c r="BM1" s="125"/>
+      <c r="BN1" s="125"/>
+      <c r="BO1" s="125"/>
+      <c r="BP1" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="81"/>
-      <c r="BR1" s="81"/>
-      <c r="BS1" s="81"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="81"/>
-      <c r="BW1" s="81"/>
-      <c r="BX1" s="85" t="s">
+      <c r="BQ1" s="126"/>
+      <c r="BR1" s="126"/>
+      <c r="BS1" s="126"/>
+      <c r="BT1" s="126"/>
+      <c r="BU1" s="126"/>
+      <c r="BV1" s="126"/>
+      <c r="BW1" s="126"/>
+      <c r="BX1" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="BY1" s="85"/>
-      <c r="BZ1" s="85"/>
-      <c r="CA1" s="85"/>
-      <c r="CB1" s="86"/>
-      <c r="CC1" s="86"/>
-      <c r="CD1" s="86"/>
-      <c r="CE1" s="86"/>
-      <c r="CF1" s="86"/>
-      <c r="CG1" s="86"/>
-      <c r="CH1" s="86"/>
-      <c r="CI1" s="86"/>
+      <c r="BY1" s="132"/>
+      <c r="BZ1" s="132"/>
+      <c r="CA1" s="132"/>
+      <c r="CB1" s="133"/>
+      <c r="CC1" s="133"/>
+      <c r="CD1" s="133"/>
+      <c r="CE1" s="133"/>
+      <c r="CF1" s="133"/>
+      <c r="CG1" s="133"/>
+      <c r="CH1" s="133"/>
+      <c r="CI1" s="133"/>
       <c r="CJ1" s="14"/>
       <c r="CK1" s="14"/>
       <c r="CL1" s="14"/>
@@ -3652,106 +3756,106 @@
       <c r="AMI1" s="14"/>
       <c r="AMJ1" s="14"/>
     </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="89" t="s">
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="89"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="89"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="89"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="89"/>
-      <c r="BI2" s="89"/>
-      <c r="BJ2" s="89"/>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="90" t="s">
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="BM2" s="90"/>
-      <c r="BN2" s="90"/>
-      <c r="BO2" s="90"/>
-      <c r="BP2" s="91">
+      <c r="BM2" s="137"/>
+      <c r="BN2" s="137"/>
+      <c r="BO2" s="137"/>
+      <c r="BP2" s="138">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="91"/>
-      <c r="BR2" s="91"/>
-      <c r="BS2" s="91"/>
-      <c r="BT2" s="91"/>
-      <c r="BU2" s="91"/>
-      <c r="BV2" s="91"/>
-      <c r="BW2" s="91"/>
-      <c r="BX2" s="92" t="s">
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="138"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="92"/>
-      <c r="BZ2" s="92"/>
-      <c r="CA2" s="92"/>
-      <c r="CB2" s="93"/>
-      <c r="CC2" s="93"/>
-      <c r="CD2" s="93"/>
-      <c r="CE2" s="93"/>
-      <c r="CF2" s="93"/>
-      <c r="CG2" s="93"/>
-      <c r="CH2" s="93"/>
-      <c r="CI2" s="93"/>
+      <c r="BY2" s="139"/>
+      <c r="BZ2" s="139"/>
+      <c r="CA2" s="139"/>
+      <c r="CB2" s="140"/>
+      <c r="CC2" s="140"/>
+      <c r="CD2" s="140"/>
+      <c r="CE2" s="140"/>
+      <c r="CF2" s="140"/>
+      <c r="CG2" s="140"/>
+      <c r="CH2" s="140"/>
+      <c r="CI2" s="140"/>
       <c r="CJ2" s="14"/>
       <c r="CK2" s="14"/>
       <c r="CL2" s="14"/>
@@ -4690,7 +4794,7 @@
       <c r="AMI2" s="14"/>
       <c r="AMJ2" s="14"/>
     </row>
-    <row r="3" spans="1:1024" s="15" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1024" s="15" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -4778,2235 +4882,2287 @@
       <c r="CH3" s="16"/>
       <c r="CI3" s="16"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="95" t="s">
+    <row r="4" spans="1:1024" ht="18" customHeight="1">
+      <c r="B4" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96" t="s">
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="96"/>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="96"/>
-      <c r="AS4" s="97" t="s">
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="121"/>
+      <c r="AO4" s="121"/>
+      <c r="AP4" s="121"/>
+      <c r="AQ4" s="121"/>
+      <c r="AR4" s="121"/>
+      <c r="AS4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="97"/>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="97"/>
-      <c r="BM4" s="97"/>
-      <c r="BN4" s="97"/>
-      <c r="BO4" s="97"/>
-      <c r="BP4" s="97"/>
-      <c r="BQ4" s="97"/>
-      <c r="BR4" s="97"/>
-      <c r="BS4" s="97"/>
-      <c r="BT4" s="97"/>
-      <c r="BU4" s="97"/>
-      <c r="BV4" s="97"/>
-      <c r="BW4" s="97"/>
-      <c r="BX4" s="97"/>
-      <c r="BY4" s="97"/>
-      <c r="BZ4" s="97"/>
-      <c r="CA4" s="97"/>
-      <c r="CB4" s="97"/>
-      <c r="CC4" s="97"/>
-      <c r="CD4" s="97"/>
-      <c r="CE4" s="97"/>
-      <c r="CF4" s="97"/>
-      <c r="CG4" s="97"/>
-      <c r="CH4" s="97"/>
-      <c r="CI4" s="97"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="122"/>
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="122"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="122"/>
+      <c r="BM4" s="122"/>
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="122"/>
+      <c r="BP4" s="122"/>
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="122"/>
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="122"/>
+      <c r="BU4" s="122"/>
+      <c r="BV4" s="122"/>
+      <c r="BW4" s="122"/>
+      <c r="BX4" s="122"/>
+      <c r="BY4" s="122"/>
+      <c r="BZ4" s="122"/>
+      <c r="CA4" s="122"/>
+      <c r="CB4" s="122"/>
+      <c r="CC4" s="122"/>
+      <c r="CD4" s="122"/>
+      <c r="CE4" s="122"/>
+      <c r="CF4" s="122"/>
+      <c r="CG4" s="122"/>
+      <c r="CH4" s="122"/>
+      <c r="CI4" s="122"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="54">
+    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+      <c r="B5" s="143">
         <v>1</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55" t="s">
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="56" t="s">
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="144"/>
+      <c r="AG5" s="144"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="144"/>
+      <c r="AJ5" s="144"/>
+      <c r="AK5" s="144"/>
+      <c r="AL5" s="144"/>
+      <c r="AM5" s="144"/>
+      <c r="AN5" s="144"/>
+      <c r="AO5" s="144"/>
+      <c r="AP5" s="144"/>
+      <c r="AQ5" s="144"/>
+      <c r="AR5" s="144"/>
+      <c r="AS5" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56"/>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="56"/>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="56"/>
-      <c r="BN5" s="56"/>
-      <c r="BO5" s="56"/>
-      <c r="BP5" s="56"/>
-      <c r="BQ5" s="56"/>
-      <c r="BR5" s="56"/>
-      <c r="BS5" s="56"/>
-      <c r="BT5" s="56"/>
-      <c r="BU5" s="56"/>
-      <c r="BV5" s="56"/>
-      <c r="BW5" s="56"/>
-      <c r="BX5" s="56"/>
-      <c r="BY5" s="56"/>
-      <c r="BZ5" s="56"/>
-      <c r="CA5" s="56"/>
-      <c r="CB5" s="56"/>
-      <c r="CC5" s="56"/>
-      <c r="CD5" s="56"/>
-      <c r="CE5" s="56"/>
-      <c r="CF5" s="56"/>
-      <c r="CG5" s="56"/>
-      <c r="CH5" s="56"/>
-      <c r="CI5" s="56"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="145"/>
+      <c r="AW5" s="145"/>
+      <c r="AX5" s="145"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="145"/>
+      <c r="BA5" s="145"/>
+      <c r="BB5" s="145"/>
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="145"/>
+      <c r="BE5" s="145"/>
+      <c r="BF5" s="145"/>
+      <c r="BG5" s="145"/>
+      <c r="BH5" s="145"/>
+      <c r="BI5" s="145"/>
+      <c r="BJ5" s="145"/>
+      <c r="BK5" s="145"/>
+      <c r="BL5" s="145"/>
+      <c r="BM5" s="145"/>
+      <c r="BN5" s="145"/>
+      <c r="BO5" s="145"/>
+      <c r="BP5" s="145"/>
+      <c r="BQ5" s="145"/>
+      <c r="BR5" s="145"/>
+      <c r="BS5" s="145"/>
+      <c r="BT5" s="145"/>
+      <c r="BU5" s="145"/>
+      <c r="BV5" s="145"/>
+      <c r="BW5" s="145"/>
+      <c r="BX5" s="145"/>
+      <c r="BY5" s="145"/>
+      <c r="BZ5" s="145"/>
+      <c r="CA5" s="145"/>
+      <c r="CB5" s="145"/>
+      <c r="CC5" s="145"/>
+      <c r="CD5" s="145"/>
+      <c r="CE5" s="145"/>
+      <c r="CF5" s="145"/>
+      <c r="CG5" s="145"/>
+      <c r="CH5" s="145"/>
+      <c r="CI5" s="145"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="82" t="s">
+    <row r="6" spans="1:1024" ht="18" customHeight="1">
+      <c r="B6" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="82"/>
-      <c r="AO6" s="82"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="82"/>
-      <c r="AW6" s="82"/>
-      <c r="AX6" s="82"/>
-      <c r="AY6" s="82"/>
-      <c r="AZ6" s="82"/>
-      <c r="BA6" s="82"/>
-      <c r="BB6" s="82"/>
-      <c r="BC6" s="82"/>
-      <c r="BD6" s="82"/>
-      <c r="BE6" s="82"/>
-      <c r="BF6" s="82"/>
-      <c r="BG6" s="82"/>
-      <c r="BH6" s="82"/>
-      <c r="BI6" s="82"/>
-      <c r="BJ6" s="82"/>
-      <c r="BK6" s="82"/>
-      <c r="BL6" s="82"/>
-      <c r="BM6" s="82"/>
-      <c r="BN6" s="82"/>
-      <c r="BO6" s="82"/>
-      <c r="BP6" s="82"/>
-      <c r="BQ6" s="82"/>
-      <c r="BR6" s="82"/>
-      <c r="BS6" s="82"/>
-      <c r="BT6" s="82"/>
-      <c r="BU6" s="82"/>
-      <c r="BV6" s="82"/>
-      <c r="BW6" s="82"/>
-      <c r="BX6" s="82"/>
-      <c r="BY6" s="82"/>
-      <c r="BZ6" s="82"/>
-      <c r="CA6" s="82"/>
-      <c r="CB6" s="82"/>
-      <c r="CC6" s="82"/>
-      <c r="CD6" s="82"/>
-      <c r="CE6" s="82"/>
-      <c r="CF6" s="82"/>
-      <c r="CG6" s="82"/>
-      <c r="CH6" s="82"/>
-      <c r="CI6" s="82"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="127"/>
+      <c r="AJ6" s="127"/>
+      <c r="AK6" s="127"/>
+      <c r="AL6" s="127"/>
+      <c r="AM6" s="127"/>
+      <c r="AN6" s="127"/>
+      <c r="AO6" s="127"/>
+      <c r="AP6" s="127"/>
+      <c r="AQ6" s="127"/>
+      <c r="AR6" s="127"/>
+      <c r="AS6" s="127"/>
+      <c r="AT6" s="127"/>
+      <c r="AU6" s="127"/>
+      <c r="AV6" s="127"/>
+      <c r="AW6" s="127"/>
+      <c r="AX6" s="127"/>
+      <c r="AY6" s="127"/>
+      <c r="AZ6" s="127"/>
+      <c r="BA6" s="127"/>
+      <c r="BB6" s="127"/>
+      <c r="BC6" s="127"/>
+      <c r="BD6" s="127"/>
+      <c r="BE6" s="127"/>
+      <c r="BF6" s="127"/>
+      <c r="BG6" s="127"/>
+      <c r="BH6" s="127"/>
+      <c r="BI6" s="127"/>
+      <c r="BJ6" s="127"/>
+      <c r="BK6" s="127"/>
+      <c r="BL6" s="127"/>
+      <c r="BM6" s="127"/>
+      <c r="BN6" s="127"/>
+      <c r="BO6" s="127"/>
+      <c r="BP6" s="127"/>
+      <c r="BQ6" s="127"/>
+      <c r="BR6" s="127"/>
+      <c r="BS6" s="127"/>
+      <c r="BT6" s="127"/>
+      <c r="BU6" s="127"/>
+      <c r="BV6" s="127"/>
+      <c r="BW6" s="127"/>
+      <c r="BX6" s="127"/>
+      <c r="BY6" s="127"/>
+      <c r="BZ6" s="127"/>
+      <c r="CA6" s="127"/>
+      <c r="CB6" s="127"/>
+      <c r="CC6" s="127"/>
+      <c r="CD6" s="127"/>
+      <c r="CE6" s="127"/>
+      <c r="CF6" s="127"/>
+      <c r="CG6" s="127"/>
+      <c r="CH6" s="127"/>
+      <c r="CI6" s="127"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="83" t="s">
+    <row r="7" spans="1:1024" ht="18" customHeight="1">
+      <c r="B7" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="70" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="70" t="s">
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="131"/>
+      <c r="Y7" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="70" t="s">
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="70" t="s">
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="70" t="s">
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="68" t="s">
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="148"/>
+      <c r="AS7" s="148"/>
+      <c r="AT7" s="149"/>
+      <c r="AU7" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
-      <c r="BP7" s="68"/>
-      <c r="BQ7" s="69" t="s">
+      <c r="AV7" s="146"/>
+      <c r="AW7" s="146"/>
+      <c r="AX7" s="146"/>
+      <c r="AY7" s="146"/>
+      <c r="AZ7" s="146"/>
+      <c r="BA7" s="146"/>
+      <c r="BB7" s="146"/>
+      <c r="BC7" s="146"/>
+      <c r="BD7" s="146"/>
+      <c r="BE7" s="146"/>
+      <c r="BF7" s="146"/>
+      <c r="BG7" s="146"/>
+      <c r="BH7" s="146"/>
+      <c r="BI7" s="146"/>
+      <c r="BJ7" s="146"/>
+      <c r="BK7" s="146"/>
+      <c r="BL7" s="146"/>
+      <c r="BM7" s="146"/>
+      <c r="BN7" s="146"/>
+      <c r="BO7" s="146"/>
+      <c r="BP7" s="146"/>
+      <c r="BQ7" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="BR7" s="69"/>
-      <c r="BS7" s="69"/>
-      <c r="BT7" s="69"/>
-      <c r="BU7" s="69"/>
-      <c r="BV7" s="69"/>
-      <c r="BW7" s="69"/>
-      <c r="BX7" s="69"/>
-      <c r="BY7" s="69"/>
-      <c r="BZ7" s="69"/>
-      <c r="CA7" s="69"/>
-      <c r="CB7" s="69"/>
-      <c r="CC7" s="69"/>
-      <c r="CD7" s="69"/>
-      <c r="CE7" s="69"/>
-      <c r="CF7" s="69"/>
-      <c r="CG7" s="69"/>
-      <c r="CH7" s="69"/>
-      <c r="CI7" s="69"/>
+      <c r="BR7" s="147"/>
+      <c r="BS7" s="147"/>
+      <c r="BT7" s="147"/>
+      <c r="BU7" s="147"/>
+      <c r="BV7" s="147"/>
+      <c r="BW7" s="147"/>
+      <c r="BX7" s="147"/>
+      <c r="BY7" s="147"/>
+      <c r="BZ7" s="147"/>
+      <c r="CA7" s="147"/>
+      <c r="CB7" s="147"/>
+      <c r="CC7" s="147"/>
+      <c r="CD7" s="147"/>
+      <c r="CE7" s="147"/>
+      <c r="CF7" s="147"/>
+      <c r="CG7" s="147"/>
+      <c r="CH7" s="147"/>
+      <c r="CI7" s="147"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="57">
+    <row r="8" spans="1:1024" ht="18" customHeight="1">
+      <c r="B8" s="98">
         <f t="shared" ref="B8:B15" si="0">ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60" t="s">
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="74"/>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="74"/>
-      <c r="BC8" s="74"/>
-      <c r="BD8" s="74"/>
-      <c r="BE8" s="74"/>
-      <c r="BF8" s="74"/>
-      <c r="BG8" s="74"/>
-      <c r="BH8" s="74"/>
-      <c r="BI8" s="74"/>
-      <c r="BJ8" s="74"/>
-      <c r="BK8" s="74"/>
-      <c r="BL8" s="74"/>
-      <c r="BM8" s="74"/>
-      <c r="BN8" s="74"/>
-      <c r="BO8" s="74"/>
-      <c r="BP8" s="74"/>
-      <c r="BQ8" s="75"/>
-      <c r="BR8" s="75"/>
-      <c r="BS8" s="75"/>
-      <c r="BT8" s="75"/>
-      <c r="BU8" s="75"/>
-      <c r="BV8" s="75"/>
-      <c r="BW8" s="75"/>
-      <c r="BX8" s="75"/>
-      <c r="BY8" s="75"/>
-      <c r="BZ8" s="75"/>
-      <c r="CA8" s="75"/>
-      <c r="CB8" s="75"/>
-      <c r="CC8" s="75"/>
-      <c r="CD8" s="75"/>
-      <c r="CE8" s="75"/>
-      <c r="CF8" s="75"/>
-      <c r="CG8" s="75"/>
-      <c r="CH8" s="75"/>
-      <c r="CI8" s="75"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
+      <c r="AJ8" s="118"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="114"/>
+      <c r="AM8" s="114"/>
+      <c r="AN8" s="114"/>
+      <c r="AO8" s="114"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="119"/>
+      <c r="AS8" s="119"/>
+      <c r="AT8" s="120"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="111"/>
+      <c r="BA8" s="111"/>
+      <c r="BB8" s="111"/>
+      <c r="BC8" s="111"/>
+      <c r="BD8" s="111"/>
+      <c r="BE8" s="111"/>
+      <c r="BF8" s="111"/>
+      <c r="BG8" s="111"/>
+      <c r="BH8" s="111"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="111"/>
+      <c r="BK8" s="111"/>
+      <c r="BL8" s="111"/>
+      <c r="BM8" s="111"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="111"/>
+      <c r="BP8" s="111"/>
+      <c r="BQ8" s="150"/>
+      <c r="BR8" s="150"/>
+      <c r="BS8" s="150"/>
+      <c r="BT8" s="150"/>
+      <c r="BU8" s="150"/>
+      <c r="BV8" s="150"/>
+      <c r="BW8" s="150"/>
+      <c r="BX8" s="150"/>
+      <c r="BY8" s="150"/>
+      <c r="BZ8" s="150"/>
+      <c r="CA8" s="150"/>
+      <c r="CB8" s="150"/>
+      <c r="CC8" s="150"/>
+      <c r="CD8" s="150"/>
+      <c r="CE8" s="150"/>
+      <c r="CF8" s="150"/>
+      <c r="CG8" s="150"/>
+      <c r="CH8" s="150"/>
+      <c r="CI8" s="150"/>
     </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="57">
+    <row r="9" spans="1:1024" ht="18" customHeight="1">
+      <c r="B9" s="98">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="98" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="100"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="94"/>
       <c r="Y9" s="101" t="s">
         <v>28</v>
       </c>
       <c r="Z9" s="102"/>
       <c r="AA9" s="103"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="94"/>
       <c r="AH9" s="101" t="s">
         <v>34</v>
       </c>
       <c r="AI9" s="102"/>
       <c r="AJ9" s="103"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="105"/>
-      <c r="AU9" s="76" t="s">
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="88"/>
+      <c r="AU9" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="76"/>
-      <c r="BA9" s="76"/>
-      <c r="BB9" s="76"/>
-      <c r="BC9" s="76"/>
-      <c r="BD9" s="76"/>
-      <c r="BE9" s="76" t="s">
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="107"/>
+      <c r="BA9" s="107"/>
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="BF9" s="76"/>
-      <c r="BG9" s="76"/>
-      <c r="BH9" s="76"/>
-      <c r="BI9" s="76"/>
-      <c r="BJ9" s="76"/>
-      <c r="BK9" s="76"/>
-      <c r="BL9" s="76"/>
-      <c r="BM9" s="76"/>
-      <c r="BN9" s="76"/>
-      <c r="BO9" s="76"/>
-      <c r="BP9" s="76"/>
-      <c r="BQ9" s="77"/>
-      <c r="BR9" s="77"/>
-      <c r="BS9" s="77"/>
-      <c r="BT9" s="77"/>
-      <c r="BU9" s="77"/>
-      <c r="BV9" s="77"/>
-      <c r="BW9" s="77"/>
-      <c r="BX9" s="77"/>
-      <c r="BY9" s="77"/>
-      <c r="BZ9" s="77"/>
-      <c r="CA9" s="77"/>
-      <c r="CB9" s="77"/>
-      <c r="CC9" s="77"/>
-      <c r="CD9" s="77"/>
-      <c r="CE9" s="77"/>
-      <c r="CF9" s="77"/>
-      <c r="CG9" s="77"/>
-      <c r="CH9" s="77"/>
-      <c r="CI9" s="77"/>
+      <c r="BF9" s="107"/>
+      <c r="BG9" s="107"/>
+      <c r="BH9" s="107"/>
+      <c r="BI9" s="107"/>
+      <c r="BJ9" s="107"/>
+      <c r="BK9" s="107"/>
+      <c r="BL9" s="107"/>
+      <c r="BM9" s="107"/>
+      <c r="BN9" s="107"/>
+      <c r="BO9" s="107"/>
+      <c r="BP9" s="107"/>
+      <c r="BQ9" s="108"/>
+      <c r="BR9" s="108"/>
+      <c r="BS9" s="108"/>
+      <c r="BT9" s="108"/>
+      <c r="BU9" s="108"/>
+      <c r="BV9" s="108"/>
+      <c r="BW9" s="108"/>
+      <c r="BX9" s="108"/>
+      <c r="BY9" s="108"/>
+      <c r="BZ9" s="108"/>
+      <c r="CA9" s="108"/>
+      <c r="CB9" s="108"/>
+      <c r="CC9" s="108"/>
+      <c r="CD9" s="108"/>
+      <c r="CE9" s="108"/>
+      <c r="CF9" s="108"/>
+      <c r="CG9" s="108"/>
+      <c r="CH9" s="108"/>
+      <c r="CI9" s="108"/>
     </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="57">
+    <row r="10" spans="1:1024" ht="18" customHeight="1">
+      <c r="B10" s="98">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60" t="s">
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="74"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="74"/>
-      <c r="BM10" s="74"/>
-      <c r="BN10" s="74"/>
-      <c r="BO10" s="74"/>
-      <c r="BP10" s="74"/>
-      <c r="BQ10" s="106"/>
-      <c r="BR10" s="106"/>
-      <c r="BS10" s="106"/>
-      <c r="BT10" s="106"/>
-      <c r="BU10" s="106"/>
-      <c r="BV10" s="106"/>
-      <c r="BW10" s="106"/>
-      <c r="BX10" s="106"/>
-      <c r="BY10" s="106"/>
-      <c r="BZ10" s="106"/>
-      <c r="CA10" s="106"/>
-      <c r="CB10" s="106"/>
-      <c r="CC10" s="106"/>
-      <c r="CD10" s="106"/>
-      <c r="CE10" s="106"/>
-      <c r="CF10" s="106"/>
-      <c r="CG10" s="106"/>
-      <c r="CH10" s="106"/>
-      <c r="CI10" s="106"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="117"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="114"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="119"/>
+      <c r="AS10" s="119"/>
+      <c r="AT10" s="120"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
+      <c r="AX10" s="111"/>
+      <c r="AY10" s="111"/>
+      <c r="AZ10" s="111"/>
+      <c r="BA10" s="111"/>
+      <c r="BB10" s="111"/>
+      <c r="BC10" s="111"/>
+      <c r="BD10" s="111"/>
+      <c r="BE10" s="111"/>
+      <c r="BF10" s="111"/>
+      <c r="BG10" s="111"/>
+      <c r="BH10" s="111"/>
+      <c r="BI10" s="111"/>
+      <c r="BJ10" s="111"/>
+      <c r="BK10" s="111"/>
+      <c r="BL10" s="111"/>
+      <c r="BM10" s="111"/>
+      <c r="BN10" s="111"/>
+      <c r="BO10" s="111"/>
+      <c r="BP10" s="111"/>
+      <c r="BQ10" s="112"/>
+      <c r="BR10" s="112"/>
+      <c r="BS10" s="112"/>
+      <c r="BT10" s="112"/>
+      <c r="BU10" s="112"/>
+      <c r="BV10" s="112"/>
+      <c r="BW10" s="112"/>
+      <c r="BX10" s="112"/>
+      <c r="BY10" s="112"/>
+      <c r="BZ10" s="112"/>
+      <c r="CA10" s="112"/>
+      <c r="CB10" s="112"/>
+      <c r="CC10" s="112"/>
+      <c r="CD10" s="112"/>
+      <c r="CE10" s="112"/>
+      <c r="CF10" s="112"/>
+      <c r="CG10" s="112"/>
+      <c r="CH10" s="112"/>
+      <c r="CI10" s="112"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="57">
+    <row r="11" spans="1:1024" ht="18" customHeight="1">
+      <c r="B11" s="98">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="98" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="100"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="94"/>
       <c r="Y11" s="101" t="s">
         <v>33</v>
       </c>
       <c r="Z11" s="102"/>
       <c r="AA11" s="103"/>
-      <c r="AB11" s="98" t="s">
+      <c r="AB11" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="100"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="94"/>
       <c r="AH11" s="101" t="s">
         <v>29</v>
       </c>
       <c r="AI11" s="102"/>
       <c r="AJ11" s="103"/>
-      <c r="AK11" s="98" t="s">
+      <c r="AK11" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="105"/>
-      <c r="AU11" s="76" t="s">
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="87"/>
+      <c r="AS11" s="87"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="76"/>
-      <c r="AX11" s="76"/>
-      <c r="AY11" s="76"/>
-      <c r="AZ11" s="76"/>
-      <c r="BA11" s="76"/>
-      <c r="BB11" s="76"/>
-      <c r="BC11" s="76"/>
-      <c r="BD11" s="76"/>
-      <c r="BE11" s="76" t="s">
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="107"/>
+      <c r="AY11" s="107"/>
+      <c r="AZ11" s="107"/>
+      <c r="BA11" s="107"/>
+      <c r="BB11" s="107"/>
+      <c r="BC11" s="107"/>
+      <c r="BD11" s="107"/>
+      <c r="BE11" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="BF11" s="76"/>
-      <c r="BG11" s="76"/>
-      <c r="BH11" s="76"/>
-      <c r="BI11" s="76"/>
-      <c r="BJ11" s="76"/>
-      <c r="BK11" s="76"/>
-      <c r="BL11" s="76"/>
-      <c r="BM11" s="76"/>
-      <c r="BN11" s="76"/>
-      <c r="BO11" s="76"/>
-      <c r="BP11" s="76"/>
-      <c r="BQ11" s="77"/>
-      <c r="BR11" s="77"/>
-      <c r="BS11" s="77"/>
-      <c r="BT11" s="77"/>
-      <c r="BU11" s="77"/>
-      <c r="BV11" s="77"/>
-      <c r="BW11" s="77"/>
-      <c r="BX11" s="77"/>
-      <c r="BY11" s="77"/>
-      <c r="BZ11" s="77"/>
-      <c r="CA11" s="77"/>
-      <c r="CB11" s="77"/>
-      <c r="CC11" s="77"/>
-      <c r="CD11" s="77"/>
-      <c r="CE11" s="77"/>
-      <c r="CF11" s="77"/>
-      <c r="CG11" s="77"/>
-      <c r="CH11" s="77"/>
-      <c r="CI11" s="77"/>
+      <c r="BF11" s="107"/>
+      <c r="BG11" s="107"/>
+      <c r="BH11" s="107"/>
+      <c r="BI11" s="107"/>
+      <c r="BJ11" s="107"/>
+      <c r="BK11" s="107"/>
+      <c r="BL11" s="107"/>
+      <c r="BM11" s="107"/>
+      <c r="BN11" s="107"/>
+      <c r="BO11" s="107"/>
+      <c r="BP11" s="107"/>
+      <c r="BQ11" s="108"/>
+      <c r="BR11" s="108"/>
+      <c r="BS11" s="108"/>
+      <c r="BT11" s="108"/>
+      <c r="BU11" s="108"/>
+      <c r="BV11" s="108"/>
+      <c r="BW11" s="108"/>
+      <c r="BX11" s="108"/>
+      <c r="BY11" s="108"/>
+      <c r="BZ11" s="108"/>
+      <c r="CA11" s="108"/>
+      <c r="CB11" s="108"/>
+      <c r="CC11" s="108"/>
+      <c r="CD11" s="108"/>
+      <c r="CE11" s="108"/>
+      <c r="CF11" s="108"/>
+      <c r="CG11" s="108"/>
+      <c r="CH11" s="108"/>
+      <c r="CI11" s="108"/>
     </row>
-    <row r="12" spans="1:1024" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="57">
+    <row r="12" spans="1:1024" ht="54.6" customHeight="1">
+      <c r="B12" s="98">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="98" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="94"/>
       <c r="Y12" s="101" t="s">
         <v>33</v>
       </c>
       <c r="Z12" s="102"/>
       <c r="AA12" s="103"/>
-      <c r="AB12" s="98" t="s">
+      <c r="AB12" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="100"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="94"/>
       <c r="AH12" s="101"/>
       <c r="AI12" s="102"/>
       <c r="AJ12" s="103"/>
-      <c r="AK12" s="98" t="s">
+      <c r="AK12" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="104"/>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="105"/>
-      <c r="AU12" s="98" t="s">
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="93"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="88"/>
+      <c r="AU12" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="99"/>
-      <c r="AZ12" s="99"/>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="99"/>
-      <c r="BC12" s="99"/>
-      <c r="BD12" s="100"/>
-      <c r="BE12" s="107" t="s">
+      <c r="AV12" s="93"/>
+      <c r="AW12" s="93"/>
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="93"/>
+      <c r="BA12" s="93"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="BF12" s="108"/>
-      <c r="BG12" s="108"/>
-      <c r="BH12" s="108"/>
-      <c r="BI12" s="108"/>
-      <c r="BJ12" s="108"/>
-      <c r="BK12" s="108"/>
-      <c r="BL12" s="108"/>
-      <c r="BM12" s="108"/>
-      <c r="BN12" s="108"/>
-      <c r="BO12" s="108"/>
-      <c r="BP12" s="108"/>
-      <c r="BQ12" s="77" t="s">
+      <c r="BF12" s="110"/>
+      <c r="BG12" s="110"/>
+      <c r="BH12" s="110"/>
+      <c r="BI12" s="110"/>
+      <c r="BJ12" s="110"/>
+      <c r="BK12" s="110"/>
+      <c r="BL12" s="110"/>
+      <c r="BM12" s="110"/>
+      <c r="BN12" s="110"/>
+      <c r="BO12" s="110"/>
+      <c r="BP12" s="110"/>
+      <c r="BQ12" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="BR12" s="77"/>
-      <c r="BS12" s="77"/>
-      <c r="BT12" s="77"/>
-      <c r="BU12" s="77"/>
-      <c r="BV12" s="77"/>
-      <c r="BW12" s="77"/>
-      <c r="BX12" s="77"/>
-      <c r="BY12" s="77"/>
-      <c r="BZ12" s="77"/>
-      <c r="CA12" s="77"/>
-      <c r="CB12" s="77"/>
-      <c r="CC12" s="77"/>
-      <c r="CD12" s="77"/>
-      <c r="CE12" s="77"/>
-      <c r="CF12" s="77"/>
-      <c r="CG12" s="77"/>
-      <c r="CH12" s="77"/>
-      <c r="CI12" s="77"/>
+      <c r="BR12" s="108"/>
+      <c r="BS12" s="108"/>
+      <c r="BT12" s="108"/>
+      <c r="BU12" s="108"/>
+      <c r="BV12" s="108"/>
+      <c r="BW12" s="108"/>
+      <c r="BX12" s="108"/>
+      <c r="BY12" s="108"/>
+      <c r="BZ12" s="108"/>
+      <c r="CA12" s="108"/>
+      <c r="CB12" s="108"/>
+      <c r="CC12" s="108"/>
+      <c r="CD12" s="108"/>
+      <c r="CE12" s="108"/>
+      <c r="CF12" s="108"/>
+      <c r="CG12" s="108"/>
+      <c r="CH12" s="108"/>
+      <c r="CI12" s="108"/>
     </row>
-    <row r="13" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="57">
+    <row r="13" spans="1:1024" ht="36.75" customHeight="1">
+      <c r="B13" s="98">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="98" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="100"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="94"/>
       <c r="Y13" s="101" t="s">
         <v>28</v>
       </c>
       <c r="Z13" s="102"/>
       <c r="AA13" s="103"/>
-      <c r="AB13" s="98" t="s">
+      <c r="AB13" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="100"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="94"/>
       <c r="AH13" s="101" t="s">
         <v>34</v>
       </c>
       <c r="AI13" s="102"/>
       <c r="AJ13" s="103"/>
-      <c r="AK13" s="98" t="s">
+      <c r="AK13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="104"/>
-      <c r="AT13" s="105"/>
-      <c r="AU13" s="98" t="s">
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="88"/>
+      <c r="AU13" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="99"/>
-      <c r="AY13" s="99"/>
-      <c r="AZ13" s="99"/>
-      <c r="BA13" s="99"/>
-      <c r="BB13" s="99"/>
-      <c r="BC13" s="99"/>
-      <c r="BD13" s="100"/>
-      <c r="BE13" s="76" t="s">
+      <c r="AV13" s="93"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="93"/>
+      <c r="BB13" s="93"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="BF13" s="76"/>
-      <c r="BG13" s="76"/>
-      <c r="BH13" s="76"/>
-      <c r="BI13" s="76"/>
-      <c r="BJ13" s="76"/>
-      <c r="BK13" s="76"/>
-      <c r="BL13" s="76"/>
-      <c r="BM13" s="76"/>
-      <c r="BN13" s="76"/>
-      <c r="BO13" s="76"/>
-      <c r="BP13" s="76"/>
-      <c r="BQ13" s="77" t="s">
+      <c r="BF13" s="107"/>
+      <c r="BG13" s="107"/>
+      <c r="BH13" s="107"/>
+      <c r="BI13" s="107"/>
+      <c r="BJ13" s="107"/>
+      <c r="BK13" s="107"/>
+      <c r="BL13" s="107"/>
+      <c r="BM13" s="107"/>
+      <c r="BN13" s="107"/>
+      <c r="BO13" s="107"/>
+      <c r="BP13" s="107"/>
+      <c r="BQ13" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="BR13" s="77"/>
-      <c r="BS13" s="77"/>
-      <c r="BT13" s="77"/>
-      <c r="BU13" s="77"/>
-      <c r="BV13" s="77"/>
-      <c r="BW13" s="77"/>
-      <c r="BX13" s="77"/>
-      <c r="BY13" s="77"/>
-      <c r="BZ13" s="77"/>
-      <c r="CA13" s="77"/>
-      <c r="CB13" s="77"/>
-      <c r="CC13" s="77"/>
-      <c r="CD13" s="77"/>
-      <c r="CE13" s="77"/>
-      <c r="CF13" s="77"/>
-      <c r="CG13" s="77"/>
-      <c r="CH13" s="77"/>
-      <c r="CI13" s="77"/>
+      <c r="BR13" s="108"/>
+      <c r="BS13" s="108"/>
+      <c r="BT13" s="108"/>
+      <c r="BU13" s="108"/>
+      <c r="BV13" s="108"/>
+      <c r="BW13" s="108"/>
+      <c r="BX13" s="108"/>
+      <c r="BY13" s="108"/>
+      <c r="BZ13" s="108"/>
+      <c r="CA13" s="108"/>
+      <c r="CB13" s="108"/>
+      <c r="CC13" s="108"/>
+      <c r="CD13" s="108"/>
+      <c r="CE13" s="108"/>
+      <c r="CF13" s="108"/>
+      <c r="CG13" s="108"/>
+      <c r="CH13" s="108"/>
+      <c r="CI13" s="108"/>
     </row>
-    <row r="14" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="57">
+    <row r="14" spans="1:1024" ht="36.75" customHeight="1">
+      <c r="B14" s="98">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="98" t="s">
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="100"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="94"/>
       <c r="Y14" s="101" t="s">
         <v>28</v>
       </c>
       <c r="Z14" s="102"/>
       <c r="AA14" s="103"/>
-      <c r="AB14" s="98" t="s">
+      <c r="AB14" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="100"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="94"/>
       <c r="AH14" s="101" t="s">
         <v>28</v>
       </c>
       <c r="AI14" s="102"/>
       <c r="AJ14" s="103"/>
-      <c r="AK14" s="98" t="s">
+      <c r="AK14" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="104"/>
-      <c r="AT14" s="105"/>
-      <c r="AU14" s="98" t="s">
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="88"/>
+      <c r="AU14" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="99"/>
-      <c r="AZ14" s="99"/>
-      <c r="BA14" s="99"/>
-      <c r="BB14" s="99"/>
-      <c r="BC14" s="99"/>
-      <c r="BD14" s="100"/>
-      <c r="BE14" s="76" t="s">
+      <c r="AV14" s="93"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="93"/>
+      <c r="AZ14" s="93"/>
+      <c r="BA14" s="93"/>
+      <c r="BB14" s="93"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="76"/>
-      <c r="BI14" s="76"/>
-      <c r="BJ14" s="76"/>
-      <c r="BK14" s="76"/>
-      <c r="BL14" s="76"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="76"/>
-      <c r="BO14" s="76"/>
-      <c r="BP14" s="76"/>
-      <c r="BQ14" s="77"/>
-      <c r="BR14" s="77"/>
-      <c r="BS14" s="77"/>
-      <c r="BT14" s="77"/>
-      <c r="BU14" s="77"/>
-      <c r="BV14" s="77"/>
-      <c r="BW14" s="77"/>
-      <c r="BX14" s="77"/>
-      <c r="BY14" s="77"/>
-      <c r="BZ14" s="77"/>
-      <c r="CA14" s="77"/>
-      <c r="CB14" s="77"/>
-      <c r="CC14" s="77"/>
-      <c r="CD14" s="77"/>
-      <c r="CE14" s="77"/>
-      <c r="CF14" s="77"/>
-      <c r="CG14" s="77"/>
-      <c r="CH14" s="77"/>
-      <c r="CI14" s="77"/>
+      <c r="BF14" s="107"/>
+      <c r="BG14" s="107"/>
+      <c r="BH14" s="107"/>
+      <c r="BI14" s="107"/>
+      <c r="BJ14" s="107"/>
+      <c r="BK14" s="107"/>
+      <c r="BL14" s="107"/>
+      <c r="BM14" s="107"/>
+      <c r="BN14" s="107"/>
+      <c r="BO14" s="107"/>
+      <c r="BP14" s="107"/>
+      <c r="BQ14" s="108"/>
+      <c r="BR14" s="108"/>
+      <c r="BS14" s="108"/>
+      <c r="BT14" s="108"/>
+      <c r="BU14" s="108"/>
+      <c r="BV14" s="108"/>
+      <c r="BW14" s="108"/>
+      <c r="BX14" s="108"/>
+      <c r="BY14" s="108"/>
+      <c r="BZ14" s="108"/>
+      <c r="CA14" s="108"/>
+      <c r="CB14" s="108"/>
+      <c r="CC14" s="108"/>
+      <c r="CD14" s="108"/>
+      <c r="CE14" s="108"/>
+      <c r="CF14" s="108"/>
+      <c r="CG14" s="108"/>
+      <c r="CH14" s="108"/>
+      <c r="CI14" s="108"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="57">
+    <row r="15" spans="1:1024" ht="18" customHeight="1">
+      <c r="B15" s="98">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="100"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="94"/>
       <c r="Y15" s="101" t="s">
         <v>28</v>
       </c>
       <c r="Z15" s="102"/>
       <c r="AA15" s="103"/>
-      <c r="AB15" s="98" t="s">
+      <c r="AB15" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="100"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="94"/>
       <c r="AH15" s="101" t="s">
         <v>28</v>
       </c>
       <c r="AI15" s="102"/>
       <c r="AJ15" s="103"/>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="99"/>
-      <c r="AN15" s="99"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="99"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="104"/>
-      <c r="AT15" s="105"/>
-      <c r="AU15" s="98" t="s">
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="93"/>
+      <c r="AO15" s="93"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="88"/>
+      <c r="AU15" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="99"/>
-      <c r="AX15" s="99"/>
-      <c r="AY15" s="99"/>
-      <c r="AZ15" s="99"/>
-      <c r="BA15" s="99"/>
-      <c r="BB15" s="99"/>
-      <c r="BC15" s="99"/>
-      <c r="BD15" s="100"/>
-      <c r="BE15" s="76" t="s">
+      <c r="AV15" s="93"/>
+      <c r="AW15" s="93"/>
+      <c r="AX15" s="93"/>
+      <c r="AY15" s="93"/>
+      <c r="AZ15" s="93"/>
+      <c r="BA15" s="93"/>
+      <c r="BB15" s="93"/>
+      <c r="BC15" s="93"/>
+      <c r="BD15" s="94"/>
+      <c r="BE15" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="BF15" s="76"/>
-      <c r="BG15" s="76"/>
-      <c r="BH15" s="76"/>
-      <c r="BI15" s="76"/>
-      <c r="BJ15" s="76"/>
-      <c r="BK15" s="76"/>
-      <c r="BL15" s="76"/>
-      <c r="BM15" s="76"/>
-      <c r="BN15" s="76"/>
-      <c r="BO15" s="76"/>
-      <c r="BP15" s="76"/>
-      <c r="BQ15" s="77"/>
-      <c r="BR15" s="77"/>
-      <c r="BS15" s="77"/>
-      <c r="BT15" s="77"/>
-      <c r="BU15" s="77"/>
-      <c r="BV15" s="77"/>
-      <c r="BW15" s="77"/>
-      <c r="BX15" s="77"/>
-      <c r="BY15" s="77"/>
-      <c r="BZ15" s="77"/>
-      <c r="CA15" s="77"/>
-      <c r="CB15" s="77"/>
-      <c r="CC15" s="77"/>
-      <c r="CD15" s="77"/>
-      <c r="CE15" s="77"/>
-      <c r="CF15" s="77"/>
-      <c r="CG15" s="77"/>
-      <c r="CH15" s="77"/>
-      <c r="CI15" s="77"/>
+      <c r="BF15" s="107"/>
+      <c r="BG15" s="107"/>
+      <c r="BH15" s="107"/>
+      <c r="BI15" s="107"/>
+      <c r="BJ15" s="107"/>
+      <c r="BK15" s="107"/>
+      <c r="BL15" s="107"/>
+      <c r="BM15" s="107"/>
+      <c r="BN15" s="107"/>
+      <c r="BO15" s="107"/>
+      <c r="BP15" s="107"/>
+      <c r="BQ15" s="108"/>
+      <c r="BR15" s="108"/>
+      <c r="BS15" s="108"/>
+      <c r="BT15" s="108"/>
+      <c r="BU15" s="108"/>
+      <c r="BV15" s="108"/>
+      <c r="BW15" s="108"/>
+      <c r="BX15" s="108"/>
+      <c r="BY15" s="108"/>
+      <c r="BZ15" s="108"/>
+      <c r="CA15" s="108"/>
+      <c r="CB15" s="108"/>
+      <c r="CC15" s="108"/>
+      <c r="CD15" s="108"/>
+      <c r="CE15" s="108"/>
+      <c r="CF15" s="108"/>
+      <c r="CG15" s="108"/>
+      <c r="CH15" s="108"/>
+      <c r="CI15" s="108"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="100"/>
+    <row r="16" spans="1:1024" ht="18" customHeight="1">
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="94"/>
       <c r="Y16" s="101"/>
       <c r="Z16" s="102"/>
       <c r="AA16" s="103"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="100"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="94"/>
       <c r="AH16" s="101"/>
       <c r="AI16" s="102"/>
       <c r="AJ16" s="103"/>
-      <c r="AK16" s="98"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="99"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="99"/>
-      <c r="AQ16" s="99"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="105"/>
-      <c r="AU16" s="98"/>
-      <c r="AV16" s="99"/>
-      <c r="AW16" s="99"/>
-      <c r="AX16" s="99"/>
-      <c r="AY16" s="99"/>
-      <c r="AZ16" s="99"/>
-      <c r="BA16" s="99"/>
-      <c r="BB16" s="99"/>
-      <c r="BC16" s="99"/>
-      <c r="BD16" s="100"/>
-      <c r="BE16" s="98"/>
-      <c r="BF16" s="99"/>
-      <c r="BG16" s="99"/>
-      <c r="BH16" s="99"/>
-      <c r="BI16" s="99"/>
-      <c r="BJ16" s="99"/>
-      <c r="BK16" s="99"/>
-      <c r="BL16" s="99"/>
-      <c r="BM16" s="99"/>
-      <c r="BN16" s="99"/>
-      <c r="BO16" s="99"/>
-      <c r="BP16" s="100"/>
-      <c r="BQ16" s="109"/>
-      <c r="BR16" s="110"/>
-      <c r="BS16" s="110"/>
-      <c r="BT16" s="110"/>
-      <c r="BU16" s="110"/>
-      <c r="BV16" s="110"/>
-      <c r="BW16" s="110"/>
-      <c r="BX16" s="110"/>
-      <c r="BY16" s="110"/>
-      <c r="BZ16" s="110"/>
-      <c r="CA16" s="110"/>
-      <c r="CB16" s="110"/>
-      <c r="CC16" s="110"/>
-      <c r="CD16" s="110"/>
-      <c r="CE16" s="110"/>
-      <c r="CF16" s="110"/>
-      <c r="CG16" s="110"/>
-      <c r="CH16" s="110"/>
-      <c r="CI16" s="111"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="88"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="94"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="93"/>
+      <c r="BG16" s="93"/>
+      <c r="BH16" s="93"/>
+      <c r="BI16" s="93"/>
+      <c r="BJ16" s="93"/>
+      <c r="BK16" s="93"/>
+      <c r="BL16" s="93"/>
+      <c r="BM16" s="93"/>
+      <c r="BN16" s="93"/>
+      <c r="BO16" s="93"/>
+      <c r="BP16" s="94"/>
+      <c r="BQ16" s="104"/>
+      <c r="BR16" s="105"/>
+      <c r="BS16" s="105"/>
+      <c r="BT16" s="105"/>
+      <c r="BU16" s="105"/>
+      <c r="BV16" s="105"/>
+      <c r="BW16" s="105"/>
+      <c r="BX16" s="105"/>
+      <c r="BY16" s="105"/>
+      <c r="BZ16" s="105"/>
+      <c r="CA16" s="105"/>
+      <c r="CB16" s="105"/>
+      <c r="CC16" s="105"/>
+      <c r="CD16" s="105"/>
+      <c r="CE16" s="105"/>
+      <c r="CF16" s="105"/>
+      <c r="CG16" s="105"/>
+      <c r="CH16" s="105"/>
+      <c r="CI16" s="106"/>
     </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="100"/>
+    <row r="17" spans="2:87" ht="18" customHeight="1">
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="94"/>
       <c r="Y17" s="101"/>
       <c r="Z17" s="102"/>
       <c r="AA17" s="103"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="100"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="94"/>
       <c r="AH17" s="101"/>
       <c r="AI17" s="102"/>
       <c r="AJ17" s="103"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="99"/>
-      <c r="AM17" s="99"/>
-      <c r="AN17" s="99"/>
-      <c r="AO17" s="99"/>
-      <c r="AP17" s="99"/>
-      <c r="AQ17" s="99"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="105"/>
-      <c r="AU17" s="98"/>
-      <c r="AV17" s="99"/>
-      <c r="AW17" s="99"/>
-      <c r="AX17" s="99"/>
-      <c r="AY17" s="99"/>
-      <c r="AZ17" s="99"/>
-      <c r="BA17" s="99"/>
-      <c r="BB17" s="99"/>
-      <c r="BC17" s="99"/>
-      <c r="BD17" s="100"/>
-      <c r="BE17" s="98"/>
-      <c r="BF17" s="99"/>
-      <c r="BG17" s="99"/>
-      <c r="BH17" s="99"/>
-      <c r="BI17" s="99"/>
-      <c r="BJ17" s="99"/>
-      <c r="BK17" s="99"/>
-      <c r="BL17" s="99"/>
-      <c r="BM17" s="99"/>
-      <c r="BN17" s="99"/>
-      <c r="BO17" s="99"/>
-      <c r="BP17" s="100"/>
-      <c r="BQ17" s="109"/>
-      <c r="BR17" s="110"/>
-      <c r="BS17" s="110"/>
-      <c r="BT17" s="110"/>
-      <c r="BU17" s="110"/>
-      <c r="BV17" s="110"/>
-      <c r="BW17" s="110"/>
-      <c r="BX17" s="110"/>
-      <c r="BY17" s="110"/>
-      <c r="BZ17" s="110"/>
-      <c r="CA17" s="110"/>
-      <c r="CB17" s="110"/>
-      <c r="CC17" s="110"/>
-      <c r="CD17" s="110"/>
-      <c r="CE17" s="110"/>
-      <c r="CF17" s="110"/>
-      <c r="CG17" s="110"/>
-      <c r="CH17" s="110"/>
-      <c r="CI17" s="111"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
+      <c r="AQ17" s="93"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="88"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="94"/>
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="93"/>
+      <c r="BG17" s="93"/>
+      <c r="BH17" s="93"/>
+      <c r="BI17" s="93"/>
+      <c r="BJ17" s="93"/>
+      <c r="BK17" s="93"/>
+      <c r="BL17" s="93"/>
+      <c r="BM17" s="93"/>
+      <c r="BN17" s="93"/>
+      <c r="BO17" s="93"/>
+      <c r="BP17" s="94"/>
+      <c r="BQ17" s="104"/>
+      <c r="BR17" s="105"/>
+      <c r="BS17" s="105"/>
+      <c r="BT17" s="105"/>
+      <c r="BU17" s="105"/>
+      <c r="BV17" s="105"/>
+      <c r="BW17" s="105"/>
+      <c r="BX17" s="105"/>
+      <c r="BY17" s="105"/>
+      <c r="BZ17" s="105"/>
+      <c r="CA17" s="105"/>
+      <c r="CB17" s="105"/>
+      <c r="CC17" s="105"/>
+      <c r="CD17" s="105"/>
+      <c r="CE17" s="105"/>
+      <c r="CF17" s="105"/>
+      <c r="CG17" s="105"/>
+      <c r="CH17" s="105"/>
+      <c r="CI17" s="106"/>
     </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="100"/>
+    <row r="18" spans="2:87" ht="18" customHeight="1">
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="94"/>
       <c r="Y18" s="101"/>
       <c r="Z18" s="102"/>
       <c r="AA18" s="103"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="100"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="94"/>
       <c r="AH18" s="101"/>
       <c r="AI18" s="102"/>
       <c r="AJ18" s="103"/>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="99"/>
-      <c r="AM18" s="99"/>
-      <c r="AN18" s="99"/>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="99"/>
-      <c r="AQ18" s="99"/>
-      <c r="AR18" s="104"/>
-      <c r="AS18" s="104"/>
-      <c r="AT18" s="105"/>
-      <c r="AU18" s="98"/>
-      <c r="AV18" s="99"/>
-      <c r="AW18" s="99"/>
-      <c r="AX18" s="99"/>
-      <c r="AY18" s="99"/>
-      <c r="AZ18" s="99"/>
-      <c r="BA18" s="99"/>
-      <c r="BB18" s="99"/>
-      <c r="BC18" s="99"/>
-      <c r="BD18" s="100"/>
-      <c r="BE18" s="98"/>
-      <c r="BF18" s="99"/>
-      <c r="BG18" s="99"/>
-      <c r="BH18" s="99"/>
-      <c r="BI18" s="99"/>
-      <c r="BJ18" s="99"/>
-      <c r="BK18" s="99"/>
-      <c r="BL18" s="99"/>
-      <c r="BM18" s="99"/>
-      <c r="BN18" s="99"/>
-      <c r="BO18" s="99"/>
-      <c r="BP18" s="100"/>
-      <c r="BQ18" s="109"/>
-      <c r="BR18" s="110"/>
-      <c r="BS18" s="110"/>
-      <c r="BT18" s="110"/>
-      <c r="BU18" s="110"/>
-      <c r="BV18" s="110"/>
-      <c r="BW18" s="110"/>
-      <c r="BX18" s="110"/>
-      <c r="BY18" s="110"/>
-      <c r="BZ18" s="110"/>
-      <c r="CA18" s="110"/>
-      <c r="CB18" s="110"/>
-      <c r="CC18" s="110"/>
-      <c r="CD18" s="110"/>
-      <c r="CE18" s="110"/>
-      <c r="CF18" s="110"/>
-      <c r="CG18" s="110"/>
-      <c r="CH18" s="110"/>
-      <c r="CI18" s="111"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="93"/>
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="93"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="93"/>
+      <c r="BA18" s="93"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="94"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="93"/>
+      <c r="BG18" s="93"/>
+      <c r="BH18" s="93"/>
+      <c r="BI18" s="93"/>
+      <c r="BJ18" s="93"/>
+      <c r="BK18" s="93"/>
+      <c r="BL18" s="93"/>
+      <c r="BM18" s="93"/>
+      <c r="BN18" s="93"/>
+      <c r="BO18" s="93"/>
+      <c r="BP18" s="94"/>
+      <c r="BQ18" s="104"/>
+      <c r="BR18" s="105"/>
+      <c r="BS18" s="105"/>
+      <c r="BT18" s="105"/>
+      <c r="BU18" s="105"/>
+      <c r="BV18" s="105"/>
+      <c r="BW18" s="105"/>
+      <c r="BX18" s="105"/>
+      <c r="BY18" s="105"/>
+      <c r="BZ18" s="105"/>
+      <c r="CA18" s="105"/>
+      <c r="CB18" s="105"/>
+      <c r="CC18" s="105"/>
+      <c r="CD18" s="105"/>
+      <c r="CE18" s="105"/>
+      <c r="CF18" s="105"/>
+      <c r="CG18" s="105"/>
+      <c r="CH18" s="105"/>
+      <c r="CI18" s="106"/>
     </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="100"/>
+    <row r="19" spans="2:87" ht="18" customHeight="1">
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="94"/>
       <c r="Y19" s="101"/>
       <c r="Z19" s="102"/>
       <c r="AA19" s="103"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="100"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="94"/>
       <c r="AH19" s="101"/>
       <c r="AI19" s="102"/>
       <c r="AJ19" s="103"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="99"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="99"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="104"/>
-      <c r="AS19" s="104"/>
-      <c r="AT19" s="105"/>
-      <c r="AU19" s="98"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="99"/>
-      <c r="AX19" s="99"/>
-      <c r="AY19" s="99"/>
-      <c r="AZ19" s="99"/>
-      <c r="BA19" s="99"/>
-      <c r="BB19" s="99"/>
-      <c r="BC19" s="99"/>
-      <c r="BD19" s="100"/>
-      <c r="BE19" s="98"/>
-      <c r="BF19" s="99"/>
-      <c r="BG19" s="99"/>
-      <c r="BH19" s="99"/>
-      <c r="BI19" s="99"/>
-      <c r="BJ19" s="99"/>
-      <c r="BK19" s="99"/>
-      <c r="BL19" s="99"/>
-      <c r="BM19" s="99"/>
-      <c r="BN19" s="99"/>
-      <c r="BO19" s="99"/>
-      <c r="BP19" s="100"/>
-      <c r="BQ19" s="109"/>
-      <c r="BR19" s="110"/>
-      <c r="BS19" s="110"/>
-      <c r="BT19" s="110"/>
-      <c r="BU19" s="110"/>
-      <c r="BV19" s="110"/>
-      <c r="BW19" s="110"/>
-      <c r="BX19" s="110"/>
-      <c r="BY19" s="110"/>
-      <c r="BZ19" s="110"/>
-      <c r="CA19" s="110"/>
-      <c r="CB19" s="110"/>
-      <c r="CC19" s="110"/>
-      <c r="CD19" s="110"/>
-      <c r="CE19" s="110"/>
-      <c r="CF19" s="110"/>
-      <c r="CG19" s="110"/>
-      <c r="CH19" s="110"/>
-      <c r="CI19" s="111"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="93"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="88"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="93"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="93"/>
+      <c r="AZ19" s="93"/>
+      <c r="BA19" s="93"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="94"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="93"/>
+      <c r="BG19" s="93"/>
+      <c r="BH19" s="93"/>
+      <c r="BI19" s="93"/>
+      <c r="BJ19" s="93"/>
+      <c r="BK19" s="93"/>
+      <c r="BL19" s="93"/>
+      <c r="BM19" s="93"/>
+      <c r="BN19" s="93"/>
+      <c r="BO19" s="93"/>
+      <c r="BP19" s="94"/>
+      <c r="BQ19" s="104"/>
+      <c r="BR19" s="105"/>
+      <c r="BS19" s="105"/>
+      <c r="BT19" s="105"/>
+      <c r="BU19" s="105"/>
+      <c r="BV19" s="105"/>
+      <c r="BW19" s="105"/>
+      <c r="BX19" s="105"/>
+      <c r="BY19" s="105"/>
+      <c r="BZ19" s="105"/>
+      <c r="CA19" s="105"/>
+      <c r="CB19" s="105"/>
+      <c r="CC19" s="105"/>
+      <c r="CD19" s="105"/>
+      <c r="CE19" s="105"/>
+      <c r="CF19" s="105"/>
+      <c r="CG19" s="105"/>
+      <c r="CH19" s="105"/>
+      <c r="CI19" s="106"/>
     </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="100"/>
+    <row r="20" spans="2:87" ht="18" customHeight="1">
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="94"/>
       <c r="Y20" s="101"/>
       <c r="Z20" s="102"/>
       <c r="AA20" s="103"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="100"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="94"/>
       <c r="AH20" s="101"/>
       <c r="AI20" s="102"/>
       <c r="AJ20" s="103"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="99"/>
-      <c r="AO20" s="99"/>
-      <c r="AP20" s="99"/>
-      <c r="AQ20" s="99"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="105"/>
-      <c r="AU20" s="98"/>
-      <c r="AV20" s="99"/>
-      <c r="AW20" s="99"/>
-      <c r="AX20" s="99"/>
-      <c r="AY20" s="99"/>
-      <c r="AZ20" s="99"/>
-      <c r="BA20" s="99"/>
-      <c r="BB20" s="99"/>
-      <c r="BC20" s="99"/>
-      <c r="BD20" s="100"/>
-      <c r="BE20" s="98"/>
-      <c r="BF20" s="99"/>
-      <c r="BG20" s="99"/>
-      <c r="BH20" s="99"/>
-      <c r="BI20" s="99"/>
-      <c r="BJ20" s="99"/>
-      <c r="BK20" s="99"/>
-      <c r="BL20" s="99"/>
-      <c r="BM20" s="99"/>
-      <c r="BN20" s="99"/>
-      <c r="BO20" s="99"/>
-      <c r="BP20" s="100"/>
-      <c r="BQ20" s="109"/>
-      <c r="BR20" s="110"/>
-      <c r="BS20" s="110"/>
-      <c r="BT20" s="110"/>
-      <c r="BU20" s="110"/>
-      <c r="BV20" s="110"/>
-      <c r="BW20" s="110"/>
-      <c r="BX20" s="110"/>
-      <c r="BY20" s="110"/>
-      <c r="BZ20" s="110"/>
-      <c r="CA20" s="110"/>
-      <c r="CB20" s="110"/>
-      <c r="CC20" s="110"/>
-      <c r="CD20" s="110"/>
-      <c r="CE20" s="110"/>
-      <c r="CF20" s="110"/>
-      <c r="CG20" s="110"/>
-      <c r="CH20" s="110"/>
-      <c r="CI20" s="111"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="93"/>
+      <c r="AR20" s="87"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="88"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="93"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="93"/>
+      <c r="AY20" s="93"/>
+      <c r="AZ20" s="93"/>
+      <c r="BA20" s="93"/>
+      <c r="BB20" s="93"/>
+      <c r="BC20" s="93"/>
+      <c r="BD20" s="94"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="93"/>
+      <c r="BG20" s="93"/>
+      <c r="BH20" s="93"/>
+      <c r="BI20" s="93"/>
+      <c r="BJ20" s="93"/>
+      <c r="BK20" s="93"/>
+      <c r="BL20" s="93"/>
+      <c r="BM20" s="93"/>
+      <c r="BN20" s="93"/>
+      <c r="BO20" s="93"/>
+      <c r="BP20" s="94"/>
+      <c r="BQ20" s="104"/>
+      <c r="BR20" s="105"/>
+      <c r="BS20" s="105"/>
+      <c r="BT20" s="105"/>
+      <c r="BU20" s="105"/>
+      <c r="BV20" s="105"/>
+      <c r="BW20" s="105"/>
+      <c r="BX20" s="105"/>
+      <c r="BY20" s="105"/>
+      <c r="BZ20" s="105"/>
+      <c r="CA20" s="105"/>
+      <c r="CB20" s="105"/>
+      <c r="CC20" s="105"/>
+      <c r="CD20" s="105"/>
+      <c r="CE20" s="105"/>
+      <c r="CF20" s="105"/>
+      <c r="CG20" s="105"/>
+      <c r="CH20" s="105"/>
+      <c r="CI20" s="106"/>
     </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="122"/>
-      <c r="AJ21" s="123"/>
-      <c r="AK21" s="112"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
-      <c r="AO21" s="113"/>
-      <c r="AP21" s="113"/>
-      <c r="AQ21" s="113"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="105"/>
-      <c r="AU21" s="112"/>
-      <c r="AV21" s="113"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="113"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="114"/>
-      <c r="BE21" s="112"/>
-      <c r="BF21" s="113"/>
-      <c r="BG21" s="113"/>
-      <c r="BH21" s="113"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
-      <c r="BN21" s="113"/>
-      <c r="BO21" s="113"/>
-      <c r="BP21" s="114"/>
-      <c r="BQ21" s="115"/>
-      <c r="BR21" s="116"/>
-      <c r="BS21" s="116"/>
-      <c r="BT21" s="116"/>
-      <c r="BU21" s="116"/>
-      <c r="BV21" s="116"/>
-      <c r="BW21" s="116"/>
-      <c r="BX21" s="116"/>
-      <c r="BY21" s="116"/>
-      <c r="BZ21" s="116"/>
-      <c r="CA21" s="116"/>
-      <c r="CB21" s="116"/>
-      <c r="CC21" s="116"/>
-      <c r="CD21" s="116"/>
-      <c r="CE21" s="116"/>
-      <c r="CF21" s="116"/>
-      <c r="CG21" s="116"/>
-      <c r="CH21" s="116"/>
-      <c r="CI21" s="117"/>
+    <row r="21" spans="2:87" ht="18" customHeight="1">
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="75"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="88"/>
+      <c r="AU21" s="75"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76"/>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="76"/>
+      <c r="BB21" s="76"/>
+      <c r="BC21" s="76"/>
+      <c r="BD21" s="77"/>
+      <c r="BE21" s="75"/>
+      <c r="BF21" s="76"/>
+      <c r="BG21" s="76"/>
+      <c r="BH21" s="76"/>
+      <c r="BI21" s="76"/>
+      <c r="BJ21" s="76"/>
+      <c r="BK21" s="76"/>
+      <c r="BL21" s="76"/>
+      <c r="BM21" s="76"/>
+      <c r="BN21" s="76"/>
+      <c r="BO21" s="76"/>
+      <c r="BP21" s="77"/>
+      <c r="BQ21" s="78"/>
+      <c r="BR21" s="79"/>
+      <c r="BS21" s="79"/>
+      <c r="BT21" s="79"/>
+      <c r="BU21" s="79"/>
+      <c r="BV21" s="79"/>
+      <c r="BW21" s="79"/>
+      <c r="BX21" s="79"/>
+      <c r="BY21" s="79"/>
+      <c r="BZ21" s="79"/>
+      <c r="CA21" s="79"/>
+      <c r="CB21" s="79"/>
+      <c r="CC21" s="79"/>
+      <c r="CD21" s="79"/>
+      <c r="CE21" s="79"/>
+      <c r="CF21" s="79"/>
+      <c r="CG21" s="79"/>
+      <c r="CH21" s="79"/>
+      <c r="CI21" s="80"/>
     </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="123"/>
-      <c r="AB22" s="112"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="114"/>
-      <c r="AH22" s="112"/>
-      <c r="AI22" s="113"/>
-      <c r="AJ22" s="114"/>
-      <c r="AK22" s="112"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="113"/>
-      <c r="AQ22" s="113"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="105"/>
-      <c r="AU22" s="112"/>
-      <c r="AV22" s="113"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="113"/>
-      <c r="AY22" s="113"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="113"/>
-      <c r="BB22" s="113"/>
-      <c r="BC22" s="113"/>
-      <c r="BD22" s="114"/>
-      <c r="BE22" s="112"/>
-      <c r="BF22" s="113"/>
-      <c r="BG22" s="113"/>
-      <c r="BH22" s="113"/>
-      <c r="BI22" s="113"/>
-      <c r="BJ22" s="113"/>
-      <c r="BK22" s="113"/>
-      <c r="BL22" s="113"/>
-      <c r="BM22" s="113"/>
-      <c r="BN22" s="113"/>
-      <c r="BO22" s="113"/>
-      <c r="BP22" s="114"/>
-      <c r="BQ22" s="124"/>
-      <c r="BR22" s="125"/>
-      <c r="BS22" s="125"/>
-      <c r="BT22" s="125"/>
-      <c r="BU22" s="125"/>
-      <c r="BV22" s="125"/>
-      <c r="BW22" s="125"/>
-      <c r="BX22" s="125"/>
-      <c r="BY22" s="125"/>
-      <c r="BZ22" s="125"/>
-      <c r="CA22" s="125"/>
-      <c r="CB22" s="125"/>
-      <c r="CC22" s="125"/>
-      <c r="CD22" s="125"/>
-      <c r="CE22" s="125"/>
-      <c r="CF22" s="125"/>
-      <c r="CG22" s="125"/>
-      <c r="CH22" s="125"/>
-      <c r="CI22" s="126"/>
+    <row r="22" spans="2:87" ht="18" customHeight="1">
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="76"/>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="76"/>
+      <c r="AQ22" s="76"/>
+      <c r="AR22" s="87"/>
+      <c r="AS22" s="87"/>
+      <c r="AT22" s="88"/>
+      <c r="AU22" s="75"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="76"/>
+      <c r="AZ22" s="76"/>
+      <c r="BA22" s="76"/>
+      <c r="BB22" s="76"/>
+      <c r="BC22" s="76"/>
+      <c r="BD22" s="77"/>
+      <c r="BE22" s="75"/>
+      <c r="BF22" s="76"/>
+      <c r="BG22" s="76"/>
+      <c r="BH22" s="76"/>
+      <c r="BI22" s="76"/>
+      <c r="BJ22" s="76"/>
+      <c r="BK22" s="76"/>
+      <c r="BL22" s="76"/>
+      <c r="BM22" s="76"/>
+      <c r="BN22" s="76"/>
+      <c r="BO22" s="76"/>
+      <c r="BP22" s="77"/>
+      <c r="BQ22" s="95"/>
+      <c r="BR22" s="96"/>
+      <c r="BS22" s="96"/>
+      <c r="BT22" s="96"/>
+      <c r="BU22" s="96"/>
+      <c r="BV22" s="96"/>
+      <c r="BW22" s="96"/>
+      <c r="BX22" s="96"/>
+      <c r="BY22" s="96"/>
+      <c r="BZ22" s="96"/>
+      <c r="CA22" s="96"/>
+      <c r="CB22" s="96"/>
+      <c r="CC22" s="96"/>
+      <c r="CD22" s="96"/>
+      <c r="CE22" s="96"/>
+      <c r="CF22" s="96"/>
+      <c r="CG22" s="96"/>
+      <c r="CH22" s="96"/>
+      <c r="CI22" s="97"/>
     </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="114"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="112"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="114"/>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="123"/>
-      <c r="AK23" s="112"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="113"/>
-      <c r="AO23" s="113"/>
-      <c r="AP23" s="113"/>
-      <c r="AQ23" s="113"/>
-      <c r="AR23" s="104"/>
-      <c r="AS23" s="104"/>
-      <c r="AT23" s="105"/>
-      <c r="AU23" s="112"/>
-      <c r="AV23" s="113"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="113"/>
-      <c r="AY23" s="113"/>
-      <c r="AZ23" s="113"/>
-      <c r="BA23" s="113"/>
-      <c r="BB23" s="113"/>
-      <c r="BC23" s="113"/>
-      <c r="BD23" s="114"/>
-      <c r="BE23" s="112"/>
-      <c r="BF23" s="113"/>
-      <c r="BG23" s="113"/>
-      <c r="BH23" s="113"/>
-      <c r="BI23" s="113"/>
-      <c r="BJ23" s="113"/>
-      <c r="BK23" s="113"/>
-      <c r="BL23" s="113"/>
-      <c r="BM23" s="113"/>
-      <c r="BN23" s="113"/>
-      <c r="BO23" s="113"/>
-      <c r="BP23" s="114"/>
-      <c r="BQ23" s="115"/>
-      <c r="BR23" s="116"/>
-      <c r="BS23" s="116"/>
-      <c r="BT23" s="116"/>
-      <c r="BU23" s="116"/>
-      <c r="BV23" s="116"/>
-      <c r="BW23" s="116"/>
-      <c r="BX23" s="116"/>
-      <c r="BY23" s="116"/>
-      <c r="BZ23" s="116"/>
-      <c r="CA23" s="116"/>
-      <c r="CB23" s="116"/>
-      <c r="CC23" s="116"/>
-      <c r="CD23" s="116"/>
-      <c r="CE23" s="116"/>
-      <c r="CF23" s="116"/>
-      <c r="CG23" s="116"/>
-      <c r="CH23" s="116"/>
-      <c r="CI23" s="117"/>
+    <row r="23" spans="2:87" ht="18" customHeight="1">
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="84"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="87"/>
+      <c r="AS23" s="87"/>
+      <c r="AT23" s="88"/>
+      <c r="AU23" s="75"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="76"/>
+      <c r="AZ23" s="76"/>
+      <c r="BA23" s="76"/>
+      <c r="BB23" s="76"/>
+      <c r="BC23" s="76"/>
+      <c r="BD23" s="77"/>
+      <c r="BE23" s="75"/>
+      <c r="BF23" s="76"/>
+      <c r="BG23" s="76"/>
+      <c r="BH23" s="76"/>
+      <c r="BI23" s="76"/>
+      <c r="BJ23" s="76"/>
+      <c r="BK23" s="76"/>
+      <c r="BL23" s="76"/>
+      <c r="BM23" s="76"/>
+      <c r="BN23" s="76"/>
+      <c r="BO23" s="76"/>
+      <c r="BP23" s="77"/>
+      <c r="BQ23" s="78"/>
+      <c r="BR23" s="79"/>
+      <c r="BS23" s="79"/>
+      <c r="BT23" s="79"/>
+      <c r="BU23" s="79"/>
+      <c r="BV23" s="79"/>
+      <c r="BW23" s="79"/>
+      <c r="BX23" s="79"/>
+      <c r="BY23" s="79"/>
+      <c r="BZ23" s="79"/>
+      <c r="CA23" s="79"/>
+      <c r="CB23" s="79"/>
+      <c r="CC23" s="79"/>
+      <c r="CD23" s="79"/>
+      <c r="CE23" s="79"/>
+      <c r="CF23" s="79"/>
+      <c r="CG23" s="79"/>
+      <c r="CH23" s="79"/>
+      <c r="CI23" s="80"/>
     </row>
-    <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="114"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="123"/>
-      <c r="AB24" s="112"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="122"/>
-      <c r="AJ24" s="123"/>
-      <c r="AK24" s="112"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="113"/>
-      <c r="AN24" s="113"/>
-      <c r="AO24" s="113"/>
-      <c r="AP24" s="113"/>
-      <c r="AQ24" s="113"/>
-      <c r="AR24" s="104"/>
-      <c r="AS24" s="104"/>
-      <c r="AT24" s="105"/>
-      <c r="AU24" s="112"/>
-      <c r="AV24" s="113"/>
-      <c r="AW24" s="113"/>
-      <c r="AX24" s="113"/>
-      <c r="AY24" s="113"/>
-      <c r="AZ24" s="113"/>
-      <c r="BA24" s="113"/>
-      <c r="BB24" s="113"/>
-      <c r="BC24" s="113"/>
-      <c r="BD24" s="114"/>
-      <c r="BE24" s="112"/>
-      <c r="BF24" s="113"/>
-      <c r="BG24" s="113"/>
-      <c r="BH24" s="113"/>
-      <c r="BI24" s="113"/>
-      <c r="BJ24" s="113"/>
-      <c r="BK24" s="113"/>
-      <c r="BL24" s="113"/>
-      <c r="BM24" s="113"/>
-      <c r="BN24" s="113"/>
-      <c r="BO24" s="113"/>
-      <c r="BP24" s="114"/>
-      <c r="BQ24" s="127"/>
-      <c r="BR24" s="128"/>
-      <c r="BS24" s="128"/>
-      <c r="BT24" s="128"/>
-      <c r="BU24" s="128"/>
-      <c r="BV24" s="128"/>
-      <c r="BW24" s="128"/>
-      <c r="BX24" s="128"/>
-      <c r="BY24" s="128"/>
-      <c r="BZ24" s="128"/>
-      <c r="CA24" s="128"/>
-      <c r="CB24" s="128"/>
-      <c r="CC24" s="128"/>
-      <c r="CD24" s="128"/>
-      <c r="CE24" s="128"/>
-      <c r="CF24" s="128"/>
-      <c r="CG24" s="128"/>
-      <c r="CH24" s="128"/>
-      <c r="CI24" s="129"/>
+    <row r="24" spans="2:87" ht="18" customHeight="1">
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="84"/>
+      <c r="AI24" s="85"/>
+      <c r="AJ24" s="86"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="87"/>
+      <c r="AS24" s="87"/>
+      <c r="AT24" s="88"/>
+      <c r="AU24" s="75"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="76"/>
+      <c r="AZ24" s="76"/>
+      <c r="BA24" s="76"/>
+      <c r="BB24" s="76"/>
+      <c r="BC24" s="76"/>
+      <c r="BD24" s="77"/>
+      <c r="BE24" s="75"/>
+      <c r="BF24" s="76"/>
+      <c r="BG24" s="76"/>
+      <c r="BH24" s="76"/>
+      <c r="BI24" s="76"/>
+      <c r="BJ24" s="76"/>
+      <c r="BK24" s="76"/>
+      <c r="BL24" s="76"/>
+      <c r="BM24" s="76"/>
+      <c r="BN24" s="76"/>
+      <c r="BO24" s="76"/>
+      <c r="BP24" s="77"/>
+      <c r="BQ24" s="89"/>
+      <c r="BR24" s="90"/>
+      <c r="BS24" s="90"/>
+      <c r="BT24" s="90"/>
+      <c r="BU24" s="90"/>
+      <c r="BV24" s="90"/>
+      <c r="BW24" s="90"/>
+      <c r="BX24" s="90"/>
+      <c r="BY24" s="90"/>
+      <c r="BZ24" s="90"/>
+      <c r="CA24" s="90"/>
+      <c r="CB24" s="90"/>
+      <c r="CC24" s="90"/>
+      <c r="CD24" s="90"/>
+      <c r="CE24" s="90"/>
+      <c r="CF24" s="90"/>
+      <c r="CG24" s="90"/>
+      <c r="CH24" s="90"/>
+      <c r="CI24" s="91"/>
     </row>
-    <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="114"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="113"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="112"/>
-      <c r="AI25" s="113"/>
-      <c r="AJ25" s="114"/>
-      <c r="AK25" s="112"/>
-      <c r="AL25" s="113"/>
-      <c r="AM25" s="113"/>
-      <c r="AN25" s="113"/>
-      <c r="AO25" s="113"/>
-      <c r="AP25" s="113"/>
-      <c r="AQ25" s="113"/>
-      <c r="AR25" s="104"/>
-      <c r="AS25" s="104"/>
-      <c r="AT25" s="105"/>
-      <c r="AU25" s="112"/>
-      <c r="AV25" s="113"/>
-      <c r="AW25" s="113"/>
-      <c r="AX25" s="113"/>
-      <c r="AY25" s="113"/>
-      <c r="AZ25" s="113"/>
-      <c r="BA25" s="113"/>
-      <c r="BB25" s="113"/>
-      <c r="BC25" s="113"/>
-      <c r="BD25" s="114"/>
-      <c r="BE25" s="112"/>
-      <c r="BF25" s="113"/>
-      <c r="BG25" s="113"/>
-      <c r="BH25" s="113"/>
-      <c r="BI25" s="113"/>
-      <c r="BJ25" s="113"/>
-      <c r="BK25" s="113"/>
-      <c r="BL25" s="113"/>
-      <c r="BM25" s="113"/>
-      <c r="BN25" s="113"/>
-      <c r="BO25" s="113"/>
-      <c r="BP25" s="114"/>
-      <c r="BQ25" s="115"/>
-      <c r="BR25" s="116"/>
-      <c r="BS25" s="116"/>
-      <c r="BT25" s="116"/>
-      <c r="BU25" s="116"/>
-      <c r="BV25" s="116"/>
-      <c r="BW25" s="116"/>
-      <c r="BX25" s="116"/>
-      <c r="BY25" s="116"/>
-      <c r="BZ25" s="116"/>
-      <c r="CA25" s="116"/>
-      <c r="CB25" s="116"/>
-      <c r="CC25" s="116"/>
-      <c r="CD25" s="116"/>
-      <c r="CE25" s="116"/>
-      <c r="CF25" s="116"/>
-      <c r="CG25" s="116"/>
-      <c r="CH25" s="116"/>
-      <c r="CI25" s="117"/>
+    <row r="25" spans="2:87" ht="18" customHeight="1">
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="87"/>
+      <c r="AS25" s="87"/>
+      <c r="AT25" s="88"/>
+      <c r="AU25" s="75"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="76"/>
+      <c r="AZ25" s="76"/>
+      <c r="BA25" s="76"/>
+      <c r="BB25" s="76"/>
+      <c r="BC25" s="76"/>
+      <c r="BD25" s="77"/>
+      <c r="BE25" s="75"/>
+      <c r="BF25" s="76"/>
+      <c r="BG25" s="76"/>
+      <c r="BH25" s="76"/>
+      <c r="BI25" s="76"/>
+      <c r="BJ25" s="76"/>
+      <c r="BK25" s="76"/>
+      <c r="BL25" s="76"/>
+      <c r="BM25" s="76"/>
+      <c r="BN25" s="76"/>
+      <c r="BO25" s="76"/>
+      <c r="BP25" s="77"/>
+      <c r="BQ25" s="78"/>
+      <c r="BR25" s="79"/>
+      <c r="BS25" s="79"/>
+      <c r="BT25" s="79"/>
+      <c r="BU25" s="79"/>
+      <c r="BV25" s="79"/>
+      <c r="BW25" s="79"/>
+      <c r="BX25" s="79"/>
+      <c r="BY25" s="79"/>
+      <c r="BZ25" s="79"/>
+      <c r="CA25" s="79"/>
+      <c r="CB25" s="79"/>
+      <c r="CC25" s="79"/>
+      <c r="CD25" s="79"/>
+      <c r="CE25" s="79"/>
+      <c r="CF25" s="79"/>
+      <c r="CG25" s="79"/>
+      <c r="CH25" s="79"/>
+      <c r="CI25" s="80"/>
     </row>
-    <row r="26" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="136"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="140"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="140"/>
-      <c r="W26" s="140"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="142"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="142"/>
-      <c r="AI26" s="143"/>
-      <c r="AJ26" s="144"/>
-      <c r="AK26" s="130"/>
-      <c r="AL26" s="131"/>
-      <c r="AM26" s="131"/>
-      <c r="AN26" s="131"/>
-      <c r="AO26" s="131"/>
-      <c r="AP26" s="131"/>
-      <c r="AQ26" s="131"/>
-      <c r="AR26" s="145"/>
-      <c r="AS26" s="145"/>
-      <c r="AT26" s="146"/>
-      <c r="AU26" s="130"/>
-      <c r="AV26" s="131"/>
-      <c r="AW26" s="131"/>
-      <c r="AX26" s="131"/>
-      <c r="AY26" s="131"/>
-      <c r="AZ26" s="131"/>
-      <c r="BA26" s="131"/>
-      <c r="BB26" s="131"/>
-      <c r="BC26" s="131"/>
-      <c r="BD26" s="132"/>
-      <c r="BE26" s="130"/>
-      <c r="BF26" s="131"/>
-      <c r="BG26" s="131"/>
-      <c r="BH26" s="131"/>
-      <c r="BI26" s="131"/>
-      <c r="BJ26" s="131"/>
-      <c r="BK26" s="131"/>
-      <c r="BL26" s="131"/>
-      <c r="BM26" s="131"/>
-      <c r="BN26" s="131"/>
-      <c r="BO26" s="131"/>
-      <c r="BP26" s="132"/>
-      <c r="BQ26" s="133"/>
-      <c r="BR26" s="134"/>
-      <c r="BS26" s="134"/>
-      <c r="BT26" s="134"/>
-      <c r="BU26" s="134"/>
-      <c r="BV26" s="134"/>
-      <c r="BW26" s="134"/>
-      <c r="BX26" s="134"/>
-      <c r="BY26" s="134"/>
-      <c r="BZ26" s="134"/>
-      <c r="CA26" s="134"/>
-      <c r="CB26" s="134"/>
-      <c r="CC26" s="134"/>
-      <c r="CD26" s="134"/>
-      <c r="CE26" s="134"/>
-      <c r="CF26" s="134"/>
-      <c r="CG26" s="134"/>
-      <c r="CH26" s="134"/>
-      <c r="CI26" s="135"/>
+    <row r="26" spans="2:87" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="58"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="58"/>
+      <c r="AV26" s="59"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="59"/>
+      <c r="BB26" s="59"/>
+      <c r="BC26" s="59"/>
+      <c r="BD26" s="60"/>
+      <c r="BE26" s="58"/>
+      <c r="BF26" s="59"/>
+      <c r="BG26" s="59"/>
+      <c r="BH26" s="59"/>
+      <c r="BI26" s="59"/>
+      <c r="BJ26" s="59"/>
+      <c r="BK26" s="59"/>
+      <c r="BL26" s="59"/>
+      <c r="BM26" s="59"/>
+      <c r="BN26" s="59"/>
+      <c r="BO26" s="59"/>
+      <c r="BP26" s="60"/>
+      <c r="BQ26" s="61"/>
+      <c r="BR26" s="62"/>
+      <c r="BS26" s="62"/>
+      <c r="BT26" s="62"/>
+      <c r="BU26" s="62"/>
+      <c r="BV26" s="62"/>
+      <c r="BW26" s="62"/>
+      <c r="BX26" s="62"/>
+      <c r="BY26" s="62"/>
+      <c r="BZ26" s="62"/>
+      <c r="CA26" s="62"/>
+      <c r="CB26" s="62"/>
+      <c r="CC26" s="62"/>
+      <c r="CD26" s="62"/>
+      <c r="CE26" s="62"/>
+      <c r="CF26" s="62"/>
+      <c r="CG26" s="62"/>
+      <c r="CH26" s="62"/>
+      <c r="CI26" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="AU26:BD26"/>
-    <mergeCell ref="BE26:BP26"/>
-    <mergeCell ref="BQ26:CI26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AU25:BD25"/>
-    <mergeCell ref="BE25:BP25"/>
-    <mergeCell ref="BQ25:CI25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AK18:AT18"/>
     <mergeCell ref="BE19:BP19"/>
     <mergeCell ref="BQ19:CI19"/>
     <mergeCell ref="B20:D20"/>
@@ -7031,121 +7187,69 @@
     <mergeCell ref="BE20:BP20"/>
     <mergeCell ref="BQ20:CI20"/>
     <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AU24:BD24"/>
+    <mergeCell ref="BE24:BP24"/>
+    <mergeCell ref="BQ24:CI24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AU25:BD25"/>
+    <mergeCell ref="BE25:BP25"/>
+    <mergeCell ref="BQ25:CI25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AU26:BD26"/>
+    <mergeCell ref="BE26:BP26"/>
+    <mergeCell ref="BQ26:CI26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AT26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{308C9844-17C3-4315-84BD-F4A65733C034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E7C29D6-81DC-42BB-AFAC-177F1B32D122}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_A17CFB40CC5275C4E84EC006CD6ABAA21B406960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357DFB26-16CB-4F39-B025-288834387B34}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C53B175D-BF06-4D0B-A7EA-F2E885AD5F26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>システム名</t>
   </si>
@@ -215,14 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>－</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>文字列</t>
   </si>
   <si>
@@ -279,40 +271,6 @@
     <t>メッセージ欄</t>
   </si>
   <si>
-    <t>試験選択に戻る</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト結果一覧</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースのデータを抽出</t>
     <rPh sb="11" eb="13">
       <t>チュウシュツ</t>
@@ -324,30 +282,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻りのボタンを押すと試験選択画面に戻ります。</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>シケンセンタク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -355,13 +290,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id   answer_date      score</t>
+    <t>文字列</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受験ID　？？ 様の試験結果</t>
+    <t>ｍ_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">answer_date   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前試験をしたことがない場合は　メッセージを表示します</t>
     <rPh sb="0" eb="2">
-      <t>ジュケン</t>
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果一覧 --日付と時刻</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果一覧 --点数</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名：？？ 様の試験結果</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>サマ</t>
@@ -375,26 +383,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受験ID</t>
-    <rPh sb="0" eb="2">
-      <t>ジュケン</t>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｍ_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">user_id   </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1007,7 +999,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1084,12 +1076,93 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,70 +1175,277 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1174,293 +1454,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="2" xr:uid="{0AFBE876-AC92-4D06-A9C5-0E415CB37502}"/>
+    <cellStyle name="TableStyleLight1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{AD85A874-A934-437B-B0EC-799790058C64}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1481,13 +1488,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>56977</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>18013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>363162</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>113263</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1543,13 +1550,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>370089</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>196041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>322465</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>72216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1603,6 +1610,152 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>試験選択に戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>667789</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>188768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1087582"/>
+          <a:ext cx="9929553" cy="639041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1"/>
+            <a:t> Sylph</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3200" b="1" baseline="0"/>
+            <a:t> Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1" baseline="0"/>
+            <a:t>試験アプリ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159328</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429491</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03C9347-EE82-7CD2-849E-5FC222CCE722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8749146" y="1260764"/>
+          <a:ext cx="942109" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1908,11 +2061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2FE56D-FECC-44A4-B63F-D1FB1AE4F0A9}">
-  <dimension ref="A1:X34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1921,22 +2074,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="42" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
@@ -1959,22 +2112,22 @@
       <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="45" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="27"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2000,25 +2153,25 @@
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="45" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="45" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="47"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
@@ -2030,57 +2183,57 @@
     </row>
     <row r="4" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="13"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="50" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="51"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="8"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
@@ -2114,7 +2267,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2130,15 +2283,14 @@
       <c r="M9" s="9"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="51"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2163,150 +2315,152 @@
       <c r="M11" s="9"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="149">
-        <v>44671.56527777778</v>
-      </c>
-      <c r="F13" s="148"/>
-      <c r="G13" s="30">
-        <v>60</v>
-      </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="149">
-        <v>44672.663888888892</v>
-      </c>
-      <c r="F14" s="148"/>
-      <c r="G14" s="30">
-        <v>70</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="149">
-        <v>44673.558333333334</v>
-      </c>
-      <c r="F15" s="148"/>
-      <c r="G15" s="30">
-        <v>70</v>
-      </c>
-      <c r="H15" s="31"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="37">
+        <v>44671.56527777778</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="57">
+        <v>60</v>
+      </c>
+      <c r="H15" s="58"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="149">
-        <v>44676.523611111108</v>
-      </c>
-      <c r="F16" s="148"/>
-      <c r="G16" s="30">
-        <v>80</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="37">
+        <v>44672.663888888892</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="57">
+        <v>70</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="37">
+        <v>44673.558333333334</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="57">
+        <v>70</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="37">
+        <v>44676.523611111108</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="57">
+        <v>80</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
@@ -2439,56 +2593,56 @@
       <c r="M27" s="9"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="3"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="2"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+    <row r="30" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -2504,7 +2658,7 @@
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2551,45 +2705,77 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:N4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2599,11 +2785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180AE42A-38F4-4CA9-A4F5-AF5669B61859}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ14" sqref="BQ14:CI14"/>
+      <selection activeCell="E14" sqref="E14:X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2616,104 +2802,104 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="78" t="s">
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="79" t="s">
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="79"/>
-      <c r="AP1" s="79"/>
-      <c r="AQ1" s="79"/>
-      <c r="AR1" s="79"/>
-      <c r="AS1" s="79"/>
-      <c r="AT1" s="79"/>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="80" t="s">
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="126"/>
+      <c r="BG1" s="126"/>
+      <c r="BH1" s="126"/>
+      <c r="BI1" s="126"/>
+      <c r="BJ1" s="126"/>
+      <c r="BK1" s="126"/>
+      <c r="BL1" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="80"/>
-      <c r="BO1" s="80"/>
-      <c r="BP1" s="81" t="s">
+      <c r="BM1" s="127"/>
+      <c r="BN1" s="127"/>
+      <c r="BO1" s="127"/>
+      <c r="BP1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="81"/>
-      <c r="BR1" s="81"/>
-      <c r="BS1" s="81"/>
-      <c r="BT1" s="81"/>
-      <c r="BU1" s="81"/>
-      <c r="BV1" s="81"/>
-      <c r="BW1" s="81"/>
-      <c r="BX1" s="85" t="s">
+      <c r="BQ1" s="128"/>
+      <c r="BR1" s="128"/>
+      <c r="BS1" s="128"/>
+      <c r="BT1" s="128"/>
+      <c r="BU1" s="128"/>
+      <c r="BV1" s="128"/>
+      <c r="BW1" s="128"/>
+      <c r="BX1" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="BY1" s="85"/>
-      <c r="BZ1" s="85"/>
-      <c r="CA1" s="85"/>
-      <c r="CB1" s="86"/>
-      <c r="CC1" s="86"/>
-      <c r="CD1" s="86"/>
-      <c r="CE1" s="86"/>
-      <c r="CF1" s="86"/>
-      <c r="CG1" s="86"/>
-      <c r="CH1" s="86"/>
-      <c r="CI1" s="86"/>
+      <c r="BY1" s="134"/>
+      <c r="BZ1" s="134"/>
+      <c r="CA1" s="134"/>
+      <c r="CB1" s="135"/>
+      <c r="CC1" s="135"/>
+      <c r="CD1" s="135"/>
+      <c r="CE1" s="135"/>
+      <c r="CF1" s="135"/>
+      <c r="CG1" s="135"/>
+      <c r="CH1" s="135"/>
+      <c r="CI1" s="135"/>
       <c r="CJ1" s="14"/>
       <c r="CK1" s="14"/>
       <c r="CL1" s="14"/>
@@ -3654,104 +3840,104 @@
     </row>
     <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="89"/>
-      <c r="AV2" s="89"/>
-      <c r="AW2" s="89"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="89"/>
-      <c r="AZ2" s="89"/>
-      <c r="BA2" s="89"/>
-      <c r="BB2" s="89"/>
-      <c r="BC2" s="89"/>
-      <c r="BD2" s="89"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="89"/>
-      <c r="BG2" s="89"/>
-      <c r="BH2" s="89"/>
-      <c r="BI2" s="89"/>
-      <c r="BJ2" s="89"/>
-      <c r="BK2" s="89"/>
-      <c r="BL2" s="90" t="s">
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="138"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="BM2" s="90"/>
-      <c r="BN2" s="90"/>
-      <c r="BO2" s="90"/>
-      <c r="BP2" s="91">
+      <c r="BM2" s="139"/>
+      <c r="BN2" s="139"/>
+      <c r="BO2" s="139"/>
+      <c r="BP2" s="140">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="91"/>
-      <c r="BR2" s="91"/>
-      <c r="BS2" s="91"/>
-      <c r="BT2" s="91"/>
-      <c r="BU2" s="91"/>
-      <c r="BV2" s="91"/>
-      <c r="BW2" s="91"/>
-      <c r="BX2" s="92" t="s">
+      <c r="BQ2" s="140"/>
+      <c r="BR2" s="140"/>
+      <c r="BS2" s="140"/>
+      <c r="BT2" s="140"/>
+      <c r="BU2" s="140"/>
+      <c r="BV2" s="140"/>
+      <c r="BW2" s="140"/>
+      <c r="BX2" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="92"/>
-      <c r="BZ2" s="92"/>
-      <c r="CA2" s="92"/>
-      <c r="CB2" s="93"/>
-      <c r="CC2" s="93"/>
-      <c r="CD2" s="93"/>
-      <c r="CE2" s="93"/>
-      <c r="CF2" s="93"/>
-      <c r="CG2" s="93"/>
-      <c r="CH2" s="93"/>
-      <c r="CI2" s="93"/>
+      <c r="BY2" s="141"/>
+      <c r="BZ2" s="141"/>
+      <c r="CA2" s="141"/>
+      <c r="CB2" s="142"/>
+      <c r="CC2" s="142"/>
+      <c r="CD2" s="142"/>
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
       <c r="CJ2" s="14"/>
       <c r="CK2" s="14"/>
       <c r="CL2" s="14"/>
@@ -4779,2234 +4965,2271 @@
       <c r="CI3" s="16"/>
     </row>
     <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96" t="s">
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96" t="s">
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="96"/>
-      <c r="AD4" s="96"/>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="96"/>
-      <c r="AK4" s="96"/>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="96"/>
-      <c r="AR4" s="96"/>
-      <c r="AS4" s="97" t="s">
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
+      <c r="AQ4" s="144"/>
+      <c r="AR4" s="144"/>
+      <c r="AS4" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="AT4" s="97"/>
-      <c r="AU4" s="97"/>
-      <c r="AV4" s="97"/>
-      <c r="AW4" s="97"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="97"/>
-      <c r="BA4" s="97"/>
-      <c r="BB4" s="97"/>
-      <c r="BC4" s="97"/>
-      <c r="BD4" s="97"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="97"/>
-      <c r="BG4" s="97"/>
-      <c r="BH4" s="97"/>
-      <c r="BI4" s="97"/>
-      <c r="BJ4" s="97"/>
-      <c r="BK4" s="97"/>
-      <c r="BL4" s="97"/>
-      <c r="BM4" s="97"/>
-      <c r="BN4" s="97"/>
-      <c r="BO4" s="97"/>
-      <c r="BP4" s="97"/>
-      <c r="BQ4" s="97"/>
-      <c r="BR4" s="97"/>
-      <c r="BS4" s="97"/>
-      <c r="BT4" s="97"/>
-      <c r="BU4" s="97"/>
-      <c r="BV4" s="97"/>
-      <c r="BW4" s="97"/>
-      <c r="BX4" s="97"/>
-      <c r="BY4" s="97"/>
-      <c r="BZ4" s="97"/>
-      <c r="CA4" s="97"/>
-      <c r="CB4" s="97"/>
-      <c r="CC4" s="97"/>
-      <c r="CD4" s="97"/>
-      <c r="CE4" s="97"/>
-      <c r="CF4" s="97"/>
-      <c r="CG4" s="97"/>
-      <c r="CH4" s="97"/>
-      <c r="CI4" s="97"/>
+      <c r="AT4" s="145"/>
+      <c r="AU4" s="145"/>
+      <c r="AV4" s="145"/>
+      <c r="AW4" s="145"/>
+      <c r="AX4" s="145"/>
+      <c r="AY4" s="145"/>
+      <c r="AZ4" s="145"/>
+      <c r="BA4" s="145"/>
+      <c r="BB4" s="145"/>
+      <c r="BC4" s="145"/>
+      <c r="BD4" s="145"/>
+      <c r="BE4" s="145"/>
+      <c r="BF4" s="145"/>
+      <c r="BG4" s="145"/>
+      <c r="BH4" s="145"/>
+      <c r="BI4" s="145"/>
+      <c r="BJ4" s="145"/>
+      <c r="BK4" s="145"/>
+      <c r="BL4" s="145"/>
+      <c r="BM4" s="145"/>
+      <c r="BN4" s="145"/>
+      <c r="BO4" s="145"/>
+      <c r="BP4" s="145"/>
+      <c r="BQ4" s="145"/>
+      <c r="BR4" s="145"/>
+      <c r="BS4" s="145"/>
+      <c r="BT4" s="145"/>
+      <c r="BU4" s="145"/>
+      <c r="BV4" s="145"/>
+      <c r="BW4" s="145"/>
+      <c r="BX4" s="145"/>
+      <c r="BY4" s="145"/>
+      <c r="BZ4" s="145"/>
+      <c r="CA4" s="145"/>
+      <c r="CB4" s="145"/>
+      <c r="CC4" s="145"/>
+      <c r="CD4" s="145"/>
+      <c r="CE4" s="145"/>
+      <c r="CF4" s="145"/>
+      <c r="CG4" s="145"/>
+      <c r="CH4" s="145"/>
+      <c r="CI4" s="145"/>
     </row>
     <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="54">
+      <c r="B5" s="150">
         <v>1</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55" t="s">
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="55"/>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55"/>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="55"/>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="56" t="s">
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="151"/>
+      <c r="AJ5" s="151"/>
+      <c r="AK5" s="151"/>
+      <c r="AL5" s="151"/>
+      <c r="AM5" s="151"/>
+      <c r="AN5" s="151"/>
+      <c r="AO5" s="151"/>
+      <c r="AP5" s="151"/>
+      <c r="AQ5" s="151"/>
+      <c r="AR5" s="151"/>
+      <c r="AS5" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="56"/>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="56"/>
-      <c r="AW5" s="56"/>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56"/>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="56"/>
-      <c r="BB5" s="56"/>
-      <c r="BC5" s="56"/>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56"/>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="56"/>
-      <c r="BH5" s="56"/>
-      <c r="BI5" s="56"/>
-      <c r="BJ5" s="56"/>
-      <c r="BK5" s="56"/>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="56"/>
-      <c r="BN5" s="56"/>
-      <c r="BO5" s="56"/>
-      <c r="BP5" s="56"/>
-      <c r="BQ5" s="56"/>
-      <c r="BR5" s="56"/>
-      <c r="BS5" s="56"/>
-      <c r="BT5" s="56"/>
-      <c r="BU5" s="56"/>
-      <c r="BV5" s="56"/>
-      <c r="BW5" s="56"/>
-      <c r="BX5" s="56"/>
-      <c r="BY5" s="56"/>
-      <c r="BZ5" s="56"/>
-      <c r="CA5" s="56"/>
-      <c r="CB5" s="56"/>
-      <c r="CC5" s="56"/>
-      <c r="CD5" s="56"/>
-      <c r="CE5" s="56"/>
-      <c r="CF5" s="56"/>
-      <c r="CG5" s="56"/>
-      <c r="CH5" s="56"/>
-      <c r="CI5" s="56"/>
+      <c r="AT5" s="122"/>
+      <c r="AU5" s="122"/>
+      <c r="AV5" s="122"/>
+      <c r="AW5" s="122"/>
+      <c r="AX5" s="122"/>
+      <c r="AY5" s="122"/>
+      <c r="AZ5" s="122"/>
+      <c r="BA5" s="122"/>
+      <c r="BB5" s="122"/>
+      <c r="BC5" s="122"/>
+      <c r="BD5" s="122"/>
+      <c r="BE5" s="122"/>
+      <c r="BF5" s="122"/>
+      <c r="BG5" s="122"/>
+      <c r="BH5" s="122"/>
+      <c r="BI5" s="122"/>
+      <c r="BJ5" s="122"/>
+      <c r="BK5" s="122"/>
+      <c r="BL5" s="122"/>
+      <c r="BM5" s="122"/>
+      <c r="BN5" s="122"/>
+      <c r="BO5" s="122"/>
+      <c r="BP5" s="122"/>
+      <c r="BQ5" s="122"/>
+      <c r="BR5" s="122"/>
+      <c r="BS5" s="122"/>
+      <c r="BT5" s="122"/>
+      <c r="BU5" s="122"/>
+      <c r="BV5" s="122"/>
+      <c r="BW5" s="122"/>
+      <c r="BX5" s="122"/>
+      <c r="BY5" s="122"/>
+      <c r="BZ5" s="122"/>
+      <c r="CA5" s="122"/>
+      <c r="CB5" s="122"/>
+      <c r="CC5" s="122"/>
+      <c r="CD5" s="122"/>
+      <c r="CE5" s="122"/>
+      <c r="CF5" s="122"/>
+      <c r="CG5" s="122"/>
+      <c r="CH5" s="122"/>
+      <c r="CI5" s="122"/>
     </row>
     <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="82"/>
-      <c r="AA6" s="82"/>
-      <c r="AB6" s="82"/>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="82"/>
-      <c r="AE6" s="82"/>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="82"/>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82"/>
-      <c r="AK6" s="82"/>
-      <c r="AL6" s="82"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="82"/>
-      <c r="AO6" s="82"/>
-      <c r="AP6" s="82"/>
-      <c r="AQ6" s="82"/>
-      <c r="AR6" s="82"/>
-      <c r="AS6" s="82"/>
-      <c r="AT6" s="82"/>
-      <c r="AU6" s="82"/>
-      <c r="AV6" s="82"/>
-      <c r="AW6" s="82"/>
-      <c r="AX6" s="82"/>
-      <c r="AY6" s="82"/>
-      <c r="AZ6" s="82"/>
-      <c r="BA6" s="82"/>
-      <c r="BB6" s="82"/>
-      <c r="BC6" s="82"/>
-      <c r="BD6" s="82"/>
-      <c r="BE6" s="82"/>
-      <c r="BF6" s="82"/>
-      <c r="BG6" s="82"/>
-      <c r="BH6" s="82"/>
-      <c r="BI6" s="82"/>
-      <c r="BJ6" s="82"/>
-      <c r="BK6" s="82"/>
-      <c r="BL6" s="82"/>
-      <c r="BM6" s="82"/>
-      <c r="BN6" s="82"/>
-      <c r="BO6" s="82"/>
-      <c r="BP6" s="82"/>
-      <c r="BQ6" s="82"/>
-      <c r="BR6" s="82"/>
-      <c r="BS6" s="82"/>
-      <c r="BT6" s="82"/>
-      <c r="BU6" s="82"/>
-      <c r="BV6" s="82"/>
-      <c r="BW6" s="82"/>
-      <c r="BX6" s="82"/>
-      <c r="BY6" s="82"/>
-      <c r="BZ6" s="82"/>
-      <c r="CA6" s="82"/>
-      <c r="CB6" s="82"/>
-      <c r="CC6" s="82"/>
-      <c r="CD6" s="82"/>
-      <c r="CE6" s="82"/>
-      <c r="CF6" s="82"/>
-      <c r="CG6" s="82"/>
-      <c r="CH6" s="82"/>
-      <c r="CI6" s="82"/>
+      <c r="B6" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="129"/>
+      <c r="AP6" s="129"/>
+      <c r="AQ6" s="129"/>
+      <c r="AR6" s="129"/>
+      <c r="AS6" s="129"/>
+      <c r="AT6" s="129"/>
+      <c r="AU6" s="129"/>
+      <c r="AV6" s="129"/>
+      <c r="AW6" s="129"/>
+      <c r="AX6" s="129"/>
+      <c r="AY6" s="129"/>
+      <c r="AZ6" s="129"/>
+      <c r="BA6" s="129"/>
+      <c r="BB6" s="129"/>
+      <c r="BC6" s="129"/>
+      <c r="BD6" s="129"/>
+      <c r="BE6" s="129"/>
+      <c r="BF6" s="129"/>
+      <c r="BG6" s="129"/>
+      <c r="BH6" s="129"/>
+      <c r="BI6" s="129"/>
+      <c r="BJ6" s="129"/>
+      <c r="BK6" s="129"/>
+      <c r="BL6" s="129"/>
+      <c r="BM6" s="129"/>
+      <c r="BN6" s="129"/>
+      <c r="BO6" s="129"/>
+      <c r="BP6" s="129"/>
+      <c r="BQ6" s="129"/>
+      <c r="BR6" s="129"/>
+      <c r="BS6" s="129"/>
+      <c r="BT6" s="129"/>
+      <c r="BU6" s="129"/>
+      <c r="BV6" s="129"/>
+      <c r="BW6" s="129"/>
+      <c r="BX6" s="129"/>
+      <c r="BY6" s="129"/>
+      <c r="BZ6" s="129"/>
+      <c r="CA6" s="129"/>
+      <c r="CB6" s="129"/>
+      <c r="CC6" s="129"/>
+      <c r="CD6" s="129"/>
+      <c r="CE6" s="129"/>
+      <c r="CF6" s="129"/>
+      <c r="CG6" s="129"/>
+      <c r="CH6" s="129"/>
+      <c r="CI6" s="129"/>
     </row>
     <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="70" t="s">
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="71"/>
-      <c r="AE7" s="71"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="70" t="s">
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="132"/>
+      <c r="U7" s="132"/>
+      <c r="V7" s="132"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AI7" s="71"/>
-      <c r="AJ7" s="84"/>
-      <c r="AK7" s="70" t="s">
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="133"/>
+      <c r="AB7" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="71"/>
-      <c r="AP7" s="71"/>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="68" t="s">
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="133"/>
+      <c r="AH7" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="AV7" s="68"/>
-      <c r="AW7" s="68"/>
-      <c r="AX7" s="68"/>
-      <c r="AY7" s="68"/>
-      <c r="AZ7" s="68"/>
-      <c r="BA7" s="68"/>
-      <c r="BB7" s="68"/>
-      <c r="BC7" s="68"/>
-      <c r="BD7" s="68"/>
-      <c r="BE7" s="68"/>
-      <c r="BF7" s="68"/>
-      <c r="BG7" s="68"/>
-      <c r="BH7" s="68"/>
-      <c r="BI7" s="68"/>
-      <c r="BJ7" s="68"/>
-      <c r="BK7" s="68"/>
-      <c r="BL7" s="68"/>
-      <c r="BM7" s="68"/>
-      <c r="BN7" s="68"/>
-      <c r="BO7" s="68"/>
-      <c r="BP7" s="68"/>
-      <c r="BQ7" s="69" t="s">
+      <c r="AI7" s="132"/>
+      <c r="AJ7" s="133"/>
+      <c r="AK7" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="BR7" s="69"/>
-      <c r="BS7" s="69"/>
-      <c r="BT7" s="69"/>
-      <c r="BU7" s="69"/>
-      <c r="BV7" s="69"/>
-      <c r="BW7" s="69"/>
-      <c r="BX7" s="69"/>
-      <c r="BY7" s="69"/>
-      <c r="BZ7" s="69"/>
-      <c r="CA7" s="69"/>
-      <c r="CB7" s="69"/>
-      <c r="CC7" s="69"/>
-      <c r="CD7" s="69"/>
-      <c r="CE7" s="69"/>
-      <c r="CF7" s="69"/>
-      <c r="CG7" s="69"/>
-      <c r="CH7" s="69"/>
-      <c r="CI7" s="69"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="132"/>
+      <c r="AN7" s="132"/>
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="132"/>
+      <c r="AR7" s="153"/>
+      <c r="AS7" s="153"/>
+      <c r="AT7" s="154"/>
+      <c r="AU7" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV7" s="123"/>
+      <c r="AW7" s="123"/>
+      <c r="AX7" s="123"/>
+      <c r="AY7" s="123"/>
+      <c r="AZ7" s="123"/>
+      <c r="BA7" s="123"/>
+      <c r="BB7" s="123"/>
+      <c r="BC7" s="123"/>
+      <c r="BD7" s="123"/>
+      <c r="BE7" s="123"/>
+      <c r="BF7" s="123"/>
+      <c r="BG7" s="123"/>
+      <c r="BH7" s="123"/>
+      <c r="BI7" s="123"/>
+      <c r="BJ7" s="123"/>
+      <c r="BK7" s="123"/>
+      <c r="BL7" s="123"/>
+      <c r="BM7" s="123"/>
+      <c r="BN7" s="123"/>
+      <c r="BO7" s="123"/>
+      <c r="BP7" s="123"/>
+      <c r="BQ7" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR7" s="152"/>
+      <c r="BS7" s="152"/>
+      <c r="BT7" s="152"/>
+      <c r="BU7" s="152"/>
+      <c r="BV7" s="152"/>
+      <c r="BW7" s="152"/>
+      <c r="BX7" s="152"/>
+      <c r="BY7" s="152"/>
+      <c r="BZ7" s="152"/>
+      <c r="CA7" s="152"/>
+      <c r="CB7" s="152"/>
+      <c r="CC7" s="152"/>
+      <c r="CD7" s="152"/>
+      <c r="CE7" s="152"/>
+      <c r="CF7" s="152"/>
+      <c r="CG7" s="152"/>
+      <c r="CH7" s="152"/>
+      <c r="CI7" s="152"/>
     </row>
     <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="57">
-        <f t="shared" ref="B8:B15" si="0">ROW(B8)-7</f>
+      <c r="B8" s="99">
+        <f t="shared" ref="B8:B14" si="0">ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="61"/>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="64"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="61"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="61"/>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="74"/>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="74"/>
-      <c r="BC8" s="74"/>
-      <c r="BD8" s="74"/>
-      <c r="BE8" s="74"/>
-      <c r="BF8" s="74"/>
-      <c r="BG8" s="74"/>
-      <c r="BH8" s="74"/>
-      <c r="BI8" s="74"/>
-      <c r="BJ8" s="74"/>
-      <c r="BK8" s="74"/>
-      <c r="BL8" s="74"/>
-      <c r="BM8" s="74"/>
-      <c r="BN8" s="74"/>
-      <c r="BO8" s="74"/>
-      <c r="BP8" s="74"/>
-      <c r="BQ8" s="75"/>
-      <c r="BR8" s="75"/>
-      <c r="BS8" s="75"/>
-      <c r="BT8" s="75"/>
-      <c r="BU8" s="75"/>
-      <c r="BV8" s="75"/>
-      <c r="BW8" s="75"/>
-      <c r="BX8" s="75"/>
-      <c r="BY8" s="75"/>
-      <c r="BZ8" s="75"/>
-      <c r="CA8" s="75"/>
-      <c r="CB8" s="75"/>
-      <c r="CC8" s="75"/>
-      <c r="CD8" s="75"/>
-      <c r="CE8" s="75"/>
-      <c r="CF8" s="75"/>
-      <c r="CG8" s="75"/>
-      <c r="CH8" s="75"/>
-      <c r="CI8" s="75"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="117"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="113"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="118"/>
+      <c r="AS8" s="118"/>
+      <c r="AT8" s="119"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="110"/>
+      <c r="BA8" s="110"/>
+      <c r="BB8" s="110"/>
+      <c r="BC8" s="110"/>
+      <c r="BD8" s="110"/>
+      <c r="BE8" s="110"/>
+      <c r="BF8" s="110"/>
+      <c r="BG8" s="110"/>
+      <c r="BH8" s="110"/>
+      <c r="BI8" s="110"/>
+      <c r="BJ8" s="110"/>
+      <c r="BK8" s="110"/>
+      <c r="BL8" s="110"/>
+      <c r="BM8" s="110"/>
+      <c r="BN8" s="110"/>
+      <c r="BO8" s="110"/>
+      <c r="BP8" s="110"/>
+      <c r="BQ8" s="124"/>
+      <c r="BR8" s="124"/>
+      <c r="BS8" s="124"/>
+      <c r="BT8" s="124"/>
+      <c r="BU8" s="124"/>
+      <c r="BV8" s="124"/>
+      <c r="BW8" s="124"/>
+      <c r="BX8" s="124"/>
+      <c r="BY8" s="124"/>
+      <c r="BZ8" s="124"/>
+      <c r="CA8" s="124"/>
+      <c r="CB8" s="124"/>
+      <c r="CC8" s="124"/>
+      <c r="CD8" s="124"/>
+      <c r="CE8" s="124"/>
+      <c r="CF8" s="124"/>
+      <c r="CG8" s="124"/>
+      <c r="CH8" s="124"/>
+      <c r="CI8" s="124"/>
     </row>
     <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="57">
+      <c r="B9" s="99">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="99"/>
-      <c r="U9" s="99"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="100"/>
-      <c r="Y9" s="101" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="99"/>
-      <c r="AD9" s="99"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="99"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="99"/>
-      <c r="AR9" s="104"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="105"/>
-      <c r="AU9" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="76"/>
-      <c r="BA9" s="76"/>
-      <c r="BB9" s="76"/>
-      <c r="BC9" s="76"/>
-      <c r="BD9" s="76"/>
-      <c r="BE9" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF9" s="76"/>
-      <c r="BG9" s="76"/>
-      <c r="BH9" s="76"/>
-      <c r="BI9" s="76"/>
-      <c r="BJ9" s="76"/>
-      <c r="BK9" s="76"/>
-      <c r="BL9" s="76"/>
-      <c r="BM9" s="76"/>
-      <c r="BN9" s="76"/>
-      <c r="BO9" s="76"/>
-      <c r="BP9" s="76"/>
-      <c r="BQ9" s="77"/>
-      <c r="BR9" s="77"/>
-      <c r="BS9" s="77"/>
-      <c r="BT9" s="77"/>
-      <c r="BU9" s="77"/>
-      <c r="BV9" s="77"/>
-      <c r="BW9" s="77"/>
-      <c r="BX9" s="77"/>
-      <c r="BY9" s="77"/>
-      <c r="BZ9" s="77"/>
-      <c r="CA9" s="77"/>
-      <c r="CB9" s="77"/>
-      <c r="CC9" s="77"/>
-      <c r="CD9" s="77"/>
-      <c r="CE9" s="77"/>
-      <c r="CF9" s="77"/>
-      <c r="CG9" s="77"/>
-      <c r="CH9" s="77"/>
-      <c r="CI9" s="77"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="88"/>
+      <c r="AS9" s="88"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV9" s="108"/>
+      <c r="AW9" s="108"/>
+      <c r="AX9" s="108"/>
+      <c r="AY9" s="108"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="108"/>
+      <c r="BB9" s="108"/>
+      <c r="BC9" s="108"/>
+      <c r="BD9" s="108"/>
+      <c r="BE9" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF9" s="108"/>
+      <c r="BG9" s="108"/>
+      <c r="BH9" s="108"/>
+      <c r="BI9" s="108"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="108"/>
+      <c r="BL9" s="108"/>
+      <c r="BM9" s="108"/>
+      <c r="BN9" s="108"/>
+      <c r="BO9" s="108"/>
+      <c r="BP9" s="108"/>
+      <c r="BQ9" s="109"/>
+      <c r="BR9" s="109"/>
+      <c r="BS9" s="109"/>
+      <c r="BT9" s="109"/>
+      <c r="BU9" s="109"/>
+      <c r="BV9" s="109"/>
+      <c r="BW9" s="109"/>
+      <c r="BX9" s="109"/>
+      <c r="BY9" s="109"/>
+      <c r="BZ9" s="109"/>
+      <c r="CA9" s="109"/>
+      <c r="CB9" s="109"/>
+      <c r="CC9" s="109"/>
+      <c r="CD9" s="109"/>
+      <c r="CE9" s="109"/>
+      <c r="CF9" s="109"/>
+      <c r="CG9" s="109"/>
+      <c r="CH9" s="109"/>
+      <c r="CI9" s="109"/>
     </row>
     <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="57">
+      <c r="B10" s="99">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="63"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="65"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="61"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="61"/>
-      <c r="AO10" s="61"/>
-      <c r="AP10" s="61"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="74"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="74"/>
-      <c r="BM10" s="74"/>
-      <c r="BN10" s="74"/>
-      <c r="BO10" s="74"/>
-      <c r="BP10" s="74"/>
-      <c r="BQ10" s="106"/>
-      <c r="BR10" s="106"/>
-      <c r="BS10" s="106"/>
-      <c r="BT10" s="106"/>
-      <c r="BU10" s="106"/>
-      <c r="BV10" s="106"/>
-      <c r="BW10" s="106"/>
-      <c r="BX10" s="106"/>
-      <c r="BY10" s="106"/>
-      <c r="BZ10" s="106"/>
-      <c r="CA10" s="106"/>
-      <c r="CB10" s="106"/>
-      <c r="CC10" s="106"/>
-      <c r="CD10" s="106"/>
-      <c r="CE10" s="106"/>
-      <c r="CF10" s="106"/>
-      <c r="CG10" s="106"/>
-      <c r="CH10" s="106"/>
-      <c r="CI10" s="106"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="112"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="118"/>
+      <c r="AS10" s="118"/>
+      <c r="AT10" s="119"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="110"/>
+      <c r="BA10" s="110"/>
+      <c r="BB10" s="110"/>
+      <c r="BC10" s="110"/>
+      <c r="BD10" s="110"/>
+      <c r="BE10" s="110"/>
+      <c r="BF10" s="110"/>
+      <c r="BG10" s="110"/>
+      <c r="BH10" s="110"/>
+      <c r="BI10" s="110"/>
+      <c r="BJ10" s="110"/>
+      <c r="BK10" s="110"/>
+      <c r="BL10" s="110"/>
+      <c r="BM10" s="110"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="110"/>
+      <c r="BP10" s="110"/>
+      <c r="BQ10" s="111"/>
+      <c r="BR10" s="111"/>
+      <c r="BS10" s="111"/>
+      <c r="BT10" s="111"/>
+      <c r="BU10" s="111"/>
+      <c r="BV10" s="111"/>
+      <c r="BW10" s="111"/>
+      <c r="BX10" s="111"/>
+      <c r="BY10" s="111"/>
+      <c r="BZ10" s="111"/>
+      <c r="CA10" s="111"/>
+      <c r="CB10" s="111"/>
+      <c r="CC10" s="111"/>
+      <c r="CD10" s="111"/>
+      <c r="CE10" s="111"/>
+      <c r="CF10" s="111"/>
+      <c r="CG10" s="111"/>
+      <c r="CH10" s="111"/>
+      <c r="CI10" s="111"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="57">
+    <row r="11" spans="1:1024" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="99">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="99"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="99"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="101" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="98" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="99"/>
-      <c r="AN11" s="99"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="99"/>
-      <c r="AR11" s="104"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="105"/>
-      <c r="AU11" s="76" t="s">
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="104"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="88"/>
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="76"/>
-      <c r="AX11" s="76"/>
-      <c r="AY11" s="76"/>
-      <c r="AZ11" s="76"/>
-      <c r="BA11" s="76"/>
-      <c r="BB11" s="76"/>
-      <c r="BC11" s="76"/>
-      <c r="BD11" s="76"/>
-      <c r="BE11" s="76" t="s">
+      <c r="AV11" s="108"/>
+      <c r="AW11" s="108"/>
+      <c r="AX11" s="108"/>
+      <c r="AY11" s="108"/>
+      <c r="AZ11" s="108"/>
+      <c r="BA11" s="108"/>
+      <c r="BB11" s="108"/>
+      <c r="BC11" s="108"/>
+      <c r="BD11" s="108"/>
+      <c r="BE11" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="BF11" s="76"/>
-      <c r="BG11" s="76"/>
-      <c r="BH11" s="76"/>
-      <c r="BI11" s="76"/>
-      <c r="BJ11" s="76"/>
-      <c r="BK11" s="76"/>
-      <c r="BL11" s="76"/>
-      <c r="BM11" s="76"/>
-      <c r="BN11" s="76"/>
-      <c r="BO11" s="76"/>
-      <c r="BP11" s="76"/>
-      <c r="BQ11" s="77"/>
-      <c r="BR11" s="77"/>
-      <c r="BS11" s="77"/>
-      <c r="BT11" s="77"/>
-      <c r="BU11" s="77"/>
-      <c r="BV11" s="77"/>
-      <c r="BW11" s="77"/>
-      <c r="BX11" s="77"/>
-      <c r="BY11" s="77"/>
-      <c r="BZ11" s="77"/>
-      <c r="CA11" s="77"/>
-      <c r="CB11" s="77"/>
-      <c r="CC11" s="77"/>
-      <c r="CD11" s="77"/>
-      <c r="CE11" s="77"/>
-      <c r="CF11" s="77"/>
-      <c r="CG11" s="77"/>
-      <c r="CH11" s="77"/>
-      <c r="CI11" s="77"/>
+      <c r="BF11" s="108"/>
+      <c r="BG11" s="108"/>
+      <c r="BH11" s="108"/>
+      <c r="BI11" s="108"/>
+      <c r="BJ11" s="108"/>
+      <c r="BK11" s="108"/>
+      <c r="BL11" s="108"/>
+      <c r="BM11" s="108"/>
+      <c r="BN11" s="108"/>
+      <c r="BO11" s="108"/>
+      <c r="BP11" s="108"/>
+      <c r="BQ11" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="BR11" s="109"/>
+      <c r="BS11" s="109"/>
+      <c r="BT11" s="109"/>
+      <c r="BU11" s="109"/>
+      <c r="BV11" s="109"/>
+      <c r="BW11" s="109"/>
+      <c r="BX11" s="109"/>
+      <c r="BY11" s="109"/>
+      <c r="BZ11" s="109"/>
+      <c r="CA11" s="109"/>
+      <c r="CB11" s="109"/>
+      <c r="CC11" s="109"/>
+      <c r="CD11" s="109"/>
+      <c r="CE11" s="109"/>
+      <c r="CF11" s="109"/>
+      <c r="CG11" s="109"/>
+      <c r="CH11" s="109"/>
+      <c r="CI11" s="109"/>
     </row>
-    <row r="12" spans="1:1024" ht="54.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="57">
+    <row r="12" spans="1:1024" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="99">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="99"/>
-      <c r="N12" s="99"/>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="101" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC12" s="99"/>
-      <c r="AD12" s="99"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="99"/>
-      <c r="AG12" s="100"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="99"/>
-      <c r="AN12" s="99"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="99"/>
-      <c r="AQ12" s="99"/>
-      <c r="AR12" s="104"/>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="105"/>
-      <c r="AU12" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV12" s="99"/>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="99"/>
-      <c r="AY12" s="99"/>
-      <c r="AZ12" s="99"/>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="99"/>
-      <c r="BC12" s="99"/>
-      <c r="BD12" s="100"/>
-      <c r="BE12" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF12" s="108"/>
-      <c r="BG12" s="108"/>
-      <c r="BH12" s="108"/>
-      <c r="BI12" s="108"/>
-      <c r="BJ12" s="108"/>
-      <c r="BK12" s="108"/>
-      <c r="BL12" s="108"/>
-      <c r="BM12" s="108"/>
-      <c r="BN12" s="108"/>
-      <c r="BO12" s="108"/>
-      <c r="BP12" s="108"/>
-      <c r="BQ12" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="BR12" s="77"/>
-      <c r="BS12" s="77"/>
-      <c r="BT12" s="77"/>
-      <c r="BU12" s="77"/>
-      <c r="BV12" s="77"/>
-      <c r="BW12" s="77"/>
-      <c r="BX12" s="77"/>
-      <c r="BY12" s="77"/>
-      <c r="BZ12" s="77"/>
-      <c r="CA12" s="77"/>
-      <c r="CB12" s="77"/>
-      <c r="CC12" s="77"/>
-      <c r="CD12" s="77"/>
-      <c r="CE12" s="77"/>
-      <c r="CF12" s="77"/>
-      <c r="CG12" s="77"/>
-      <c r="CH12" s="77"/>
-      <c r="CI12" s="77"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="94"/>
+      <c r="AR12" s="88"/>
+      <c r="AS12" s="88"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV12" s="94"/>
+      <c r="AW12" s="94"/>
+      <c r="AX12" s="94"/>
+      <c r="AY12" s="94"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="94"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF12" s="121"/>
+      <c r="BG12" s="121"/>
+      <c r="BH12" s="121"/>
+      <c r="BI12" s="121"/>
+      <c r="BJ12" s="121"/>
+      <c r="BK12" s="121"/>
+      <c r="BL12" s="121"/>
+      <c r="BM12" s="121"/>
+      <c r="BN12" s="121"/>
+      <c r="BO12" s="121"/>
+      <c r="BP12" s="121"/>
+      <c r="BQ12" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR12" s="109"/>
+      <c r="BS12" s="109"/>
+      <c r="BT12" s="109"/>
+      <c r="BU12" s="109"/>
+      <c r="BV12" s="109"/>
+      <c r="BW12" s="109"/>
+      <c r="BX12" s="109"/>
+      <c r="BY12" s="109"/>
+      <c r="BZ12" s="109"/>
+      <c r="CA12" s="109"/>
+      <c r="CB12" s="109"/>
+      <c r="CC12" s="109"/>
+      <c r="CD12" s="109"/>
+      <c r="CE12" s="109"/>
+      <c r="CF12" s="109"/>
+      <c r="CG12" s="109"/>
+      <c r="CH12" s="109"/>
+      <c r="CI12" s="109"/>
     </row>
-    <row r="13" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="57">
+    <row r="13" spans="1:1024" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="99">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="98" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="103"/>
+      <c r="AP13" s="103"/>
+      <c r="AQ13" s="103"/>
+      <c r="AR13" s="103"/>
+      <c r="AS13" s="103"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV13" s="94"/>
+      <c r="AW13" s="94"/>
+      <c r="AX13" s="94"/>
+      <c r="AY13" s="94"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="94"/>
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="95"/>
+      <c r="BE13" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="99"/>
-      <c r="W13" s="99"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC13" s="99"/>
-      <c r="AD13" s="99"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="99"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="98" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="99"/>
-      <c r="AN13" s="99"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="99"/>
-      <c r="AR13" s="104"/>
-      <c r="AS13" s="104"/>
-      <c r="AT13" s="105"/>
-      <c r="AU13" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="99"/>
-      <c r="AY13" s="99"/>
-      <c r="AZ13" s="99"/>
-      <c r="BA13" s="99"/>
-      <c r="BB13" s="99"/>
-      <c r="BC13" s="99"/>
-      <c r="BD13" s="100"/>
-      <c r="BE13" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF13" s="76"/>
-      <c r="BG13" s="76"/>
-      <c r="BH13" s="76"/>
-      <c r="BI13" s="76"/>
-      <c r="BJ13" s="76"/>
-      <c r="BK13" s="76"/>
-      <c r="BL13" s="76"/>
-      <c r="BM13" s="76"/>
-      <c r="BN13" s="76"/>
-      <c r="BO13" s="76"/>
-      <c r="BP13" s="76"/>
-      <c r="BQ13" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="BR13" s="77"/>
-      <c r="BS13" s="77"/>
-      <c r="BT13" s="77"/>
-      <c r="BU13" s="77"/>
-      <c r="BV13" s="77"/>
-      <c r="BW13" s="77"/>
-      <c r="BX13" s="77"/>
-      <c r="BY13" s="77"/>
-      <c r="BZ13" s="77"/>
-      <c r="CA13" s="77"/>
-      <c r="CB13" s="77"/>
-      <c r="CC13" s="77"/>
-      <c r="CD13" s="77"/>
-      <c r="CE13" s="77"/>
-      <c r="CF13" s="77"/>
-      <c r="CG13" s="77"/>
-      <c r="CH13" s="77"/>
-      <c r="CI13" s="77"/>
+      <c r="BF13" s="147"/>
+      <c r="BG13" s="147"/>
+      <c r="BH13" s="147"/>
+      <c r="BI13" s="147"/>
+      <c r="BJ13" s="147"/>
+      <c r="BK13" s="147"/>
+      <c r="BL13" s="147"/>
+      <c r="BM13" s="147"/>
+      <c r="BN13" s="147"/>
+      <c r="BO13" s="147"/>
+      <c r="BP13" s="148"/>
+      <c r="BQ13" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR13" s="109"/>
+      <c r="BS13" s="109"/>
+      <c r="BT13" s="109"/>
+      <c r="BU13" s="109"/>
+      <c r="BV13" s="109"/>
+      <c r="BW13" s="109"/>
+      <c r="BX13" s="109"/>
+      <c r="BY13" s="109"/>
+      <c r="BZ13" s="109"/>
+      <c r="CA13" s="109"/>
+      <c r="CB13" s="109"/>
+      <c r="CC13" s="109"/>
+      <c r="CD13" s="109"/>
+      <c r="CE13" s="109"/>
+      <c r="CF13" s="109"/>
+      <c r="CG13" s="109"/>
+      <c r="CH13" s="109"/>
+      <c r="CI13" s="109"/>
     </row>
     <row r="14" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="57">
+      <c r="B14" s="99">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="98" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="99"/>
-      <c r="S14" s="99"/>
-      <c r="T14" s="99"/>
-      <c r="U14" s="99"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="101" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="98" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="99"/>
-      <c r="AN14" s="99"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="99"/>
-      <c r="AR14" s="104"/>
-      <c r="AS14" s="104"/>
-      <c r="AT14" s="105"/>
-      <c r="AU14" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV14" s="99"/>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="99"/>
-      <c r="AY14" s="99"/>
-      <c r="AZ14" s="99"/>
-      <c r="BA14" s="99"/>
-      <c r="BB14" s="99"/>
-      <c r="BC14" s="99"/>
-      <c r="BD14" s="100"/>
-      <c r="BE14" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76"/>
-      <c r="BH14" s="76"/>
-      <c r="BI14" s="76"/>
-      <c r="BJ14" s="76"/>
-      <c r="BK14" s="76"/>
-      <c r="BL14" s="76"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="76"/>
-      <c r="BO14" s="76"/>
-      <c r="BP14" s="76"/>
-      <c r="BQ14" s="77"/>
-      <c r="BR14" s="77"/>
-      <c r="BS14" s="77"/>
-      <c r="BT14" s="77"/>
-      <c r="BU14" s="77"/>
-      <c r="BV14" s="77"/>
-      <c r="BW14" s="77"/>
-      <c r="BX14" s="77"/>
-      <c r="BY14" s="77"/>
-      <c r="BZ14" s="77"/>
-      <c r="CA14" s="77"/>
-      <c r="CB14" s="77"/>
-      <c r="CC14" s="77"/>
-      <c r="CD14" s="77"/>
-      <c r="CE14" s="77"/>
-      <c r="CF14" s="77"/>
-      <c r="CG14" s="77"/>
-      <c r="CH14" s="77"/>
-      <c r="CI14" s="77"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="94"/>
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="94"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF14" s="108"/>
+      <c r="BG14" s="108"/>
+      <c r="BH14" s="108"/>
+      <c r="BI14" s="108"/>
+      <c r="BJ14" s="108"/>
+      <c r="BK14" s="108"/>
+      <c r="BL14" s="108"/>
+      <c r="BM14" s="108"/>
+      <c r="BN14" s="108"/>
+      <c r="BO14" s="108"/>
+      <c r="BP14" s="108"/>
+      <c r="BQ14" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR14" s="109"/>
+      <c r="BS14" s="109"/>
+      <c r="BT14" s="109"/>
+      <c r="BU14" s="109"/>
+      <c r="BV14" s="109"/>
+      <c r="BW14" s="109"/>
+      <c r="BX14" s="109"/>
+      <c r="BY14" s="109"/>
+      <c r="BZ14" s="109"/>
+      <c r="CA14" s="109"/>
+      <c r="CB14" s="109"/>
+      <c r="CC14" s="109"/>
+      <c r="CD14" s="109"/>
+      <c r="CE14" s="109"/>
+      <c r="CF14" s="109"/>
+      <c r="CG14" s="109"/>
+      <c r="CH14" s="109"/>
+      <c r="CI14" s="109"/>
     </row>
     <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="57">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="99"/>
-      <c r="S15" s="99"/>
-      <c r="T15" s="99"/>
-      <c r="U15" s="99"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="99"/>
-      <c r="X15" s="100"/>
-      <c r="Y15" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC15" s="99"/>
-      <c r="AD15" s="99"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="99"/>
-      <c r="AN15" s="99"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="99"/>
-      <c r="AR15" s="104"/>
-      <c r="AS15" s="104"/>
-      <c r="AT15" s="105"/>
-      <c r="AU15" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="99"/>
-      <c r="AX15" s="99"/>
-      <c r="AY15" s="99"/>
-      <c r="AZ15" s="99"/>
-      <c r="BA15" s="99"/>
-      <c r="BB15" s="99"/>
-      <c r="BC15" s="99"/>
-      <c r="BD15" s="100"/>
-      <c r="BE15" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF15" s="76"/>
-      <c r="BG15" s="76"/>
-      <c r="BH15" s="76"/>
-      <c r="BI15" s="76"/>
-      <c r="BJ15" s="76"/>
-      <c r="BK15" s="76"/>
-      <c r="BL15" s="76"/>
-      <c r="BM15" s="76"/>
-      <c r="BN15" s="76"/>
-      <c r="BO15" s="76"/>
-      <c r="BP15" s="76"/>
-      <c r="BQ15" s="77"/>
-      <c r="BR15" s="77"/>
-      <c r="BS15" s="77"/>
-      <c r="BT15" s="77"/>
-      <c r="BU15" s="77"/>
-      <c r="BV15" s="77"/>
-      <c r="BW15" s="77"/>
-      <c r="BX15" s="77"/>
-      <c r="BY15" s="77"/>
-      <c r="BZ15" s="77"/>
-      <c r="CA15" s="77"/>
-      <c r="CB15" s="77"/>
-      <c r="CC15" s="77"/>
-      <c r="CD15" s="77"/>
-      <c r="CE15" s="77"/>
-      <c r="CF15" s="77"/>
-      <c r="CG15" s="77"/>
-      <c r="CH15" s="77"/>
-      <c r="CI15" s="77"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="88"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="94"/>
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="94"/>
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="94"/>
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="95"/>
+      <c r="BE15" s="108"/>
+      <c r="BF15" s="108"/>
+      <c r="BG15" s="108"/>
+      <c r="BH15" s="108"/>
+      <c r="BI15" s="108"/>
+      <c r="BJ15" s="108"/>
+      <c r="BK15" s="108"/>
+      <c r="BL15" s="108"/>
+      <c r="BM15" s="108"/>
+      <c r="BN15" s="108"/>
+      <c r="BO15" s="108"/>
+      <c r="BP15" s="108"/>
+      <c r="BQ15" s="109"/>
+      <c r="BR15" s="109"/>
+      <c r="BS15" s="109"/>
+      <c r="BT15" s="109"/>
+      <c r="BU15" s="109"/>
+      <c r="BV15" s="109"/>
+      <c r="BW15" s="109"/>
+      <c r="BX15" s="109"/>
+      <c r="BY15" s="109"/>
+      <c r="BZ15" s="109"/>
+      <c r="CA15" s="109"/>
+      <c r="CB15" s="109"/>
+      <c r="CC15" s="109"/>
+      <c r="CD15" s="109"/>
+      <c r="CE15" s="109"/>
+      <c r="CF15" s="109"/>
+      <c r="CG15" s="109"/>
+      <c r="CH15" s="109"/>
+      <c r="CI15" s="109"/>
     </row>
     <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="100"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="98"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="99"/>
-      <c r="AN16" s="99"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="99"/>
-      <c r="AQ16" s="99"/>
-      <c r="AR16" s="104"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="105"/>
-      <c r="AU16" s="98"/>
-      <c r="AV16" s="99"/>
-      <c r="AW16" s="99"/>
-      <c r="AX16" s="99"/>
-      <c r="AY16" s="99"/>
-      <c r="AZ16" s="99"/>
-      <c r="BA16" s="99"/>
-      <c r="BB16" s="99"/>
-      <c r="BC16" s="99"/>
-      <c r="BD16" s="100"/>
-      <c r="BE16" s="98"/>
-      <c r="BF16" s="99"/>
-      <c r="BG16" s="99"/>
-      <c r="BH16" s="99"/>
-      <c r="BI16" s="99"/>
-      <c r="BJ16" s="99"/>
-      <c r="BK16" s="99"/>
-      <c r="BL16" s="99"/>
-      <c r="BM16" s="99"/>
-      <c r="BN16" s="99"/>
-      <c r="BO16" s="99"/>
-      <c r="BP16" s="100"/>
-      <c r="BQ16" s="109"/>
-      <c r="BR16" s="110"/>
-      <c r="BS16" s="110"/>
-      <c r="BT16" s="110"/>
-      <c r="BU16" s="110"/>
-      <c r="BV16" s="110"/>
-      <c r="BW16" s="110"/>
-      <c r="BX16" s="110"/>
-      <c r="BY16" s="110"/>
-      <c r="BZ16" s="110"/>
-      <c r="CA16" s="110"/>
-      <c r="CB16" s="110"/>
-      <c r="CC16" s="110"/>
-      <c r="CD16" s="110"/>
-      <c r="CE16" s="110"/>
-      <c r="CF16" s="110"/>
-      <c r="CG16" s="110"/>
-      <c r="CH16" s="110"/>
-      <c r="CI16" s="111"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="88"/>
+      <c r="AT16" s="89"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+      <c r="AY16" s="94"/>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="94"/>
+      <c r="BC16" s="94"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="94"/>
+      <c r="BG16" s="94"/>
+      <c r="BH16" s="94"/>
+      <c r="BI16" s="94"/>
+      <c r="BJ16" s="94"/>
+      <c r="BK16" s="94"/>
+      <c r="BL16" s="94"/>
+      <c r="BM16" s="94"/>
+      <c r="BN16" s="94"/>
+      <c r="BO16" s="94"/>
+      <c r="BP16" s="95"/>
+      <c r="BQ16" s="105"/>
+      <c r="BR16" s="106"/>
+      <c r="BS16" s="106"/>
+      <c r="BT16" s="106"/>
+      <c r="BU16" s="106"/>
+      <c r="BV16" s="106"/>
+      <c r="BW16" s="106"/>
+      <c r="BX16" s="106"/>
+      <c r="BY16" s="106"/>
+      <c r="BZ16" s="106"/>
+      <c r="CA16" s="106"/>
+      <c r="CB16" s="106"/>
+      <c r="CC16" s="106"/>
+      <c r="CD16" s="106"/>
+      <c r="CE16" s="106"/>
+      <c r="CF16" s="106"/>
+      <c r="CG16" s="106"/>
+      <c r="CH16" s="106"/>
+      <c r="CI16" s="107"/>
     </row>
     <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="99"/>
-      <c r="X17" s="100"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="99"/>
-      <c r="AD17" s="99"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="102"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="99"/>
-      <c r="AM17" s="99"/>
-      <c r="AN17" s="99"/>
-      <c r="AO17" s="99"/>
-      <c r="AP17" s="99"/>
-      <c r="AQ17" s="99"/>
-      <c r="AR17" s="104"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="105"/>
-      <c r="AU17" s="98"/>
-      <c r="AV17" s="99"/>
-      <c r="AW17" s="99"/>
-      <c r="AX17" s="99"/>
-      <c r="AY17" s="99"/>
-      <c r="AZ17" s="99"/>
-      <c r="BA17" s="99"/>
-      <c r="BB17" s="99"/>
-      <c r="BC17" s="99"/>
-      <c r="BD17" s="100"/>
-      <c r="BE17" s="98"/>
-      <c r="BF17" s="99"/>
-      <c r="BG17" s="99"/>
-      <c r="BH17" s="99"/>
-      <c r="BI17" s="99"/>
-      <c r="BJ17" s="99"/>
-      <c r="BK17" s="99"/>
-      <c r="BL17" s="99"/>
-      <c r="BM17" s="99"/>
-      <c r="BN17" s="99"/>
-      <c r="BO17" s="99"/>
-      <c r="BP17" s="100"/>
-      <c r="BQ17" s="109"/>
-      <c r="BR17" s="110"/>
-      <c r="BS17" s="110"/>
-      <c r="BT17" s="110"/>
-      <c r="BU17" s="110"/>
-      <c r="BV17" s="110"/>
-      <c r="BW17" s="110"/>
-      <c r="BX17" s="110"/>
-      <c r="BY17" s="110"/>
-      <c r="BZ17" s="110"/>
-      <c r="CA17" s="110"/>
-      <c r="CB17" s="110"/>
-      <c r="CC17" s="110"/>
-      <c r="CD17" s="110"/>
-      <c r="CE17" s="110"/>
-      <c r="CF17" s="110"/>
-      <c r="CG17" s="110"/>
-      <c r="CH17" s="110"/>
-      <c r="CI17" s="111"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AN17" s="94"/>
+      <c r="AO17" s="94"/>
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="88"/>
+      <c r="AT17" s="89"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="94"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="94"/>
+      <c r="AY17" s="94"/>
+      <c r="AZ17" s="94"/>
+      <c r="BA17" s="94"/>
+      <c r="BB17" s="94"/>
+      <c r="BC17" s="94"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="93"/>
+      <c r="BF17" s="94"/>
+      <c r="BG17" s="94"/>
+      <c r="BH17" s="94"/>
+      <c r="BI17" s="94"/>
+      <c r="BJ17" s="94"/>
+      <c r="BK17" s="94"/>
+      <c r="BL17" s="94"/>
+      <c r="BM17" s="94"/>
+      <c r="BN17" s="94"/>
+      <c r="BO17" s="94"/>
+      <c r="BP17" s="95"/>
+      <c r="BQ17" s="105"/>
+      <c r="BR17" s="106"/>
+      <c r="BS17" s="106"/>
+      <c r="BT17" s="106"/>
+      <c r="BU17" s="106"/>
+      <c r="BV17" s="106"/>
+      <c r="BW17" s="106"/>
+      <c r="BX17" s="106"/>
+      <c r="BY17" s="106"/>
+      <c r="BZ17" s="106"/>
+      <c r="CA17" s="106"/>
+      <c r="CB17" s="106"/>
+      <c r="CC17" s="106"/>
+      <c r="CD17" s="106"/>
+      <c r="CE17" s="106"/>
+      <c r="CF17" s="106"/>
+      <c r="CG17" s="106"/>
+      <c r="CH17" s="106"/>
+      <c r="CI17" s="107"/>
     </row>
     <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
-      <c r="X18" s="100"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="99"/>
-      <c r="AD18" s="99"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="100"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="102"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="99"/>
-      <c r="AM18" s="99"/>
-      <c r="AN18" s="99"/>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="99"/>
-      <c r="AQ18" s="99"/>
-      <c r="AR18" s="104"/>
-      <c r="AS18" s="104"/>
-      <c r="AT18" s="105"/>
-      <c r="AU18" s="98"/>
-      <c r="AV18" s="99"/>
-      <c r="AW18" s="99"/>
-      <c r="AX18" s="99"/>
-      <c r="AY18" s="99"/>
-      <c r="AZ18" s="99"/>
-      <c r="BA18" s="99"/>
-      <c r="BB18" s="99"/>
-      <c r="BC18" s="99"/>
-      <c r="BD18" s="100"/>
-      <c r="BE18" s="98"/>
-      <c r="BF18" s="99"/>
-      <c r="BG18" s="99"/>
-      <c r="BH18" s="99"/>
-      <c r="BI18" s="99"/>
-      <c r="BJ18" s="99"/>
-      <c r="BK18" s="99"/>
-      <c r="BL18" s="99"/>
-      <c r="BM18" s="99"/>
-      <c r="BN18" s="99"/>
-      <c r="BO18" s="99"/>
-      <c r="BP18" s="100"/>
-      <c r="BQ18" s="109"/>
-      <c r="BR18" s="110"/>
-      <c r="BS18" s="110"/>
-      <c r="BT18" s="110"/>
-      <c r="BU18" s="110"/>
-      <c r="BV18" s="110"/>
-      <c r="BW18" s="110"/>
-      <c r="BX18" s="110"/>
-      <c r="BY18" s="110"/>
-      <c r="BZ18" s="110"/>
-      <c r="CA18" s="110"/>
-      <c r="CB18" s="110"/>
-      <c r="CC18" s="110"/>
-      <c r="CD18" s="110"/>
-      <c r="CE18" s="110"/>
-      <c r="CF18" s="110"/>
-      <c r="CG18" s="110"/>
-      <c r="CH18" s="110"/>
-      <c r="CI18" s="111"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="94"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="88"/>
+      <c r="AT18" s="89"/>
+      <c r="AU18" s="93"/>
+      <c r="AV18" s="94"/>
+      <c r="AW18" s="94"/>
+      <c r="AX18" s="94"/>
+      <c r="AY18" s="94"/>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="94"/>
+      <c r="BB18" s="94"/>
+      <c r="BC18" s="94"/>
+      <c r="BD18" s="95"/>
+      <c r="BE18" s="93"/>
+      <c r="BF18" s="94"/>
+      <c r="BG18" s="94"/>
+      <c r="BH18" s="94"/>
+      <c r="BI18" s="94"/>
+      <c r="BJ18" s="94"/>
+      <c r="BK18" s="94"/>
+      <c r="BL18" s="94"/>
+      <c r="BM18" s="94"/>
+      <c r="BN18" s="94"/>
+      <c r="BO18" s="94"/>
+      <c r="BP18" s="95"/>
+      <c r="BQ18" s="105"/>
+      <c r="BR18" s="106"/>
+      <c r="BS18" s="106"/>
+      <c r="BT18" s="106"/>
+      <c r="BU18" s="106"/>
+      <c r="BV18" s="106"/>
+      <c r="BW18" s="106"/>
+      <c r="BX18" s="106"/>
+      <c r="BY18" s="106"/>
+      <c r="BZ18" s="106"/>
+      <c r="CA18" s="106"/>
+      <c r="CB18" s="106"/>
+      <c r="CC18" s="106"/>
+      <c r="CD18" s="106"/>
+      <c r="CE18" s="106"/>
+      <c r="CF18" s="106"/>
+      <c r="CG18" s="106"/>
+      <c r="CH18" s="106"/>
+      <c r="CI18" s="107"/>
     </row>
     <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="100"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="100"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="102"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="99"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="99"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="104"/>
-      <c r="AS19" s="104"/>
-      <c r="AT19" s="105"/>
-      <c r="AU19" s="98"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="99"/>
-      <c r="AX19" s="99"/>
-      <c r="AY19" s="99"/>
-      <c r="AZ19" s="99"/>
-      <c r="BA19" s="99"/>
-      <c r="BB19" s="99"/>
-      <c r="BC19" s="99"/>
-      <c r="BD19" s="100"/>
-      <c r="BE19" s="98"/>
-      <c r="BF19" s="99"/>
-      <c r="BG19" s="99"/>
-      <c r="BH19" s="99"/>
-      <c r="BI19" s="99"/>
-      <c r="BJ19" s="99"/>
-      <c r="BK19" s="99"/>
-      <c r="BL19" s="99"/>
-      <c r="BM19" s="99"/>
-      <c r="BN19" s="99"/>
-      <c r="BO19" s="99"/>
-      <c r="BP19" s="100"/>
-      <c r="BQ19" s="109"/>
-      <c r="BR19" s="110"/>
-      <c r="BS19" s="110"/>
-      <c r="BT19" s="110"/>
-      <c r="BU19" s="110"/>
-      <c r="BV19" s="110"/>
-      <c r="BW19" s="110"/>
-      <c r="BX19" s="110"/>
-      <c r="BY19" s="110"/>
-      <c r="BZ19" s="110"/>
-      <c r="CA19" s="110"/>
-      <c r="CB19" s="110"/>
-      <c r="CC19" s="110"/>
-      <c r="CD19" s="110"/>
-      <c r="CE19" s="110"/>
-      <c r="CF19" s="110"/>
-      <c r="CG19" s="110"/>
-      <c r="CH19" s="110"/>
-      <c r="CI19" s="111"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="102"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="104"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="94"/>
+      <c r="AP19" s="94"/>
+      <c r="AQ19" s="94"/>
+      <c r="AR19" s="88"/>
+      <c r="AS19" s="88"/>
+      <c r="AT19" s="89"/>
+      <c r="AU19" s="93"/>
+      <c r="AV19" s="94"/>
+      <c r="AW19" s="94"/>
+      <c r="AX19" s="94"/>
+      <c r="AY19" s="94"/>
+      <c r="AZ19" s="94"/>
+      <c r="BA19" s="94"/>
+      <c r="BB19" s="94"/>
+      <c r="BC19" s="94"/>
+      <c r="BD19" s="95"/>
+      <c r="BE19" s="93"/>
+      <c r="BF19" s="94"/>
+      <c r="BG19" s="94"/>
+      <c r="BH19" s="94"/>
+      <c r="BI19" s="94"/>
+      <c r="BJ19" s="94"/>
+      <c r="BK19" s="94"/>
+      <c r="BL19" s="94"/>
+      <c r="BM19" s="94"/>
+      <c r="BN19" s="94"/>
+      <c r="BO19" s="94"/>
+      <c r="BP19" s="95"/>
+      <c r="BQ19" s="105"/>
+      <c r="BR19" s="106"/>
+      <c r="BS19" s="106"/>
+      <c r="BT19" s="106"/>
+      <c r="BU19" s="106"/>
+      <c r="BV19" s="106"/>
+      <c r="BW19" s="106"/>
+      <c r="BX19" s="106"/>
+      <c r="BY19" s="106"/>
+      <c r="BZ19" s="106"/>
+      <c r="CA19" s="106"/>
+      <c r="CB19" s="106"/>
+      <c r="CC19" s="106"/>
+      <c r="CD19" s="106"/>
+      <c r="CE19" s="106"/>
+      <c r="CF19" s="106"/>
+      <c r="CG19" s="106"/>
+      <c r="CH19" s="106"/>
+      <c r="CI19" s="107"/>
     </row>
     <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="99"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="99"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="99"/>
-      <c r="U20" s="99"/>
-      <c r="V20" s="99"/>
-      <c r="W20" s="99"/>
-      <c r="X20" s="100"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="99"/>
-      <c r="AG20" s="100"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="102"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="99"/>
-      <c r="AO20" s="99"/>
-      <c r="AP20" s="99"/>
-      <c r="AQ20" s="99"/>
-      <c r="AR20" s="104"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="105"/>
-      <c r="AU20" s="98"/>
-      <c r="AV20" s="99"/>
-      <c r="AW20" s="99"/>
-      <c r="AX20" s="99"/>
-      <c r="AY20" s="99"/>
-      <c r="AZ20" s="99"/>
-      <c r="BA20" s="99"/>
-      <c r="BB20" s="99"/>
-      <c r="BC20" s="99"/>
-      <c r="BD20" s="100"/>
-      <c r="BE20" s="98"/>
-      <c r="BF20" s="99"/>
-      <c r="BG20" s="99"/>
-      <c r="BH20" s="99"/>
-      <c r="BI20" s="99"/>
-      <c r="BJ20" s="99"/>
-      <c r="BK20" s="99"/>
-      <c r="BL20" s="99"/>
-      <c r="BM20" s="99"/>
-      <c r="BN20" s="99"/>
-      <c r="BO20" s="99"/>
-      <c r="BP20" s="100"/>
-      <c r="BQ20" s="109"/>
-      <c r="BR20" s="110"/>
-      <c r="BS20" s="110"/>
-      <c r="BT20" s="110"/>
-      <c r="BU20" s="110"/>
-      <c r="BV20" s="110"/>
-      <c r="BW20" s="110"/>
-      <c r="BX20" s="110"/>
-      <c r="BY20" s="110"/>
-      <c r="BZ20" s="110"/>
-      <c r="CA20" s="110"/>
-      <c r="CB20" s="110"/>
-      <c r="CC20" s="110"/>
-      <c r="CD20" s="110"/>
-      <c r="CE20" s="110"/>
-      <c r="CF20" s="110"/>
-      <c r="CG20" s="110"/>
-      <c r="CH20" s="110"/>
-      <c r="CI20" s="111"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="88"/>
+      <c r="AS20" s="88"/>
+      <c r="AT20" s="89"/>
+      <c r="AU20" s="93"/>
+      <c r="AV20" s="94"/>
+      <c r="AW20" s="94"/>
+      <c r="AX20" s="94"/>
+      <c r="AY20" s="94"/>
+      <c r="AZ20" s="94"/>
+      <c r="BA20" s="94"/>
+      <c r="BB20" s="94"/>
+      <c r="BC20" s="94"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="93"/>
+      <c r="BF20" s="94"/>
+      <c r="BG20" s="94"/>
+      <c r="BH20" s="94"/>
+      <c r="BI20" s="94"/>
+      <c r="BJ20" s="94"/>
+      <c r="BK20" s="94"/>
+      <c r="BL20" s="94"/>
+      <c r="BM20" s="94"/>
+      <c r="BN20" s="94"/>
+      <c r="BO20" s="94"/>
+      <c r="BP20" s="95"/>
+      <c r="BQ20" s="105"/>
+      <c r="BR20" s="106"/>
+      <c r="BS20" s="106"/>
+      <c r="BT20" s="106"/>
+      <c r="BU20" s="106"/>
+      <c r="BV20" s="106"/>
+      <c r="BW20" s="106"/>
+      <c r="BX20" s="106"/>
+      <c r="BY20" s="106"/>
+      <c r="BZ20" s="106"/>
+      <c r="CA20" s="106"/>
+      <c r="CB20" s="106"/>
+      <c r="CC20" s="106"/>
+      <c r="CD20" s="106"/>
+      <c r="CE20" s="106"/>
+      <c r="CF20" s="106"/>
+      <c r="CG20" s="106"/>
+      <c r="CH20" s="106"/>
+      <c r="CI20" s="107"/>
     </row>
     <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="118"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="113"/>
-      <c r="W21" s="113"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="122"/>
-      <c r="AA21" s="123"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="99"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="99"/>
-      <c r="AG21" s="100"/>
-      <c r="AH21" s="121"/>
-      <c r="AI21" s="122"/>
-      <c r="AJ21" s="123"/>
-      <c r="AK21" s="112"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
-      <c r="AO21" s="113"/>
-      <c r="AP21" s="113"/>
-      <c r="AQ21" s="113"/>
-      <c r="AR21" s="104"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="105"/>
-      <c r="AU21" s="112"/>
-      <c r="AV21" s="113"/>
-      <c r="AW21" s="113"/>
-      <c r="AX21" s="113"/>
-      <c r="AY21" s="113"/>
-      <c r="AZ21" s="113"/>
-      <c r="BA21" s="113"/>
-      <c r="BB21" s="113"/>
-      <c r="BC21" s="113"/>
-      <c r="BD21" s="114"/>
-      <c r="BE21" s="112"/>
-      <c r="BF21" s="113"/>
-      <c r="BG21" s="113"/>
-      <c r="BH21" s="113"/>
-      <c r="BI21" s="113"/>
-      <c r="BJ21" s="113"/>
-      <c r="BK21" s="113"/>
-      <c r="BL21" s="113"/>
-      <c r="BM21" s="113"/>
-      <c r="BN21" s="113"/>
-      <c r="BO21" s="113"/>
-      <c r="BP21" s="114"/>
-      <c r="BQ21" s="115"/>
-      <c r="BR21" s="116"/>
-      <c r="BS21" s="116"/>
-      <c r="BT21" s="116"/>
-      <c r="BU21" s="116"/>
-      <c r="BV21" s="116"/>
-      <c r="BW21" s="116"/>
-      <c r="BX21" s="116"/>
-      <c r="BY21" s="116"/>
-      <c r="BZ21" s="116"/>
-      <c r="CA21" s="116"/>
-      <c r="CB21" s="116"/>
-      <c r="CC21" s="116"/>
-      <c r="CD21" s="116"/>
-      <c r="CE21" s="116"/>
-      <c r="CF21" s="116"/>
-      <c r="CG21" s="116"/>
-      <c r="CH21" s="116"/>
-      <c r="CI21" s="117"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="88"/>
+      <c r="AS21" s="88"/>
+      <c r="AT21" s="89"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="77"/>
+      <c r="BB21" s="77"/>
+      <c r="BC21" s="77"/>
+      <c r="BD21" s="78"/>
+      <c r="BE21" s="76"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="77"/>
+      <c r="BI21" s="77"/>
+      <c r="BJ21" s="77"/>
+      <c r="BK21" s="77"/>
+      <c r="BL21" s="77"/>
+      <c r="BM21" s="77"/>
+      <c r="BN21" s="77"/>
+      <c r="BO21" s="77"/>
+      <c r="BP21" s="78"/>
+      <c r="BQ21" s="79"/>
+      <c r="BR21" s="80"/>
+      <c r="BS21" s="80"/>
+      <c r="BT21" s="80"/>
+      <c r="BU21" s="80"/>
+      <c r="BV21" s="80"/>
+      <c r="BW21" s="80"/>
+      <c r="BX21" s="80"/>
+      <c r="BY21" s="80"/>
+      <c r="BZ21" s="80"/>
+      <c r="CA21" s="80"/>
+      <c r="CB21" s="80"/>
+      <c r="CC21" s="80"/>
+      <c r="CD21" s="80"/>
+      <c r="CE21" s="80"/>
+      <c r="CF21" s="80"/>
+      <c r="CG21" s="80"/>
+      <c r="CH21" s="80"/>
+      <c r="CI21" s="81"/>
     </row>
     <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="118"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="113"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="121"/>
-      <c r="Z22" s="122"/>
-      <c r="AA22" s="123"/>
-      <c r="AB22" s="112"/>
-      <c r="AC22" s="113"/>
-      <c r="AD22" s="113"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="114"/>
-      <c r="AH22" s="112"/>
-      <c r="AI22" s="113"/>
-      <c r="AJ22" s="114"/>
-      <c r="AK22" s="112"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="113"/>
-      <c r="AN22" s="113"/>
-      <c r="AO22" s="113"/>
-      <c r="AP22" s="113"/>
-      <c r="AQ22" s="113"/>
-      <c r="AR22" s="104"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="105"/>
-      <c r="AU22" s="112"/>
-      <c r="AV22" s="113"/>
-      <c r="AW22" s="113"/>
-      <c r="AX22" s="113"/>
-      <c r="AY22" s="113"/>
-      <c r="AZ22" s="113"/>
-      <c r="BA22" s="113"/>
-      <c r="BB22" s="113"/>
-      <c r="BC22" s="113"/>
-      <c r="BD22" s="114"/>
-      <c r="BE22" s="112"/>
-      <c r="BF22" s="113"/>
-      <c r="BG22" s="113"/>
-      <c r="BH22" s="113"/>
-      <c r="BI22" s="113"/>
-      <c r="BJ22" s="113"/>
-      <c r="BK22" s="113"/>
-      <c r="BL22" s="113"/>
-      <c r="BM22" s="113"/>
-      <c r="BN22" s="113"/>
-      <c r="BO22" s="113"/>
-      <c r="BP22" s="114"/>
-      <c r="BQ22" s="124"/>
-      <c r="BR22" s="125"/>
-      <c r="BS22" s="125"/>
-      <c r="BT22" s="125"/>
-      <c r="BU22" s="125"/>
-      <c r="BV22" s="125"/>
-      <c r="BW22" s="125"/>
-      <c r="BX22" s="125"/>
-      <c r="BY22" s="125"/>
-      <c r="BZ22" s="125"/>
-      <c r="CA22" s="125"/>
-      <c r="CB22" s="125"/>
-      <c r="CC22" s="125"/>
-      <c r="CD22" s="125"/>
-      <c r="CE22" s="125"/>
-      <c r="CF22" s="125"/>
-      <c r="CG22" s="125"/>
-      <c r="CH22" s="125"/>
-      <c r="CI22" s="126"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="88"/>
+      <c r="AS22" s="88"/>
+      <c r="AT22" s="89"/>
+      <c r="AU22" s="76"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+      <c r="AZ22" s="77"/>
+      <c r="BA22" s="77"/>
+      <c r="BB22" s="77"/>
+      <c r="BC22" s="77"/>
+      <c r="BD22" s="78"/>
+      <c r="BE22" s="76"/>
+      <c r="BF22" s="77"/>
+      <c r="BG22" s="77"/>
+      <c r="BH22" s="77"/>
+      <c r="BI22" s="77"/>
+      <c r="BJ22" s="77"/>
+      <c r="BK22" s="77"/>
+      <c r="BL22" s="77"/>
+      <c r="BM22" s="77"/>
+      <c r="BN22" s="77"/>
+      <c r="BO22" s="77"/>
+      <c r="BP22" s="78"/>
+      <c r="BQ22" s="96"/>
+      <c r="BR22" s="97"/>
+      <c r="BS22" s="97"/>
+      <c r="BT22" s="97"/>
+      <c r="BU22" s="97"/>
+      <c r="BV22" s="97"/>
+      <c r="BW22" s="97"/>
+      <c r="BX22" s="97"/>
+      <c r="BY22" s="97"/>
+      <c r="BZ22" s="97"/>
+      <c r="CA22" s="97"/>
+      <c r="CB22" s="97"/>
+      <c r="CC22" s="97"/>
+      <c r="CD22" s="97"/>
+      <c r="CE22" s="97"/>
+      <c r="CF22" s="97"/>
+      <c r="CG22" s="97"/>
+      <c r="CH22" s="97"/>
+      <c r="CI22" s="98"/>
     </row>
     <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="118"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23" s="113"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="113"/>
-      <c r="W23" s="113"/>
-      <c r="X23" s="114"/>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="122"/>
-      <c r="AA23" s="123"/>
-      <c r="AB23" s="112"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="114"/>
-      <c r="AH23" s="121"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="123"/>
-      <c r="AK23" s="112"/>
-      <c r="AL23" s="113"/>
-      <c r="AM23" s="113"/>
-      <c r="AN23" s="113"/>
-      <c r="AO23" s="113"/>
-      <c r="AP23" s="113"/>
-      <c r="AQ23" s="113"/>
-      <c r="AR23" s="104"/>
-      <c r="AS23" s="104"/>
-      <c r="AT23" s="105"/>
-      <c r="AU23" s="112"/>
-      <c r="AV23" s="113"/>
-      <c r="AW23" s="113"/>
-      <c r="AX23" s="113"/>
-      <c r="AY23" s="113"/>
-      <c r="AZ23" s="113"/>
-      <c r="BA23" s="113"/>
-      <c r="BB23" s="113"/>
-      <c r="BC23" s="113"/>
-      <c r="BD23" s="114"/>
-      <c r="BE23" s="112"/>
-      <c r="BF23" s="113"/>
-      <c r="BG23" s="113"/>
-      <c r="BH23" s="113"/>
-      <c r="BI23" s="113"/>
-      <c r="BJ23" s="113"/>
-      <c r="BK23" s="113"/>
-      <c r="BL23" s="113"/>
-      <c r="BM23" s="113"/>
-      <c r="BN23" s="113"/>
-      <c r="BO23" s="113"/>
-      <c r="BP23" s="114"/>
-      <c r="BQ23" s="115"/>
-      <c r="BR23" s="116"/>
-      <c r="BS23" s="116"/>
-      <c r="BT23" s="116"/>
-      <c r="BU23" s="116"/>
-      <c r="BV23" s="116"/>
-      <c r="BW23" s="116"/>
-      <c r="BX23" s="116"/>
-      <c r="BY23" s="116"/>
-      <c r="BZ23" s="116"/>
-      <c r="CA23" s="116"/>
-      <c r="CB23" s="116"/>
-      <c r="CC23" s="116"/>
-      <c r="CD23" s="116"/>
-      <c r="CE23" s="116"/>
-      <c r="CF23" s="116"/>
-      <c r="CG23" s="116"/>
-      <c r="CH23" s="116"/>
-      <c r="CI23" s="117"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="88"/>
+      <c r="AS23" s="88"/>
+      <c r="AT23" s="89"/>
+      <c r="AU23" s="76"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="77"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77"/>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="77"/>
+      <c r="BD23" s="78"/>
+      <c r="BE23" s="76"/>
+      <c r="BF23" s="77"/>
+      <c r="BG23" s="77"/>
+      <c r="BH23" s="77"/>
+      <c r="BI23" s="77"/>
+      <c r="BJ23" s="77"/>
+      <c r="BK23" s="77"/>
+      <c r="BL23" s="77"/>
+      <c r="BM23" s="77"/>
+      <c r="BN23" s="77"/>
+      <c r="BO23" s="77"/>
+      <c r="BP23" s="78"/>
+      <c r="BQ23" s="79"/>
+      <c r="BR23" s="80"/>
+      <c r="BS23" s="80"/>
+      <c r="BT23" s="80"/>
+      <c r="BU23" s="80"/>
+      <c r="BV23" s="80"/>
+      <c r="BW23" s="80"/>
+      <c r="BX23" s="80"/>
+      <c r="BY23" s="80"/>
+      <c r="BZ23" s="80"/>
+      <c r="CA23" s="80"/>
+      <c r="CB23" s="80"/>
+      <c r="CC23" s="80"/>
+      <c r="CD23" s="80"/>
+      <c r="CE23" s="80"/>
+      <c r="CF23" s="80"/>
+      <c r="CG23" s="80"/>
+      <c r="CH23" s="80"/>
+      <c r="CI23" s="81"/>
     </row>
     <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="118"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="113"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
-      <c r="S24" s="113"/>
-      <c r="T24" s="113"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="113"/>
-      <c r="W24" s="113"/>
-      <c r="X24" s="114"/>
-      <c r="Y24" s="121"/>
-      <c r="Z24" s="122"/>
-      <c r="AA24" s="123"/>
-      <c r="AB24" s="112"/>
-      <c r="AC24" s="113"/>
-      <c r="AD24" s="113"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="121"/>
-      <c r="AI24" s="122"/>
-      <c r="AJ24" s="123"/>
-      <c r="AK24" s="112"/>
-      <c r="AL24" s="113"/>
-      <c r="AM24" s="113"/>
-      <c r="AN24" s="113"/>
-      <c r="AO24" s="113"/>
-      <c r="AP24" s="113"/>
-      <c r="AQ24" s="113"/>
-      <c r="AR24" s="104"/>
-      <c r="AS24" s="104"/>
-      <c r="AT24" s="105"/>
-      <c r="AU24" s="112"/>
-      <c r="AV24" s="113"/>
-      <c r="AW24" s="113"/>
-      <c r="AX24" s="113"/>
-      <c r="AY24" s="113"/>
-      <c r="AZ24" s="113"/>
-      <c r="BA24" s="113"/>
-      <c r="BB24" s="113"/>
-      <c r="BC24" s="113"/>
-      <c r="BD24" s="114"/>
-      <c r="BE24" s="112"/>
-      <c r="BF24" s="113"/>
-      <c r="BG24" s="113"/>
-      <c r="BH24" s="113"/>
-      <c r="BI24" s="113"/>
-      <c r="BJ24" s="113"/>
-      <c r="BK24" s="113"/>
-      <c r="BL24" s="113"/>
-      <c r="BM24" s="113"/>
-      <c r="BN24" s="113"/>
-      <c r="BO24" s="113"/>
-      <c r="BP24" s="114"/>
-      <c r="BQ24" s="127"/>
-      <c r="BR24" s="128"/>
-      <c r="BS24" s="128"/>
-      <c r="BT24" s="128"/>
-      <c r="BU24" s="128"/>
-      <c r="BV24" s="128"/>
-      <c r="BW24" s="128"/>
-      <c r="BX24" s="128"/>
-      <c r="BY24" s="128"/>
-      <c r="BZ24" s="128"/>
-      <c r="CA24" s="128"/>
-      <c r="CB24" s="128"/>
-      <c r="CC24" s="128"/>
-      <c r="CD24" s="128"/>
-      <c r="CE24" s="128"/>
-      <c r="CF24" s="128"/>
-      <c r="CG24" s="128"/>
-      <c r="CH24" s="128"/>
-      <c r="CI24" s="129"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="85"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="77"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="77"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="77"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="88"/>
+      <c r="AS24" s="88"/>
+      <c r="AT24" s="89"/>
+      <c r="AU24" s="76"/>
+      <c r="AV24" s="77"/>
+      <c r="AW24" s="77"/>
+      <c r="AX24" s="77"/>
+      <c r="AY24" s="77"/>
+      <c r="AZ24" s="77"/>
+      <c r="BA24" s="77"/>
+      <c r="BB24" s="77"/>
+      <c r="BC24" s="77"/>
+      <c r="BD24" s="78"/>
+      <c r="BE24" s="76"/>
+      <c r="BF24" s="77"/>
+      <c r="BG24" s="77"/>
+      <c r="BH24" s="77"/>
+      <c r="BI24" s="77"/>
+      <c r="BJ24" s="77"/>
+      <c r="BK24" s="77"/>
+      <c r="BL24" s="77"/>
+      <c r="BM24" s="77"/>
+      <c r="BN24" s="77"/>
+      <c r="BO24" s="77"/>
+      <c r="BP24" s="78"/>
+      <c r="BQ24" s="90"/>
+      <c r="BR24" s="91"/>
+      <c r="BS24" s="91"/>
+      <c r="BT24" s="91"/>
+      <c r="BU24" s="91"/>
+      <c r="BV24" s="91"/>
+      <c r="BW24" s="91"/>
+      <c r="BX24" s="91"/>
+      <c r="BY24" s="91"/>
+      <c r="BZ24" s="91"/>
+      <c r="CA24" s="91"/>
+      <c r="CB24" s="91"/>
+      <c r="CC24" s="91"/>
+      <c r="CD24" s="91"/>
+      <c r="CE24" s="91"/>
+      <c r="CF24" s="91"/>
+      <c r="CG24" s="91"/>
+      <c r="CH24" s="91"/>
+      <c r="CI24" s="92"/>
     </row>
     <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="118"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="113"/>
-      <c r="N25" s="113"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
-      <c r="S25" s="113"/>
-      <c r="T25" s="113"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="113"/>
-      <c r="W25" s="113"/>
-      <c r="X25" s="114"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="123"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="113"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="113"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="112"/>
-      <c r="AI25" s="113"/>
-      <c r="AJ25" s="114"/>
-      <c r="AK25" s="112"/>
-      <c r="AL25" s="113"/>
-      <c r="AM25" s="113"/>
-      <c r="AN25" s="113"/>
-      <c r="AO25" s="113"/>
-      <c r="AP25" s="113"/>
-      <c r="AQ25" s="113"/>
-      <c r="AR25" s="104"/>
-      <c r="AS25" s="104"/>
-      <c r="AT25" s="105"/>
-      <c r="AU25" s="112"/>
-      <c r="AV25" s="113"/>
-      <c r="AW25" s="113"/>
-      <c r="AX25" s="113"/>
-      <c r="AY25" s="113"/>
-      <c r="AZ25" s="113"/>
-      <c r="BA25" s="113"/>
-      <c r="BB25" s="113"/>
-      <c r="BC25" s="113"/>
-      <c r="BD25" s="114"/>
-      <c r="BE25" s="112"/>
-      <c r="BF25" s="113"/>
-      <c r="BG25" s="113"/>
-      <c r="BH25" s="113"/>
-      <c r="BI25" s="113"/>
-      <c r="BJ25" s="113"/>
-      <c r="BK25" s="113"/>
-      <c r="BL25" s="113"/>
-      <c r="BM25" s="113"/>
-      <c r="BN25" s="113"/>
-      <c r="BO25" s="113"/>
-      <c r="BP25" s="114"/>
-      <c r="BQ25" s="115"/>
-      <c r="BR25" s="116"/>
-      <c r="BS25" s="116"/>
-      <c r="BT25" s="116"/>
-      <c r="BU25" s="116"/>
-      <c r="BV25" s="116"/>
-      <c r="BW25" s="116"/>
-      <c r="BX25" s="116"/>
-      <c r="BY25" s="116"/>
-      <c r="BZ25" s="116"/>
-      <c r="CA25" s="116"/>
-      <c r="CB25" s="116"/>
-      <c r="CC25" s="116"/>
-      <c r="CD25" s="116"/>
-      <c r="CE25" s="116"/>
-      <c r="CF25" s="116"/>
-      <c r="CG25" s="116"/>
-      <c r="CH25" s="116"/>
-      <c r="CI25" s="117"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="77"/>
+      <c r="AP25" s="77"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="88"/>
+      <c r="AS25" s="88"/>
+      <c r="AT25" s="89"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="77"/>
+      <c r="AW25" s="77"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="77"/>
+      <c r="AZ25" s="77"/>
+      <c r="BA25" s="77"/>
+      <c r="BB25" s="77"/>
+      <c r="BC25" s="77"/>
+      <c r="BD25" s="78"/>
+      <c r="BE25" s="76"/>
+      <c r="BF25" s="77"/>
+      <c r="BG25" s="77"/>
+      <c r="BH25" s="77"/>
+      <c r="BI25" s="77"/>
+      <c r="BJ25" s="77"/>
+      <c r="BK25" s="77"/>
+      <c r="BL25" s="77"/>
+      <c r="BM25" s="77"/>
+      <c r="BN25" s="77"/>
+      <c r="BO25" s="77"/>
+      <c r="BP25" s="78"/>
+      <c r="BQ25" s="79"/>
+      <c r="BR25" s="80"/>
+      <c r="BS25" s="80"/>
+      <c r="BT25" s="80"/>
+      <c r="BU25" s="80"/>
+      <c r="BV25" s="80"/>
+      <c r="BW25" s="80"/>
+      <c r="BX25" s="80"/>
+      <c r="BY25" s="80"/>
+      <c r="BZ25" s="80"/>
+      <c r="CA25" s="80"/>
+      <c r="CB25" s="80"/>
+      <c r="CC25" s="80"/>
+      <c r="CD25" s="80"/>
+      <c r="CE25" s="80"/>
+      <c r="CF25" s="80"/>
+      <c r="CG25" s="80"/>
+      <c r="CH25" s="80"/>
+      <c r="CI25" s="81"/>
     </row>
     <row r="26" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="136"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="140"/>
-      <c r="O26" s="140"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="140"/>
-      <c r="R26" s="140"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="140"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="140"/>
-      <c r="W26" s="140"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="142"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="131"/>
-      <c r="AD26" s="131"/>
-      <c r="AE26" s="131"/>
-      <c r="AF26" s="131"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="142"/>
-      <c r="AI26" s="143"/>
-      <c r="AJ26" s="144"/>
-      <c r="AK26" s="130"/>
-      <c r="AL26" s="131"/>
-      <c r="AM26" s="131"/>
-      <c r="AN26" s="131"/>
-      <c r="AO26" s="131"/>
-      <c r="AP26" s="131"/>
-      <c r="AQ26" s="131"/>
-      <c r="AR26" s="145"/>
-      <c r="AS26" s="145"/>
-      <c r="AT26" s="146"/>
-      <c r="AU26" s="130"/>
-      <c r="AV26" s="131"/>
-      <c r="AW26" s="131"/>
-      <c r="AX26" s="131"/>
-      <c r="AY26" s="131"/>
-      <c r="AZ26" s="131"/>
-      <c r="BA26" s="131"/>
-      <c r="BB26" s="131"/>
-      <c r="BC26" s="131"/>
-      <c r="BD26" s="132"/>
-      <c r="BE26" s="130"/>
-      <c r="BF26" s="131"/>
-      <c r="BG26" s="131"/>
-      <c r="BH26" s="131"/>
-      <c r="BI26" s="131"/>
-      <c r="BJ26" s="131"/>
-      <c r="BK26" s="131"/>
-      <c r="BL26" s="131"/>
-      <c r="BM26" s="131"/>
-      <c r="BN26" s="131"/>
-      <c r="BO26" s="131"/>
-      <c r="BP26" s="132"/>
-      <c r="BQ26" s="133"/>
-      <c r="BR26" s="134"/>
-      <c r="BS26" s="134"/>
-      <c r="BT26" s="134"/>
-      <c r="BU26" s="134"/>
-      <c r="BV26" s="134"/>
-      <c r="BW26" s="134"/>
-      <c r="BX26" s="134"/>
-      <c r="BY26" s="134"/>
-      <c r="BZ26" s="134"/>
-      <c r="CA26" s="134"/>
-      <c r="CB26" s="134"/>
-      <c r="CC26" s="134"/>
-      <c r="CD26" s="134"/>
-      <c r="CE26" s="134"/>
-      <c r="CF26" s="134"/>
-      <c r="CG26" s="134"/>
-      <c r="CH26" s="134"/>
-      <c r="CI26" s="135"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="60"/>
+      <c r="AQ26" s="60"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="75"/>
+      <c r="AU26" s="59"/>
+      <c r="AV26" s="60"/>
+      <c r="AW26" s="60"/>
+      <c r="AX26" s="60"/>
+      <c r="AY26" s="60"/>
+      <c r="AZ26" s="60"/>
+      <c r="BA26" s="60"/>
+      <c r="BB26" s="60"/>
+      <c r="BC26" s="60"/>
+      <c r="BD26" s="61"/>
+      <c r="BE26" s="59"/>
+      <c r="BF26" s="60"/>
+      <c r="BG26" s="60"/>
+      <c r="BH26" s="60"/>
+      <c r="BI26" s="60"/>
+      <c r="BJ26" s="60"/>
+      <c r="BK26" s="60"/>
+      <c r="BL26" s="60"/>
+      <c r="BM26" s="60"/>
+      <c r="BN26" s="60"/>
+      <c r="BO26" s="60"/>
+      <c r="BP26" s="61"/>
+      <c r="BQ26" s="62"/>
+      <c r="BR26" s="63"/>
+      <c r="BS26" s="63"/>
+      <c r="BT26" s="63"/>
+      <c r="BU26" s="63"/>
+      <c r="BV26" s="63"/>
+      <c r="BW26" s="63"/>
+      <c r="BX26" s="63"/>
+      <c r="BY26" s="63"/>
+      <c r="BZ26" s="63"/>
+      <c r="CA26" s="63"/>
+      <c r="CB26" s="63"/>
+      <c r="CC26" s="63"/>
+      <c r="CD26" s="63"/>
+      <c r="CE26" s="63"/>
+      <c r="CF26" s="63"/>
+      <c r="CG26" s="63"/>
+      <c r="CH26" s="63"/>
+      <c r="CI26" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="AU26:BD26"/>
-    <mergeCell ref="BE26:BP26"/>
-    <mergeCell ref="BQ26:CI26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AG26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AT26"/>
-    <mergeCell ref="AU25:BD25"/>
-    <mergeCell ref="BE25:BP25"/>
-    <mergeCell ref="BQ25:CI25"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AT25"/>
-    <mergeCell ref="AU24:BD24"/>
-    <mergeCell ref="BE24:BP24"/>
-    <mergeCell ref="BQ24:CI24"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AT24"/>
-    <mergeCell ref="AU23:BD23"/>
-    <mergeCell ref="BE23:BP23"/>
-    <mergeCell ref="BQ23:CI23"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AK23:AT23"/>
-    <mergeCell ref="BE21:BP21"/>
-    <mergeCell ref="BQ21:CI21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AG21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AK21:AT21"/>
-    <mergeCell ref="AU22:BD22"/>
-    <mergeCell ref="BE22:BP22"/>
-    <mergeCell ref="BQ22:CI22"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AG22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AT22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AB19:AG19"/>
-    <mergeCell ref="AB20:AG20"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AK20:AT20"/>
-    <mergeCell ref="AU21:BD21"/>
-    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B6:CI6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="BX1:CA1"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="E4:X4"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="AB9:AG9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AK9:AT9"/>
+    <mergeCell ref="AU9:BD9"/>
+    <mergeCell ref="BE9:BP9"/>
+    <mergeCell ref="BQ9:CI9"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AT8"/>
+    <mergeCell ref="AU7:BP7"/>
+    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="AU10:BD10"/>
+    <mergeCell ref="BE10:BP10"/>
+    <mergeCell ref="BQ10:CI10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:AG10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AK10:AT10"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="AU14:BD14"/>
+    <mergeCell ref="BE14:BP14"/>
+    <mergeCell ref="BQ14:CI14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="AU15:BD15"/>
+    <mergeCell ref="BE15:BP15"/>
+    <mergeCell ref="BQ15:CI15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AG15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AK15:AT15"/>
+    <mergeCell ref="BQ18:CI18"/>
+    <mergeCell ref="AU16:BD16"/>
+    <mergeCell ref="BE16:BP16"/>
+    <mergeCell ref="BQ16:CI16"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AG16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AK16:AT16"/>
+    <mergeCell ref="AK17:AT17"/>
+    <mergeCell ref="AK18:AT18"/>
     <mergeCell ref="BE19:BP19"/>
     <mergeCell ref="BQ19:CI19"/>
     <mergeCell ref="B20:D20"/>
@@ -7031,121 +7254,69 @@
     <mergeCell ref="BE20:BP20"/>
     <mergeCell ref="BQ20:CI20"/>
     <mergeCell ref="BE18:BP18"/>
-    <mergeCell ref="BQ18:CI18"/>
-    <mergeCell ref="AU16:BD16"/>
-    <mergeCell ref="BE16:BP16"/>
-    <mergeCell ref="BQ16:CI16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AG16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AK16:AT16"/>
-    <mergeCell ref="AK17:AT17"/>
-    <mergeCell ref="AK18:AT18"/>
-    <mergeCell ref="AU15:BD15"/>
-    <mergeCell ref="BE15:BP15"/>
-    <mergeCell ref="BQ15:CI15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AG15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AK15:AT15"/>
-    <mergeCell ref="AU14:BD14"/>
-    <mergeCell ref="BE14:BP14"/>
-    <mergeCell ref="BQ14:CI14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="AU10:BD10"/>
-    <mergeCell ref="BE10:BP10"/>
-    <mergeCell ref="BQ10:CI10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:AG10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:AG9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AK9:AT9"/>
-    <mergeCell ref="AU9:BD9"/>
-    <mergeCell ref="BE9:BP9"/>
-    <mergeCell ref="BQ9:CI9"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
-    <mergeCell ref="B6:CI6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="BX1:CA1"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AT8"/>
-    <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AB19:AG19"/>
+    <mergeCell ref="AB20:AG20"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="AK20:AT20"/>
+    <mergeCell ref="AU21:BD21"/>
+    <mergeCell ref="AU19:BD19"/>
+    <mergeCell ref="BE21:BP21"/>
+    <mergeCell ref="BQ21:CI21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:AG21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AK21:AT21"/>
+    <mergeCell ref="AU22:BD22"/>
+    <mergeCell ref="BE22:BP22"/>
+    <mergeCell ref="BQ22:CI22"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AG22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AT22"/>
+    <mergeCell ref="AU23:BD23"/>
+    <mergeCell ref="BE23:BP23"/>
+    <mergeCell ref="BQ23:CI23"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AK23:AT23"/>
+    <mergeCell ref="AU24:BD24"/>
+    <mergeCell ref="BE24:BP24"/>
+    <mergeCell ref="BQ24:CI24"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AT24"/>
+    <mergeCell ref="AU25:BD25"/>
+    <mergeCell ref="BE25:BP25"/>
+    <mergeCell ref="BQ25:CI25"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AT25"/>
+    <mergeCell ref="AU26:BD26"/>
+    <mergeCell ref="BE26:BP26"/>
+    <mergeCell ref="BQ26:CI26"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AG26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AT26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/桌面/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_A17CFB40CC5275C4E84EC006CD6ABAA21B406960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357DFB26-16CB-4F39-B025-288834387B34}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="1" r:id="rId1"/>
@@ -30,8 +36,8 @@
     <definedName name="Print_Titles_0" localSheetId="1">'(2)入出力項目'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>システム名</t>
   </si>
@@ -209,14 +215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>－</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>文字列</t>
   </si>
   <si>
@@ -273,40 +271,6 @@
     <t>メッセージ欄</t>
   </si>
   <si>
-    <t>試験選択に戻る</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト結果一覧</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースのデータを抽出</t>
     <rPh sb="11" eb="13">
       <t>チュウシュツ</t>
@@ -318,30 +282,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>score</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻りのボタンを押すと試験選択画面に戻ります。</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>シケンセンタク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -349,13 +290,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user_id   answer_date      score</t>
+    <t>文字列</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受験ID　？？ 様の試験結果</t>
+    <t>ｍ_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">answer_date   </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前試験をしたことがない場合は　メッセージを表示します</t>
     <rPh sb="0" eb="2">
-      <t>ジュケン</t>
+      <t>イゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果一覧 --日付と時刻</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果一覧 --点数</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解答日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名：？？ 様の試験結果</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>サマ</t>
@@ -369,37 +383,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>受験ID</t>
-    <rPh sb="0" eb="2">
-      <t>ジュケン</t>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文字列</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ラベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ｍ_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">user_id   </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,7 +999,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,6 +1079,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,7 +1109,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,60 +1121,54 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1327,41 +1328,107 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,62 +1436,14 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1435,12 +1454,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1450,17 +1463,11 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="2"/>
+    <cellStyle name="TableStyleLight1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1495,7 +1502,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{200BFE58-E22D-05B0-FBC1-1D182031CFC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200BFE58-E22D-05B0-FBC1-1D182031CFC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1564,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2843E478-3DF2-61B8-4E51-CE09B7123CC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2843E478-3DF2-61B8-4E51-CE09B7123CC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,20 +1621,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>6927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>675409</xdr:colOff>
+      <xdr:colOff>667789</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>181841</xdr:rowOff>
+      <xdr:rowOff>188768</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,8 +1642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1143000"/>
-          <a:ext cx="10087841" cy="666750"/>
+          <a:off x="0" y="1087582"/>
+          <a:ext cx="9929553" cy="639041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1676,6 +1683,80 @@
             <a:t>試験アプリ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159328</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429491</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27709</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03C9347-EE82-7CD2-849E-5FC222CCE722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8749146" y="1260764"/>
+          <a:ext cx="942109" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1727,7 +1808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1779,7 +1860,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1973,42 +2054,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="30.75" thickBot="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2030,23 +2111,23 @@
       <c r="W1" s="19"/>
       <c r="X1" s="19"/>
     </row>
-    <row r="2" spans="1:24" ht="19.5" thickBot="1">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2068,29 +2149,29 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
     </row>
-    <row r="3" spans="1:24" ht="19.5" thickBot="1">
+    <row r="3" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="27" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
@@ -2100,29 +2181,29 @@
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" thickBot="1">
+    <row r="4" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="13"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="30" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="30" t="s">
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="34"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2136,9 +2217,9 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="151"/>
+      <c r="N5" s="27"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2152,9 +2233,9 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
-      <c r="N6" s="151"/>
+      <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2170,7 +2251,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2186,7 +2267,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2202,7 +2283,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2218,7 +2299,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:24" ht="19.5" thickBot="1">
+    <row r="11" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2234,15 +2315,16 @@
       <c r="M11" s="9"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:24" ht="19.5" thickBot="1">
+    <row r="12" spans="1:24" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="32"/>
+      <c r="E12" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2251,7 +2333,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:24" ht="19.5" thickBot="1">
+    <row r="13" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2267,123 +2349,123 @@
       <c r="M13" s="9"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:24" ht="19.5" thickBot="1">
+    <row r="14" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="39"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="56"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:24" ht="19.5" thickBot="1">
+    <row r="15" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="40">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="37">
         <v>44671.56527777778</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="56">
+      <c r="F15" s="38"/>
+      <c r="G15" s="57">
         <v>60</v>
       </c>
-      <c r="H15" s="57"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:24" ht="19.5" thickBot="1">
+    <row r="16" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="40">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="37">
         <v>44672.663888888892</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="56">
+      <c r="F16" s="38"/>
+      <c r="G16" s="57">
         <v>70</v>
       </c>
-      <c r="H16" s="57"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="19.5" thickBot="1">
+    <row r="17" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="40">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="37">
         <v>44673.558333333334</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="56">
+      <c r="F17" s="38"/>
+      <c r="G17" s="57">
         <v>70</v>
       </c>
-      <c r="H17" s="57"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="19.5" thickBot="1">
+    <row r="18" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="40">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="37">
         <v>44676.523611111108</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="56">
+      <c r="F18" s="38"/>
+      <c r="G18" s="57">
         <v>80</v>
       </c>
-      <c r="H18" s="57"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2399,7 +2481,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2415,7 +2497,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2431,7 +2513,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2447,7 +2529,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2463,7 +2545,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2479,7 +2561,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2495,7 +2577,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2511,7 +2593,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2527,7 +2609,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2543,7 +2625,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="19.5" thickBot="1">
+    <row r="30" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2559,7 +2641,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2575,7 +2657,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2591,7 +2673,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2607,7 +2689,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2623,7 +2705,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2639,7 +2721,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2666,21 +2748,20 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="F2:J2"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K17:M17"/>
     <mergeCell ref="K18:M18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="E16:F16"/>
@@ -2694,6 +2775,7 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:N4"/>
+    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2703,121 +2785,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ14" sqref="BQ14:CI14"/>
+      <selection activeCell="E14" sqref="E14:X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="15"/>
+    <col min="1" max="1" width="8.09765625" style="15"/>
     <col min="2" max="87" width="1.5" style="15" customWidth="1"/>
-    <col min="88" max="1025" width="8.125" style="15"/>
-    <col min="1026" max="16384" width="8.125" style="14"/>
+    <col min="88" max="1025" width="8.09765625" style="15"/>
+    <col min="1026" max="16384" width="8.09765625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1">
+    <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="123" t="s">
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="124" t="s">
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="124"/>
-      <c r="AF1" s="124"/>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="124"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124"/>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="124"/>
-      <c r="AZ1" s="124"/>
-      <c r="BA1" s="124"/>
-      <c r="BB1" s="124"/>
-      <c r="BC1" s="124"/>
-      <c r="BD1" s="124"/>
-      <c r="BE1" s="124"/>
-      <c r="BF1" s="124"/>
-      <c r="BG1" s="124"/>
-      <c r="BH1" s="124"/>
-      <c r="BI1" s="124"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="124"/>
-      <c r="BL1" s="125" t="s">
+      <c r="X1" s="126"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="126"/>
+      <c r="AC1" s="126"/>
+      <c r="AD1" s="126"/>
+      <c r="AE1" s="126"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="126"/>
+      <c r="BG1" s="126"/>
+      <c r="BH1" s="126"/>
+      <c r="BI1" s="126"/>
+      <c r="BJ1" s="126"/>
+      <c r="BK1" s="126"/>
+      <c r="BL1" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="BM1" s="125"/>
-      <c r="BN1" s="125"/>
-      <c r="BO1" s="125"/>
-      <c r="BP1" s="126" t="s">
+      <c r="BM1" s="127"/>
+      <c r="BN1" s="127"/>
+      <c r="BO1" s="127"/>
+      <c r="BP1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="126"/>
-      <c r="BR1" s="126"/>
-      <c r="BS1" s="126"/>
-      <c r="BT1" s="126"/>
-      <c r="BU1" s="126"/>
-      <c r="BV1" s="126"/>
-      <c r="BW1" s="126"/>
-      <c r="BX1" s="132" t="s">
+      <c r="BQ1" s="128"/>
+      <c r="BR1" s="128"/>
+      <c r="BS1" s="128"/>
+      <c r="BT1" s="128"/>
+      <c r="BU1" s="128"/>
+      <c r="BV1" s="128"/>
+      <c r="BW1" s="128"/>
+      <c r="BX1" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="BY1" s="132"/>
-      <c r="BZ1" s="132"/>
-      <c r="CA1" s="132"/>
-      <c r="CB1" s="133"/>
-      <c r="CC1" s="133"/>
-      <c r="CD1" s="133"/>
-      <c r="CE1" s="133"/>
-      <c r="CF1" s="133"/>
-      <c r="CG1" s="133"/>
-      <c r="CH1" s="133"/>
-      <c r="CI1" s="133"/>
+      <c r="BY1" s="134"/>
+      <c r="BZ1" s="134"/>
+      <c r="CA1" s="134"/>
+      <c r="CB1" s="135"/>
+      <c r="CC1" s="135"/>
+      <c r="CD1" s="135"/>
+      <c r="CE1" s="135"/>
+      <c r="CF1" s="135"/>
+      <c r="CG1" s="135"/>
+      <c r="CH1" s="135"/>
+      <c r="CI1" s="135"/>
       <c r="CJ1" s="14"/>
       <c r="CK1" s="14"/>
       <c r="CL1" s="14"/>
@@ -3756,106 +3838,106 @@
       <c r="AMI1" s="14"/>
       <c r="AMJ1" s="14"/>
     </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14"/>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135" t="s">
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="136"/>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="136"/>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="136"/>
-      <c r="AW2" s="136"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="136"/>
-      <c r="BI2" s="136"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="137" t="s">
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="137"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="138" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="138"/>
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="138"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="BM2" s="137"/>
-      <c r="BN2" s="137"/>
-      <c r="BO2" s="137"/>
-      <c r="BP2" s="138">
+      <c r="BM2" s="139"/>
+      <c r="BN2" s="139"/>
+      <c r="BO2" s="139"/>
+      <c r="BP2" s="140">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="138"/>
-      <c r="BR2" s="138"/>
-      <c r="BS2" s="138"/>
-      <c r="BT2" s="138"/>
-      <c r="BU2" s="138"/>
-      <c r="BV2" s="138"/>
-      <c r="BW2" s="138"/>
-      <c r="BX2" s="139" t="s">
+      <c r="BQ2" s="140"/>
+      <c r="BR2" s="140"/>
+      <c r="BS2" s="140"/>
+      <c r="BT2" s="140"/>
+      <c r="BU2" s="140"/>
+      <c r="BV2" s="140"/>
+      <c r="BW2" s="140"/>
+      <c r="BX2" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="139"/>
-      <c r="BZ2" s="139"/>
-      <c r="CA2" s="139"/>
-      <c r="CB2" s="140"/>
-      <c r="CC2" s="140"/>
-      <c r="CD2" s="140"/>
-      <c r="CE2" s="140"/>
-      <c r="CF2" s="140"/>
-      <c r="CG2" s="140"/>
-      <c r="CH2" s="140"/>
-      <c r="CI2" s="140"/>
+      <c r="BY2" s="141"/>
+      <c r="BZ2" s="141"/>
+      <c r="CA2" s="141"/>
+      <c r="CB2" s="142"/>
+      <c r="CC2" s="142"/>
+      <c r="CD2" s="142"/>
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
       <c r="CJ2" s="14"/>
       <c r="CK2" s="14"/>
       <c r="CL2" s="14"/>
@@ -4794,7 +4876,7 @@
       <c r="AMI2" s="14"/>
       <c r="AMJ2" s="14"/>
     </row>
-    <row r="3" spans="1:1024" s="15" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="3" spans="1:1024" s="15" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -4882,2173 +4964,2180 @@
       <c r="CH3" s="16"/>
       <c r="CI3" s="16"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1">
-      <c r="B4" s="142" t="s">
+    <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="121" t="s">
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121" t="s">
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
-      <c r="AJ4" s="121"/>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="121"/>
-      <c r="AR4" s="121"/>
-      <c r="AS4" s="122" t="s">
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
+      <c r="AQ4" s="144"/>
+      <c r="AR4" s="144"/>
+      <c r="AS4" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="AT4" s="122"/>
-      <c r="AU4" s="122"/>
-      <c r="AV4" s="122"/>
-      <c r="AW4" s="122"/>
-      <c r="AX4" s="122"/>
-      <c r="AY4" s="122"/>
-      <c r="AZ4" s="122"/>
-      <c r="BA4" s="122"/>
-      <c r="BB4" s="122"/>
-      <c r="BC4" s="122"/>
-      <c r="BD4" s="122"/>
-      <c r="BE4" s="122"/>
-      <c r="BF4" s="122"/>
-      <c r="BG4" s="122"/>
-      <c r="BH4" s="122"/>
-      <c r="BI4" s="122"/>
-      <c r="BJ4" s="122"/>
-      <c r="BK4" s="122"/>
-      <c r="BL4" s="122"/>
-      <c r="BM4" s="122"/>
-      <c r="BN4" s="122"/>
-      <c r="BO4" s="122"/>
-      <c r="BP4" s="122"/>
-      <c r="BQ4" s="122"/>
-      <c r="BR4" s="122"/>
-      <c r="BS4" s="122"/>
-      <c r="BT4" s="122"/>
-      <c r="BU4" s="122"/>
-      <c r="BV4" s="122"/>
-      <c r="BW4" s="122"/>
-      <c r="BX4" s="122"/>
-      <c r="BY4" s="122"/>
-      <c r="BZ4" s="122"/>
-      <c r="CA4" s="122"/>
-      <c r="CB4" s="122"/>
-      <c r="CC4" s="122"/>
-      <c r="CD4" s="122"/>
-      <c r="CE4" s="122"/>
-      <c r="CF4" s="122"/>
-      <c r="CG4" s="122"/>
-      <c r="CH4" s="122"/>
-      <c r="CI4" s="122"/>
+      <c r="AT4" s="145"/>
+      <c r="AU4" s="145"/>
+      <c r="AV4" s="145"/>
+      <c r="AW4" s="145"/>
+      <c r="AX4" s="145"/>
+      <c r="AY4" s="145"/>
+      <c r="AZ4" s="145"/>
+      <c r="BA4" s="145"/>
+      <c r="BB4" s="145"/>
+      <c r="BC4" s="145"/>
+      <c r="BD4" s="145"/>
+      <c r="BE4" s="145"/>
+      <c r="BF4" s="145"/>
+      <c r="BG4" s="145"/>
+      <c r="BH4" s="145"/>
+      <c r="BI4" s="145"/>
+      <c r="BJ4" s="145"/>
+      <c r="BK4" s="145"/>
+      <c r="BL4" s="145"/>
+      <c r="BM4" s="145"/>
+      <c r="BN4" s="145"/>
+      <c r="BO4" s="145"/>
+      <c r="BP4" s="145"/>
+      <c r="BQ4" s="145"/>
+      <c r="BR4" s="145"/>
+      <c r="BS4" s="145"/>
+      <c r="BT4" s="145"/>
+      <c r="BU4" s="145"/>
+      <c r="BV4" s="145"/>
+      <c r="BW4" s="145"/>
+      <c r="BX4" s="145"/>
+      <c r="BY4" s="145"/>
+      <c r="BZ4" s="145"/>
+      <c r="CA4" s="145"/>
+      <c r="CB4" s="145"/>
+      <c r="CC4" s="145"/>
+      <c r="CD4" s="145"/>
+      <c r="CE4" s="145"/>
+      <c r="CF4" s="145"/>
+      <c r="CG4" s="145"/>
+      <c r="CH4" s="145"/>
+      <c r="CI4" s="145"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
-      <c r="B5" s="143">
+    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="150">
         <v>1</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="144" t="s">
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="144"/>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="144"/>
-      <c r="AF5" s="144"/>
-      <c r="AG5" s="144"/>
-      <c r="AH5" s="144"/>
-      <c r="AI5" s="144"/>
-      <c r="AJ5" s="144"/>
-      <c r="AK5" s="144"/>
-      <c r="AL5" s="144"/>
-      <c r="AM5" s="144"/>
-      <c r="AN5" s="144"/>
-      <c r="AO5" s="144"/>
-      <c r="AP5" s="144"/>
-      <c r="AQ5" s="144"/>
-      <c r="AR5" s="144"/>
-      <c r="AS5" s="145" t="s">
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="151"/>
+      <c r="AJ5" s="151"/>
+      <c r="AK5" s="151"/>
+      <c r="AL5" s="151"/>
+      <c r="AM5" s="151"/>
+      <c r="AN5" s="151"/>
+      <c r="AO5" s="151"/>
+      <c r="AP5" s="151"/>
+      <c r="AQ5" s="151"/>
+      <c r="AR5" s="151"/>
+      <c r="AS5" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="145"/>
-      <c r="AU5" s="145"/>
-      <c r="AV5" s="145"/>
-      <c r="AW5" s="145"/>
-      <c r="AX5" s="145"/>
-      <c r="AY5" s="145"/>
-      <c r="AZ5" s="145"/>
-      <c r="BA5" s="145"/>
-      <c r="BB5" s="145"/>
-      <c r="BC5" s="145"/>
-      <c r="BD5" s="145"/>
-      <c r="BE5" s="145"/>
-      <c r="BF5" s="145"/>
-      <c r="BG5" s="145"/>
-      <c r="BH5" s="145"/>
-      <c r="BI5" s="145"/>
-      <c r="BJ5" s="145"/>
-      <c r="BK5" s="145"/>
-      <c r="BL5" s="145"/>
-      <c r="BM5" s="145"/>
-      <c r="BN5" s="145"/>
-      <c r="BO5" s="145"/>
-      <c r="BP5" s="145"/>
-      <c r="BQ5" s="145"/>
-      <c r="BR5" s="145"/>
-      <c r="BS5" s="145"/>
-      <c r="BT5" s="145"/>
-      <c r="BU5" s="145"/>
-      <c r="BV5" s="145"/>
-      <c r="BW5" s="145"/>
-      <c r="BX5" s="145"/>
-      <c r="BY5" s="145"/>
-      <c r="BZ5" s="145"/>
-      <c r="CA5" s="145"/>
-      <c r="CB5" s="145"/>
-      <c r="CC5" s="145"/>
-      <c r="CD5" s="145"/>
-      <c r="CE5" s="145"/>
-      <c r="CF5" s="145"/>
-      <c r="CG5" s="145"/>
-      <c r="CH5" s="145"/>
-      <c r="CI5" s="145"/>
+      <c r="AT5" s="122"/>
+      <c r="AU5" s="122"/>
+      <c r="AV5" s="122"/>
+      <c r="AW5" s="122"/>
+      <c r="AX5" s="122"/>
+      <c r="AY5" s="122"/>
+      <c r="AZ5" s="122"/>
+      <c r="BA5" s="122"/>
+      <c r="BB5" s="122"/>
+      <c r="BC5" s="122"/>
+      <c r="BD5" s="122"/>
+      <c r="BE5" s="122"/>
+      <c r="BF5" s="122"/>
+      <c r="BG5" s="122"/>
+      <c r="BH5" s="122"/>
+      <c r="BI5" s="122"/>
+      <c r="BJ5" s="122"/>
+      <c r="BK5" s="122"/>
+      <c r="BL5" s="122"/>
+      <c r="BM5" s="122"/>
+      <c r="BN5" s="122"/>
+      <c r="BO5" s="122"/>
+      <c r="BP5" s="122"/>
+      <c r="BQ5" s="122"/>
+      <c r="BR5" s="122"/>
+      <c r="BS5" s="122"/>
+      <c r="BT5" s="122"/>
+      <c r="BU5" s="122"/>
+      <c r="BV5" s="122"/>
+      <c r="BW5" s="122"/>
+      <c r="BX5" s="122"/>
+      <c r="BY5" s="122"/>
+      <c r="BZ5" s="122"/>
+      <c r="CA5" s="122"/>
+      <c r="CB5" s="122"/>
+      <c r="CC5" s="122"/>
+      <c r="CD5" s="122"/>
+      <c r="CE5" s="122"/>
+      <c r="CF5" s="122"/>
+      <c r="CG5" s="122"/>
+      <c r="CH5" s="122"/>
+      <c r="CI5" s="122"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1">
-      <c r="B6" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="127"/>
-      <c r="W6" s="127"/>
-      <c r="X6" s="127"/>
-      <c r="Y6" s="127"/>
-      <c r="Z6" s="127"/>
-      <c r="AA6" s="127"/>
-      <c r="AB6" s="127"/>
-      <c r="AC6" s="127"/>
-      <c r="AD6" s="127"/>
-      <c r="AE6" s="127"/>
-      <c r="AF6" s="127"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="127"/>
-      <c r="AI6" s="127"/>
-      <c r="AJ6" s="127"/>
-      <c r="AK6" s="127"/>
-      <c r="AL6" s="127"/>
-      <c r="AM6" s="127"/>
-      <c r="AN6" s="127"/>
-      <c r="AO6" s="127"/>
-      <c r="AP6" s="127"/>
-      <c r="AQ6" s="127"/>
-      <c r="AR6" s="127"/>
-      <c r="AS6" s="127"/>
-      <c r="AT6" s="127"/>
-      <c r="AU6" s="127"/>
-      <c r="AV6" s="127"/>
-      <c r="AW6" s="127"/>
-      <c r="AX6" s="127"/>
-      <c r="AY6" s="127"/>
-      <c r="AZ6" s="127"/>
-      <c r="BA6" s="127"/>
-      <c r="BB6" s="127"/>
-      <c r="BC6" s="127"/>
-      <c r="BD6" s="127"/>
-      <c r="BE6" s="127"/>
-      <c r="BF6" s="127"/>
-      <c r="BG6" s="127"/>
-      <c r="BH6" s="127"/>
-      <c r="BI6" s="127"/>
-      <c r="BJ6" s="127"/>
-      <c r="BK6" s="127"/>
-      <c r="BL6" s="127"/>
-      <c r="BM6" s="127"/>
-      <c r="BN6" s="127"/>
-      <c r="BO6" s="127"/>
-      <c r="BP6" s="127"/>
-      <c r="BQ6" s="127"/>
-      <c r="BR6" s="127"/>
-      <c r="BS6" s="127"/>
-      <c r="BT6" s="127"/>
-      <c r="BU6" s="127"/>
-      <c r="BV6" s="127"/>
-      <c r="BW6" s="127"/>
-      <c r="BX6" s="127"/>
-      <c r="BY6" s="127"/>
-      <c r="BZ6" s="127"/>
-      <c r="CA6" s="127"/>
-      <c r="CB6" s="127"/>
-      <c r="CC6" s="127"/>
-      <c r="CD6" s="127"/>
-      <c r="CE6" s="127"/>
-      <c r="CF6" s="127"/>
-      <c r="CG6" s="127"/>
-      <c r="CH6" s="127"/>
-      <c r="CI6" s="127"/>
+    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="129" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="129"/>
+      <c r="Y6" s="129"/>
+      <c r="Z6" s="129"/>
+      <c r="AA6" s="129"/>
+      <c r="AB6" s="129"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
+      <c r="AF6" s="129"/>
+      <c r="AG6" s="129"/>
+      <c r="AH6" s="129"/>
+      <c r="AI6" s="129"/>
+      <c r="AJ6" s="129"/>
+      <c r="AK6" s="129"/>
+      <c r="AL6" s="129"/>
+      <c r="AM6" s="129"/>
+      <c r="AN6" s="129"/>
+      <c r="AO6" s="129"/>
+      <c r="AP6" s="129"/>
+      <c r="AQ6" s="129"/>
+      <c r="AR6" s="129"/>
+      <c r="AS6" s="129"/>
+      <c r="AT6" s="129"/>
+      <c r="AU6" s="129"/>
+      <c r="AV6" s="129"/>
+      <c r="AW6" s="129"/>
+      <c r="AX6" s="129"/>
+      <c r="AY6" s="129"/>
+      <c r="AZ6" s="129"/>
+      <c r="BA6" s="129"/>
+      <c r="BB6" s="129"/>
+      <c r="BC6" s="129"/>
+      <c r="BD6" s="129"/>
+      <c r="BE6" s="129"/>
+      <c r="BF6" s="129"/>
+      <c r="BG6" s="129"/>
+      <c r="BH6" s="129"/>
+      <c r="BI6" s="129"/>
+      <c r="BJ6" s="129"/>
+      <c r="BK6" s="129"/>
+      <c r="BL6" s="129"/>
+      <c r="BM6" s="129"/>
+      <c r="BN6" s="129"/>
+      <c r="BO6" s="129"/>
+      <c r="BP6" s="129"/>
+      <c r="BQ6" s="129"/>
+      <c r="BR6" s="129"/>
+      <c r="BS6" s="129"/>
+      <c r="BT6" s="129"/>
+      <c r="BU6" s="129"/>
+      <c r="BV6" s="129"/>
+      <c r="BW6" s="129"/>
+      <c r="BX6" s="129"/>
+      <c r="BY6" s="129"/>
+      <c r="BZ6" s="129"/>
+      <c r="CA6" s="129"/>
+      <c r="CB6" s="129"/>
+      <c r="CC6" s="129"/>
+      <c r="CD6" s="129"/>
+      <c r="CE6" s="129"/>
+      <c r="CF6" s="129"/>
+      <c r="CG6" s="129"/>
+      <c r="CH6" s="129"/>
+      <c r="CI6" s="129"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1">
-      <c r="B7" s="128" t="s">
+    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="129" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="130"/>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130"/>
-      <c r="U7" s="130"/>
-      <c r="V7" s="130"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="129" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="129" t="s">
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="AC7" s="130"/>
-      <c r="AD7" s="130"/>
-      <c r="AE7" s="130"/>
-      <c r="AF7" s="130"/>
-      <c r="AG7" s="131"/>
-      <c r="AH7" s="129" t="s">
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="132"/>
+      <c r="U7" s="132"/>
+      <c r="V7" s="132"/>
+      <c r="W7" s="132"/>
+      <c r="X7" s="133"/>
+      <c r="Y7" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="AI7" s="130"/>
-      <c r="AJ7" s="131"/>
-      <c r="AK7" s="129" t="s">
+      <c r="Z7" s="132"/>
+      <c r="AA7" s="133"/>
+      <c r="AB7" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="AL7" s="130"/>
-      <c r="AM7" s="130"/>
-      <c r="AN7" s="130"/>
-      <c r="AO7" s="130"/>
-      <c r="AP7" s="130"/>
-      <c r="AQ7" s="130"/>
-      <c r="AR7" s="148"/>
-      <c r="AS7" s="148"/>
-      <c r="AT7" s="149"/>
-      <c r="AU7" s="146" t="s">
+      <c r="AC7" s="132"/>
+      <c r="AD7" s="132"/>
+      <c r="AE7" s="132"/>
+      <c r="AF7" s="132"/>
+      <c r="AG7" s="133"/>
+      <c r="AH7" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="AV7" s="146"/>
-      <c r="AW7" s="146"/>
-      <c r="AX7" s="146"/>
-      <c r="AY7" s="146"/>
-      <c r="AZ7" s="146"/>
-      <c r="BA7" s="146"/>
-      <c r="BB7" s="146"/>
-      <c r="BC7" s="146"/>
-      <c r="BD7" s="146"/>
-      <c r="BE7" s="146"/>
-      <c r="BF7" s="146"/>
-      <c r="BG7" s="146"/>
-      <c r="BH7" s="146"/>
-      <c r="BI7" s="146"/>
-      <c r="BJ7" s="146"/>
-      <c r="BK7" s="146"/>
-      <c r="BL7" s="146"/>
-      <c r="BM7" s="146"/>
-      <c r="BN7" s="146"/>
-      <c r="BO7" s="146"/>
-      <c r="BP7" s="146"/>
-      <c r="BQ7" s="147" t="s">
+      <c r="AI7" s="132"/>
+      <c r="AJ7" s="133"/>
+      <c r="AK7" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="BR7" s="147"/>
-      <c r="BS7" s="147"/>
-      <c r="BT7" s="147"/>
-      <c r="BU7" s="147"/>
-      <c r="BV7" s="147"/>
-      <c r="BW7" s="147"/>
-      <c r="BX7" s="147"/>
-      <c r="BY7" s="147"/>
-      <c r="BZ7" s="147"/>
-      <c r="CA7" s="147"/>
-      <c r="CB7" s="147"/>
-      <c r="CC7" s="147"/>
-      <c r="CD7" s="147"/>
-      <c r="CE7" s="147"/>
-      <c r="CF7" s="147"/>
-      <c r="CG7" s="147"/>
-      <c r="CH7" s="147"/>
-      <c r="CI7" s="147"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="132"/>
+      <c r="AN7" s="132"/>
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="132"/>
+      <c r="AQ7" s="132"/>
+      <c r="AR7" s="153"/>
+      <c r="AS7" s="153"/>
+      <c r="AT7" s="154"/>
+      <c r="AU7" s="123" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV7" s="123"/>
+      <c r="AW7" s="123"/>
+      <c r="AX7" s="123"/>
+      <c r="AY7" s="123"/>
+      <c r="AZ7" s="123"/>
+      <c r="BA7" s="123"/>
+      <c r="BB7" s="123"/>
+      <c r="BC7" s="123"/>
+      <c r="BD7" s="123"/>
+      <c r="BE7" s="123"/>
+      <c r="BF7" s="123"/>
+      <c r="BG7" s="123"/>
+      <c r="BH7" s="123"/>
+      <c r="BI7" s="123"/>
+      <c r="BJ7" s="123"/>
+      <c r="BK7" s="123"/>
+      <c r="BL7" s="123"/>
+      <c r="BM7" s="123"/>
+      <c r="BN7" s="123"/>
+      <c r="BO7" s="123"/>
+      <c r="BP7" s="123"/>
+      <c r="BQ7" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR7" s="152"/>
+      <c r="BS7" s="152"/>
+      <c r="BT7" s="152"/>
+      <c r="BU7" s="152"/>
+      <c r="BV7" s="152"/>
+      <c r="BW7" s="152"/>
+      <c r="BX7" s="152"/>
+      <c r="BY7" s="152"/>
+      <c r="BZ7" s="152"/>
+      <c r="CA7" s="152"/>
+      <c r="CB7" s="152"/>
+      <c r="CC7" s="152"/>
+      <c r="CD7" s="152"/>
+      <c r="CE7" s="152"/>
+      <c r="CF7" s="152"/>
+      <c r="CG7" s="152"/>
+      <c r="CH7" s="152"/>
+      <c r="CI7" s="152"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1">
-      <c r="B8" s="98">
-        <f t="shared" ref="B8:B15" si="0">ROW(B8)-7</f>
+    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="99">
+        <f t="shared" ref="B8:B14" si="0">ROW(B8)-7</f>
         <v>1</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="116"/>
-      <c r="Z8" s="117"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="114"/>
-      <c r="AF8" s="114"/>
-      <c r="AG8" s="115"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
-      <c r="AJ8" s="118"/>
-      <c r="AK8" s="113"/>
-      <c r="AL8" s="114"/>
-      <c r="AM8" s="114"/>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="114"/>
-      <c r="AP8" s="114"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="119"/>
-      <c r="AS8" s="119"/>
-      <c r="AT8" s="120"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="111"/>
-      <c r="BA8" s="111"/>
-      <c r="BB8" s="111"/>
-      <c r="BC8" s="111"/>
-      <c r="BD8" s="111"/>
-      <c r="BE8" s="111"/>
-      <c r="BF8" s="111"/>
-      <c r="BG8" s="111"/>
-      <c r="BH8" s="111"/>
-      <c r="BI8" s="111"/>
-      <c r="BJ8" s="111"/>
-      <c r="BK8" s="111"/>
-      <c r="BL8" s="111"/>
-      <c r="BM8" s="111"/>
-      <c r="BN8" s="111"/>
-      <c r="BO8" s="111"/>
-      <c r="BP8" s="111"/>
-      <c r="BQ8" s="150"/>
-      <c r="BR8" s="150"/>
-      <c r="BS8" s="150"/>
-      <c r="BT8" s="150"/>
-      <c r="BU8" s="150"/>
-      <c r="BV8" s="150"/>
-      <c r="BW8" s="150"/>
-      <c r="BX8" s="150"/>
-      <c r="BY8" s="150"/>
-      <c r="BZ8" s="150"/>
-      <c r="CA8" s="150"/>
-      <c r="CB8" s="150"/>
-      <c r="CC8" s="150"/>
-      <c r="CD8" s="150"/>
-      <c r="CE8" s="150"/>
-      <c r="CF8" s="150"/>
-      <c r="CG8" s="150"/>
-      <c r="CH8" s="150"/>
-      <c r="CI8" s="150"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="114"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="117"/>
+      <c r="AK8" s="112"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="113"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="118"/>
+      <c r="AS8" s="118"/>
+      <c r="AT8" s="119"/>
+      <c r="AU8" s="110"/>
+      <c r="AV8" s="110"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="110"/>
+      <c r="BA8" s="110"/>
+      <c r="BB8" s="110"/>
+      <c r="BC8" s="110"/>
+      <c r="BD8" s="110"/>
+      <c r="BE8" s="110"/>
+      <c r="BF8" s="110"/>
+      <c r="BG8" s="110"/>
+      <c r="BH8" s="110"/>
+      <c r="BI8" s="110"/>
+      <c r="BJ8" s="110"/>
+      <c r="BK8" s="110"/>
+      <c r="BL8" s="110"/>
+      <c r="BM8" s="110"/>
+      <c r="BN8" s="110"/>
+      <c r="BO8" s="110"/>
+      <c r="BP8" s="110"/>
+      <c r="BQ8" s="124"/>
+      <c r="BR8" s="124"/>
+      <c r="BS8" s="124"/>
+      <c r="BT8" s="124"/>
+      <c r="BU8" s="124"/>
+      <c r="BV8" s="124"/>
+      <c r="BW8" s="124"/>
+      <c r="BX8" s="124"/>
+      <c r="BY8" s="124"/>
+      <c r="BZ8" s="124"/>
+      <c r="CA8" s="124"/>
+      <c r="CB8" s="124"/>
+      <c r="CC8" s="124"/>
+      <c r="CD8" s="124"/>
+      <c r="CE8" s="124"/>
+      <c r="CF8" s="124"/>
+      <c r="CG8" s="124"/>
+      <c r="CH8" s="124"/>
+      <c r="CI8" s="124"/>
     </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1">
-      <c r="B9" s="98">
+    <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="99">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="101" t="s">
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="103"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="88"/>
-      <c r="AU9" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="AV9" s="107"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="107"/>
-      <c r="BA9" s="107"/>
-      <c r="BB9" s="107"/>
-      <c r="BC9" s="107"/>
-      <c r="BD9" s="107"/>
-      <c r="BE9" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF9" s="107"/>
-      <c r="BG9" s="107"/>
-      <c r="BH9" s="107"/>
-      <c r="BI9" s="107"/>
-      <c r="BJ9" s="107"/>
-      <c r="BK9" s="107"/>
-      <c r="BL9" s="107"/>
-      <c r="BM9" s="107"/>
-      <c r="BN9" s="107"/>
-      <c r="BO9" s="107"/>
-      <c r="BP9" s="107"/>
-      <c r="BQ9" s="108"/>
-      <c r="BR9" s="108"/>
-      <c r="BS9" s="108"/>
-      <c r="BT9" s="108"/>
-      <c r="BU9" s="108"/>
-      <c r="BV9" s="108"/>
-      <c r="BW9" s="108"/>
-      <c r="BX9" s="108"/>
-      <c r="BY9" s="108"/>
-      <c r="BZ9" s="108"/>
-      <c r="CA9" s="108"/>
-      <c r="CB9" s="108"/>
-      <c r="CC9" s="108"/>
-      <c r="CD9" s="108"/>
-      <c r="CE9" s="108"/>
-      <c r="CF9" s="108"/>
-      <c r="CG9" s="108"/>
-      <c r="CH9" s="108"/>
-      <c r="CI9" s="108"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="104"/>
+      <c r="AB9" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL9" s="94"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="88"/>
+      <c r="AS9" s="88"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV9" s="108"/>
+      <c r="AW9" s="108"/>
+      <c r="AX9" s="108"/>
+      <c r="AY9" s="108"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="108"/>
+      <c r="BB9" s="108"/>
+      <c r="BC9" s="108"/>
+      <c r="BD9" s="108"/>
+      <c r="BE9" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF9" s="108"/>
+      <c r="BG9" s="108"/>
+      <c r="BH9" s="108"/>
+      <c r="BI9" s="108"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="108"/>
+      <c r="BL9" s="108"/>
+      <c r="BM9" s="108"/>
+      <c r="BN9" s="108"/>
+      <c r="BO9" s="108"/>
+      <c r="BP9" s="108"/>
+      <c r="BQ9" s="109"/>
+      <c r="BR9" s="109"/>
+      <c r="BS9" s="109"/>
+      <c r="BT9" s="109"/>
+      <c r="BU9" s="109"/>
+      <c r="BV9" s="109"/>
+      <c r="BW9" s="109"/>
+      <c r="BX9" s="109"/>
+      <c r="BY9" s="109"/>
+      <c r="BZ9" s="109"/>
+      <c r="CA9" s="109"/>
+      <c r="CB9" s="109"/>
+      <c r="CC9" s="109"/>
+      <c r="CD9" s="109"/>
+      <c r="CE9" s="109"/>
+      <c r="CF9" s="109"/>
+      <c r="CG9" s="109"/>
+      <c r="CH9" s="109"/>
+      <c r="CI9" s="109"/>
     </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1">
-      <c r="B10" s="98">
+    <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="99">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="116"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="115"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="117"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="114"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="114"/>
-      <c r="AR10" s="119"/>
-      <c r="AS10" s="119"/>
-      <c r="AT10" s="120"/>
-      <c r="AU10" s="111"/>
-      <c r="AV10" s="111"/>
-      <c r="AW10" s="111"/>
-      <c r="AX10" s="111"/>
-      <c r="AY10" s="111"/>
-      <c r="AZ10" s="111"/>
-      <c r="BA10" s="111"/>
-      <c r="BB10" s="111"/>
-      <c r="BC10" s="111"/>
-      <c r="BD10" s="111"/>
-      <c r="BE10" s="111"/>
-      <c r="BF10" s="111"/>
-      <c r="BG10" s="111"/>
-      <c r="BH10" s="111"/>
-      <c r="BI10" s="111"/>
-      <c r="BJ10" s="111"/>
-      <c r="BK10" s="111"/>
-      <c r="BL10" s="111"/>
-      <c r="BM10" s="111"/>
-      <c r="BN10" s="111"/>
-      <c r="BO10" s="111"/>
-      <c r="BP10" s="111"/>
-      <c r="BQ10" s="112"/>
-      <c r="BR10" s="112"/>
-      <c r="BS10" s="112"/>
-      <c r="BT10" s="112"/>
-      <c r="BU10" s="112"/>
-      <c r="BV10" s="112"/>
-      <c r="BW10" s="112"/>
-      <c r="BX10" s="112"/>
-      <c r="BY10" s="112"/>
-      <c r="BZ10" s="112"/>
-      <c r="CA10" s="112"/>
-      <c r="CB10" s="112"/>
-      <c r="CC10" s="112"/>
-      <c r="CD10" s="112"/>
-      <c r="CE10" s="112"/>
-      <c r="CF10" s="112"/>
-      <c r="CG10" s="112"/>
-      <c r="CH10" s="112"/>
-      <c r="CI10" s="112"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="117"/>
+      <c r="AK10" s="112"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="118"/>
+      <c r="AS10" s="118"/>
+      <c r="AT10" s="119"/>
+      <c r="AU10" s="110"/>
+      <c r="AV10" s="110"/>
+      <c r="AW10" s="110"/>
+      <c r="AX10" s="110"/>
+      <c r="AY10" s="110"/>
+      <c r="AZ10" s="110"/>
+      <c r="BA10" s="110"/>
+      <c r="BB10" s="110"/>
+      <c r="BC10" s="110"/>
+      <c r="BD10" s="110"/>
+      <c r="BE10" s="110"/>
+      <c r="BF10" s="110"/>
+      <c r="BG10" s="110"/>
+      <c r="BH10" s="110"/>
+      <c r="BI10" s="110"/>
+      <c r="BJ10" s="110"/>
+      <c r="BK10" s="110"/>
+      <c r="BL10" s="110"/>
+      <c r="BM10" s="110"/>
+      <c r="BN10" s="110"/>
+      <c r="BO10" s="110"/>
+      <c r="BP10" s="110"/>
+      <c r="BQ10" s="111"/>
+      <c r="BR10" s="111"/>
+      <c r="BS10" s="111"/>
+      <c r="BT10" s="111"/>
+      <c r="BU10" s="111"/>
+      <c r="BV10" s="111"/>
+      <c r="BW10" s="111"/>
+      <c r="BX10" s="111"/>
+      <c r="BY10" s="111"/>
+      <c r="BZ10" s="111"/>
+      <c r="CA10" s="111"/>
+      <c r="CB10" s="111"/>
+      <c r="CC10" s="111"/>
+      <c r="CD10" s="111"/>
+      <c r="CE10" s="111"/>
+      <c r="CF10" s="111"/>
+      <c r="CG10" s="111"/>
+      <c r="CH10" s="111"/>
+      <c r="CI10" s="111"/>
     </row>
-    <row r="11" spans="1:1024" ht="18" customHeight="1">
-      <c r="B11" s="98">
+    <row r="11" spans="1:1024" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="99">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93"/>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="101" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="103"/>
-      <c r="AB11" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="101" t="s">
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="94"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="104"/>
+      <c r="AB11" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="AI11" s="102"/>
-      <c r="AJ11" s="103"/>
-      <c r="AK11" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
-      <c r="AO11" s="93"/>
-      <c r="AP11" s="93"/>
-      <c r="AQ11" s="93"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="87"/>
-      <c r="AT11" s="88"/>
-      <c r="AU11" s="107" t="s">
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="104"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="94"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="94"/>
+      <c r="AO11" s="94"/>
+      <c r="AP11" s="94"/>
+      <c r="AQ11" s="94"/>
+      <c r="AR11" s="88"/>
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" s="107"/>
-      <c r="AW11" s="107"/>
-      <c r="AX11" s="107"/>
-      <c r="AY11" s="107"/>
-      <c r="AZ11" s="107"/>
-      <c r="BA11" s="107"/>
-      <c r="BB11" s="107"/>
-      <c r="BC11" s="107"/>
-      <c r="BD11" s="107"/>
-      <c r="BE11" s="107" t="s">
+      <c r="AV11" s="108"/>
+      <c r="AW11" s="108"/>
+      <c r="AX11" s="108"/>
+      <c r="AY11" s="108"/>
+      <c r="AZ11" s="108"/>
+      <c r="BA11" s="108"/>
+      <c r="BB11" s="108"/>
+      <c r="BC11" s="108"/>
+      <c r="BD11" s="108"/>
+      <c r="BE11" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="BF11" s="107"/>
-      <c r="BG11" s="107"/>
-      <c r="BH11" s="107"/>
-      <c r="BI11" s="107"/>
-      <c r="BJ11" s="107"/>
-      <c r="BK11" s="107"/>
-      <c r="BL11" s="107"/>
-      <c r="BM11" s="107"/>
-      <c r="BN11" s="107"/>
-      <c r="BO11" s="107"/>
-      <c r="BP11" s="107"/>
-      <c r="BQ11" s="108"/>
-      <c r="BR11" s="108"/>
-      <c r="BS11" s="108"/>
-      <c r="BT11" s="108"/>
-      <c r="BU11" s="108"/>
-      <c r="BV11" s="108"/>
-      <c r="BW11" s="108"/>
-      <c r="BX11" s="108"/>
-      <c r="BY11" s="108"/>
-      <c r="BZ11" s="108"/>
-      <c r="CA11" s="108"/>
-      <c r="CB11" s="108"/>
-      <c r="CC11" s="108"/>
-      <c r="CD11" s="108"/>
-      <c r="CE11" s="108"/>
-      <c r="CF11" s="108"/>
-      <c r="CG11" s="108"/>
-      <c r="CH11" s="108"/>
-      <c r="CI11" s="108"/>
+      <c r="BF11" s="108"/>
+      <c r="BG11" s="108"/>
+      <c r="BH11" s="108"/>
+      <c r="BI11" s="108"/>
+      <c r="BJ11" s="108"/>
+      <c r="BK11" s="108"/>
+      <c r="BL11" s="108"/>
+      <c r="BM11" s="108"/>
+      <c r="BN11" s="108"/>
+      <c r="BO11" s="108"/>
+      <c r="BP11" s="108"/>
+      <c r="BQ11" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="BR11" s="109"/>
+      <c r="BS11" s="109"/>
+      <c r="BT11" s="109"/>
+      <c r="BU11" s="109"/>
+      <c r="BV11" s="109"/>
+      <c r="BW11" s="109"/>
+      <c r="BX11" s="109"/>
+      <c r="BY11" s="109"/>
+      <c r="BZ11" s="109"/>
+      <c r="CA11" s="109"/>
+      <c r="CB11" s="109"/>
+      <c r="CC11" s="109"/>
+      <c r="CD11" s="109"/>
+      <c r="CE11" s="109"/>
+      <c r="CF11" s="109"/>
+      <c r="CG11" s="109"/>
+      <c r="CH11" s="109"/>
+      <c r="CI11" s="109"/>
     </row>
-    <row r="12" spans="1:1024" ht="54.6" customHeight="1">
-      <c r="B12" s="98">
+    <row r="12" spans="1:1024" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="99">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="93"/>
-      <c r="O12" s="93"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93"/>
-      <c r="T12" s="93"/>
-      <c r="U12" s="93"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="101" t="s">
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="94"/>
+      <c r="V12" s="94"/>
+      <c r="W12" s="94"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="104"/>
+      <c r="AB12" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="Z12" s="102"/>
-      <c r="AA12" s="103"/>
-      <c r="AB12" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC12" s="93"/>
-      <c r="AD12" s="93"/>
-      <c r="AE12" s="93"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="102"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="93"/>
-      <c r="AN12" s="93"/>
-      <c r="AO12" s="93"/>
-      <c r="AP12" s="93"/>
-      <c r="AQ12" s="93"/>
-      <c r="AR12" s="87"/>
-      <c r="AS12" s="87"/>
-      <c r="AT12" s="88"/>
-      <c r="AU12" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV12" s="93"/>
-      <c r="AW12" s="93"/>
-      <c r="AX12" s="93"/>
-      <c r="AY12" s="93"/>
-      <c r="AZ12" s="93"/>
-      <c r="BA12" s="93"/>
-      <c r="BB12" s="93"/>
-      <c r="BC12" s="93"/>
-      <c r="BD12" s="94"/>
-      <c r="BE12" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF12" s="110"/>
-      <c r="BG12" s="110"/>
-      <c r="BH12" s="110"/>
-      <c r="BI12" s="110"/>
-      <c r="BJ12" s="110"/>
-      <c r="BK12" s="110"/>
-      <c r="BL12" s="110"/>
-      <c r="BM12" s="110"/>
-      <c r="BN12" s="110"/>
-      <c r="BO12" s="110"/>
-      <c r="BP12" s="110"/>
-      <c r="BQ12" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="BR12" s="108"/>
-      <c r="BS12" s="108"/>
-      <c r="BT12" s="108"/>
-      <c r="BU12" s="108"/>
-      <c r="BV12" s="108"/>
-      <c r="BW12" s="108"/>
-      <c r="BX12" s="108"/>
-      <c r="BY12" s="108"/>
-      <c r="BZ12" s="108"/>
-      <c r="CA12" s="108"/>
-      <c r="CB12" s="108"/>
-      <c r="CC12" s="108"/>
-      <c r="CD12" s="108"/>
-      <c r="CE12" s="108"/>
-      <c r="CF12" s="108"/>
-      <c r="CG12" s="108"/>
-      <c r="CH12" s="108"/>
-      <c r="CI12" s="108"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="104"/>
+      <c r="AK12" s="93"/>
+      <c r="AL12" s="94"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="94"/>
+      <c r="AO12" s="94"/>
+      <c r="AP12" s="94"/>
+      <c r="AQ12" s="94"/>
+      <c r="AR12" s="88"/>
+      <c r="AS12" s="88"/>
+      <c r="AT12" s="89"/>
+      <c r="AU12" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV12" s="94"/>
+      <c r="AW12" s="94"/>
+      <c r="AX12" s="94"/>
+      <c r="AY12" s="94"/>
+      <c r="AZ12" s="94"/>
+      <c r="BA12" s="94"/>
+      <c r="BB12" s="94"/>
+      <c r="BC12" s="94"/>
+      <c r="BD12" s="95"/>
+      <c r="BE12" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF12" s="121"/>
+      <c r="BG12" s="121"/>
+      <c r="BH12" s="121"/>
+      <c r="BI12" s="121"/>
+      <c r="BJ12" s="121"/>
+      <c r="BK12" s="121"/>
+      <c r="BL12" s="121"/>
+      <c r="BM12" s="121"/>
+      <c r="BN12" s="121"/>
+      <c r="BO12" s="121"/>
+      <c r="BP12" s="121"/>
+      <c r="BQ12" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR12" s="109"/>
+      <c r="BS12" s="109"/>
+      <c r="BT12" s="109"/>
+      <c r="BU12" s="109"/>
+      <c r="BV12" s="109"/>
+      <c r="BW12" s="109"/>
+      <c r="BX12" s="109"/>
+      <c r="BY12" s="109"/>
+      <c r="BZ12" s="109"/>
+      <c r="CA12" s="109"/>
+      <c r="CB12" s="109"/>
+      <c r="CC12" s="109"/>
+      <c r="CD12" s="109"/>
+      <c r="CE12" s="109"/>
+      <c r="CF12" s="109"/>
+      <c r="CG12" s="109"/>
+      <c r="CH12" s="109"/>
+      <c r="CI12" s="109"/>
     </row>
-    <row r="13" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B13" s="98">
+    <row r="13" spans="1:1024" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="99">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="92" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="94"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="94"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="104"/>
+      <c r="AB13" s="93" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="104"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="103"/>
+      <c r="AP13" s="103"/>
+      <c r="AQ13" s="103"/>
+      <c r="AR13" s="103"/>
+      <c r="AS13" s="103"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV13" s="94"/>
+      <c r="AW13" s="94"/>
+      <c r="AX13" s="94"/>
+      <c r="AY13" s="94"/>
+      <c r="AZ13" s="94"/>
+      <c r="BA13" s="94"/>
+      <c r="BB13" s="94"/>
+      <c r="BC13" s="94"/>
+      <c r="BD13" s="95"/>
+      <c r="BE13" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z13" s="102"/>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI13" s="102"/>
-      <c r="AJ13" s="103"/>
-      <c r="AK13" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="93"/>
-      <c r="AN13" s="93"/>
-      <c r="AO13" s="93"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="93"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="88"/>
-      <c r="AU13" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV13" s="93"/>
-      <c r="AW13" s="93"/>
-      <c r="AX13" s="93"/>
-      <c r="AY13" s="93"/>
-      <c r="AZ13" s="93"/>
-      <c r="BA13" s="93"/>
-      <c r="BB13" s="93"/>
-      <c r="BC13" s="93"/>
-      <c r="BD13" s="94"/>
-      <c r="BE13" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF13" s="107"/>
-      <c r="BG13" s="107"/>
-      <c r="BH13" s="107"/>
-      <c r="BI13" s="107"/>
-      <c r="BJ13" s="107"/>
-      <c r="BK13" s="107"/>
-      <c r="BL13" s="107"/>
-      <c r="BM13" s="107"/>
-      <c r="BN13" s="107"/>
-      <c r="BO13" s="107"/>
-      <c r="BP13" s="107"/>
-      <c r="BQ13" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="BR13" s="108"/>
-      <c r="BS13" s="108"/>
-      <c r="BT13" s="108"/>
-      <c r="BU13" s="108"/>
-      <c r="BV13" s="108"/>
-      <c r="BW13" s="108"/>
-      <c r="BX13" s="108"/>
-      <c r="BY13" s="108"/>
-      <c r="BZ13" s="108"/>
-      <c r="CA13" s="108"/>
-      <c r="CB13" s="108"/>
-      <c r="CC13" s="108"/>
-      <c r="CD13" s="108"/>
-      <c r="CE13" s="108"/>
-      <c r="CF13" s="108"/>
-      <c r="CG13" s="108"/>
-      <c r="CH13" s="108"/>
-      <c r="CI13" s="108"/>
+      <c r="BF13" s="147"/>
+      <c r="BG13" s="147"/>
+      <c r="BH13" s="147"/>
+      <c r="BI13" s="147"/>
+      <c r="BJ13" s="147"/>
+      <c r="BK13" s="147"/>
+      <c r="BL13" s="147"/>
+      <c r="BM13" s="147"/>
+      <c r="BN13" s="147"/>
+      <c r="BO13" s="147"/>
+      <c r="BP13" s="148"/>
+      <c r="BQ13" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR13" s="109"/>
+      <c r="BS13" s="109"/>
+      <c r="BT13" s="109"/>
+      <c r="BU13" s="109"/>
+      <c r="BV13" s="109"/>
+      <c r="BW13" s="109"/>
+      <c r="BX13" s="109"/>
+      <c r="BY13" s="109"/>
+      <c r="BZ13" s="109"/>
+      <c r="CA13" s="109"/>
+      <c r="CB13" s="109"/>
+      <c r="CC13" s="109"/>
+      <c r="CD13" s="109"/>
+      <c r="CE13" s="109"/>
+      <c r="CF13" s="109"/>
+      <c r="CG13" s="109"/>
+      <c r="CH13" s="109"/>
+      <c r="CI13" s="109"/>
     </row>
-    <row r="14" spans="1:1024" ht="36.75" customHeight="1">
-      <c r="B14" s="98">
+    <row r="14" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="99">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
-      <c r="U14" s="93"/>
-      <c r="V14" s="93"/>
-      <c r="W14" s="93"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="101" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="94"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="94"/>
+      <c r="W14" s="94"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="Z14" s="102"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC14" s="93"/>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI14" s="102"/>
-      <c r="AJ14" s="103"/>
-      <c r="AK14" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="93"/>
-      <c r="AN14" s="93"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV14" s="93"/>
-      <c r="AW14" s="93"/>
-      <c r="AX14" s="93"/>
-      <c r="AY14" s="93"/>
-      <c r="AZ14" s="93"/>
-      <c r="BA14" s="93"/>
-      <c r="BB14" s="93"/>
-      <c r="BC14" s="93"/>
-      <c r="BD14" s="94"/>
-      <c r="BE14" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF14" s="107"/>
-      <c r="BG14" s="107"/>
-      <c r="BH14" s="107"/>
-      <c r="BI14" s="107"/>
-      <c r="BJ14" s="107"/>
-      <c r="BK14" s="107"/>
-      <c r="BL14" s="107"/>
-      <c r="BM14" s="107"/>
-      <c r="BN14" s="107"/>
-      <c r="BO14" s="107"/>
-      <c r="BP14" s="107"/>
-      <c r="BQ14" s="108"/>
-      <c r="BR14" s="108"/>
-      <c r="BS14" s="108"/>
-      <c r="BT14" s="108"/>
-      <c r="BU14" s="108"/>
-      <c r="BV14" s="108"/>
-      <c r="BW14" s="108"/>
-      <c r="BX14" s="108"/>
-      <c r="BY14" s="108"/>
-      <c r="BZ14" s="108"/>
-      <c r="CA14" s="108"/>
-      <c r="CB14" s="108"/>
-      <c r="CC14" s="108"/>
-      <c r="CD14" s="108"/>
-      <c r="CE14" s="108"/>
-      <c r="CF14" s="108"/>
-      <c r="CG14" s="108"/>
-      <c r="CH14" s="108"/>
-      <c r="CI14" s="108"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="93"/>
+      <c r="AL14" s="94"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="94"/>
+      <c r="AO14" s="94"/>
+      <c r="AP14" s="94"/>
+      <c r="AQ14" s="94"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="89"/>
+      <c r="AU14" s="93" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV14" s="94"/>
+      <c r="AW14" s="94"/>
+      <c r="AX14" s="94"/>
+      <c r="AY14" s="94"/>
+      <c r="AZ14" s="94"/>
+      <c r="BA14" s="94"/>
+      <c r="BB14" s="94"/>
+      <c r="BC14" s="94"/>
+      <c r="BD14" s="95"/>
+      <c r="BE14" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF14" s="108"/>
+      <c r="BG14" s="108"/>
+      <c r="BH14" s="108"/>
+      <c r="BI14" s="108"/>
+      <c r="BJ14" s="108"/>
+      <c r="BK14" s="108"/>
+      <c r="BL14" s="108"/>
+      <c r="BM14" s="108"/>
+      <c r="BN14" s="108"/>
+      <c r="BO14" s="108"/>
+      <c r="BP14" s="108"/>
+      <c r="BQ14" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR14" s="109"/>
+      <c r="BS14" s="109"/>
+      <c r="BT14" s="109"/>
+      <c r="BU14" s="109"/>
+      <c r="BV14" s="109"/>
+      <c r="BW14" s="109"/>
+      <c r="BX14" s="109"/>
+      <c r="BY14" s="109"/>
+      <c r="BZ14" s="109"/>
+      <c r="CA14" s="109"/>
+      <c r="CB14" s="109"/>
+      <c r="CC14" s="109"/>
+      <c r="CD14" s="109"/>
+      <c r="CE14" s="109"/>
+      <c r="CF14" s="109"/>
+      <c r="CG14" s="109"/>
+      <c r="CH14" s="109"/>
+      <c r="CI14" s="109"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1">
-      <c r="B15" s="98">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="93"/>
-      <c r="U15" s="93"/>
-      <c r="V15" s="93"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="102"/>
-      <c r="AA15" s="103"/>
-      <c r="AB15" s="92" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI15" s="102"/>
-      <c r="AJ15" s="103"/>
-      <c r="AK15" s="92"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="93"/>
-      <c r="AN15" s="93"/>
-      <c r="AO15" s="93"/>
-      <c r="AP15" s="93"/>
-      <c r="AQ15" s="93"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="88"/>
-      <c r="AU15" s="92" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV15" s="93"/>
-      <c r="AW15" s="93"/>
-      <c r="AX15" s="93"/>
-      <c r="AY15" s="93"/>
-      <c r="AZ15" s="93"/>
-      <c r="BA15" s="93"/>
-      <c r="BB15" s="93"/>
-      <c r="BC15" s="93"/>
-      <c r="BD15" s="94"/>
-      <c r="BE15" s="107" t="s">
-        <v>28</v>
-      </c>
-      <c r="BF15" s="107"/>
-      <c r="BG15" s="107"/>
-      <c r="BH15" s="107"/>
-      <c r="BI15" s="107"/>
-      <c r="BJ15" s="107"/>
-      <c r="BK15" s="107"/>
-      <c r="BL15" s="107"/>
-      <c r="BM15" s="107"/>
-      <c r="BN15" s="107"/>
-      <c r="BO15" s="107"/>
-      <c r="BP15" s="107"/>
-      <c r="BQ15" s="108"/>
-      <c r="BR15" s="108"/>
-      <c r="BS15" s="108"/>
-      <c r="BT15" s="108"/>
-      <c r="BU15" s="108"/>
-      <c r="BV15" s="108"/>
-      <c r="BW15" s="108"/>
-      <c r="BX15" s="108"/>
-      <c r="BY15" s="108"/>
-      <c r="BZ15" s="108"/>
-      <c r="CA15" s="108"/>
-      <c r="CB15" s="108"/>
-      <c r="CC15" s="108"/>
-      <c r="CD15" s="108"/>
-      <c r="CE15" s="108"/>
-      <c r="CF15" s="108"/>
-      <c r="CG15" s="108"/>
-      <c r="CH15" s="108"/>
-      <c r="CI15" s="108"/>
+    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="94"/>
+      <c r="V15" s="94"/>
+      <c r="W15" s="94"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="104"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="93"/>
+      <c r="AL15" s="94"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="94"/>
+      <c r="AO15" s="94"/>
+      <c r="AP15" s="94"/>
+      <c r="AQ15" s="94"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="88"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="93"/>
+      <c r="AV15" s="94"/>
+      <c r="AW15" s="94"/>
+      <c r="AX15" s="94"/>
+      <c r="AY15" s="94"/>
+      <c r="AZ15" s="94"/>
+      <c r="BA15" s="94"/>
+      <c r="BB15" s="94"/>
+      <c r="BC15" s="94"/>
+      <c r="BD15" s="95"/>
+      <c r="BE15" s="108"/>
+      <c r="BF15" s="108"/>
+      <c r="BG15" s="108"/>
+      <c r="BH15" s="108"/>
+      <c r="BI15" s="108"/>
+      <c r="BJ15" s="108"/>
+      <c r="BK15" s="108"/>
+      <c r="BL15" s="108"/>
+      <c r="BM15" s="108"/>
+      <c r="BN15" s="108"/>
+      <c r="BO15" s="108"/>
+      <c r="BP15" s="108"/>
+      <c r="BQ15" s="109"/>
+      <c r="BR15" s="109"/>
+      <c r="BS15" s="109"/>
+      <c r="BT15" s="109"/>
+      <c r="BU15" s="109"/>
+      <c r="BV15" s="109"/>
+      <c r="BW15" s="109"/>
+      <c r="BX15" s="109"/>
+      <c r="BY15" s="109"/>
+      <c r="BZ15" s="109"/>
+      <c r="CA15" s="109"/>
+      <c r="CB15" s="109"/>
+      <c r="CC15" s="109"/>
+      <c r="CD15" s="109"/>
+      <c r="CE15" s="109"/>
+      <c r="CF15" s="109"/>
+      <c r="CG15" s="109"/>
+      <c r="CH15" s="109"/>
+      <c r="CI15" s="109"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1">
-      <c r="B16" s="98"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="93"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="93"/>
-      <c r="S16" s="93"/>
-      <c r="T16" s="93"/>
-      <c r="U16" s="93"/>
-      <c r="V16" s="93"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="102"/>
-      <c r="AA16" s="103"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="101"/>
-      <c r="AI16" s="102"/>
-      <c r="AJ16" s="103"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="93"/>
-      <c r="AN16" s="93"/>
-      <c r="AO16" s="93"/>
-      <c r="AP16" s="93"/>
-      <c r="AQ16" s="93"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="88"/>
-      <c r="AU16" s="92"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="93"/>
-      <c r="AZ16" s="93"/>
-      <c r="BA16" s="93"/>
-      <c r="BB16" s="93"/>
-      <c r="BC16" s="93"/>
-      <c r="BD16" s="94"/>
-      <c r="BE16" s="92"/>
-      <c r="BF16" s="93"/>
-      <c r="BG16" s="93"/>
-      <c r="BH16" s="93"/>
-      <c r="BI16" s="93"/>
-      <c r="BJ16" s="93"/>
-      <c r="BK16" s="93"/>
-      <c r="BL16" s="93"/>
-      <c r="BM16" s="93"/>
-      <c r="BN16" s="93"/>
-      <c r="BO16" s="93"/>
-      <c r="BP16" s="94"/>
-      <c r="BQ16" s="104"/>
-      <c r="BR16" s="105"/>
-      <c r="BS16" s="105"/>
-      <c r="BT16" s="105"/>
-      <c r="BU16" s="105"/>
-      <c r="BV16" s="105"/>
-      <c r="BW16" s="105"/>
-      <c r="BX16" s="105"/>
-      <c r="BY16" s="105"/>
-      <c r="BZ16" s="105"/>
-      <c r="CA16" s="105"/>
-      <c r="CB16" s="105"/>
-      <c r="CC16" s="105"/>
-      <c r="CD16" s="105"/>
-      <c r="CE16" s="105"/>
-      <c r="CF16" s="105"/>
-      <c r="CG16" s="105"/>
-      <c r="CH16" s="105"/>
-      <c r="CI16" s="106"/>
+    <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="94"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="104"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="94"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="94"/>
+      <c r="AO16" s="94"/>
+      <c r="AP16" s="94"/>
+      <c r="AQ16" s="94"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="88"/>
+      <c r="AT16" s="89"/>
+      <c r="AU16" s="93"/>
+      <c r="AV16" s="94"/>
+      <c r="AW16" s="94"/>
+      <c r="AX16" s="94"/>
+      <c r="AY16" s="94"/>
+      <c r="AZ16" s="94"/>
+      <c r="BA16" s="94"/>
+      <c r="BB16" s="94"/>
+      <c r="BC16" s="94"/>
+      <c r="BD16" s="95"/>
+      <c r="BE16" s="93"/>
+      <c r="BF16" s="94"/>
+      <c r="BG16" s="94"/>
+      <c r="BH16" s="94"/>
+      <c r="BI16" s="94"/>
+      <c r="BJ16" s="94"/>
+      <c r="BK16" s="94"/>
+      <c r="BL16" s="94"/>
+      <c r="BM16" s="94"/>
+      <c r="BN16" s="94"/>
+      <c r="BO16" s="94"/>
+      <c r="BP16" s="95"/>
+      <c r="BQ16" s="105"/>
+      <c r="BR16" s="106"/>
+      <c r="BS16" s="106"/>
+      <c r="BT16" s="106"/>
+      <c r="BU16" s="106"/>
+      <c r="BV16" s="106"/>
+      <c r="BW16" s="106"/>
+      <c r="BX16" s="106"/>
+      <c r="BY16" s="106"/>
+      <c r="BZ16" s="106"/>
+      <c r="CA16" s="106"/>
+      <c r="CB16" s="106"/>
+      <c r="CC16" s="106"/>
+      <c r="CD16" s="106"/>
+      <c r="CE16" s="106"/>
+      <c r="CF16" s="106"/>
+      <c r="CG16" s="106"/>
+      <c r="CH16" s="106"/>
+      <c r="CI16" s="107"/>
     </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="101"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="103"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="101"/>
-      <c r="AI17" s="102"/>
-      <c r="AJ17" s="103"/>
-      <c r="AK17" s="92"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="93"/>
-      <c r="AN17" s="93"/>
-      <c r="AO17" s="93"/>
-      <c r="AP17" s="93"/>
-      <c r="AQ17" s="93"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="88"/>
-      <c r="AU17" s="92"/>
-      <c r="AV17" s="93"/>
-      <c r="AW17" s="93"/>
-      <c r="AX17" s="93"/>
-      <c r="AY17" s="93"/>
-      <c r="AZ17" s="93"/>
-      <c r="BA17" s="93"/>
-      <c r="BB17" s="93"/>
-      <c r="BC17" s="93"/>
-      <c r="BD17" s="94"/>
-      <c r="BE17" s="92"/>
-      <c r="BF17" s="93"/>
-      <c r="BG17" s="93"/>
-      <c r="BH17" s="93"/>
-      <c r="BI17" s="93"/>
-      <c r="BJ17" s="93"/>
-      <c r="BK17" s="93"/>
-      <c r="BL17" s="93"/>
-      <c r="BM17" s="93"/>
-      <c r="BN17" s="93"/>
-      <c r="BO17" s="93"/>
-      <c r="BP17" s="94"/>
-      <c r="BQ17" s="104"/>
-      <c r="BR17" s="105"/>
-      <c r="BS17" s="105"/>
-      <c r="BT17" s="105"/>
-      <c r="BU17" s="105"/>
-      <c r="BV17" s="105"/>
-      <c r="BW17" s="105"/>
-      <c r="BX17" s="105"/>
-      <c r="BY17" s="105"/>
-      <c r="BZ17" s="105"/>
-      <c r="CA17" s="105"/>
-      <c r="CB17" s="105"/>
-      <c r="CC17" s="105"/>
-      <c r="CD17" s="105"/>
-      <c r="CE17" s="105"/>
-      <c r="CF17" s="105"/>
-      <c r="CG17" s="105"/>
-      <c r="CH17" s="105"/>
-      <c r="CI17" s="106"/>
+    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="104"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="93"/>
+      <c r="AL17" s="94"/>
+      <c r="AM17" s="94"/>
+      <c r="AN17" s="94"/>
+      <c r="AO17" s="94"/>
+      <c r="AP17" s="94"/>
+      <c r="AQ17" s="94"/>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="88"/>
+      <c r="AT17" s="89"/>
+      <c r="AU17" s="93"/>
+      <c r="AV17" s="94"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="94"/>
+      <c r="AY17" s="94"/>
+      <c r="AZ17" s="94"/>
+      <c r="BA17" s="94"/>
+      <c r="BB17" s="94"/>
+      <c r="BC17" s="94"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="93"/>
+      <c r="BF17" s="94"/>
+      <c r="BG17" s="94"/>
+      <c r="BH17" s="94"/>
+      <c r="BI17" s="94"/>
+      <c r="BJ17" s="94"/>
+      <c r="BK17" s="94"/>
+      <c r="BL17" s="94"/>
+      <c r="BM17" s="94"/>
+      <c r="BN17" s="94"/>
+      <c r="BO17" s="94"/>
+      <c r="BP17" s="95"/>
+      <c r="BQ17" s="105"/>
+      <c r="BR17" s="106"/>
+      <c r="BS17" s="106"/>
+      <c r="BT17" s="106"/>
+      <c r="BU17" s="106"/>
+      <c r="BV17" s="106"/>
+      <c r="BW17" s="106"/>
+      <c r="BX17" s="106"/>
+      <c r="BY17" s="106"/>
+      <c r="BZ17" s="106"/>
+      <c r="CA17" s="106"/>
+      <c r="CB17" s="106"/>
+      <c r="CC17" s="106"/>
+      <c r="CD17" s="106"/>
+      <c r="CE17" s="106"/>
+      <c r="CF17" s="106"/>
+      <c r="CG17" s="106"/>
+      <c r="CH17" s="106"/>
+      <c r="CI17" s="107"/>
     </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="93"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="93"/>
-      <c r="U18" s="93"/>
-      <c r="V18" s="93"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="101"/>
-      <c r="Z18" s="102"/>
-      <c r="AA18" s="103"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="101"/>
-      <c r="AI18" s="102"/>
-      <c r="AJ18" s="103"/>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="93"/>
-      <c r="AN18" s="93"/>
-      <c r="AO18" s="93"/>
-      <c r="AP18" s="93"/>
-      <c r="AQ18" s="93"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="87"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="92"/>
-      <c r="AV18" s="93"/>
-      <c r="AW18" s="93"/>
-      <c r="AX18" s="93"/>
-      <c r="AY18" s="93"/>
-      <c r="AZ18" s="93"/>
-      <c r="BA18" s="93"/>
-      <c r="BB18" s="93"/>
-      <c r="BC18" s="93"/>
-      <c r="BD18" s="94"/>
-      <c r="BE18" s="92"/>
-      <c r="BF18" s="93"/>
-      <c r="BG18" s="93"/>
-      <c r="BH18" s="93"/>
-      <c r="BI18" s="93"/>
-      <c r="BJ18" s="93"/>
-      <c r="BK18" s="93"/>
-      <c r="BL18" s="93"/>
-      <c r="BM18" s="93"/>
-      <c r="BN18" s="93"/>
-      <c r="BO18" s="93"/>
-      <c r="BP18" s="94"/>
-      <c r="BQ18" s="104"/>
-      <c r="BR18" s="105"/>
-      <c r="BS18" s="105"/>
-      <c r="BT18" s="105"/>
-      <c r="BU18" s="105"/>
-      <c r="BV18" s="105"/>
-      <c r="BW18" s="105"/>
-      <c r="BX18" s="105"/>
-      <c r="BY18" s="105"/>
-      <c r="BZ18" s="105"/>
-      <c r="CA18" s="105"/>
-      <c r="CB18" s="105"/>
-      <c r="CC18" s="105"/>
-      <c r="CD18" s="105"/>
-      <c r="CE18" s="105"/>
-      <c r="CF18" s="105"/>
-      <c r="CG18" s="105"/>
-      <c r="CH18" s="105"/>
-      <c r="CI18" s="106"/>
+    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="93"/>
+      <c r="AL18" s="94"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="94"/>
+      <c r="AO18" s="94"/>
+      <c r="AP18" s="94"/>
+      <c r="AQ18" s="94"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="88"/>
+      <c r="AT18" s="89"/>
+      <c r="AU18" s="93"/>
+      <c r="AV18" s="94"/>
+      <c r="AW18" s="94"/>
+      <c r="AX18" s="94"/>
+      <c r="AY18" s="94"/>
+      <c r="AZ18" s="94"/>
+      <c r="BA18" s="94"/>
+      <c r="BB18" s="94"/>
+      <c r="BC18" s="94"/>
+      <c r="BD18" s="95"/>
+      <c r="BE18" s="93"/>
+      <c r="BF18" s="94"/>
+      <c r="BG18" s="94"/>
+      <c r="BH18" s="94"/>
+      <c r="BI18" s="94"/>
+      <c r="BJ18" s="94"/>
+      <c r="BK18" s="94"/>
+      <c r="BL18" s="94"/>
+      <c r="BM18" s="94"/>
+      <c r="BN18" s="94"/>
+      <c r="BO18" s="94"/>
+      <c r="BP18" s="95"/>
+      <c r="BQ18" s="105"/>
+      <c r="BR18" s="106"/>
+      <c r="BS18" s="106"/>
+      <c r="BT18" s="106"/>
+      <c r="BU18" s="106"/>
+      <c r="BV18" s="106"/>
+      <c r="BW18" s="106"/>
+      <c r="BX18" s="106"/>
+      <c r="BY18" s="106"/>
+      <c r="BZ18" s="106"/>
+      <c r="CA18" s="106"/>
+      <c r="CB18" s="106"/>
+      <c r="CC18" s="106"/>
+      <c r="CD18" s="106"/>
+      <c r="CE18" s="106"/>
+      <c r="CF18" s="106"/>
+      <c r="CG18" s="106"/>
+      <c r="CH18" s="106"/>
+      <c r="CI18" s="107"/>
     </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="101"/>
-      <c r="Z19" s="102"/>
-      <c r="AA19" s="103"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="101"/>
-      <c r="AI19" s="102"/>
-      <c r="AJ19" s="103"/>
-      <c r="AK19" s="92"/>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="93"/>
-      <c r="AN19" s="93"/>
-      <c r="AO19" s="93"/>
-      <c r="AP19" s="93"/>
-      <c r="AQ19" s="93"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="88"/>
-      <c r="AU19" s="92"/>
-      <c r="AV19" s="93"/>
-      <c r="AW19" s="93"/>
-      <c r="AX19" s="93"/>
-      <c r="AY19" s="93"/>
-      <c r="AZ19" s="93"/>
-      <c r="BA19" s="93"/>
-      <c r="BB19" s="93"/>
-      <c r="BC19" s="93"/>
-      <c r="BD19" s="94"/>
-      <c r="BE19" s="92"/>
-      <c r="BF19" s="93"/>
-      <c r="BG19" s="93"/>
-      <c r="BH19" s="93"/>
-      <c r="BI19" s="93"/>
-      <c r="BJ19" s="93"/>
-      <c r="BK19" s="93"/>
-      <c r="BL19" s="93"/>
-      <c r="BM19" s="93"/>
-      <c r="BN19" s="93"/>
-      <c r="BO19" s="93"/>
-      <c r="BP19" s="94"/>
-      <c r="BQ19" s="104"/>
-      <c r="BR19" s="105"/>
-      <c r="BS19" s="105"/>
-      <c r="BT19" s="105"/>
-      <c r="BU19" s="105"/>
-      <c r="BV19" s="105"/>
-      <c r="BW19" s="105"/>
-      <c r="BX19" s="105"/>
-      <c r="BY19" s="105"/>
-      <c r="BZ19" s="105"/>
-      <c r="CA19" s="105"/>
-      <c r="CB19" s="105"/>
-      <c r="CC19" s="105"/>
-      <c r="CD19" s="105"/>
-      <c r="CE19" s="105"/>
-      <c r="CF19" s="105"/>
-      <c r="CG19" s="105"/>
-      <c r="CH19" s="105"/>
-      <c r="CI19" s="106"/>
+    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="104"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="102"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="104"/>
+      <c r="AK19" s="93"/>
+      <c r="AL19" s="94"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="94"/>
+      <c r="AO19" s="94"/>
+      <c r="AP19" s="94"/>
+      <c r="AQ19" s="94"/>
+      <c r="AR19" s="88"/>
+      <c r="AS19" s="88"/>
+      <c r="AT19" s="89"/>
+      <c r="AU19" s="93"/>
+      <c r="AV19" s="94"/>
+      <c r="AW19" s="94"/>
+      <c r="AX19" s="94"/>
+      <c r="AY19" s="94"/>
+      <c r="AZ19" s="94"/>
+      <c r="BA19" s="94"/>
+      <c r="BB19" s="94"/>
+      <c r="BC19" s="94"/>
+      <c r="BD19" s="95"/>
+      <c r="BE19" s="93"/>
+      <c r="BF19" s="94"/>
+      <c r="BG19" s="94"/>
+      <c r="BH19" s="94"/>
+      <c r="BI19" s="94"/>
+      <c r="BJ19" s="94"/>
+      <c r="BK19" s="94"/>
+      <c r="BL19" s="94"/>
+      <c r="BM19" s="94"/>
+      <c r="BN19" s="94"/>
+      <c r="BO19" s="94"/>
+      <c r="BP19" s="95"/>
+      <c r="BQ19" s="105"/>
+      <c r="BR19" s="106"/>
+      <c r="BS19" s="106"/>
+      <c r="BT19" s="106"/>
+      <c r="BU19" s="106"/>
+      <c r="BV19" s="106"/>
+      <c r="BW19" s="106"/>
+      <c r="BX19" s="106"/>
+      <c r="BY19" s="106"/>
+      <c r="BZ19" s="106"/>
+      <c r="CA19" s="106"/>
+      <c r="CB19" s="106"/>
+      <c r="CC19" s="106"/>
+      <c r="CD19" s="106"/>
+      <c r="CE19" s="106"/>
+      <c r="CF19" s="106"/>
+      <c r="CG19" s="106"/>
+      <c r="CH19" s="106"/>
+      <c r="CI19" s="107"/>
     </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="93"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="93"/>
-      <c r="U20" s="93"/>
-      <c r="V20" s="93"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="101"/>
-      <c r="Z20" s="102"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="101"/>
-      <c r="AI20" s="102"/>
-      <c r="AJ20" s="103"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="93"/>
-      <c r="AN20" s="93"/>
-      <c r="AO20" s="93"/>
-      <c r="AP20" s="93"/>
-      <c r="AQ20" s="93"/>
-      <c r="AR20" s="87"/>
-      <c r="AS20" s="87"/>
-      <c r="AT20" s="88"/>
-      <c r="AU20" s="92"/>
-      <c r="AV20" s="93"/>
-      <c r="AW20" s="93"/>
-      <c r="AX20" s="93"/>
-      <c r="AY20" s="93"/>
-      <c r="AZ20" s="93"/>
-      <c r="BA20" s="93"/>
-      <c r="BB20" s="93"/>
-      <c r="BC20" s="93"/>
-      <c r="BD20" s="94"/>
-      <c r="BE20" s="92"/>
-      <c r="BF20" s="93"/>
-      <c r="BG20" s="93"/>
-      <c r="BH20" s="93"/>
-      <c r="BI20" s="93"/>
-      <c r="BJ20" s="93"/>
-      <c r="BK20" s="93"/>
-      <c r="BL20" s="93"/>
-      <c r="BM20" s="93"/>
-      <c r="BN20" s="93"/>
-      <c r="BO20" s="93"/>
-      <c r="BP20" s="94"/>
-      <c r="BQ20" s="104"/>
-      <c r="BR20" s="105"/>
-      <c r="BS20" s="105"/>
-      <c r="BT20" s="105"/>
-      <c r="BU20" s="105"/>
-      <c r="BV20" s="105"/>
-      <c r="BW20" s="105"/>
-      <c r="BX20" s="105"/>
-      <c r="BY20" s="105"/>
-      <c r="BZ20" s="105"/>
-      <c r="CA20" s="105"/>
-      <c r="CB20" s="105"/>
-      <c r="CC20" s="105"/>
-      <c r="CD20" s="105"/>
-      <c r="CE20" s="105"/>
-      <c r="CF20" s="105"/>
-      <c r="CG20" s="105"/>
-      <c r="CH20" s="105"/>
-      <c r="CI20" s="106"/>
+    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="94"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="104"/>
+      <c r="AK20" s="93"/>
+      <c r="AL20" s="94"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="94"/>
+      <c r="AO20" s="94"/>
+      <c r="AP20" s="94"/>
+      <c r="AQ20" s="94"/>
+      <c r="AR20" s="88"/>
+      <c r="AS20" s="88"/>
+      <c r="AT20" s="89"/>
+      <c r="AU20" s="93"/>
+      <c r="AV20" s="94"/>
+      <c r="AW20" s="94"/>
+      <c r="AX20" s="94"/>
+      <c r="AY20" s="94"/>
+      <c r="AZ20" s="94"/>
+      <c r="BA20" s="94"/>
+      <c r="BB20" s="94"/>
+      <c r="BC20" s="94"/>
+      <c r="BD20" s="95"/>
+      <c r="BE20" s="93"/>
+      <c r="BF20" s="94"/>
+      <c r="BG20" s="94"/>
+      <c r="BH20" s="94"/>
+      <c r="BI20" s="94"/>
+      <c r="BJ20" s="94"/>
+      <c r="BK20" s="94"/>
+      <c r="BL20" s="94"/>
+      <c r="BM20" s="94"/>
+      <c r="BN20" s="94"/>
+      <c r="BO20" s="94"/>
+      <c r="BP20" s="95"/>
+      <c r="BQ20" s="105"/>
+      <c r="BR20" s="106"/>
+      <c r="BS20" s="106"/>
+      <c r="BT20" s="106"/>
+      <c r="BU20" s="106"/>
+      <c r="BV20" s="106"/>
+      <c r="BW20" s="106"/>
+      <c r="BX20" s="106"/>
+      <c r="BY20" s="106"/>
+      <c r="BZ20" s="106"/>
+      <c r="CA20" s="106"/>
+      <c r="CB20" s="106"/>
+      <c r="CC20" s="106"/>
+      <c r="CD20" s="106"/>
+      <c r="CE20" s="106"/>
+      <c r="CF20" s="106"/>
+      <c r="CG20" s="106"/>
+      <c r="CH20" s="106"/>
+      <c r="CI20" s="107"/>
     </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="77"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="85"/>
-      <c r="AJ21" s="86"/>
-      <c r="AK21" s="75"/>
-      <c r="AL21" s="76"/>
-      <c r="AM21" s="76"/>
-      <c r="AN21" s="76"/>
-      <c r="AO21" s="76"/>
-      <c r="AP21" s="76"/>
-      <c r="AQ21" s="76"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="87"/>
-      <c r="AT21" s="88"/>
-      <c r="AU21" s="75"/>
-      <c r="AV21" s="76"/>
-      <c r="AW21" s="76"/>
-      <c r="AX21" s="76"/>
-      <c r="AY21" s="76"/>
-      <c r="AZ21" s="76"/>
-      <c r="BA21" s="76"/>
-      <c r="BB21" s="76"/>
-      <c r="BC21" s="76"/>
-      <c r="BD21" s="77"/>
-      <c r="BE21" s="75"/>
-      <c r="BF21" s="76"/>
-      <c r="BG21" s="76"/>
-      <c r="BH21" s="76"/>
-      <c r="BI21" s="76"/>
-      <c r="BJ21" s="76"/>
-      <c r="BK21" s="76"/>
-      <c r="BL21" s="76"/>
-      <c r="BM21" s="76"/>
-      <c r="BN21" s="76"/>
-      <c r="BO21" s="76"/>
-      <c r="BP21" s="77"/>
-      <c r="BQ21" s="78"/>
-      <c r="BR21" s="79"/>
-      <c r="BS21" s="79"/>
-      <c r="BT21" s="79"/>
-      <c r="BU21" s="79"/>
-      <c r="BV21" s="79"/>
-      <c r="BW21" s="79"/>
-      <c r="BX21" s="79"/>
-      <c r="BY21" s="79"/>
-      <c r="BZ21" s="79"/>
-      <c r="CA21" s="79"/>
-      <c r="CB21" s="79"/>
-      <c r="CC21" s="79"/>
-      <c r="CD21" s="79"/>
-      <c r="CE21" s="79"/>
-      <c r="CF21" s="79"/>
-      <c r="CG21" s="79"/>
-      <c r="CH21" s="79"/>
-      <c r="CI21" s="80"/>
+    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="78"/>
+      <c r="Y21" s="85"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="85"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="77"/>
+      <c r="AM21" s="77"/>
+      <c r="AN21" s="77"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="88"/>
+      <c r="AS21" s="88"/>
+      <c r="AT21" s="89"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="77"/>
+      <c r="AW21" s="77"/>
+      <c r="AX21" s="77"/>
+      <c r="AY21" s="77"/>
+      <c r="AZ21" s="77"/>
+      <c r="BA21" s="77"/>
+      <c r="BB21" s="77"/>
+      <c r="BC21" s="77"/>
+      <c r="BD21" s="78"/>
+      <c r="BE21" s="76"/>
+      <c r="BF21" s="77"/>
+      <c r="BG21" s="77"/>
+      <c r="BH21" s="77"/>
+      <c r="BI21" s="77"/>
+      <c r="BJ21" s="77"/>
+      <c r="BK21" s="77"/>
+      <c r="BL21" s="77"/>
+      <c r="BM21" s="77"/>
+      <c r="BN21" s="77"/>
+      <c r="BO21" s="77"/>
+      <c r="BP21" s="78"/>
+      <c r="BQ21" s="79"/>
+      <c r="BR21" s="80"/>
+      <c r="BS21" s="80"/>
+      <c r="BT21" s="80"/>
+      <c r="BU21" s="80"/>
+      <c r="BV21" s="80"/>
+      <c r="BW21" s="80"/>
+      <c r="BX21" s="80"/>
+      <c r="BY21" s="80"/>
+      <c r="BZ21" s="80"/>
+      <c r="CA21" s="80"/>
+      <c r="CB21" s="80"/>
+      <c r="CC21" s="80"/>
+      <c r="CD21" s="80"/>
+      <c r="CE21" s="80"/>
+      <c r="CF21" s="80"/>
+      <c r="CG21" s="80"/>
+      <c r="CH21" s="80"/>
+      <c r="CI21" s="81"/>
     </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1">
-      <c r="B22" s="81"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="75"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="76"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="75"/>
-      <c r="AL22" s="76"/>
-      <c r="AM22" s="76"/>
-      <c r="AN22" s="76"/>
-      <c r="AO22" s="76"/>
-      <c r="AP22" s="76"/>
-      <c r="AQ22" s="76"/>
-      <c r="AR22" s="87"/>
-      <c r="AS22" s="87"/>
-      <c r="AT22" s="88"/>
-      <c r="AU22" s="75"/>
-      <c r="AV22" s="76"/>
-      <c r="AW22" s="76"/>
-      <c r="AX22" s="76"/>
-      <c r="AY22" s="76"/>
-      <c r="AZ22" s="76"/>
-      <c r="BA22" s="76"/>
-      <c r="BB22" s="76"/>
-      <c r="BC22" s="76"/>
-      <c r="BD22" s="77"/>
-      <c r="BE22" s="75"/>
-      <c r="BF22" s="76"/>
-      <c r="BG22" s="76"/>
-      <c r="BH22" s="76"/>
-      <c r="BI22" s="76"/>
-      <c r="BJ22" s="76"/>
-      <c r="BK22" s="76"/>
-      <c r="BL22" s="76"/>
-      <c r="BM22" s="76"/>
-      <c r="BN22" s="76"/>
-      <c r="BO22" s="76"/>
-      <c r="BP22" s="77"/>
-      <c r="BQ22" s="95"/>
-      <c r="BR22" s="96"/>
-      <c r="BS22" s="96"/>
-      <c r="BT22" s="96"/>
-      <c r="BU22" s="96"/>
-      <c r="BV22" s="96"/>
-      <c r="BW22" s="96"/>
-      <c r="BX22" s="96"/>
-      <c r="BY22" s="96"/>
-      <c r="BZ22" s="96"/>
-      <c r="CA22" s="96"/>
-      <c r="CB22" s="96"/>
-      <c r="CC22" s="96"/>
-      <c r="CD22" s="96"/>
-      <c r="CE22" s="96"/>
-      <c r="CF22" s="96"/>
-      <c r="CG22" s="96"/>
-      <c r="CH22" s="96"/>
-      <c r="CI22" s="97"/>
+    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="78"/>
+      <c r="Y22" s="85"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="78"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="88"/>
+      <c r="AS22" s="88"/>
+      <c r="AT22" s="89"/>
+      <c r="AU22" s="76"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+      <c r="AZ22" s="77"/>
+      <c r="BA22" s="77"/>
+      <c r="BB22" s="77"/>
+      <c r="BC22" s="77"/>
+      <c r="BD22" s="78"/>
+      <c r="BE22" s="76"/>
+      <c r="BF22" s="77"/>
+      <c r="BG22" s="77"/>
+      <c r="BH22" s="77"/>
+      <c r="BI22" s="77"/>
+      <c r="BJ22" s="77"/>
+      <c r="BK22" s="77"/>
+      <c r="BL22" s="77"/>
+      <c r="BM22" s="77"/>
+      <c r="BN22" s="77"/>
+      <c r="BO22" s="77"/>
+      <c r="BP22" s="78"/>
+      <c r="BQ22" s="96"/>
+      <c r="BR22" s="97"/>
+      <c r="BS22" s="97"/>
+      <c r="BT22" s="97"/>
+      <c r="BU22" s="97"/>
+      <c r="BV22" s="97"/>
+      <c r="BW22" s="97"/>
+      <c r="BX22" s="97"/>
+      <c r="BY22" s="97"/>
+      <c r="BZ22" s="97"/>
+      <c r="CA22" s="97"/>
+      <c r="CB22" s="97"/>
+      <c r="CC22" s="97"/>
+      <c r="CD22" s="97"/>
+      <c r="CE22" s="97"/>
+      <c r="CF22" s="97"/>
+      <c r="CG22" s="97"/>
+      <c r="CH22" s="97"/>
+      <c r="CI22" s="98"/>
     </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="76"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="75"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="77"/>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="85"/>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="75"/>
-      <c r="AL23" s="76"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="76"/>
-      <c r="AP23" s="76"/>
-      <c r="AQ23" s="76"/>
-      <c r="AR23" s="87"/>
-      <c r="AS23" s="87"/>
-      <c r="AT23" s="88"/>
-      <c r="AU23" s="75"/>
-      <c r="AV23" s="76"/>
-      <c r="AW23" s="76"/>
-      <c r="AX23" s="76"/>
-      <c r="AY23" s="76"/>
-      <c r="AZ23" s="76"/>
-      <c r="BA23" s="76"/>
-      <c r="BB23" s="76"/>
-      <c r="BC23" s="76"/>
-      <c r="BD23" s="77"/>
-      <c r="BE23" s="75"/>
-      <c r="BF23" s="76"/>
-      <c r="BG23" s="76"/>
-      <c r="BH23" s="76"/>
-      <c r="BI23" s="76"/>
-      <c r="BJ23" s="76"/>
-      <c r="BK23" s="76"/>
-      <c r="BL23" s="76"/>
-      <c r="BM23" s="76"/>
-      <c r="BN23" s="76"/>
-      <c r="BO23" s="76"/>
-      <c r="BP23" s="77"/>
-      <c r="BQ23" s="78"/>
-      <c r="BR23" s="79"/>
-      <c r="BS23" s="79"/>
-      <c r="BT23" s="79"/>
-      <c r="BU23" s="79"/>
-      <c r="BV23" s="79"/>
-      <c r="BW23" s="79"/>
-      <c r="BX23" s="79"/>
-      <c r="BY23" s="79"/>
-      <c r="BZ23" s="79"/>
-      <c r="CA23" s="79"/>
-      <c r="CB23" s="79"/>
-      <c r="CC23" s="79"/>
-      <c r="CD23" s="79"/>
-      <c r="CE23" s="79"/>
-      <c r="CF23" s="79"/>
-      <c r="CG23" s="79"/>
-      <c r="CH23" s="79"/>
-      <c r="CI23" s="80"/>
+    <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="78"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="78"/>
+      <c r="AH23" s="85"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="88"/>
+      <c r="AS23" s="88"/>
+      <c r="AT23" s="89"/>
+      <c r="AU23" s="76"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="77"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77"/>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="77"/>
+      <c r="BD23" s="78"/>
+      <c r="BE23" s="76"/>
+      <c r="BF23" s="77"/>
+      <c r="BG23" s="77"/>
+      <c r="BH23" s="77"/>
+      <c r="BI23" s="77"/>
+      <c r="BJ23" s="77"/>
+      <c r="BK23" s="77"/>
+      <c r="BL23" s="77"/>
+      <c r="BM23" s="77"/>
+      <c r="BN23" s="77"/>
+      <c r="BO23" s="77"/>
+      <c r="BP23" s="78"/>
+      <c r="BQ23" s="79"/>
+      <c r="BR23" s="80"/>
+      <c r="BS23" s="80"/>
+      <c r="BT23" s="80"/>
+      <c r="BU23" s="80"/>
+      <c r="BV23" s="80"/>
+      <c r="BW23" s="80"/>
+      <c r="BX23" s="80"/>
+      <c r="BY23" s="80"/>
+      <c r="BZ23" s="80"/>
+      <c r="CA23" s="80"/>
+      <c r="CB23" s="80"/>
+      <c r="CC23" s="80"/>
+      <c r="CD23" s="80"/>
+      <c r="CE23" s="80"/>
+      <c r="CF23" s="80"/>
+      <c r="CG23" s="80"/>
+      <c r="CH23" s="80"/>
+      <c r="CI23" s="81"/>
     </row>
-    <row r="24" spans="2:87" ht="18" customHeight="1">
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="85"/>
-      <c r="AJ24" s="86"/>
-      <c r="AK24" s="75"/>
-      <c r="AL24" s="76"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="76"/>
-      <c r="AQ24" s="76"/>
-      <c r="AR24" s="87"/>
-      <c r="AS24" s="87"/>
-      <c r="AT24" s="88"/>
-      <c r="AU24" s="75"/>
-      <c r="AV24" s="76"/>
-      <c r="AW24" s="76"/>
-      <c r="AX24" s="76"/>
-      <c r="AY24" s="76"/>
-      <c r="AZ24" s="76"/>
-      <c r="BA24" s="76"/>
-      <c r="BB24" s="76"/>
-      <c r="BC24" s="76"/>
-      <c r="BD24" s="77"/>
-      <c r="BE24" s="75"/>
-      <c r="BF24" s="76"/>
-      <c r="BG24" s="76"/>
-      <c r="BH24" s="76"/>
-      <c r="BI24" s="76"/>
-      <c r="BJ24" s="76"/>
-      <c r="BK24" s="76"/>
-      <c r="BL24" s="76"/>
-      <c r="BM24" s="76"/>
-      <c r="BN24" s="76"/>
-      <c r="BO24" s="76"/>
-      <c r="BP24" s="77"/>
-      <c r="BQ24" s="89"/>
-      <c r="BR24" s="90"/>
-      <c r="BS24" s="90"/>
-      <c r="BT24" s="90"/>
-      <c r="BU24" s="90"/>
-      <c r="BV24" s="90"/>
-      <c r="BW24" s="90"/>
-      <c r="BX24" s="90"/>
-      <c r="BY24" s="90"/>
-      <c r="BZ24" s="90"/>
-      <c r="CA24" s="90"/>
-      <c r="CB24" s="90"/>
-      <c r="CC24" s="90"/>
-      <c r="CD24" s="90"/>
-      <c r="CE24" s="90"/>
-      <c r="CF24" s="90"/>
-      <c r="CG24" s="90"/>
-      <c r="CH24" s="90"/>
-      <c r="CI24" s="91"/>
+    <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="85"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="77"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="85"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="77"/>
+      <c r="AM24" s="77"/>
+      <c r="AN24" s="77"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="77"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="88"/>
+      <c r="AS24" s="88"/>
+      <c r="AT24" s="89"/>
+      <c r="AU24" s="76"/>
+      <c r="AV24" s="77"/>
+      <c r="AW24" s="77"/>
+      <c r="AX24" s="77"/>
+      <c r="AY24" s="77"/>
+      <c r="AZ24" s="77"/>
+      <c r="BA24" s="77"/>
+      <c r="BB24" s="77"/>
+      <c r="BC24" s="77"/>
+      <c r="BD24" s="78"/>
+      <c r="BE24" s="76"/>
+      <c r="BF24" s="77"/>
+      <c r="BG24" s="77"/>
+      <c r="BH24" s="77"/>
+      <c r="BI24" s="77"/>
+      <c r="BJ24" s="77"/>
+      <c r="BK24" s="77"/>
+      <c r="BL24" s="77"/>
+      <c r="BM24" s="77"/>
+      <c r="BN24" s="77"/>
+      <c r="BO24" s="77"/>
+      <c r="BP24" s="78"/>
+      <c r="BQ24" s="90"/>
+      <c r="BR24" s="91"/>
+      <c r="BS24" s="91"/>
+      <c r="BT24" s="91"/>
+      <c r="BU24" s="91"/>
+      <c r="BV24" s="91"/>
+      <c r="BW24" s="91"/>
+      <c r="BX24" s="91"/>
+      <c r="BY24" s="91"/>
+      <c r="BZ24" s="91"/>
+      <c r="CA24" s="91"/>
+      <c r="CB24" s="91"/>
+      <c r="CC24" s="91"/>
+      <c r="CD24" s="91"/>
+      <c r="CE24" s="91"/>
+      <c r="CF24" s="91"/>
+      <c r="CG24" s="91"/>
+      <c r="CH24" s="91"/>
+      <c r="CI24" s="92"/>
     </row>
-    <row r="25" spans="2:87" ht="18" customHeight="1">
-      <c r="B25" s="81"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="85"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="76"/>
-      <c r="AF25" s="76"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="77"/>
-      <c r="AK25" s="75"/>
-      <c r="AL25" s="76"/>
-      <c r="AM25" s="76"/>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="76"/>
-      <c r="AP25" s="76"/>
-      <c r="AQ25" s="76"/>
-      <c r="AR25" s="87"/>
-      <c r="AS25" s="87"/>
-      <c r="AT25" s="88"/>
-      <c r="AU25" s="75"/>
-      <c r="AV25" s="76"/>
-      <c r="AW25" s="76"/>
-      <c r="AX25" s="76"/>
-      <c r="AY25" s="76"/>
-      <c r="AZ25" s="76"/>
-      <c r="BA25" s="76"/>
-      <c r="BB25" s="76"/>
-      <c r="BC25" s="76"/>
-      <c r="BD25" s="77"/>
-      <c r="BE25" s="75"/>
-      <c r="BF25" s="76"/>
-      <c r="BG25" s="76"/>
-      <c r="BH25" s="76"/>
-      <c r="BI25" s="76"/>
-      <c r="BJ25" s="76"/>
-      <c r="BK25" s="76"/>
-      <c r="BL25" s="76"/>
-      <c r="BM25" s="76"/>
-      <c r="BN25" s="76"/>
-      <c r="BO25" s="76"/>
-      <c r="BP25" s="77"/>
-      <c r="BQ25" s="78"/>
-      <c r="BR25" s="79"/>
-      <c r="BS25" s="79"/>
-      <c r="BT25" s="79"/>
-      <c r="BU25" s="79"/>
-      <c r="BV25" s="79"/>
-      <c r="BW25" s="79"/>
-      <c r="BX25" s="79"/>
-      <c r="BY25" s="79"/>
-      <c r="BZ25" s="79"/>
-      <c r="CA25" s="79"/>
-      <c r="CB25" s="79"/>
-      <c r="CC25" s="79"/>
-      <c r="CD25" s="79"/>
-      <c r="CE25" s="79"/>
-      <c r="CF25" s="79"/>
-      <c r="CG25" s="79"/>
-      <c r="CH25" s="79"/>
-      <c r="CI25" s="80"/>
+    <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="78"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="77"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="77"/>
+      <c r="AF25" s="77"/>
+      <c r="AG25" s="78"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="77"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="77"/>
+      <c r="AM25" s="77"/>
+      <c r="AN25" s="77"/>
+      <c r="AO25" s="77"/>
+      <c r="AP25" s="77"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="88"/>
+      <c r="AS25" s="88"/>
+      <c r="AT25" s="89"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="77"/>
+      <c r="AW25" s="77"/>
+      <c r="AX25" s="77"/>
+      <c r="AY25" s="77"/>
+      <c r="AZ25" s="77"/>
+      <c r="BA25" s="77"/>
+      <c r="BB25" s="77"/>
+      <c r="BC25" s="77"/>
+      <c r="BD25" s="78"/>
+      <c r="BE25" s="76"/>
+      <c r="BF25" s="77"/>
+      <c r="BG25" s="77"/>
+      <c r="BH25" s="77"/>
+      <c r="BI25" s="77"/>
+      <c r="BJ25" s="77"/>
+      <c r="BK25" s="77"/>
+      <c r="BL25" s="77"/>
+      <c r="BM25" s="77"/>
+      <c r="BN25" s="77"/>
+      <c r="BO25" s="77"/>
+      <c r="BP25" s="78"/>
+      <c r="BQ25" s="79"/>
+      <c r="BR25" s="80"/>
+      <c r="BS25" s="80"/>
+      <c r="BT25" s="80"/>
+      <c r="BU25" s="80"/>
+      <c r="BV25" s="80"/>
+      <c r="BW25" s="80"/>
+      <c r="BX25" s="80"/>
+      <c r="BY25" s="80"/>
+      <c r="BZ25" s="80"/>
+      <c r="CA25" s="80"/>
+      <c r="CB25" s="80"/>
+      <c r="CC25" s="80"/>
+      <c r="CD25" s="80"/>
+      <c r="CE25" s="80"/>
+      <c r="CF25" s="80"/>
+      <c r="CG25" s="80"/>
+      <c r="CH25" s="80"/>
+      <c r="CI25" s="81"/>
     </row>
-    <row r="26" spans="2:87" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="70"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="72"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="71"/>
-      <c r="AJ26" s="72"/>
-      <c r="AK26" s="58"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="73"/>
-      <c r="AS26" s="73"/>
-      <c r="AT26" s="74"/>
-      <c r="AU26" s="58"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="59"/>
-      <c r="AY26" s="59"/>
-      <c r="AZ26" s="59"/>
-      <c r="BA26" s="59"/>
-      <c r="BB26" s="59"/>
-      <c r="BC26" s="59"/>
-      <c r="BD26" s="60"/>
-      <c r="BE26" s="58"/>
-      <c r="BF26" s="59"/>
-      <c r="BG26" s="59"/>
-      <c r="BH26" s="59"/>
-      <c r="BI26" s="59"/>
-      <c r="BJ26" s="59"/>
-      <c r="BK26" s="59"/>
-      <c r="BL26" s="59"/>
-      <c r="BM26" s="59"/>
-      <c r="BN26" s="59"/>
-      <c r="BO26" s="59"/>
-      <c r="BP26" s="60"/>
-      <c r="BQ26" s="61"/>
-      <c r="BR26" s="62"/>
-      <c r="BS26" s="62"/>
-      <c r="BT26" s="62"/>
-      <c r="BU26" s="62"/>
-      <c r="BV26" s="62"/>
-      <c r="BW26" s="62"/>
-      <c r="BX26" s="62"/>
-      <c r="BY26" s="62"/>
-      <c r="BZ26" s="62"/>
-      <c r="CA26" s="62"/>
-      <c r="CB26" s="62"/>
-      <c r="CC26" s="62"/>
-      <c r="CD26" s="62"/>
-      <c r="CE26" s="62"/>
-      <c r="CF26" s="62"/>
-      <c r="CG26" s="62"/>
-      <c r="CH26" s="62"/>
-      <c r="CI26" s="63"/>
+    <row r="26" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="61"/>
+      <c r="AH26" s="71"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="73"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="60"/>
+      <c r="AM26" s="60"/>
+      <c r="AN26" s="60"/>
+      <c r="AO26" s="60"/>
+      <c r="AP26" s="60"/>
+      <c r="AQ26" s="60"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="75"/>
+      <c r="AU26" s="59"/>
+      <c r="AV26" s="60"/>
+      <c r="AW26" s="60"/>
+      <c r="AX26" s="60"/>
+      <c r="AY26" s="60"/>
+      <c r="AZ26" s="60"/>
+      <c r="BA26" s="60"/>
+      <c r="BB26" s="60"/>
+      <c r="BC26" s="60"/>
+      <c r="BD26" s="61"/>
+      <c r="BE26" s="59"/>
+      <c r="BF26" s="60"/>
+      <c r="BG26" s="60"/>
+      <c r="BH26" s="60"/>
+      <c r="BI26" s="60"/>
+      <c r="BJ26" s="60"/>
+      <c r="BK26" s="60"/>
+      <c r="BL26" s="60"/>
+      <c r="BM26" s="60"/>
+      <c r="BN26" s="60"/>
+      <c r="BO26" s="60"/>
+      <c r="BP26" s="61"/>
+      <c r="BQ26" s="62"/>
+      <c r="BR26" s="63"/>
+      <c r="BS26" s="63"/>
+      <c r="BT26" s="63"/>
+      <c r="BU26" s="63"/>
+      <c r="BV26" s="63"/>
+      <c r="BW26" s="63"/>
+      <c r="BX26" s="63"/>
+      <c r="BY26" s="63"/>
+      <c r="BZ26" s="63"/>
+      <c r="CA26" s="63"/>
+      <c r="CB26" s="63"/>
+      <c r="CC26" s="63"/>
+      <c r="CD26" s="63"/>
+      <c r="CE26" s="63"/>
+      <c r="CF26" s="63"/>
+      <c r="CG26" s="63"/>
+      <c r="CH26" s="63"/>
+      <c r="CI26" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="H1:V1"/>
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
@@ -7069,16 +7158,9 @@
     <mergeCell ref="BX2:CA2"/>
     <mergeCell ref="CB2:CI2"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
     <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AB9:AG9"/>
     <mergeCell ref="AH9:AJ9"/>
     <mergeCell ref="AK9:AT9"/>
@@ -7093,19 +7175,7 @@
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="AK8:AT8"/>
     <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
+    <mergeCell ref="BQ8:CI8"/>
     <mergeCell ref="AU10:BD10"/>
     <mergeCell ref="BE10:BP10"/>
     <mergeCell ref="BQ10:CI10"/>
@@ -7115,24 +7185,11 @@
     <mergeCell ref="AB10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU13:BD13"/>
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
     <mergeCell ref="AU14:BD14"/>
     <mergeCell ref="BE14:BP14"/>
     <mergeCell ref="BQ14:CI14"/>
@@ -7142,6 +7199,16 @@
     <mergeCell ref="AB14:AG14"/>
     <mergeCell ref="AH14:AJ14"/>
     <mergeCell ref="AK14:AT14"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU12:BD12"/>
+    <mergeCell ref="AU13:BD13"/>
     <mergeCell ref="AU15:BD15"/>
     <mergeCell ref="BE15:BP15"/>
     <mergeCell ref="BQ15:CI15"/>

--- a/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
+++ b/画面設計書/画面設計書_3_1_試験結果一覧.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a503a00dd146cc3/桌面/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_A17CFB40CC5275C4E84EC006CD6ABAA21B406960" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357DFB26-16CB-4F39-B025-288834387B34}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト" sheetId="1" r:id="rId1"/>
@@ -36,8 +30,8 @@
     <definedName name="Print_Titles_0" localSheetId="1">'(2)入出力項目'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>システム名</t>
   </si>
@@ -215,6 +209,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>文字列</t>
   </si>
   <si>
@@ -271,6 +273,40 @@
     <t>メッセージ欄</t>
   </si>
   <si>
+    <t>試験選択に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト結果一覧</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>データベースのデータを抽出</t>
     <rPh sb="11" eb="13">
       <t>チュウシュツ</t>
@@ -282,7 +318,30 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻りのボタンを押すと試験選択画面に戻ります。</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>シケンセンタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -290,86 +349,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字列</t>
+    <t>user_id   answer_date      score</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｍ_user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">answer_date   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以前試験をしたことがない場合は　メッセージを表示します</t>
+    <t>受験ID　？？ 様の試験結果</t>
     <rPh sb="0" eb="2">
-      <t>イゼン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト結果一覧 --日付と時刻</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト結果一覧 --点数</t>
-    <rPh sb="3" eb="5">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>テンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>解答日時</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>点数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名：？？ 様の試験結果</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
+      <t>ジュケン</t>
     </rPh>
     <rPh sb="8" eb="9">
       <t>サマ</t>
@@ -383,21 +369,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
+    <t>受験ID</t>
+    <rPh sb="0" eb="2">
+      <t>ジュケン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｍ_user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id   </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,7 +1001,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,395 +1081,386 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="TableStyleLight1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="TableStyleLight1" xfId="2"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1502,7 +1495,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200BFE58-E22D-05B0-FBC1-1D182031CFC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{200BFE58-E22D-05B0-FBC1-1D182031CFC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,7 +1557,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2843E478-3DF2-61B8-4E51-CE09B7123CC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2843E478-3DF2-61B8-4E51-CE09B7123CC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,20 +1614,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>6927</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>667789</xdr:colOff>
+      <xdr:colOff>675409</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>188768</xdr:rowOff>
+      <xdr:rowOff>181841</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{86A2F011-73A1-44C6-AF96-CEAEDCCAAA03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,8 +1635,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1087582"/>
-          <a:ext cx="9929553" cy="639041"/>
+          <a:off x="0" y="1143000"/>
+          <a:ext cx="10087841" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1683,80 +1676,6 @@
             <a:t>試験アプリ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>159328</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>429491</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>27709</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03C9347-EE82-7CD2-849E-5FC222CCE722}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8749146" y="1260764"/>
-          <a:ext cx="942109" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1808,7 +1727,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1860,7 +1779,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2054,42 +1973,42 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:24" ht="30.75" thickBot="1">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2111,23 +2030,23 @@
       <c r="W1" s="19"/>
       <c r="X1" s="19"/>
     </row>
-    <row r="2" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:24" ht="19.5" thickBot="1">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="48" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
@@ -2149,29 +2068,29 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
     </row>
-    <row r="3" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:24" ht="19.5" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="29" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
       <c r="S3" s="20"/>
@@ -2181,29 +2100,29 @@
       <c r="W3" s="20"/>
       <c r="X3" s="20"/>
     </row>
-    <row r="4" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:24" ht="19.5" thickBot="1">
       <c r="A4" s="13"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="32" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24">
       <c r="A5" s="7"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -2217,9 +2136,9 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="27"/>
+      <c r="N5" s="151"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24">
       <c r="A6" s="7"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -2233,9 +2152,9 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
-      <c r="N6" s="27"/>
+      <c r="N6" s="151"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24">
       <c r="A7" s="7"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2251,7 +2170,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24">
       <c r="A8" s="7"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2267,7 +2186,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24">
       <c r="A9" s="7"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2283,7 +2202,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24">
       <c r="A10" s="7"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2299,7 +2218,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" ht="19.5" thickBot="1">
       <c r="A11" s="7"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2315,16 +2234,15 @@
       <c r="M11" s="9"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:24" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="19.5" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="E12" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="32"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2333,7 +2251,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:24" ht="19.5" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2349,123 +2267,123 @@
       <c r="M13" s="9"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" ht="19.5" thickBot="1">
       <c r="A14" s="7"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="56"/>
-      <c r="G14" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="56"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="39"/>
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="19.5" thickBot="1">
       <c r="A15" s="7"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="37">
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="40">
         <v>44671.56527777778</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="57">
+      <c r="F15" s="41"/>
+      <c r="G15" s="56">
         <v>60</v>
       </c>
-      <c r="H15" s="58"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="26"/>
       <c r="J15" s="26"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:24" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:24" ht="19.5" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="37">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="40">
         <v>44672.663888888892</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="57">
+      <c r="F16" s="41"/>
+      <c r="G16" s="56">
         <v>70</v>
       </c>
-      <c r="H16" s="58"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:14" ht="19.5" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="37">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="40">
         <v>44673.558333333334</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="57">
+      <c r="F17" s="41"/>
+      <c r="G17" s="56">
         <v>70</v>
       </c>
-      <c r="H17" s="58"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:14" ht="19.5" thickBot="1">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="37">
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="40">
         <v>44676.523611111108</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="57">
+      <c r="F18" s="41"/>
+      <c r="G18" s="56">
         <v>80</v>
       </c>
-      <c r="H18" s="58"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -2481,7 +2399,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2497,7 +2415,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2513,7 +2431,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2529,7 +2447,7 @@
       <c r="M23" s="9"/>
       <c r="N23" s="8"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2545,7 +2463,7 @@
       <c r="M24" s="9"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2561,7 +2479,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2577,7 +2495,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2593,7 +2511,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2609,7 +2527,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2625,7 +2543,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" ht="19.5" thickBot="1">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2641,7 +2559,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2657,7 +2575,7 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2673,7 +2591,7 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2689,7 +2607,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2705,7 +2623,7 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2721,7 +2639,7 @@
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2748,20 +2666,21 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="F2:J2"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="K17:M17"/>
     <mergeCell ref="K18:M18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="E16:F16"/>
@@ -2775,7 +2694,6 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="I4:N4"/>
-    <mergeCell ref="E12:G12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2785,121 +2703,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:X14"/>
+      <selection activeCell="BQ14" sqref="BQ14:CI14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" style="15"/>
+    <col min="1" max="1" width="8.125" style="15"/>
     <col min="2" max="87" width="1.5" style="15" customWidth="1"/>
-    <col min="88" max="1025" width="8.09765625" style="15"/>
-    <col min="1026" max="16384" width="8.09765625" style="14"/>
+    <col min="88" max="1025" width="8.125" style="15"/>
+    <col min="1026" max="16384" width="8.125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1024" ht="18" customHeight="1">
       <c r="A1" s="14"/>
-      <c r="B1" s="143" t="s">
+      <c r="B1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="125" t="s">
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="126" t="s">
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="126"/>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="126"/>
-      <c r="AC1" s="126"/>
-      <c r="AD1" s="126"/>
-      <c r="AE1" s="126"/>
-      <c r="AF1" s="126"/>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="126"/>
-      <c r="AI1" s="126"/>
-      <c r="AJ1" s="126"/>
-      <c r="AK1" s="126"/>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="126"/>
-      <c r="AO1" s="126"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="126"/>
-      <c r="AT1" s="126"/>
-      <c r="AU1" s="126"/>
-      <c r="AV1" s="126"/>
-      <c r="AW1" s="126"/>
-      <c r="AX1" s="126"/>
-      <c r="AY1" s="126"/>
-      <c r="AZ1" s="126"/>
-      <c r="BA1" s="126"/>
-      <c r="BB1" s="126"/>
-      <c r="BC1" s="126"/>
-      <c r="BD1" s="126"/>
-      <c r="BE1" s="126"/>
-      <c r="BF1" s="126"/>
-      <c r="BG1" s="126"/>
-      <c r="BH1" s="126"/>
-      <c r="BI1" s="126"/>
-      <c r="BJ1" s="126"/>
-      <c r="BK1" s="126"/>
-      <c r="BL1" s="127" t="s">
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="124"/>
+      <c r="AF1" s="124"/>
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="124"/>
+      <c r="AK1" s="124"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="124"/>
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="124"/>
+      <c r="AZ1" s="124"/>
+      <c r="BA1" s="124"/>
+      <c r="BB1" s="124"/>
+      <c r="BC1" s="124"/>
+      <c r="BD1" s="124"/>
+      <c r="BE1" s="124"/>
+      <c r="BF1" s="124"/>
+      <c r="BG1" s="124"/>
+      <c r="BH1" s="124"/>
+      <c r="BI1" s="124"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="124"/>
+      <c r="BL1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="BM1" s="127"/>
-      <c r="BN1" s="127"/>
-      <c r="BO1" s="127"/>
-      <c r="BP1" s="128" t="s">
+      <c r="BM1" s="125"/>
+      <c r="BN1" s="125"/>
+      <c r="BO1" s="125"/>
+      <c r="BP1" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="BQ1" s="128"/>
-      <c r="BR1" s="128"/>
-      <c r="BS1" s="128"/>
-      <c r="BT1" s="128"/>
-      <c r="BU1" s="128"/>
-      <c r="BV1" s="128"/>
-      <c r="BW1" s="128"/>
-      <c r="BX1" s="134" t="s">
+      <c r="BQ1" s="126"/>
+      <c r="BR1" s="126"/>
+      <c r="BS1" s="126"/>
+      <c r="BT1" s="126"/>
+      <c r="BU1" s="126"/>
+      <c r="BV1" s="126"/>
+      <c r="BW1" s="126"/>
+      <c r="BX1" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="BY1" s="134"/>
-      <c r="BZ1" s="134"/>
-      <c r="CA1" s="134"/>
-      <c r="CB1" s="135"/>
-      <c r="CC1" s="135"/>
-      <c r="CD1" s="135"/>
-      <c r="CE1" s="135"/>
-      <c r="CF1" s="135"/>
-      <c r="CG1" s="135"/>
-      <c r="CH1" s="135"/>
-      <c r="CI1" s="135"/>
+      <c r="BY1" s="132"/>
+      <c r="BZ1" s="132"/>
+      <c r="CA1" s="132"/>
+      <c r="CB1" s="133"/>
+      <c r="CC1" s="133"/>
+      <c r="CD1" s="133"/>
+      <c r="CE1" s="133"/>
+      <c r="CF1" s="133"/>
+      <c r="CG1" s="133"/>
+      <c r="CH1" s="133"/>
+      <c r="CI1" s="133"/>
       <c r="CJ1" s="14"/>
       <c r="CK1" s="14"/>
       <c r="CL1" s="14"/>
@@ -3838,106 +3756,106 @@
       <c r="AMI1" s="14"/>
       <c r="AMJ1" s="14"/>
     </row>
-    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="137" t="s">
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="138" t="s">
-        <v>43</v>
-      </c>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="138"/>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="138"/>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BG2" s="138"/>
-      <c r="BH2" s="138"/>
-      <c r="BI2" s="138"/>
-      <c r="BJ2" s="138"/>
-      <c r="BK2" s="138"/>
-      <c r="BL2" s="139" t="s">
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="BM2" s="139"/>
-      <c r="BN2" s="139"/>
-      <c r="BO2" s="139"/>
-      <c r="BP2" s="140">
+      <c r="BM2" s="137"/>
+      <c r="BN2" s="137"/>
+      <c r="BO2" s="137"/>
+      <c r="BP2" s="138">
         <v>44690</v>
       </c>
-      <c r="BQ2" s="140"/>
-      <c r="BR2" s="140"/>
-      <c r="BS2" s="140"/>
-      <c r="BT2" s="140"/>
-      <c r="BU2" s="140"/>
-      <c r="BV2" s="140"/>
-      <c r="BW2" s="140"/>
-      <c r="BX2" s="141" t="s">
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="138"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="BY2" s="141"/>
-      <c r="BZ2" s="141"/>
-      <c r="CA2" s="141"/>
-      <c r="CB2" s="142"/>
-      <c r="CC2" s="142"/>
-      <c r="CD2" s="142"/>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
-      <c r="CG2" s="142"/>
-      <c r="CH2" s="142"/>
-      <c r="CI2" s="142"/>
+      <c r="BY2" s="139"/>
+      <c r="BZ2" s="139"/>
+      <c r="CA2" s="139"/>
+      <c r="CB2" s="140"/>
+      <c r="CC2" s="140"/>
+      <c r="CD2" s="140"/>
+      <c r="CE2" s="140"/>
+      <c r="CF2" s="140"/>
+      <c r="CG2" s="140"/>
+      <c r="CH2" s="140"/>
+      <c r="CI2" s="140"/>
       <c r="CJ2" s="14"/>
       <c r="CK2" s="14"/>
       <c r="CL2" s="14"/>
@@ -4876,7 +4794,7 @@
       <c r="AMI2" s="14"/>
       <c r="AMJ2" s="14"/>
     </row>
-    <row r="3" spans="1:1024" s="15" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:1024" s="15" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -4964,2180 +4882,2173 @@
       <c r="CH3" s="16"/>
       <c r="CI3" s="16"/>
     </row>
-    <row r="4" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="149" t="s">
+    <row r="4" spans="1:1024" ht="18" customHeight="1">
+      <c r="B4" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="144" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144" t="s">
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
-      <c r="AQ4" s="144"/>
-      <c r="AR4" s="144"/>
-      <c r="AS4" s="145" t="s">
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
+      <c r="AK4" s="121"/>
+      <c r="AL4" s="121"/>
+      <c r="AM4" s="121"/>
+      <c r="AN4" s="121"/>
+      <c r="AO4" s="121"/>
+      <c r="AP4" s="121"/>
+      <c r="AQ4" s="121"/>
+      <c r="AR4" s="121"/>
+      <c r="AS4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="AT4" s="145"/>
-      <c r="AU4" s="145"/>
-      <c r="AV4" s="145"/>
-      <c r="AW4" s="145"/>
-      <c r="AX4" s="145"/>
-      <c r="AY4" s="145"/>
-      <c r="AZ4" s="145"/>
-      <c r="BA4" s="145"/>
-      <c r="BB4" s="145"/>
-      <c r="BC4" s="145"/>
-      <c r="BD4" s="145"/>
-      <c r="BE4" s="145"/>
-      <c r="BF4" s="145"/>
-      <c r="BG4" s="145"/>
-      <c r="BH4" s="145"/>
-      <c r="BI4" s="145"/>
-      <c r="BJ4" s="145"/>
-      <c r="BK4" s="145"/>
-      <c r="BL4" s="145"/>
-      <c r="BM4" s="145"/>
-      <c r="BN4" s="145"/>
-      <c r="BO4" s="145"/>
-      <c r="BP4" s="145"/>
-      <c r="BQ4" s="145"/>
-      <c r="BR4" s="145"/>
-      <c r="BS4" s="145"/>
-      <c r="BT4" s="145"/>
-      <c r="BU4" s="145"/>
-      <c r="BV4" s="145"/>
-      <c r="BW4" s="145"/>
-      <c r="BX4" s="145"/>
-      <c r="BY4" s="145"/>
-      <c r="BZ4" s="145"/>
-      <c r="CA4" s="145"/>
-      <c r="CB4" s="145"/>
-      <c r="CC4" s="145"/>
-      <c r="CD4" s="145"/>
-      <c r="CE4" s="145"/>
-      <c r="CF4" s="145"/>
-      <c r="CG4" s="145"/>
-      <c r="CH4" s="145"/>
-      <c r="CI4" s="145"/>
+      <c r="AT4" s="122"/>
+      <c r="AU4" s="122"/>
+      <c r="AV4" s="122"/>
+      <c r="AW4" s="122"/>
+      <c r="AX4" s="122"/>
+      <c r="AY4" s="122"/>
+      <c r="AZ4" s="122"/>
+      <c r="BA4" s="122"/>
+      <c r="BB4" s="122"/>
+      <c r="BC4" s="122"/>
+      <c r="BD4" s="122"/>
+      <c r="BE4" s="122"/>
+      <c r="BF4" s="122"/>
+      <c r="BG4" s="122"/>
+      <c r="BH4" s="122"/>
+      <c r="BI4" s="122"/>
+      <c r="BJ4" s="122"/>
+      <c r="BK4" s="122"/>
+      <c r="BL4" s="122"/>
+      <c r="BM4" s="122"/>
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="122"/>
+      <c r="BP4" s="122"/>
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="122"/>
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="122"/>
+      <c r="BU4" s="122"/>
+      <c r="BV4" s="122"/>
+      <c r="BW4" s="122"/>
+      <c r="BX4" s="122"/>
+      <c r="BY4" s="122"/>
+      <c r="BZ4" s="122"/>
+      <c r="CA4" s="122"/>
+      <c r="CB4" s="122"/>
+      <c r="CC4" s="122"/>
+      <c r="CD4" s="122"/>
+      <c r="CE4" s="122"/>
+      <c r="CF4" s="122"/>
+      <c r="CG4" s="122"/>
+      <c r="CH4" s="122"/>
+      <c r="CI4" s="122"/>
     </row>
-    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="150">
+    <row r="5" spans="1:1024" ht="18" customHeight="1" thickBot="1">
+      <c r="B5" s="143">
         <v>1</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="151"/>
-      <c r="W5" s="151"/>
-      <c r="X5" s="151"/>
-      <c r="Y5" s="151" t="s">
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="Z5" s="151"/>
-      <c r="AA5" s="151"/>
-      <c r="AB5" s="151"/>
-      <c r="AC5" s="151"/>
-      <c r="AD5" s="151"/>
-      <c r="AE5" s="151"/>
-      <c r="AF5" s="151"/>
-      <c r="AG5" s="151"/>
-      <c r="AH5" s="151"/>
-      <c r="AI5" s="151"/>
-      <c r="AJ5" s="151"/>
-      <c r="AK5" s="151"/>
-      <c r="AL5" s="151"/>
-      <c r="AM5" s="151"/>
-      <c r="AN5" s="151"/>
-      <c r="AO5" s="151"/>
-      <c r="AP5" s="151"/>
-      <c r="AQ5" s="151"/>
-      <c r="AR5" s="151"/>
-      <c r="AS5" s="122" t="s">
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144"/>
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="144"/>
+      <c r="AG5" s="144"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="144"/>
+      <c r="AJ5" s="144"/>
+      <c r="AK5" s="144"/>
+      <c r="AL5" s="144"/>
+      <c r="AM5" s="144"/>
+      <c r="AN5" s="144"/>
+      <c r="AO5" s="144"/>
+      <c r="AP5" s="144"/>
+      <c r="AQ5" s="144"/>
+      <c r="AR5" s="144"/>
+      <c r="AS5" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="122"/>
-      <c r="AU5" s="122"/>
-      <c r="AV5" s="122"/>
-      <c r="AW5" s="122"/>
-      <c r="AX5" s="122"/>
-      <c r="AY5" s="122"/>
-      <c r="AZ5" s="122"/>
-      <c r="BA5" s="122"/>
-      <c r="BB5" s="122"/>
-      <c r="BC5" s="122"/>
-      <c r="BD5" s="122"/>
-      <c r="BE5" s="122"/>
-      <c r="BF5" s="122"/>
-      <c r="BG5" s="122"/>
-      <c r="BH5" s="122"/>
-      <c r="BI5" s="122"/>
-      <c r="BJ5" s="122"/>
-      <c r="BK5" s="122"/>
-      <c r="BL5" s="122"/>
-      <c r="BM5" s="122"/>
-      <c r="BN5" s="122"/>
-      <c r="BO5" s="122"/>
-      <c r="BP5" s="122"/>
-      <c r="BQ5" s="122"/>
-      <c r="BR5" s="122"/>
-      <c r="BS5" s="122"/>
-      <c r="BT5" s="122"/>
-      <c r="BU5" s="122"/>
-      <c r="BV5" s="122"/>
-      <c r="BW5" s="122"/>
-      <c r="BX5" s="122"/>
-      <c r="BY5" s="122"/>
-      <c r="BZ5" s="122"/>
-      <c r="CA5" s="122"/>
-      <c r="CB5" s="122"/>
-      <c r="CC5" s="122"/>
-      <c r="CD5" s="122"/>
-      <c r="CE5" s="122"/>
-      <c r="CF5" s="122"/>
-      <c r="CG5" s="122"/>
-      <c r="CH5" s="122"/>
-      <c r="CI5" s="122"/>
+      <c r="AT5" s="145"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="145"/>
+      <c r="AW5" s="145"/>
+      <c r="AX5" s="145"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="145"/>
+      <c r="BA5" s="145"/>
+      <c r="BB5" s="145"/>
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="145"/>
+      <c r="BE5" s="145"/>
+      <c r="BF5" s="145"/>
+      <c r="BG5" s="145"/>
+      <c r="BH5" s="145"/>
+      <c r="BI5" s="145"/>
+      <c r="BJ5" s="145"/>
+      <c r="BK5" s="145"/>
+      <c r="BL5" s="145"/>
+      <c r="BM5" s="145"/>
+      <c r="BN5" s="145"/>
+      <c r="BO5" s="145"/>
+      <c r="BP5" s="145"/>
+      <c r="BQ5" s="145"/>
+      <c r="BR5" s="145"/>
+      <c r="BS5" s="145"/>
+      <c r="BT5" s="145"/>
+      <c r="BU5" s="145"/>
+      <c r="BV5" s="145"/>
+      <c r="BW5" s="145"/>
+      <c r="BX5" s="145"/>
+      <c r="BY5" s="145"/>
+      <c r="BZ5" s="145"/>
+      <c r="CA5" s="145"/>
+      <c r="CB5" s="145"/>
+      <c r="CC5" s="145"/>
+      <c r="CD5" s="145"/>
+      <c r="CE5" s="145"/>
+      <c r="CF5" s="145"/>
+      <c r="CG5" s="145"/>
+      <c r="CH5" s="145"/>
+      <c r="CI5" s="145"/>
     </row>
-    <row r="6" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="129" t="s">
+    <row r="6" spans="1:1024" ht="18" customHeight="1">
+      <c r="B6" s="127" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="127"/>
+      <c r="AJ6" s="127"/>
+      <c r="AK6" s="127"/>
+      <c r="AL6" s="127"/>
+      <c r="AM6" s="127"/>
+      <c r="AN6" s="127"/>
+      <c r="AO6" s="127"/>
+      <c r="AP6" s="127"/>
+      <c r="AQ6" s="127"/>
+      <c r="AR6" s="127"/>
+      <c r="AS6" s="127"/>
+      <c r="AT6" s="127"/>
+      <c r="AU6" s="127"/>
+      <c r="AV6" s="127"/>
+      <c r="AW6" s="127"/>
+      <c r="AX6" s="127"/>
+      <c r="AY6" s="127"/>
+      <c r="AZ6" s="127"/>
+      <c r="BA6" s="127"/>
+      <c r="BB6" s="127"/>
+      <c r="BC6" s="127"/>
+      <c r="BD6" s="127"/>
+      <c r="BE6" s="127"/>
+      <c r="BF6" s="127"/>
+      <c r="BG6" s="127"/>
+      <c r="BH6" s="127"/>
+      <c r="BI6" s="127"/>
+      <c r="BJ6" s="127"/>
+      <c r="BK6" s="127"/>
+      <c r="BL6" s="127"/>
+      <c r="BM6" s="127"/>
+      <c r="BN6" s="127"/>
+      <c r="BO6" s="127"/>
+      <c r="BP6" s="127"/>
+      <c r="BQ6" s="127"/>
+      <c r="BR6" s="127"/>
+      <c r="BS6" s="127"/>
+      <c r="BT6" s="127"/>
+      <c r="BU6" s="127"/>
+      <c r="BV6" s="127"/>
+      <c r="BW6" s="127"/>
+      <c r="BX6" s="127"/>
+      <c r="BY6" s="127"/>
+      <c r="BZ6" s="127"/>
+      <c r="CA6" s="127"/>
+      <c r="CB6" s="127"/>
+      <c r="CC6" s="127"/>
+      <c r="CD6" s="127"/>
+      <c r="CE6" s="127"/>
+      <c r="CF6" s="127"/>
+      <c r="CG6" s="127"/>
+      <c r="CH6" s="127"/>
+      <c r="CI6" s="127"/>
+    </row>
+    <row r="7" spans="1:1024" ht="18" customHeight="1">
+      <c r="B7" s="128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="131"/>
+      <c r="Y7" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="129"/>
-      <c r="AH6" s="129"/>
-      <c r="AI6" s="129"/>
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="129"/>
-      <c r="AL6" s="129"/>
-      <c r="AM6" s="129"/>
-      <c r="AN6" s="129"/>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="129"/>
-      <c r="AQ6" s="129"/>
-      <c r="AR6" s="129"/>
-      <c r="AS6" s="129"/>
-      <c r="AT6" s="129"/>
-      <c r="AU6" s="129"/>
-      <c r="AV6" s="129"/>
-      <c r="AW6" s="129"/>
-      <c r="AX6" s="129"/>
-      <c r="AY6" s="129"/>
-      <c r="AZ6" s="129"/>
-      <c r="BA6" s="129"/>
-      <c r="BB6" s="129"/>
-      <c r="BC6" s="129"/>
-      <c r="BD6" s="129"/>
-      <c r="BE6" s="129"/>
-      <c r="BF6" s="129"/>
-      <c r="BG6" s="129"/>
-      <c r="BH6" s="129"/>
-      <c r="BI6" s="129"/>
-      <c r="BJ6" s="129"/>
-      <c r="BK6" s="129"/>
-      <c r="BL6" s="129"/>
-      <c r="BM6" s="129"/>
-      <c r="BN6" s="129"/>
-      <c r="BO6" s="129"/>
-      <c r="BP6" s="129"/>
-      <c r="BQ6" s="129"/>
-      <c r="BR6" s="129"/>
-      <c r="BS6" s="129"/>
-      <c r="BT6" s="129"/>
-      <c r="BU6" s="129"/>
-      <c r="BV6" s="129"/>
-      <c r="BW6" s="129"/>
-      <c r="BX6" s="129"/>
-      <c r="BY6" s="129"/>
-      <c r="BZ6" s="129"/>
-      <c r="CA6" s="129"/>
-      <c r="CB6" s="129"/>
-      <c r="CC6" s="129"/>
-      <c r="CD6" s="129"/>
-      <c r="CE6" s="129"/>
-      <c r="CF6" s="129"/>
-      <c r="CG6" s="129"/>
-      <c r="CH6" s="129"/>
-      <c r="CI6" s="129"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="131"/>
+      <c r="AB7" s="129" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="131"/>
+      <c r="AH7" s="129" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="130"/>
+      <c r="AN7" s="130"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="130"/>
+      <c r="AR7" s="148"/>
+      <c r="AS7" s="148"/>
+      <c r="AT7" s="149"/>
+      <c r="AU7" s="146" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV7" s="146"/>
+      <c r="AW7" s="146"/>
+      <c r="AX7" s="146"/>
+      <c r="AY7" s="146"/>
+      <c r="AZ7" s="146"/>
+      <c r="BA7" s="146"/>
+      <c r="BB7" s="146"/>
+      <c r="BC7" s="146"/>
+      <c r="BD7" s="146"/>
+      <c r="BE7" s="146"/>
+      <c r="BF7" s="146"/>
+      <c r="BG7" s="146"/>
+      <c r="BH7" s="146"/>
+      <c r="BI7" s="146"/>
+      <c r="BJ7" s="146"/>
+      <c r="BK7" s="146"/>
+      <c r="BL7" s="146"/>
+      <c r="BM7" s="146"/>
+      <c r="BN7" s="146"/>
+      <c r="BO7" s="146"/>
+      <c r="BP7" s="146"/>
+      <c r="BQ7" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR7" s="147"/>
+      <c r="BS7" s="147"/>
+      <c r="BT7" s="147"/>
+      <c r="BU7" s="147"/>
+      <c r="BV7" s="147"/>
+      <c r="BW7" s="147"/>
+      <c r="BX7" s="147"/>
+      <c r="BY7" s="147"/>
+      <c r="BZ7" s="147"/>
+      <c r="CA7" s="147"/>
+      <c r="CB7" s="147"/>
+      <c r="CC7" s="147"/>
+      <c r="CD7" s="147"/>
+      <c r="CE7" s="147"/>
+      <c r="CF7" s="147"/>
+      <c r="CG7" s="147"/>
+      <c r="CH7" s="147"/>
+      <c r="CI7" s="147"/>
     </row>
-    <row r="7" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="131" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="132"/>
-      <c r="R7" s="132"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="132"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="133"/>
-      <c r="AB7" s="131" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7" s="132"/>
-      <c r="AD7" s="132"/>
-      <c r="AE7" s="132"/>
-      <c r="AF7" s="132"/>
-      <c r="AG7" s="133"/>
-      <c r="AH7" s="131" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI7" s="132"/>
-      <c r="AJ7" s="133"/>
-      <c r="AK7" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL7" s="132"/>
-      <c r="AM7" s="132"/>
-      <c r="AN7" s="132"/>
-      <c r="AO7" s="132"/>
-      <c r="AP7" s="132"/>
-      <c r="AQ7" s="132"/>
-      <c r="AR7" s="153"/>
-      <c r="AS7" s="153"/>
-      <c r="AT7" s="154"/>
-      <c r="AU7" s="123" t="s">
+    <row r="8" spans="1:1024" ht="18" customHeight="1">
+      <c r="B8" s="98">
+        <f t="shared" ref="B8:B15" si="0">ROW(B8)-7</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="AV7" s="123"/>
-      <c r="AW7" s="123"/>
-      <c r="AX7" s="123"/>
-      <c r="AY7" s="123"/>
-      <c r="AZ7" s="123"/>
-      <c r="BA7" s="123"/>
-      <c r="BB7" s="123"/>
-      <c r="BC7" s="123"/>
-      <c r="BD7" s="123"/>
-      <c r="BE7" s="123"/>
-      <c r="BF7" s="123"/>
-      <c r="BG7" s="123"/>
-      <c r="BH7" s="123"/>
-      <c r="BI7" s="123"/>
-      <c r="BJ7" s="123"/>
-      <c r="BK7" s="123"/>
-      <c r="BL7" s="123"/>
-      <c r="BM7" s="123"/>
-      <c r="BN7" s="123"/>
-      <c r="BO7" s="123"/>
-      <c r="BP7" s="123"/>
-      <c r="BQ7" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="BR7" s="152"/>
-      <c r="BS7" s="152"/>
-      <c r="BT7" s="152"/>
-      <c r="BU7" s="152"/>
-      <c r="BV7" s="152"/>
-      <c r="BW7" s="152"/>
-      <c r="BX7" s="152"/>
-      <c r="BY7" s="152"/>
-      <c r="BZ7" s="152"/>
-      <c r="CA7" s="152"/>
-      <c r="CB7" s="152"/>
-      <c r="CC7" s="152"/>
-      <c r="CD7" s="152"/>
-      <c r="CE7" s="152"/>
-      <c r="CF7" s="152"/>
-      <c r="CG7" s="152"/>
-      <c r="CH7" s="152"/>
-      <c r="CI7" s="152"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
+      <c r="AJ8" s="118"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="114"/>
+      <c r="AM8" s="114"/>
+      <c r="AN8" s="114"/>
+      <c r="AO8" s="114"/>
+      <c r="AP8" s="114"/>
+      <c r="AQ8" s="114"/>
+      <c r="AR8" s="119"/>
+      <c r="AS8" s="119"/>
+      <c r="AT8" s="120"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="111"/>
+      <c r="BA8" s="111"/>
+      <c r="BB8" s="111"/>
+      <c r="BC8" s="111"/>
+      <c r="BD8" s="111"/>
+      <c r="BE8" s="111"/>
+      <c r="BF8" s="111"/>
+      <c r="BG8" s="111"/>
+      <c r="BH8" s="111"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="111"/>
+      <c r="BK8" s="111"/>
+      <c r="BL8" s="111"/>
+      <c r="BM8" s="111"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="111"/>
+      <c r="BP8" s="111"/>
+      <c r="BQ8" s="150"/>
+      <c r="BR8" s="150"/>
+      <c r="BS8" s="150"/>
+      <c r="BT8" s="150"/>
+      <c r="BU8" s="150"/>
+      <c r="BV8" s="150"/>
+      <c r="BW8" s="150"/>
+      <c r="BX8" s="150"/>
+      <c r="BY8" s="150"/>
+      <c r="BZ8" s="150"/>
+      <c r="CA8" s="150"/>
+      <c r="CB8" s="150"/>
+      <c r="CC8" s="150"/>
+      <c r="CD8" s="150"/>
+      <c r="CE8" s="150"/>
+      <c r="CF8" s="150"/>
+      <c r="CG8" s="150"/>
+      <c r="CH8" s="150"/>
+      <c r="CI8" s="150"/>
     </row>
-    <row r="8" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="99">
-        <f t="shared" ref="B8:B14" si="0">ROW(B8)-7</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="116"/>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="116"/>
-      <c r="AJ8" s="117"/>
-      <c r="AK8" s="112"/>
-      <c r="AL8" s="113"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="113"/>
-      <c r="AO8" s="113"/>
-      <c r="AP8" s="113"/>
-      <c r="AQ8" s="113"/>
-      <c r="AR8" s="118"/>
-      <c r="AS8" s="118"/>
-      <c r="AT8" s="119"/>
-      <c r="AU8" s="110"/>
-      <c r="AV8" s="110"/>
-      <c r="AW8" s="110"/>
-      <c r="AX8" s="110"/>
-      <c r="AY8" s="110"/>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="110"/>
-      <c r="BB8" s="110"/>
-      <c r="BC8" s="110"/>
-      <c r="BD8" s="110"/>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="110"/>
-      <c r="BG8" s="110"/>
-      <c r="BH8" s="110"/>
-      <c r="BI8" s="110"/>
-      <c r="BJ8" s="110"/>
-      <c r="BK8" s="110"/>
-      <c r="BL8" s="110"/>
-      <c r="BM8" s="110"/>
-      <c r="BN8" s="110"/>
-      <c r="BO8" s="110"/>
-      <c r="BP8" s="110"/>
-      <c r="BQ8" s="124"/>
-      <c r="BR8" s="124"/>
-      <c r="BS8" s="124"/>
-      <c r="BT8" s="124"/>
-      <c r="BU8" s="124"/>
-      <c r="BV8" s="124"/>
-      <c r="BW8" s="124"/>
-      <c r="BX8" s="124"/>
-      <c r="BY8" s="124"/>
-      <c r="BZ8" s="124"/>
-      <c r="CA8" s="124"/>
-      <c r="CB8" s="124"/>
-      <c r="CC8" s="124"/>
-      <c r="CD8" s="124"/>
-      <c r="CE8" s="124"/>
-      <c r="CF8" s="124"/>
-      <c r="CG8" s="124"/>
-      <c r="CH8" s="124"/>
-      <c r="CI8" s="124"/>
-    </row>
-    <row r="9" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="99">
+    <row r="9" spans="1:1024" ht="18" customHeight="1">
+      <c r="B9" s="98">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="102" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="93"/>
+      <c r="N9" s="93"/>
+      <c r="O9" s="93"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="103"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI9" s="103"/>
-      <c r="AJ9" s="104"/>
-      <c r="AK9" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL9" s="94"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="94"/>
-      <c r="AO9" s="94"/>
-      <c r="AP9" s="94"/>
-      <c r="AQ9" s="94"/>
-      <c r="AR9" s="88"/>
-      <c r="AS9" s="88"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV9" s="108"/>
-      <c r="AW9" s="108"/>
-      <c r="AX9" s="108"/>
-      <c r="AY9" s="108"/>
-      <c r="AZ9" s="108"/>
-      <c r="BA9" s="108"/>
-      <c r="BB9" s="108"/>
-      <c r="BC9" s="108"/>
-      <c r="BD9" s="108"/>
-      <c r="BE9" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF9" s="108"/>
-      <c r="BG9" s="108"/>
-      <c r="BH9" s="108"/>
-      <c r="BI9" s="108"/>
-      <c r="BJ9" s="108"/>
-      <c r="BK9" s="108"/>
-      <c r="BL9" s="108"/>
-      <c r="BM9" s="108"/>
-      <c r="BN9" s="108"/>
-      <c r="BO9" s="108"/>
-      <c r="BP9" s="108"/>
-      <c r="BQ9" s="109"/>
-      <c r="BR9" s="109"/>
-      <c r="BS9" s="109"/>
-      <c r="BT9" s="109"/>
-      <c r="BU9" s="109"/>
-      <c r="BV9" s="109"/>
-      <c r="BW9" s="109"/>
-      <c r="BX9" s="109"/>
-      <c r="BY9" s="109"/>
-      <c r="BZ9" s="109"/>
-      <c r="CA9" s="109"/>
-      <c r="CB9" s="109"/>
-      <c r="CC9" s="109"/>
-      <c r="CD9" s="109"/>
-      <c r="CE9" s="109"/>
-      <c r="CF9" s="109"/>
-      <c r="CG9" s="109"/>
-      <c r="CH9" s="109"/>
-      <c r="CI9" s="109"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93"/>
+      <c r="AN9" s="93"/>
+      <c r="AO9" s="93"/>
+      <c r="AP9" s="93"/>
+      <c r="AQ9" s="93"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="88"/>
+      <c r="AU9" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="107"/>
+      <c r="BA9" s="107"/>
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="107" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF9" s="107"/>
+      <c r="BG9" s="107"/>
+      <c r="BH9" s="107"/>
+      <c r="BI9" s="107"/>
+      <c r="BJ9" s="107"/>
+      <c r="BK9" s="107"/>
+      <c r="BL9" s="107"/>
+      <c r="BM9" s="107"/>
+      <c r="BN9" s="107"/>
+      <c r="BO9" s="107"/>
+      <c r="BP9" s="107"/>
+      <c r="BQ9" s="108"/>
+      <c r="BR9" s="108"/>
+      <c r="BS9" s="108"/>
+      <c r="BT9" s="108"/>
+      <c r="BU9" s="108"/>
+      <c r="BV9" s="108"/>
+      <c r="BW9" s="108"/>
+      <c r="BX9" s="108"/>
+      <c r="BY9" s="108"/>
+      <c r="BZ9" s="108"/>
+      <c r="CA9" s="108"/>
+      <c r="CB9" s="108"/>
+      <c r="CC9" s="108"/>
+      <c r="CD9" s="108"/>
+      <c r="CE9" s="108"/>
+      <c r="CF9" s="108"/>
+      <c r="CG9" s="108"/>
+      <c r="CH9" s="108"/>
+      <c r="CI9" s="108"/>
     </row>
-    <row r="10" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="99">
+    <row r="10" spans="1:1024" ht="18" customHeight="1">
+      <c r="B10" s="98">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="112" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="116"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="115"/>
-      <c r="AI10" s="116"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="112"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="118"/>
-      <c r="AS10" s="118"/>
-      <c r="AT10" s="119"/>
-      <c r="AU10" s="110"/>
-      <c r="AV10" s="110"/>
-      <c r="AW10" s="110"/>
-      <c r="AX10" s="110"/>
-      <c r="AY10" s="110"/>
-      <c r="AZ10" s="110"/>
-      <c r="BA10" s="110"/>
-      <c r="BB10" s="110"/>
-      <c r="BC10" s="110"/>
-      <c r="BD10" s="110"/>
-      <c r="BE10" s="110"/>
-      <c r="BF10" s="110"/>
-      <c r="BG10" s="110"/>
-      <c r="BH10" s="110"/>
-      <c r="BI10" s="110"/>
-      <c r="BJ10" s="110"/>
-      <c r="BK10" s="110"/>
-      <c r="BL10" s="110"/>
-      <c r="BM10" s="110"/>
-      <c r="BN10" s="110"/>
-      <c r="BO10" s="110"/>
-      <c r="BP10" s="110"/>
-      <c r="BQ10" s="111"/>
-      <c r="BR10" s="111"/>
-      <c r="BS10" s="111"/>
-      <c r="BT10" s="111"/>
-      <c r="BU10" s="111"/>
-      <c r="BV10" s="111"/>
-      <c r="BW10" s="111"/>
-      <c r="BX10" s="111"/>
-      <c r="BY10" s="111"/>
-      <c r="BZ10" s="111"/>
-      <c r="CA10" s="111"/>
-      <c r="CB10" s="111"/>
-      <c r="CC10" s="111"/>
-      <c r="CD10" s="111"/>
-      <c r="CE10" s="111"/>
-      <c r="CF10" s="111"/>
-      <c r="CG10" s="111"/>
-      <c r="CH10" s="111"/>
-      <c r="CI10" s="111"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="117"/>
+      <c r="AJ10" s="118"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="114"/>
+      <c r="AN10" s="114"/>
+      <c r="AO10" s="114"/>
+      <c r="AP10" s="114"/>
+      <c r="AQ10" s="114"/>
+      <c r="AR10" s="119"/>
+      <c r="AS10" s="119"/>
+      <c r="AT10" s="120"/>
+      <c r="AU10" s="111"/>
+      <c r="AV10" s="111"/>
+      <c r="AW10" s="111"/>
+      <c r="AX10" s="111"/>
+      <c r="AY10" s="111"/>
+      <c r="AZ10" s="111"/>
+      <c r="BA10" s="111"/>
+      <c r="BB10" s="111"/>
+      <c r="BC10" s="111"/>
+      <c r="BD10" s="111"/>
+      <c r="BE10" s="111"/>
+      <c r="BF10" s="111"/>
+      <c r="BG10" s="111"/>
+      <c r="BH10" s="111"/>
+      <c r="BI10" s="111"/>
+      <c r="BJ10" s="111"/>
+      <c r="BK10" s="111"/>
+      <c r="BL10" s="111"/>
+      <c r="BM10" s="111"/>
+      <c r="BN10" s="111"/>
+      <c r="BO10" s="111"/>
+      <c r="BP10" s="111"/>
+      <c r="BQ10" s="112"/>
+      <c r="BR10" s="112"/>
+      <c r="BS10" s="112"/>
+      <c r="BT10" s="112"/>
+      <c r="BU10" s="112"/>
+      <c r="BV10" s="112"/>
+      <c r="BW10" s="112"/>
+      <c r="BX10" s="112"/>
+      <c r="BY10" s="112"/>
+      <c r="BZ10" s="112"/>
+      <c r="CA10" s="112"/>
+      <c r="CB10" s="112"/>
+      <c r="CC10" s="112"/>
+      <c r="CD10" s="112"/>
+      <c r="CE10" s="112"/>
+      <c r="CF10" s="112"/>
+      <c r="CG10" s="112"/>
+      <c r="CH10" s="112"/>
+      <c r="CI10" s="112"/>
     </row>
-    <row r="11" spans="1:1024" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="99">
+    <row r="11" spans="1:1024" ht="18" customHeight="1">
+      <c r="B11" s="98">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="103"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="94"/>
-      <c r="AF11" s="94"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="102" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="94"/>
+      <c r="AH11" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="AI11" s="103"/>
-      <c r="AJ11" s="104"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="94"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="94"/>
-      <c r="AO11" s="94"/>
-      <c r="AP11" s="94"/>
-      <c r="AQ11" s="94"/>
-      <c r="AR11" s="88"/>
-      <c r="AS11" s="88"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="108" t="s">
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
+      <c r="AO11" s="93"/>
+      <c r="AP11" s="93"/>
+      <c r="AQ11" s="93"/>
+      <c r="AR11" s="87"/>
+      <c r="AS11" s="87"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" s="108"/>
-      <c r="AW11" s="108"/>
-      <c r="AX11" s="108"/>
-      <c r="AY11" s="108"/>
-      <c r="AZ11" s="108"/>
-      <c r="BA11" s="108"/>
-      <c r="BB11" s="108"/>
-      <c r="BC11" s="108"/>
-      <c r="BD11" s="108"/>
-      <c r="BE11" s="108" t="s">
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="107"/>
+      <c r="AY11" s="107"/>
+      <c r="AZ11" s="107"/>
+      <c r="BA11" s="107"/>
+      <c r="BB11" s="107"/>
+      <c r="BC11" s="107"/>
+      <c r="BD11" s="107"/>
+      <c r="BE11" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="BF11" s="108"/>
-      <c r="BG11" s="108"/>
-      <c r="BH11" s="108"/>
-      <c r="BI11" s="108"/>
-      <c r="BJ11" s="108"/>
-      <c r="BK11" s="108"/>
-      <c r="BL11" s="108"/>
-      <c r="BM11" s="108"/>
-      <c r="BN11" s="108"/>
-      <c r="BO11" s="108"/>
-      <c r="BP11" s="108"/>
-      <c r="BQ11" s="109" t="s">
-        <v>53</v>
-      </c>
-      <c r="BR11" s="109"/>
-      <c r="BS11" s="109"/>
-      <c r="BT11" s="109"/>
-      <c r="BU11" s="109"/>
-      <c r="BV11" s="109"/>
-      <c r="BW11" s="109"/>
-      <c r="BX11" s="109"/>
-      <c r="BY11" s="109"/>
-      <c r="BZ11" s="109"/>
-      <c r="CA11" s="109"/>
-      <c r="CB11" s="109"/>
-      <c r="CC11" s="109"/>
-      <c r="CD11" s="109"/>
-      <c r="CE11" s="109"/>
-      <c r="CF11" s="109"/>
-      <c r="CG11" s="109"/>
-      <c r="CH11" s="109"/>
-      <c r="CI11" s="109"/>
+      <c r="BF11" s="107"/>
+      <c r="BG11" s="107"/>
+      <c r="BH11" s="107"/>
+      <c r="BI11" s="107"/>
+      <c r="BJ11" s="107"/>
+      <c r="BK11" s="107"/>
+      <c r="BL11" s="107"/>
+      <c r="BM11" s="107"/>
+      <c r="BN11" s="107"/>
+      <c r="BO11" s="107"/>
+      <c r="BP11" s="107"/>
+      <c r="BQ11" s="108"/>
+      <c r="BR11" s="108"/>
+      <c r="BS11" s="108"/>
+      <c r="BT11" s="108"/>
+      <c r="BU11" s="108"/>
+      <c r="BV11" s="108"/>
+      <c r="BW11" s="108"/>
+      <c r="BX11" s="108"/>
+      <c r="BY11" s="108"/>
+      <c r="BZ11" s="108"/>
+      <c r="CA11" s="108"/>
+      <c r="CB11" s="108"/>
+      <c r="CC11" s="108"/>
+      <c r="CD11" s="108"/>
+      <c r="CE11" s="108"/>
+      <c r="CF11" s="108"/>
+      <c r="CG11" s="108"/>
+      <c r="CH11" s="108"/>
+      <c r="CI11" s="108"/>
     </row>
-    <row r="12" spans="1:1024" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="99">
+    <row r="12" spans="1:1024" ht="54.6" customHeight="1">
+      <c r="B12" s="98">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z12" s="103"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="93" t="s">
+      <c r="C12" s="99"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="94"/>
-      <c r="AF12" s="94"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="102"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="104"/>
-      <c r="AK12" s="93"/>
-      <c r="AL12" s="94"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="94"/>
-      <c r="AO12" s="94"/>
-      <c r="AP12" s="94"/>
-      <c r="AQ12" s="94"/>
-      <c r="AR12" s="88"/>
-      <c r="AS12" s="88"/>
-      <c r="AT12" s="89"/>
-      <c r="AU12" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV12" s="94"/>
-      <c r="AW12" s="94"/>
-      <c r="AX12" s="94"/>
-      <c r="AY12" s="94"/>
-      <c r="AZ12" s="94"/>
-      <c r="BA12" s="94"/>
-      <c r="BB12" s="94"/>
-      <c r="BC12" s="94"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF12" s="121"/>
-      <c r="BG12" s="121"/>
-      <c r="BH12" s="121"/>
-      <c r="BI12" s="121"/>
-      <c r="BJ12" s="121"/>
-      <c r="BK12" s="121"/>
-      <c r="BL12" s="121"/>
-      <c r="BM12" s="121"/>
-      <c r="BN12" s="121"/>
-      <c r="BO12" s="121"/>
-      <c r="BP12" s="121"/>
-      <c r="BQ12" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR12" s="109"/>
-      <c r="BS12" s="109"/>
-      <c r="BT12" s="109"/>
-      <c r="BU12" s="109"/>
-      <c r="BV12" s="109"/>
-      <c r="BW12" s="109"/>
-      <c r="BX12" s="109"/>
-      <c r="BY12" s="109"/>
-      <c r="BZ12" s="109"/>
-      <c r="CA12" s="109"/>
-      <c r="CB12" s="109"/>
-      <c r="CC12" s="109"/>
-      <c r="CD12" s="109"/>
-      <c r="CE12" s="109"/>
-      <c r="CF12" s="109"/>
-      <c r="CG12" s="109"/>
-      <c r="CH12" s="109"/>
-      <c r="CI12" s="109"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="94"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="102"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="93"/>
+      <c r="AN12" s="93"/>
+      <c r="AO12" s="93"/>
+      <c r="AP12" s="93"/>
+      <c r="AQ12" s="93"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="88"/>
+      <c r="AU12" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" s="93"/>
+      <c r="AW12" s="93"/>
+      <c r="AX12" s="93"/>
+      <c r="AY12" s="93"/>
+      <c r="AZ12" s="93"/>
+      <c r="BA12" s="93"/>
+      <c r="BB12" s="93"/>
+      <c r="BC12" s="93"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF12" s="110"/>
+      <c r="BG12" s="110"/>
+      <c r="BH12" s="110"/>
+      <c r="BI12" s="110"/>
+      <c r="BJ12" s="110"/>
+      <c r="BK12" s="110"/>
+      <c r="BL12" s="110"/>
+      <c r="BM12" s="110"/>
+      <c r="BN12" s="110"/>
+      <c r="BO12" s="110"/>
+      <c r="BP12" s="110"/>
+      <c r="BQ12" s="108" t="s">
+        <v>51</v>
+      </c>
+      <c r="BR12" s="108"/>
+      <c r="BS12" s="108"/>
+      <c r="BT12" s="108"/>
+      <c r="BU12" s="108"/>
+      <c r="BV12" s="108"/>
+      <c r="BW12" s="108"/>
+      <c r="BX12" s="108"/>
+      <c r="BY12" s="108"/>
+      <c r="BZ12" s="108"/>
+      <c r="CA12" s="108"/>
+      <c r="CB12" s="108"/>
+      <c r="CC12" s="108"/>
+      <c r="CD12" s="108"/>
+      <c r="CE12" s="108"/>
+      <c r="CF12" s="108"/>
+      <c r="CG12" s="108"/>
+      <c r="CH12" s="108"/>
+      <c r="CI12" s="108"/>
     </row>
-    <row r="13" spans="1:1024" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="99">
+    <row r="13" spans="1:1024" ht="36.75" customHeight="1">
+      <c r="B13" s="98">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="93" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="94"/>
+      <c r="AH13" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="93"/>
+      <c r="AN13" s="93"/>
+      <c r="AO13" s="93"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="93"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="88"/>
+      <c r="AU13" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV13" s="93"/>
+      <c r="AW13" s="93"/>
+      <c r="AX13" s="93"/>
+      <c r="AY13" s="93"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="93"/>
+      <c r="BB13" s="93"/>
+      <c r="BC13" s="93"/>
+      <c r="BD13" s="94"/>
+      <c r="BE13" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF13" s="107"/>
+      <c r="BG13" s="107"/>
+      <c r="BH13" s="107"/>
+      <c r="BI13" s="107"/>
+      <c r="BJ13" s="107"/>
+      <c r="BK13" s="107"/>
+      <c r="BL13" s="107"/>
+      <c r="BM13" s="107"/>
+      <c r="BN13" s="107"/>
+      <c r="BO13" s="107"/>
+      <c r="BP13" s="107"/>
+      <c r="BQ13" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z13" s="103"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="94"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="102"/>
-      <c r="AI13" s="103"/>
-      <c r="AJ13" s="104"/>
-      <c r="AK13" s="102"/>
-      <c r="AL13" s="103"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="103"/>
-      <c r="AO13" s="103"/>
-      <c r="AP13" s="103"/>
-      <c r="AQ13" s="103"/>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="103"/>
-      <c r="AT13" s="104"/>
-      <c r="AU13" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV13" s="94"/>
-      <c r="AW13" s="94"/>
-      <c r="AX13" s="94"/>
-      <c r="AY13" s="94"/>
-      <c r="AZ13" s="94"/>
-      <c r="BA13" s="94"/>
-      <c r="BB13" s="94"/>
-      <c r="BC13" s="94"/>
-      <c r="BD13" s="95"/>
-      <c r="BE13" s="146" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF13" s="147"/>
-      <c r="BG13" s="147"/>
-      <c r="BH13" s="147"/>
-      <c r="BI13" s="147"/>
-      <c r="BJ13" s="147"/>
-      <c r="BK13" s="147"/>
-      <c r="BL13" s="147"/>
-      <c r="BM13" s="147"/>
-      <c r="BN13" s="147"/>
-      <c r="BO13" s="147"/>
-      <c r="BP13" s="148"/>
-      <c r="BQ13" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR13" s="109"/>
-      <c r="BS13" s="109"/>
-      <c r="BT13" s="109"/>
-      <c r="BU13" s="109"/>
-      <c r="BV13" s="109"/>
-      <c r="BW13" s="109"/>
-      <c r="BX13" s="109"/>
-      <c r="BY13" s="109"/>
-      <c r="BZ13" s="109"/>
-      <c r="CA13" s="109"/>
-      <c r="CB13" s="109"/>
-      <c r="CC13" s="109"/>
-      <c r="CD13" s="109"/>
-      <c r="CE13" s="109"/>
-      <c r="CF13" s="109"/>
-      <c r="CG13" s="109"/>
-      <c r="CH13" s="109"/>
-      <c r="CI13" s="109"/>
+      <c r="BR13" s="108"/>
+      <c r="BS13" s="108"/>
+      <c r="BT13" s="108"/>
+      <c r="BU13" s="108"/>
+      <c r="BV13" s="108"/>
+      <c r="BW13" s="108"/>
+      <c r="BX13" s="108"/>
+      <c r="BY13" s="108"/>
+      <c r="BZ13" s="108"/>
+      <c r="CA13" s="108"/>
+      <c r="CB13" s="108"/>
+      <c r="CC13" s="108"/>
+      <c r="CD13" s="108"/>
+      <c r="CE13" s="108"/>
+      <c r="CF13" s="108"/>
+      <c r="CG13" s="108"/>
+      <c r="CH13" s="108"/>
+      <c r="CI13" s="108"/>
     </row>
-    <row r="14" spans="1:1024" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="99">
+    <row r="14" spans="1:1024" ht="36.75" customHeight="1">
+      <c r="B14" s="98">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="93" t="s">
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="93"/>
+      <c r="AG14" s="94"/>
+      <c r="AH14" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="102" t="s">
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="93"/>
+      <c r="AN14" s="93"/>
+      <c r="AO14" s="93"/>
+      <c r="AP14" s="93"/>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="88"/>
+      <c r="AU14" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV14" s="93"/>
+      <c r="AW14" s="93"/>
+      <c r="AX14" s="93"/>
+      <c r="AY14" s="93"/>
+      <c r="AZ14" s="93"/>
+      <c r="BA14" s="93"/>
+      <c r="BB14" s="93"/>
+      <c r="BC14" s="93"/>
+      <c r="BD14" s="94"/>
+      <c r="BE14" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="BF14" s="107"/>
+      <c r="BG14" s="107"/>
+      <c r="BH14" s="107"/>
+      <c r="BI14" s="107"/>
+      <c r="BJ14" s="107"/>
+      <c r="BK14" s="107"/>
+      <c r="BL14" s="107"/>
+      <c r="BM14" s="107"/>
+      <c r="BN14" s="107"/>
+      <c r="BO14" s="107"/>
+      <c r="BP14" s="107"/>
+      <c r="BQ14" s="108"/>
+      <c r="BR14" s="108"/>
+      <c r="BS14" s="108"/>
+      <c r="BT14" s="108"/>
+      <c r="BU14" s="108"/>
+      <c r="BV14" s="108"/>
+      <c r="BW14" s="108"/>
+      <c r="BX14" s="108"/>
+      <c r="BY14" s="108"/>
+      <c r="BZ14" s="108"/>
+      <c r="CA14" s="108"/>
+      <c r="CB14" s="108"/>
+      <c r="CC14" s="108"/>
+      <c r="CD14" s="108"/>
+      <c r="CE14" s="108"/>
+      <c r="CF14" s="108"/>
+      <c r="CG14" s="108"/>
+      <c r="CH14" s="108"/>
+      <c r="CI14" s="108"/>
+    </row>
+    <row r="15" spans="1:1024" ht="18" customHeight="1">
+      <c r="B15" s="98">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="Z14" s="103"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="93" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="94"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="102" t="s">
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="93"/>
+      <c r="AG15" s="94"/>
+      <c r="AH15" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="AI14" s="103"/>
-      <c r="AJ14" s="104"/>
-      <c r="AK14" s="93"/>
-      <c r="AL14" s="94"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="94"/>
-      <c r="AO14" s="94"/>
-      <c r="AP14" s="94"/>
-      <c r="AQ14" s="94"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV14" s="94"/>
-      <c r="AW14" s="94"/>
-      <c r="AX14" s="94"/>
-      <c r="AY14" s="94"/>
-      <c r="AZ14" s="94"/>
-      <c r="BA14" s="94"/>
-      <c r="BB14" s="94"/>
-      <c r="BC14" s="94"/>
-      <c r="BD14" s="95"/>
-      <c r="BE14" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF14" s="108"/>
-      <c r="BG14" s="108"/>
-      <c r="BH14" s="108"/>
-      <c r="BI14" s="108"/>
-      <c r="BJ14" s="108"/>
-      <c r="BK14" s="108"/>
-      <c r="BL14" s="108"/>
-      <c r="BM14" s="108"/>
-      <c r="BN14" s="108"/>
-      <c r="BO14" s="108"/>
-      <c r="BP14" s="108"/>
-      <c r="BQ14" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR14" s="109"/>
-      <c r="BS14" s="109"/>
-      <c r="BT14" s="109"/>
-      <c r="BU14" s="109"/>
-      <c r="BV14" s="109"/>
-      <c r="BW14" s="109"/>
-      <c r="BX14" s="109"/>
-      <c r="BY14" s="109"/>
-      <c r="BZ14" s="109"/>
-      <c r="CA14" s="109"/>
-      <c r="CB14" s="109"/>
-      <c r="CC14" s="109"/>
-      <c r="CD14" s="109"/>
-      <c r="CE14" s="109"/>
-      <c r="CF14" s="109"/>
-      <c r="CG14" s="109"/>
-      <c r="CH14" s="109"/>
-      <c r="CI14" s="109"/>
+      <c r="AI15" s="102"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="93"/>
+      <c r="AN15" s="93"/>
+      <c r="AO15" s="93"/>
+      <c r="AP15" s="93"/>
+      <c r="AQ15" s="93"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="88"/>
+      <c r="AU15" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV15" s="93"/>
+      <c r="AW15" s="93"/>
+      <c r="AX15" s="93"/>
+      <c r="AY15" s="93"/>
+      <c r="AZ15" s="93"/>
+      <c r="BA15" s="93"/>
+      <c r="BB15" s="93"/>
+      <c r="BC15" s="93"/>
+      <c r="BD15" s="94"/>
+      <c r="BE15" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF15" s="107"/>
+      <c r="BG15" s="107"/>
+      <c r="BH15" s="107"/>
+      <c r="BI15" s="107"/>
+      <c r="BJ15" s="107"/>
+      <c r="BK15" s="107"/>
+      <c r="BL15" s="107"/>
+      <c r="BM15" s="107"/>
+      <c r="BN15" s="107"/>
+      <c r="BO15" s="107"/>
+      <c r="BP15" s="107"/>
+      <c r="BQ15" s="108"/>
+      <c r="BR15" s="108"/>
+      <c r="BS15" s="108"/>
+      <c r="BT15" s="108"/>
+      <c r="BU15" s="108"/>
+      <c r="BV15" s="108"/>
+      <c r="BW15" s="108"/>
+      <c r="BX15" s="108"/>
+      <c r="BY15" s="108"/>
+      <c r="BZ15" s="108"/>
+      <c r="CA15" s="108"/>
+      <c r="CB15" s="108"/>
+      <c r="CC15" s="108"/>
+      <c r="CD15" s="108"/>
+      <c r="CE15" s="108"/>
+      <c r="CF15" s="108"/>
+      <c r="CG15" s="108"/>
+      <c r="CH15" s="108"/>
+      <c r="CI15" s="108"/>
     </row>
-    <row r="15" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="102"/>
-      <c r="Z15" s="103"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="94"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="102"/>
-      <c r="AI15" s="103"/>
-      <c r="AJ15" s="104"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="94"/>
-      <c r="AM15" s="94"/>
-      <c r="AN15" s="94"/>
-      <c r="AO15" s="94"/>
-      <c r="AP15" s="94"/>
-      <c r="AQ15" s="94"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="88"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="93"/>
-      <c r="AV15" s="94"/>
-      <c r="AW15" s="94"/>
-      <c r="AX15" s="94"/>
-      <c r="AY15" s="94"/>
-      <c r="AZ15" s="94"/>
-      <c r="BA15" s="94"/>
-      <c r="BB15" s="94"/>
-      <c r="BC15" s="94"/>
-      <c r="BD15" s="95"/>
-      <c r="BE15" s="108"/>
-      <c r="BF15" s="108"/>
-      <c r="BG15" s="108"/>
-      <c r="BH15" s="108"/>
-      <c r="BI15" s="108"/>
-      <c r="BJ15" s="108"/>
-      <c r="BK15" s="108"/>
-      <c r="BL15" s="108"/>
-      <c r="BM15" s="108"/>
-      <c r="BN15" s="108"/>
-      <c r="BO15" s="108"/>
-      <c r="BP15" s="108"/>
-      <c r="BQ15" s="109"/>
-      <c r="BR15" s="109"/>
-      <c r="BS15" s="109"/>
-      <c r="BT15" s="109"/>
-      <c r="BU15" s="109"/>
-      <c r="BV15" s="109"/>
-      <c r="BW15" s="109"/>
-      <c r="BX15" s="109"/>
-      <c r="BY15" s="109"/>
-      <c r="BZ15" s="109"/>
-      <c r="CA15" s="109"/>
-      <c r="CB15" s="109"/>
-      <c r="CC15" s="109"/>
-      <c r="CD15" s="109"/>
-      <c r="CE15" s="109"/>
-      <c r="CF15" s="109"/>
-      <c r="CG15" s="109"/>
-      <c r="CH15" s="109"/>
-      <c r="CI15" s="109"/>
+    <row r="16" spans="1:1024" ht="18" customHeight="1">
+      <c r="B16" s="98"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="101"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="94"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="102"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
+      <c r="AO16" s="93"/>
+      <c r="AP16" s="93"/>
+      <c r="AQ16" s="93"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="88"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="93"/>
+      <c r="AW16" s="93"/>
+      <c r="AX16" s="93"/>
+      <c r="AY16" s="93"/>
+      <c r="AZ16" s="93"/>
+      <c r="BA16" s="93"/>
+      <c r="BB16" s="93"/>
+      <c r="BC16" s="93"/>
+      <c r="BD16" s="94"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="93"/>
+      <c r="BG16" s="93"/>
+      <c r="BH16" s="93"/>
+      <c r="BI16" s="93"/>
+      <c r="BJ16" s="93"/>
+      <c r="BK16" s="93"/>
+      <c r="BL16" s="93"/>
+      <c r="BM16" s="93"/>
+      <c r="BN16" s="93"/>
+      <c r="BO16" s="93"/>
+      <c r="BP16" s="94"/>
+      <c r="BQ16" s="104"/>
+      <c r="BR16" s="105"/>
+      <c r="BS16" s="105"/>
+      <c r="BT16" s="105"/>
+      <c r="BU16" s="105"/>
+      <c r="BV16" s="105"/>
+      <c r="BW16" s="105"/>
+      <c r="BX16" s="105"/>
+      <c r="BY16" s="105"/>
+      <c r="BZ16" s="105"/>
+      <c r="CA16" s="105"/>
+      <c r="CB16" s="105"/>
+      <c r="CC16" s="105"/>
+      <c r="CD16" s="105"/>
+      <c r="CE16" s="105"/>
+      <c r="CF16" s="105"/>
+      <c r="CG16" s="105"/>
+      <c r="CH16" s="105"/>
+      <c r="CI16" s="106"/>
     </row>
-    <row r="16" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="102"/>
-      <c r="Z16" s="103"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="94"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="102"/>
-      <c r="AI16" s="103"/>
-      <c r="AJ16" s="104"/>
-      <c r="AK16" s="93"/>
-      <c r="AL16" s="94"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="94"/>
-      <c r="AO16" s="94"/>
-      <c r="AP16" s="94"/>
-      <c r="AQ16" s="94"/>
-      <c r="AR16" s="88"/>
-      <c r="AS16" s="88"/>
-      <c r="AT16" s="89"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="94"/>
-      <c r="AW16" s="94"/>
-      <c r="AX16" s="94"/>
-      <c r="AY16" s="94"/>
-      <c r="AZ16" s="94"/>
-      <c r="BA16" s="94"/>
-      <c r="BB16" s="94"/>
-      <c r="BC16" s="94"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="93"/>
-      <c r="BF16" s="94"/>
-      <c r="BG16" s="94"/>
-      <c r="BH16" s="94"/>
-      <c r="BI16" s="94"/>
-      <c r="BJ16" s="94"/>
-      <c r="BK16" s="94"/>
-      <c r="BL16" s="94"/>
-      <c r="BM16" s="94"/>
-      <c r="BN16" s="94"/>
-      <c r="BO16" s="94"/>
-      <c r="BP16" s="95"/>
-      <c r="BQ16" s="105"/>
-      <c r="BR16" s="106"/>
-      <c r="BS16" s="106"/>
-      <c r="BT16" s="106"/>
-      <c r="BU16" s="106"/>
-      <c r="BV16" s="106"/>
-      <c r="BW16" s="106"/>
-      <c r="BX16" s="106"/>
-      <c r="BY16" s="106"/>
-      <c r="BZ16" s="106"/>
-      <c r="CA16" s="106"/>
-      <c r="CB16" s="106"/>
-      <c r="CC16" s="106"/>
-      <c r="CD16" s="106"/>
-      <c r="CE16" s="106"/>
-      <c r="CF16" s="106"/>
-      <c r="CG16" s="106"/>
-      <c r="CH16" s="106"/>
-      <c r="CI16" s="107"/>
+    <row r="17" spans="2:87" ht="18" customHeight="1">
+      <c r="B17" s="98"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="93"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="101"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="102"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="93"/>
+      <c r="AN17" s="93"/>
+      <c r="AO17" s="93"/>
+      <c r="AP17" s="93"/>
+      <c r="AQ17" s="93"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="88"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="93"/>
+      <c r="AW17" s="93"/>
+      <c r="AX17" s="93"/>
+      <c r="AY17" s="93"/>
+      <c r="AZ17" s="93"/>
+      <c r="BA17" s="93"/>
+      <c r="BB17" s="93"/>
+      <c r="BC17" s="93"/>
+      <c r="BD17" s="94"/>
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="93"/>
+      <c r="BG17" s="93"/>
+      <c r="BH17" s="93"/>
+      <c r="BI17" s="93"/>
+      <c r="BJ17" s="93"/>
+      <c r="BK17" s="93"/>
+      <c r="BL17" s="93"/>
+      <c r="BM17" s="93"/>
+      <c r="BN17" s="93"/>
+      <c r="BO17" s="93"/>
+      <c r="BP17" s="94"/>
+      <c r="BQ17" s="104"/>
+      <c r="BR17" s="105"/>
+      <c r="BS17" s="105"/>
+      <c r="BT17" s="105"/>
+      <c r="BU17" s="105"/>
+      <c r="BV17" s="105"/>
+      <c r="BW17" s="105"/>
+      <c r="BX17" s="105"/>
+      <c r="BY17" s="105"/>
+      <c r="BZ17" s="105"/>
+      <c r="CA17" s="105"/>
+      <c r="CB17" s="105"/>
+      <c r="CC17" s="105"/>
+      <c r="CD17" s="105"/>
+      <c r="CE17" s="105"/>
+      <c r="CF17" s="105"/>
+      <c r="CG17" s="105"/>
+      <c r="CH17" s="105"/>
+      <c r="CI17" s="106"/>
     </row>
-    <row r="17" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="94"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="102"/>
-      <c r="AI17" s="103"/>
-      <c r="AJ17" s="104"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="94"/>
-      <c r="AM17" s="94"/>
-      <c r="AN17" s="94"/>
-      <c r="AO17" s="94"/>
-      <c r="AP17" s="94"/>
-      <c r="AQ17" s="94"/>
-      <c r="AR17" s="88"/>
-      <c r="AS17" s="88"/>
-      <c r="AT17" s="89"/>
-      <c r="AU17" s="93"/>
-      <c r="AV17" s="94"/>
-      <c r="AW17" s="94"/>
-      <c r="AX17" s="94"/>
-      <c r="AY17" s="94"/>
-      <c r="AZ17" s="94"/>
-      <c r="BA17" s="94"/>
-      <c r="BB17" s="94"/>
-      <c r="BC17" s="94"/>
-      <c r="BD17" s="95"/>
-      <c r="BE17" s="93"/>
-      <c r="BF17" s="94"/>
-      <c r="BG17" s="94"/>
-      <c r="BH17" s="94"/>
-      <c r="BI17" s="94"/>
-      <c r="BJ17" s="94"/>
-      <c r="BK17" s="94"/>
-      <c r="BL17" s="94"/>
-      <c r="BM17" s="94"/>
-      <c r="BN17" s="94"/>
-      <c r="BO17" s="94"/>
-      <c r="BP17" s="95"/>
-      <c r="BQ17" s="105"/>
-      <c r="BR17" s="106"/>
-      <c r="BS17" s="106"/>
-      <c r="BT17" s="106"/>
-      <c r="BU17" s="106"/>
-      <c r="BV17" s="106"/>
-      <c r="BW17" s="106"/>
-      <c r="BX17" s="106"/>
-      <c r="BY17" s="106"/>
-      <c r="BZ17" s="106"/>
-      <c r="CA17" s="106"/>
-      <c r="CB17" s="106"/>
-      <c r="CC17" s="106"/>
-      <c r="CD17" s="106"/>
-      <c r="CE17" s="106"/>
-      <c r="CF17" s="106"/>
-      <c r="CG17" s="106"/>
-      <c r="CH17" s="106"/>
-      <c r="CI17" s="107"/>
+    <row r="18" spans="2:87" ht="18" customHeight="1">
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="101"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="93"/>
+      <c r="AG18" s="94"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="102"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="93"/>
+      <c r="AN18" s="93"/>
+      <c r="AO18" s="93"/>
+      <c r="AP18" s="93"/>
+      <c r="AQ18" s="93"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="93"/>
+      <c r="AW18" s="93"/>
+      <c r="AX18" s="93"/>
+      <c r="AY18" s="93"/>
+      <c r="AZ18" s="93"/>
+      <c r="BA18" s="93"/>
+      <c r="BB18" s="93"/>
+      <c r="BC18" s="93"/>
+      <c r="BD18" s="94"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="93"/>
+      <c r="BG18" s="93"/>
+      <c r="BH18" s="93"/>
+      <c r="BI18" s="93"/>
+      <c r="BJ18" s="93"/>
+      <c r="BK18" s="93"/>
+      <c r="BL18" s="93"/>
+      <c r="BM18" s="93"/>
+      <c r="BN18" s="93"/>
+      <c r="BO18" s="93"/>
+      <c r="BP18" s="94"/>
+      <c r="BQ18" s="104"/>
+      <c r="BR18" s="105"/>
+      <c r="BS18" s="105"/>
+      <c r="BT18" s="105"/>
+      <c r="BU18" s="105"/>
+      <c r="BV18" s="105"/>
+      <c r="BW18" s="105"/>
+      <c r="BX18" s="105"/>
+      <c r="BY18" s="105"/>
+      <c r="BZ18" s="105"/>
+      <c r="CA18" s="105"/>
+      <c r="CB18" s="105"/>
+      <c r="CC18" s="105"/>
+      <c r="CD18" s="105"/>
+      <c r="CE18" s="105"/>
+      <c r="CF18" s="105"/>
+      <c r="CG18" s="105"/>
+      <c r="CH18" s="105"/>
+      <c r="CI18" s="106"/>
     </row>
-    <row r="18" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="103"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="94"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="102"/>
-      <c r="AI18" s="103"/>
-      <c r="AJ18" s="104"/>
-      <c r="AK18" s="93"/>
-      <c r="AL18" s="94"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="94"/>
-      <c r="AO18" s="94"/>
-      <c r="AP18" s="94"/>
-      <c r="AQ18" s="94"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="89"/>
-      <c r="AU18" s="93"/>
-      <c r="AV18" s="94"/>
-      <c r="AW18" s="94"/>
-      <c r="AX18" s="94"/>
-      <c r="AY18" s="94"/>
-      <c r="AZ18" s="94"/>
-      <c r="BA18" s="94"/>
-      <c r="BB18" s="94"/>
-      <c r="BC18" s="94"/>
-      <c r="BD18" s="95"/>
-      <c r="BE18" s="93"/>
-      <c r="BF18" s="94"/>
-      <c r="BG18" s="94"/>
-      <c r="BH18" s="94"/>
-      <c r="BI18" s="94"/>
-      <c r="BJ18" s="94"/>
-      <c r="BK18" s="94"/>
-      <c r="BL18" s="94"/>
-      <c r="BM18" s="94"/>
-      <c r="BN18" s="94"/>
-      <c r="BO18" s="94"/>
-      <c r="BP18" s="95"/>
-      <c r="BQ18" s="105"/>
-      <c r="BR18" s="106"/>
-      <c r="BS18" s="106"/>
-      <c r="BT18" s="106"/>
-      <c r="BU18" s="106"/>
-      <c r="BV18" s="106"/>
-      <c r="BW18" s="106"/>
-      <c r="BX18" s="106"/>
-      <c r="BY18" s="106"/>
-      <c r="BZ18" s="106"/>
-      <c r="CA18" s="106"/>
-      <c r="CB18" s="106"/>
-      <c r="CC18" s="106"/>
-      <c r="CD18" s="106"/>
-      <c r="CE18" s="106"/>
-      <c r="CF18" s="106"/>
-      <c r="CG18" s="106"/>
-      <c r="CH18" s="106"/>
-      <c r="CI18" s="107"/>
+    <row r="19" spans="2:87" ht="18" customHeight="1">
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="93"/>
+      <c r="AG19" s="94"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="102"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="93"/>
+      <c r="AN19" s="93"/>
+      <c r="AO19" s="93"/>
+      <c r="AP19" s="93"/>
+      <c r="AQ19" s="93"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="88"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="93"/>
+      <c r="AW19" s="93"/>
+      <c r="AX19" s="93"/>
+      <c r="AY19" s="93"/>
+      <c r="AZ19" s="93"/>
+      <c r="BA19" s="93"/>
+      <c r="BB19" s="93"/>
+      <c r="BC19" s="93"/>
+      <c r="BD19" s="94"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="93"/>
+      <c r="BG19" s="93"/>
+      <c r="BH19" s="93"/>
+      <c r="BI19" s="93"/>
+      <c r="BJ19" s="93"/>
+      <c r="BK19" s="93"/>
+      <c r="BL19" s="93"/>
+      <c r="BM19" s="93"/>
+      <c r="BN19" s="93"/>
+      <c r="BO19" s="93"/>
+      <c r="BP19" s="94"/>
+      <c r="BQ19" s="104"/>
+      <c r="BR19" s="105"/>
+      <c r="BS19" s="105"/>
+      <c r="BT19" s="105"/>
+      <c r="BU19" s="105"/>
+      <c r="BV19" s="105"/>
+      <c r="BW19" s="105"/>
+      <c r="BX19" s="105"/>
+      <c r="BY19" s="105"/>
+      <c r="BZ19" s="105"/>
+      <c r="CA19" s="105"/>
+      <c r="CB19" s="105"/>
+      <c r="CC19" s="105"/>
+      <c r="CD19" s="105"/>
+      <c r="CE19" s="105"/>
+      <c r="CF19" s="105"/>
+      <c r="CG19" s="105"/>
+      <c r="CH19" s="105"/>
+      <c r="CI19" s="106"/>
     </row>
-    <row r="19" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="94"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="102"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="94"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="102"/>
-      <c r="AI19" s="103"/>
-      <c r="AJ19" s="104"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="94"/>
-      <c r="AM19" s="94"/>
-      <c r="AN19" s="94"/>
-      <c r="AO19" s="94"/>
-      <c r="AP19" s="94"/>
-      <c r="AQ19" s="94"/>
-      <c r="AR19" s="88"/>
-      <c r="AS19" s="88"/>
-      <c r="AT19" s="89"/>
-      <c r="AU19" s="93"/>
-      <c r="AV19" s="94"/>
-      <c r="AW19" s="94"/>
-      <c r="AX19" s="94"/>
-      <c r="AY19" s="94"/>
-      <c r="AZ19" s="94"/>
-      <c r="BA19" s="94"/>
-      <c r="BB19" s="94"/>
-      <c r="BC19" s="94"/>
-      <c r="BD19" s="95"/>
-      <c r="BE19" s="93"/>
-      <c r="BF19" s="94"/>
-      <c r="BG19" s="94"/>
-      <c r="BH19" s="94"/>
-      <c r="BI19" s="94"/>
-      <c r="BJ19" s="94"/>
-      <c r="BK19" s="94"/>
-      <c r="BL19" s="94"/>
-      <c r="BM19" s="94"/>
-      <c r="BN19" s="94"/>
-      <c r="BO19" s="94"/>
-      <c r="BP19" s="95"/>
-      <c r="BQ19" s="105"/>
-      <c r="BR19" s="106"/>
-      <c r="BS19" s="106"/>
-      <c r="BT19" s="106"/>
-      <c r="BU19" s="106"/>
-      <c r="BV19" s="106"/>
-      <c r="BW19" s="106"/>
-      <c r="BX19" s="106"/>
-      <c r="BY19" s="106"/>
-      <c r="BZ19" s="106"/>
-      <c r="CA19" s="106"/>
-      <c r="CB19" s="106"/>
-      <c r="CC19" s="106"/>
-      <c r="CD19" s="106"/>
-      <c r="CE19" s="106"/>
-      <c r="CF19" s="106"/>
-      <c r="CG19" s="106"/>
-      <c r="CH19" s="106"/>
-      <c r="CI19" s="107"/>
+    <row r="20" spans="2:87" ht="18" customHeight="1">
+      <c r="B20" s="98"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="102"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="93"/>
+      <c r="AN20" s="93"/>
+      <c r="AO20" s="93"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="93"/>
+      <c r="AR20" s="87"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="88"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="93"/>
+      <c r="AW20" s="93"/>
+      <c r="AX20" s="93"/>
+      <c r="AY20" s="93"/>
+      <c r="AZ20" s="93"/>
+      <c r="BA20" s="93"/>
+      <c r="BB20" s="93"/>
+      <c r="BC20" s="93"/>
+      <c r="BD20" s="94"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="93"/>
+      <c r="BG20" s="93"/>
+      <c r="BH20" s="93"/>
+      <c r="BI20" s="93"/>
+      <c r="BJ20" s="93"/>
+      <c r="BK20" s="93"/>
+      <c r="BL20" s="93"/>
+      <c r="BM20" s="93"/>
+      <c r="BN20" s="93"/>
+      <c r="BO20" s="93"/>
+      <c r="BP20" s="94"/>
+      <c r="BQ20" s="104"/>
+      <c r="BR20" s="105"/>
+      <c r="BS20" s="105"/>
+      <c r="BT20" s="105"/>
+      <c r="BU20" s="105"/>
+      <c r="BV20" s="105"/>
+      <c r="BW20" s="105"/>
+      <c r="BX20" s="105"/>
+      <c r="BY20" s="105"/>
+      <c r="BZ20" s="105"/>
+      <c r="CA20" s="105"/>
+      <c r="CB20" s="105"/>
+      <c r="CC20" s="105"/>
+      <c r="CD20" s="105"/>
+      <c r="CE20" s="105"/>
+      <c r="CF20" s="105"/>
+      <c r="CG20" s="105"/>
+      <c r="CH20" s="105"/>
+      <c r="CI20" s="106"/>
     </row>
-    <row r="20" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="94"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="102"/>
-      <c r="AI20" s="103"/>
-      <c r="AJ20" s="104"/>
-      <c r="AK20" s="93"/>
-      <c r="AL20" s="94"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="94"/>
-      <c r="AO20" s="94"/>
-      <c r="AP20" s="94"/>
-      <c r="AQ20" s="94"/>
-      <c r="AR20" s="88"/>
-      <c r="AS20" s="88"/>
-      <c r="AT20" s="89"/>
-      <c r="AU20" s="93"/>
-      <c r="AV20" s="94"/>
-      <c r="AW20" s="94"/>
-      <c r="AX20" s="94"/>
-      <c r="AY20" s="94"/>
-      <c r="AZ20" s="94"/>
-      <c r="BA20" s="94"/>
-      <c r="BB20" s="94"/>
-      <c r="BC20" s="94"/>
-      <c r="BD20" s="95"/>
-      <c r="BE20" s="93"/>
-      <c r="BF20" s="94"/>
-      <c r="BG20" s="94"/>
-      <c r="BH20" s="94"/>
-      <c r="BI20" s="94"/>
-      <c r="BJ20" s="94"/>
-      <c r="BK20" s="94"/>
-      <c r="BL20" s="94"/>
-      <c r="BM20" s="94"/>
-      <c r="BN20" s="94"/>
-      <c r="BO20" s="94"/>
-      <c r="BP20" s="95"/>
-      <c r="BQ20" s="105"/>
-      <c r="BR20" s="106"/>
-      <c r="BS20" s="106"/>
-      <c r="BT20" s="106"/>
-      <c r="BU20" s="106"/>
-      <c r="BV20" s="106"/>
-      <c r="BW20" s="106"/>
-      <c r="BX20" s="106"/>
-      <c r="BY20" s="106"/>
-      <c r="BZ20" s="106"/>
-      <c r="CA20" s="106"/>
-      <c r="CB20" s="106"/>
-      <c r="CC20" s="106"/>
-      <c r="CD20" s="106"/>
-      <c r="CE20" s="106"/>
-      <c r="CF20" s="106"/>
-      <c r="CG20" s="106"/>
-      <c r="CH20" s="106"/>
-      <c r="CI20" s="107"/>
+    <row r="21" spans="2:87" ht="18" customHeight="1">
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="94"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="85"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="75"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="88"/>
+      <c r="AU21" s="75"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76"/>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="76"/>
+      <c r="BB21" s="76"/>
+      <c r="BC21" s="76"/>
+      <c r="BD21" s="77"/>
+      <c r="BE21" s="75"/>
+      <c r="BF21" s="76"/>
+      <c r="BG21" s="76"/>
+      <c r="BH21" s="76"/>
+      <c r="BI21" s="76"/>
+      <c r="BJ21" s="76"/>
+      <c r="BK21" s="76"/>
+      <c r="BL21" s="76"/>
+      <c r="BM21" s="76"/>
+      <c r="BN21" s="76"/>
+      <c r="BO21" s="76"/>
+      <c r="BP21" s="77"/>
+      <c r="BQ21" s="78"/>
+      <c r="BR21" s="79"/>
+      <c r="BS21" s="79"/>
+      <c r="BT21" s="79"/>
+      <c r="BU21" s="79"/>
+      <c r="BV21" s="79"/>
+      <c r="BW21" s="79"/>
+      <c r="BX21" s="79"/>
+      <c r="BY21" s="79"/>
+      <c r="BZ21" s="79"/>
+      <c r="CA21" s="79"/>
+      <c r="CB21" s="79"/>
+      <c r="CC21" s="79"/>
+      <c r="CD21" s="79"/>
+      <c r="CE21" s="79"/>
+      <c r="CF21" s="79"/>
+      <c r="CG21" s="79"/>
+      <c r="CH21" s="79"/>
+      <c r="CI21" s="80"/>
     </row>
-    <row r="21" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="77"/>
-      <c r="X21" s="78"/>
-      <c r="Y21" s="85"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="85"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="88"/>
-      <c r="AS21" s="88"/>
-      <c r="AT21" s="89"/>
-      <c r="AU21" s="76"/>
-      <c r="AV21" s="77"/>
-      <c r="AW21" s="77"/>
-      <c r="AX21" s="77"/>
-      <c r="AY21" s="77"/>
-      <c r="AZ21" s="77"/>
-      <c r="BA21" s="77"/>
-      <c r="BB21" s="77"/>
-      <c r="BC21" s="77"/>
-      <c r="BD21" s="78"/>
-      <c r="BE21" s="76"/>
-      <c r="BF21" s="77"/>
-      <c r="BG21" s="77"/>
-      <c r="BH21" s="77"/>
-      <c r="BI21" s="77"/>
-      <c r="BJ21" s="77"/>
-      <c r="BK21" s="77"/>
-      <c r="BL21" s="77"/>
-      <c r="BM21" s="77"/>
-      <c r="BN21" s="77"/>
-      <c r="BO21" s="77"/>
-      <c r="BP21" s="78"/>
-      <c r="BQ21" s="79"/>
-      <c r="BR21" s="80"/>
-      <c r="BS21" s="80"/>
-      <c r="BT21" s="80"/>
-      <c r="BU21" s="80"/>
-      <c r="BV21" s="80"/>
-      <c r="BW21" s="80"/>
-      <c r="BX21" s="80"/>
-      <c r="BY21" s="80"/>
-      <c r="BZ21" s="80"/>
-      <c r="CA21" s="80"/>
-      <c r="CB21" s="80"/>
-      <c r="CC21" s="80"/>
-      <c r="CD21" s="80"/>
-      <c r="CE21" s="80"/>
-      <c r="CF21" s="80"/>
-      <c r="CG21" s="80"/>
-      <c r="CH21" s="80"/>
-      <c r="CI21" s="81"/>
+    <row r="22" spans="2:87" ht="18" customHeight="1">
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="76"/>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="76"/>
+      <c r="AQ22" s="76"/>
+      <c r="AR22" s="87"/>
+      <c r="AS22" s="87"/>
+      <c r="AT22" s="88"/>
+      <c r="AU22" s="75"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="76"/>
+      <c r="AZ22" s="76"/>
+      <c r="BA22" s="76"/>
+      <c r="BB22" s="76"/>
+      <c r="BC22" s="76"/>
+      <c r="BD22" s="77"/>
+      <c r="BE22" s="75"/>
+      <c r="BF22" s="76"/>
+      <c r="BG22" s="76"/>
+      <c r="BH22" s="76"/>
+      <c r="BI22" s="76"/>
+      <c r="BJ22" s="76"/>
+      <c r="BK22" s="76"/>
+      <c r="BL22" s="76"/>
+      <c r="BM22" s="76"/>
+      <c r="BN22" s="76"/>
+      <c r="BO22" s="76"/>
+      <c r="BP22" s="77"/>
+      <c r="BQ22" s="95"/>
+      <c r="BR22" s="96"/>
+      <c r="BS22" s="96"/>
+      <c r="BT22" s="96"/>
+      <c r="BU22" s="96"/>
+      <c r="BV22" s="96"/>
+      <c r="BW22" s="96"/>
+      <c r="BX22" s="96"/>
+      <c r="BY22" s="96"/>
+      <c r="BZ22" s="96"/>
+      <c r="CA22" s="96"/>
+      <c r="CB22" s="96"/>
+      <c r="CC22" s="96"/>
+      <c r="CD22" s="96"/>
+      <c r="CE22" s="96"/>
+      <c r="CF22" s="96"/>
+      <c r="CG22" s="96"/>
+      <c r="CH22" s="96"/>
+      <c r="CI22" s="97"/>
     </row>
-    <row r="22" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="85"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="78"/>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="88"/>
-      <c r="AS22" s="88"/>
-      <c r="AT22" s="89"/>
-      <c r="AU22" s="76"/>
-      <c r="AV22" s="77"/>
-      <c r="AW22" s="77"/>
-      <c r="AX22" s="77"/>
-      <c r="AY22" s="77"/>
-      <c r="AZ22" s="77"/>
-      <c r="BA22" s="77"/>
-      <c r="BB22" s="77"/>
-      <c r="BC22" s="77"/>
-      <c r="BD22" s="78"/>
-      <c r="BE22" s="76"/>
-      <c r="BF22" s="77"/>
-      <c r="BG22" s="77"/>
-      <c r="BH22" s="77"/>
-      <c r="BI22" s="77"/>
-      <c r="BJ22" s="77"/>
-      <c r="BK22" s="77"/>
-      <c r="BL22" s="77"/>
-      <c r="BM22" s="77"/>
-      <c r="BN22" s="77"/>
-      <c r="BO22" s="77"/>
-      <c r="BP22" s="78"/>
-      <c r="BQ22" s="96"/>
-      <c r="BR22" s="97"/>
-      <c r="BS22" s="97"/>
-      <c r="BT22" s="97"/>
-      <c r="BU22" s="97"/>
-      <c r="BV22" s="97"/>
-      <c r="BW22" s="97"/>
-      <c r="BX22" s="97"/>
-      <c r="BY22" s="97"/>
-      <c r="BZ22" s="97"/>
-      <c r="CA22" s="97"/>
-      <c r="CB22" s="97"/>
-      <c r="CC22" s="97"/>
-      <c r="CD22" s="97"/>
-      <c r="CE22" s="97"/>
-      <c r="CF22" s="97"/>
-      <c r="CG22" s="97"/>
-      <c r="CH22" s="97"/>
-      <c r="CI22" s="98"/>
+    <row r="23" spans="2:87" ht="18" customHeight="1">
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="86"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="84"/>
+      <c r="AI23" s="85"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="87"/>
+      <c r="AS23" s="87"/>
+      <c r="AT23" s="88"/>
+      <c r="AU23" s="75"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="76"/>
+      <c r="AZ23" s="76"/>
+      <c r="BA23" s="76"/>
+      <c r="BB23" s="76"/>
+      <c r="BC23" s="76"/>
+      <c r="BD23" s="77"/>
+      <c r="BE23" s="75"/>
+      <c r="BF23" s="76"/>
+      <c r="BG23" s="76"/>
+      <c r="BH23" s="76"/>
+      <c r="BI23" s="76"/>
+      <c r="BJ23" s="76"/>
+      <c r="BK23" s="76"/>
+      <c r="BL23" s="76"/>
+      <c r="BM23" s="76"/>
+      <c r="BN23" s="76"/>
+      <c r="BO23" s="76"/>
+      <c r="BP23" s="77"/>
+      <c r="BQ23" s="78"/>
+      <c r="BR23" s="79"/>
+      <c r="BS23" s="79"/>
+      <c r="BT23" s="79"/>
+      <c r="BU23" s="79"/>
+      <c r="BV23" s="79"/>
+      <c r="BW23" s="79"/>
+      <c r="BX23" s="79"/>
+      <c r="BY23" s="79"/>
+      <c r="BZ23" s="79"/>
+      <c r="CA23" s="79"/>
+      <c r="CB23" s="79"/>
+      <c r="CC23" s="79"/>
+      <c r="CD23" s="79"/>
+      <c r="CE23" s="79"/>
+      <c r="CF23" s="79"/>
+      <c r="CG23" s="79"/>
+      <c r="CH23" s="79"/>
+      <c r="CI23" s="80"/>
     </row>
-    <row r="23" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="78"/>
-      <c r="Y23" s="85"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="77"/>
-      <c r="AD23" s="77"/>
-      <c r="AE23" s="77"/>
-      <c r="AF23" s="77"/>
-      <c r="AG23" s="78"/>
-      <c r="AH23" s="85"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="77"/>
-      <c r="AM23" s="77"/>
-      <c r="AN23" s="77"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="88"/>
-      <c r="AS23" s="88"/>
-      <c r="AT23" s="89"/>
-      <c r="AU23" s="76"/>
-      <c r="AV23" s="77"/>
-      <c r="AW23" s="77"/>
-      <c r="AX23" s="77"/>
-      <c r="AY23" s="77"/>
-      <c r="AZ23" s="77"/>
-      <c r="BA23" s="77"/>
-      <c r="BB23" s="77"/>
-      <c r="BC23" s="77"/>
-      <c r="BD23" s="78"/>
-      <c r="BE23" s="76"/>
-      <c r="BF23" s="77"/>
-      <c r="BG23" s="77"/>
-      <c r="BH23" s="77"/>
-      <c r="BI23" s="77"/>
-      <c r="BJ23" s="77"/>
-      <c r="BK23" s="77"/>
-      <c r="BL23" s="77"/>
-      <c r="BM23" s="77"/>
-      <c r="BN23" s="77"/>
-      <c r="BO23" s="77"/>
-      <c r="BP23" s="78"/>
-      <c r="BQ23" s="79"/>
-      <c r="BR23" s="80"/>
-      <c r="BS23" s="80"/>
-      <c r="BT23" s="80"/>
-      <c r="BU23" s="80"/>
-      <c r="BV23" s="80"/>
-      <c r="BW23" s="80"/>
-      <c r="BX23" s="80"/>
-      <c r="BY23" s="80"/>
-      <c r="BZ23" s="80"/>
-      <c r="CA23" s="80"/>
-      <c r="CB23" s="80"/>
-      <c r="CC23" s="80"/>
-      <c r="CD23" s="80"/>
-      <c r="CE23" s="80"/>
-      <c r="CF23" s="80"/>
-      <c r="CG23" s="80"/>
-      <c r="CH23" s="80"/>
-      <c r="CI23" s="81"/>
+    <row r="24" spans="2:87" ht="18" customHeight="1">
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="84"/>
+      <c r="AI24" s="85"/>
+      <c r="AJ24" s="86"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="87"/>
+      <c r="AS24" s="87"/>
+      <c r="AT24" s="88"/>
+      <c r="AU24" s="75"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="76"/>
+      <c r="AZ24" s="76"/>
+      <c r="BA24" s="76"/>
+      <c r="BB24" s="76"/>
+      <c r="BC24" s="76"/>
+      <c r="BD24" s="77"/>
+      <c r="BE24" s="75"/>
+      <c r="BF24" s="76"/>
+      <c r="BG24" s="76"/>
+      <c r="BH24" s="76"/>
+      <c r="BI24" s="76"/>
+      <c r="BJ24" s="76"/>
+      <c r="BK24" s="76"/>
+      <c r="BL24" s="76"/>
+      <c r="BM24" s="76"/>
+      <c r="BN24" s="76"/>
+      <c r="BO24" s="76"/>
+      <c r="BP24" s="77"/>
+      <c r="BQ24" s="89"/>
+      <c r="BR24" s="90"/>
+      <c r="BS24" s="90"/>
+      <c r="BT24" s="90"/>
+      <c r="BU24" s="90"/>
+      <c r="BV24" s="90"/>
+      <c r="BW24" s="90"/>
+      <c r="BX24" s="90"/>
+      <c r="BY24" s="90"/>
+      <c r="BZ24" s="90"/>
+      <c r="CA24" s="90"/>
+      <c r="CB24" s="90"/>
+      <c r="CC24" s="90"/>
+      <c r="CD24" s="90"/>
+      <c r="CE24" s="90"/>
+      <c r="CF24" s="90"/>
+      <c r="CG24" s="90"/>
+      <c r="CH24" s="90"/>
+      <c r="CI24" s="91"/>
     </row>
-    <row r="24" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="85"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="77"/>
-      <c r="AG24" s="78"/>
-      <c r="AH24" s="85"/>
-      <c r="AI24" s="86"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="76"/>
-      <c r="AL24" s="77"/>
-      <c r="AM24" s="77"/>
-      <c r="AN24" s="77"/>
-      <c r="AO24" s="77"/>
-      <c r="AP24" s="77"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="88"/>
-      <c r="AS24" s="88"/>
-      <c r="AT24" s="89"/>
-      <c r="AU24" s="76"/>
-      <c r="AV24" s="77"/>
-      <c r="AW24" s="77"/>
-      <c r="AX24" s="77"/>
-      <c r="AY24" s="77"/>
-      <c r="AZ24" s="77"/>
-      <c r="BA24" s="77"/>
-      <c r="BB24" s="77"/>
-      <c r="BC24" s="77"/>
-      <c r="BD24" s="78"/>
-      <c r="BE24" s="76"/>
-      <c r="BF24" s="77"/>
-      <c r="BG24" s="77"/>
-      <c r="BH24" s="77"/>
-      <c r="BI24" s="77"/>
-      <c r="BJ24" s="77"/>
-      <c r="BK24" s="77"/>
-      <c r="BL24" s="77"/>
-      <c r="BM24" s="77"/>
-      <c r="BN24" s="77"/>
-      <c r="BO24" s="77"/>
-      <c r="BP24" s="78"/>
-      <c r="BQ24" s="90"/>
-      <c r="BR24" s="91"/>
-      <c r="BS24" s="91"/>
-      <c r="BT24" s="91"/>
-      <c r="BU24" s="91"/>
-      <c r="BV24" s="91"/>
-      <c r="BW24" s="91"/>
-      <c r="BX24" s="91"/>
-      <c r="BY24" s="91"/>
-      <c r="BZ24" s="91"/>
-      <c r="CA24" s="91"/>
-      <c r="CB24" s="91"/>
-      <c r="CC24" s="91"/>
-      <c r="CD24" s="91"/>
-      <c r="CE24" s="91"/>
-      <c r="CF24" s="91"/>
-      <c r="CG24" s="91"/>
-      <c r="CH24" s="91"/>
-      <c r="CI24" s="92"/>
+    <row r="25" spans="2:87" ht="18" customHeight="1">
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="77"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="77"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="87"/>
+      <c r="AS25" s="87"/>
+      <c r="AT25" s="88"/>
+      <c r="AU25" s="75"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="76"/>
+      <c r="AZ25" s="76"/>
+      <c r="BA25" s="76"/>
+      <c r="BB25" s="76"/>
+      <c r="BC25" s="76"/>
+      <c r="BD25" s="77"/>
+      <c r="BE25" s="75"/>
+      <c r="BF25" s="76"/>
+      <c r="BG25" s="76"/>
+      <c r="BH25" s="76"/>
+      <c r="BI25" s="76"/>
+      <c r="BJ25" s="76"/>
+      <c r="BK25" s="76"/>
+      <c r="BL25" s="76"/>
+      <c r="BM25" s="76"/>
+      <c r="BN25" s="76"/>
+      <c r="BO25" s="76"/>
+      <c r="BP25" s="77"/>
+      <c r="BQ25" s="78"/>
+      <c r="BR25" s="79"/>
+      <c r="BS25" s="79"/>
+      <c r="BT25" s="79"/>
+      <c r="BU25" s="79"/>
+      <c r="BV25" s="79"/>
+      <c r="BW25" s="79"/>
+      <c r="BX25" s="79"/>
+      <c r="BY25" s="79"/>
+      <c r="BZ25" s="79"/>
+      <c r="CA25" s="79"/>
+      <c r="CB25" s="79"/>
+      <c r="CC25" s="79"/>
+      <c r="CD25" s="79"/>
+      <c r="CE25" s="79"/>
+      <c r="CF25" s="79"/>
+      <c r="CG25" s="79"/>
+      <c r="CH25" s="79"/>
+      <c r="CI25" s="80"/>
     </row>
-    <row r="25" spans="2:87" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="82"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="85"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="78"/>
-      <c r="AH25" s="76"/>
-      <c r="AI25" s="77"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="76"/>
-      <c r="AL25" s="77"/>
-      <c r="AM25" s="77"/>
-      <c r="AN25" s="77"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="88"/>
-      <c r="AS25" s="88"/>
-      <c r="AT25" s="89"/>
-      <c r="AU25" s="76"/>
-      <c r="AV25" s="77"/>
-      <c r="AW25" s="77"/>
-      <c r="AX25" s="77"/>
-      <c r="AY25" s="77"/>
-      <c r="AZ25" s="77"/>
-      <c r="BA25" s="77"/>
-      <c r="BB25" s="77"/>
-      <c r="BC25" s="77"/>
-      <c r="BD25" s="78"/>
-      <c r="BE25" s="76"/>
-      <c r="BF25" s="77"/>
-      <c r="BG25" s="77"/>
-      <c r="BH25" s="77"/>
-      <c r="BI25" s="77"/>
-      <c r="BJ25" s="77"/>
-      <c r="BK25" s="77"/>
-      <c r="BL25" s="77"/>
-      <c r="BM25" s="77"/>
-      <c r="BN25" s="77"/>
-      <c r="BO25" s="77"/>
-      <c r="BP25" s="78"/>
-      <c r="BQ25" s="79"/>
-      <c r="BR25" s="80"/>
-      <c r="BS25" s="80"/>
-      <c r="BT25" s="80"/>
-      <c r="BU25" s="80"/>
-      <c r="BV25" s="80"/>
-      <c r="BW25" s="80"/>
-      <c r="BX25" s="80"/>
-      <c r="BY25" s="80"/>
-      <c r="BZ25" s="80"/>
-      <c r="CA25" s="80"/>
-      <c r="CB25" s="80"/>
-      <c r="CC25" s="80"/>
-      <c r="CD25" s="80"/>
-      <c r="CE25" s="80"/>
-      <c r="CF25" s="80"/>
-      <c r="CG25" s="80"/>
-      <c r="CH25" s="80"/>
-      <c r="CI25" s="81"/>
-    </row>
-    <row r="26" spans="2:87" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="72"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="60"/>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="61"/>
-      <c r="AH26" s="71"/>
-      <c r="AI26" s="72"/>
-      <c r="AJ26" s="73"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="60"/>
-      <c r="AP26" s="60"/>
-      <c r="AQ26" s="60"/>
-      <c r="AR26" s="74"/>
-      <c r="AS26" s="74"/>
-      <c r="AT26" s="75"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="60"/>
-      <c r="AW26" s="60"/>
-      <c r="AX26" s="60"/>
-      <c r="AY26" s="60"/>
-      <c r="AZ26" s="60"/>
-      <c r="BA26" s="60"/>
-      <c r="BB26" s="60"/>
-      <c r="BC26" s="60"/>
-      <c r="BD26" s="61"/>
-      <c r="BE26" s="59"/>
-      <c r="BF26" s="60"/>
-      <c r="BG26" s="60"/>
-      <c r="BH26" s="60"/>
-      <c r="BI26" s="60"/>
-      <c r="BJ26" s="60"/>
-      <c r="BK26" s="60"/>
-      <c r="BL26" s="60"/>
-      <c r="BM26" s="60"/>
-      <c r="BN26" s="60"/>
-      <c r="BO26" s="60"/>
-      <c r="BP26" s="61"/>
-      <c r="BQ26" s="62"/>
-      <c r="BR26" s="63"/>
-      <c r="BS26" s="63"/>
-      <c r="BT26" s="63"/>
-      <c r="BU26" s="63"/>
-      <c r="BV26" s="63"/>
-      <c r="BW26" s="63"/>
-      <c r="BX26" s="63"/>
-      <c r="BY26" s="63"/>
-      <c r="BZ26" s="63"/>
-      <c r="CA26" s="63"/>
-      <c r="CB26" s="63"/>
-      <c r="CC26" s="63"/>
-      <c r="CD26" s="63"/>
-      <c r="CE26" s="63"/>
-      <c r="CF26" s="63"/>
-      <c r="CG26" s="63"/>
-      <c r="CH26" s="63"/>
-      <c r="CI26" s="64"/>
+    <row r="26" spans="2:87" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="58"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="73"/>
+      <c r="AS26" s="73"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="58"/>
+      <c r="AV26" s="59"/>
+      <c r="AW26" s="59"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="59"/>
+      <c r="AZ26" s="59"/>
+      <c r="BA26" s="59"/>
+      <c r="BB26" s="59"/>
+      <c r="BC26" s="59"/>
+      <c r="BD26" s="60"/>
+      <c r="BE26" s="58"/>
+      <c r="BF26" s="59"/>
+      <c r="BG26" s="59"/>
+      <c r="BH26" s="59"/>
+      <c r="BI26" s="59"/>
+      <c r="BJ26" s="59"/>
+      <c r="BK26" s="59"/>
+      <c r="BL26" s="59"/>
+      <c r="BM26" s="59"/>
+      <c r="BN26" s="59"/>
+      <c r="BO26" s="59"/>
+      <c r="BP26" s="60"/>
+      <c r="BQ26" s="61"/>
+      <c r="BR26" s="62"/>
+      <c r="BS26" s="62"/>
+      <c r="BT26" s="62"/>
+      <c r="BU26" s="62"/>
+      <c r="BV26" s="62"/>
+      <c r="BW26" s="62"/>
+      <c r="BX26" s="62"/>
+      <c r="BY26" s="62"/>
+      <c r="BZ26" s="62"/>
+      <c r="CA26" s="62"/>
+      <c r="CB26" s="62"/>
+      <c r="CC26" s="62"/>
+      <c r="CD26" s="62"/>
+      <c r="CE26" s="62"/>
+      <c r="CF26" s="62"/>
+      <c r="CG26" s="62"/>
+      <c r="CH26" s="62"/>
+      <c r="CI26" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="BE13:BP13"/>
-    <mergeCell ref="BQ13:CI13"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="E13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AG13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AK13:AT13"/>
-    <mergeCell ref="BQ7:CI7"/>
-    <mergeCell ref="AK7:AT7"/>
-    <mergeCell ref="AU8:BD8"/>
-    <mergeCell ref="BE8:BP8"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AK11:AT11"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="BQ8:CI8"/>
     <mergeCell ref="H1:V1"/>
     <mergeCell ref="W1:BK1"/>
     <mergeCell ref="BL1:BO1"/>
@@ -7158,9 +7069,16 @@
     <mergeCell ref="BX2:CA2"/>
     <mergeCell ref="CB2:CI2"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="Y5:AR5"/>
     <mergeCell ref="E4:X4"/>
     <mergeCell ref="Y4:AR4"/>
     <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AB9:AG9"/>
     <mergeCell ref="AH9:AJ9"/>
     <mergeCell ref="AK9:AT9"/>
@@ -7175,7 +7093,19 @@
     <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="AK8:AT8"/>
     <mergeCell ref="AU7:BP7"/>
-    <mergeCell ref="BQ8:CI8"/>
+    <mergeCell ref="BQ7:CI7"/>
+    <mergeCell ref="AK7:AT7"/>
+    <mergeCell ref="AU8:BD8"/>
+    <mergeCell ref="BE8:BP8"/>
+    <mergeCell ref="AU11:BD11"/>
+    <mergeCell ref="BE11:BP11"/>
+    <mergeCell ref="BQ11:CI11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AK11:AT11"/>
     <mergeCell ref="AU10:BD10"/>
     <mergeCell ref="BE10:BP10"/>
     <mergeCell ref="BQ10:CI10"/>
@@ -7185,11 +7115,24 @@
     <mergeCell ref="AB10:AG10"/>
     <mergeCell ref="AH10:AJ10"/>
     <mergeCell ref="AK10:AT10"/>
-    <mergeCell ref="AU11:BD11"/>
-    <mergeCell ref="BE11:BP11"/>
-    <mergeCell ref="BQ11:CI11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:X11"/>
+    <mergeCell ref="BE12:BP12"/>
+    <mergeCell ref="BQ12:CI12"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AK12:AT12"/>
+    <mergeCell ref="AU13:BD13"/>
+    <mergeCell ref="BE13:BP13"/>
+    <mergeCell ref="BQ13:CI13"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:AG13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AK13:AT13"/>
+    <mergeCell ref="AU12:BD12"/>
     <mergeCell ref="AU14:BD14"/>
     <mergeCell ref="BE14:BP14"/>
     <mergeCell ref="BQ14:CI14"/>
@@ -7199,16 +7142,6 @@
     <mergeCell ref="AB14:AG14"/>
     <mergeCell ref="AH14:AJ14"/>
     <mergeCell ref="AK14:AT14"/>
-    <mergeCell ref="BE12:BP12"/>
-    <mergeCell ref="BQ12:CI12"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AK12:AT12"/>
-    <mergeCell ref="AU12:BD12"/>
-    <mergeCell ref="AU13:BD13"/>
     <mergeCell ref="AU15:BD15"/>
     <mergeCell ref="BE15:BP15"/>
     <mergeCell ref="BQ15:CI15"/>
